--- a/Formelsammlung/LW-Formelsammlung.xlsx
+++ b/Formelsammlung/LW-Formelsammlung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arinbj1\Desktop\LW_T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanitas\Desktop\Last War\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01F0BF-6516-4070-B9D1-05ECBDA0AB65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61810CF-275A-4A07-9EBF-8DD242B50CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konstruktion" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="150">
   <si>
     <t>Gebäudetyp</t>
   </si>
@@ -488,6 +489,18 @@
   <si>
     <t>- Fehler bei der Ressourcenverteilung bei der Forschung Verbrennungstechnik korrigiert
 - Notwendige Lagergrößen für die Gebäude und Forschungen ergänzt</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>- Fehler bei den Kosten für die Forschungen Plasmaforschung und Raketenforschung gefixt</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>- Fehler bei der Forschungszeit im Bereich Plasmaforschung gefixt</t>
   </si>
 </sst>
 </file>
@@ -2578,147 +2591,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2735,15 +2607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="95" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2756,6 +2619,39 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,20 +2661,137 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="95" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3693,27 +3706,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9535A934-649E-4A5D-A053-4DA8ED37D262}">
   <dimension ref="B2:X47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="297" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="21" width="3.33203125" style="41" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="6.6640625" style="41" customWidth="1"/>
-    <col min="23" max="23" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="247" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="21" width="3.28515625" style="41" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.7109375" style="41" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V2" s="65"/>
     </row>
-    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -3747,24 +3760,24 @@
       <c r="N3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="298"/>
-      <c r="P3" s="241" t="s">
+      <c r="O3" s="248"/>
+      <c r="P3" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="243"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="258"/>
       <c r="V3" s="66"/>
       <c r="W3" s="219" t="s">
         <v>38</v>
       </c>
       <c r="X3" s="195">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3778,17 +3791,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="286"/>
-      <c r="S4" s="286"/>
-      <c r="T4" s="286"/>
-      <c r="U4" s="287"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="261"/>
       <c r="V4" s="65"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -3816,38 +3829,38 @@
       <c r="J5" s="3"/>
       <c r="K5" s="5">
         <f>(IF(N5&lt;21,(((3750*N5*N5)-(11250*N5))+15000)/((X3*3)*(21-N5))/86400,(((3750*N5*N5)-(11250*N5)+15000)/X3)/86400))*X8</f>
-        <v>1.4467592592592592E-4</v>
+        <v>1.4467592592592592E-3</v>
       </c>
       <c r="L5" s="19">
         <f>K5*(MAX(N5/$X$5,1.5))</f>
-        <v>2.1701388888888888E-4</v>
+        <v>2.170138888888889E-3</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="25">
         <v>1</v>
       </c>
-      <c r="O5" s="300"/>
-      <c r="P5" s="288">
+      <c r="O5" s="250"/>
+      <c r="P5" s="241">
         <f>IF(ISNA(VLOOKUP(D5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="289">
+      <c r="Q5" s="242">
         <f>IF(ISNA(VLOOKUP(E5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="289">
+      <c r="R5" s="242">
         <f>IF(ISNA(VLOOKUP(F5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="289">
+      <c r="S5" s="242">
         <f>IF(ISNA(VLOOKUP(G5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="289">
+      <c r="T5" s="242">
         <f>IF(ISNA(VLOOKUP(H5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="290">
+      <c r="U5" s="243">
         <f>IF(ISNA(VLOOKUP(I5,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I5,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
@@ -3859,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -3897,35 +3910,35 @@
       <c r="N6" s="25">
         <v>1</v>
       </c>
-      <c r="O6" s="300"/>
-      <c r="P6" s="288">
+      <c r="O6" s="250"/>
+      <c r="P6" s="241">
         <f>IF(ISNA(VLOOKUP(D6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="289">
+      <c r="Q6" s="242">
         <f>IF(ISNA(VLOOKUP(E6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="289">
+      <c r="R6" s="242">
         <f>IF(ISNA(VLOOKUP(F6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="289">
+      <c r="S6" s="242">
         <f>IF(ISNA(VLOOKUP(G6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="289">
+      <c r="T6" s="242">
         <f>IF(ISNA(VLOOKUP(H6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="290">
+      <c r="U6" s="243">
         <f>IF(ISNA(VLOOKUP(I6,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I6,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V6" s="60"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -3954,38 +3967,38 @@
       <c r="J7" s="3"/>
       <c r="K7" s="5">
         <f>(((100/9)*(0.5*N7*N7-0.5*N7+1)/(X3*10))*3600/86400)*X8</f>
-        <v>4.6296296296296294E-3</v>
+        <v>4.6296296296296294E-2</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="25">
         <v>1</v>
       </c>
-      <c r="O7" s="300"/>
-      <c r="P7" s="288">
+      <c r="O7" s="250"/>
+      <c r="P7" s="241">
         <f>IF(ISNA(VLOOKUP(D7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="289">
+      <c r="Q7" s="242">
         <f>IF(ISNA(VLOOKUP(E7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="289">
+      <c r="R7" s="242">
         <f>IF(ISNA(VLOOKUP(F7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="289">
+      <c r="S7" s="242">
         <f>IF(ISNA(VLOOKUP(G7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="289">
+      <c r="T7" s="242">
         <f>IF(ISNA(VLOOKUP(H7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="290">
+      <c r="U7" s="243">
         <f>IF(ISNA(VLOOKUP(I7,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I7,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
@@ -3997,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -4025,38 +4038,38 @@
       <c r="J8" s="3"/>
       <c r="K8" s="5">
         <f>(((100/9)*(0.5*N8*N8-0.5*N8+1)/(X3*22))*3600/86400)*X8</f>
-        <v>2.1043771043771043E-3</v>
+        <v>2.1043771043771045E-2</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>3.1565656565656565E-3</v>
+        <v>3.1565656565656568E-2</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="25">
         <v>1</v>
       </c>
-      <c r="O8" s="300"/>
-      <c r="P8" s="288">
+      <c r="O8" s="250"/>
+      <c r="P8" s="241">
         <f>IF(ISNA(VLOOKUP(D8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="289">
+      <c r="Q8" s="242">
         <f>IF(ISNA(VLOOKUP(E8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="289">
+      <c r="R8" s="242">
         <f>IF(ISNA(VLOOKUP(F8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="289">
+      <c r="S8" s="242">
         <f>IF(ISNA(VLOOKUP(G8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="289">
+      <c r="T8" s="242">
         <f>IF(ISNA(VLOOKUP(H8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="290">
+      <c r="U8" s="243">
         <f>IF(ISNA(VLOOKUP(I8,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I8,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
@@ -4083,16 +4096,16 @@
       <c r="L9" s="20"/>
       <c r="M9" s="6"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="300"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="302"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="303"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="263"/>
+      <c r="R9" s="263"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="264"/>
       <c r="V9" s="60"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -4121,44 +4134,44 @@
       <c r="J10" s="3"/>
       <c r="K10" s="5">
         <f>(IF(N10&lt;21,(((100/9)*(0.5*N10*N10-0.5*N10+1))/(X3*75*(21-N10)))*3600/86400,(((100/9)*(0.5*N10*N10-0.5*N10+1))/(X3*35))*3600/86400))*X8</f>
-        <v>3.0864197530864198E-5</v>
+        <v>3.0864197530864197E-4</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" ref="L10:L15" si="1">K10*(MAX(N10/$X$5,1.5))</f>
-        <v>4.6296296296296301E-5</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="25">
         <v>1</v>
       </c>
-      <c r="O10" s="300"/>
-      <c r="P10" s="288">
+      <c r="O10" s="250"/>
+      <c r="P10" s="241">
         <f>IF(ISNA(VLOOKUP(D10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="289">
+      <c r="Q10" s="242">
         <f>IF(ISNA(VLOOKUP(E10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="289">
+      <c r="R10" s="242">
         <f>IF(ISNA(VLOOKUP(F10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="289">
+      <c r="S10" s="242">
         <f>IF(ISNA(VLOOKUP(G10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="289">
+      <c r="T10" s="242">
         <f>IF(ISNA(VLOOKUP(H10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="290">
+      <c r="U10" s="243">
         <f>IF(ISNA(VLOOKUP(I10,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I10,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
@@ -4186,44 +4199,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5">
         <f>(IF(N11&lt;21,(((100/9)*(0.5*N11*N11-0.5*N11+1))/(X3*70*(21-N11)))*3600/86400,(((100/9)*(0.5*N11*N11-0.5*N11+1))/(X3*30))*3600/86400))*X8</f>
-        <v>3.3068783068783071E-5</v>
+        <v>3.3068783068783067E-4</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="1"/>
-        <v>4.9603174603174603E-5</v>
+        <v>4.96031746031746E-4</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="O11" s="300"/>
-      <c r="P11" s="288">
+      <c r="O11" s="250"/>
+      <c r="P11" s="241">
         <f>IF(ISNA(VLOOKUP(D11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="289">
+      <c r="Q11" s="242">
         <f>IF(ISNA(VLOOKUP(E11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="289">
+      <c r="R11" s="242">
         <f>IF(ISNA(VLOOKUP(F11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="289">
+      <c r="S11" s="242">
         <f>IF(ISNA(VLOOKUP(G11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="289">
+      <c r="T11" s="242">
         <f>IF(ISNA(VLOOKUP(H11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="290">
+      <c r="U11" s="243">
         <f>IF(ISNA(VLOOKUP(I11,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I11,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V11" s="60"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
@@ -4251,45 +4264,45 @@
       <c r="J12" s="3"/>
       <c r="K12" s="5">
         <f>(IF(N12&lt;21,(((100/9)*(0.5*N12*N12-0.5*N12+1))/(X3*70*(21-N12)))*3600/86400,(((100/9)*(0.5*N12*N12-0.5*N12+1))/(X3*27))*3600/86400))*X8</f>
-        <v>3.3068783068783071E-5</v>
+        <v>3.3068783068783067E-4</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>4.9603174603174603E-5</v>
+        <v>4.96031746031746E-4</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="25">
         <v>1</v>
       </c>
-      <c r="O12" s="300"/>
-      <c r="P12" s="288">
+      <c r="O12" s="250"/>
+      <c r="P12" s="241">
         <f>IF(ISNA(VLOOKUP(D12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="289">
+      <c r="Q12" s="242">
         <f>IF(ISNA(VLOOKUP(E12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="289">
+      <c r="R12" s="242">
         <f>IF(ISNA(VLOOKUP(F12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="289">
+      <c r="S12" s="242">
         <f>IF(ISNA(VLOOKUP(G12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="289">
+      <c r="T12" s="242">
         <f>IF(ISNA(VLOOKUP(H12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="290">
+      <c r="U12" s="243">
         <f>IF(ISNA(VLOOKUP(I12,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I12,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V12" s="60"/>
       <c r="W12" s="27"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -4317,44 +4330,44 @@
       <c r="J13" s="3"/>
       <c r="K13" s="5">
         <f>(IF(N13&lt;21,(((100/9)*(0.5*N13*N13-0.5*N13+1))/(X3*65*(21-N13)))*3600/86400,(((100/9)*(0.5*N13*N13-0.5*N13+1))/(X3*25))*3600/86400))*X8</f>
-        <v>3.5612535612535617E-5</v>
+        <v>3.5612535612535609E-4</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="1"/>
-        <v>5.3418803418803426E-5</v>
+        <v>5.3418803418803413E-4</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="25">
         <v>1</v>
       </c>
-      <c r="O13" s="300"/>
-      <c r="P13" s="288">
+      <c r="O13" s="250"/>
+      <c r="P13" s="241">
         <f>IF(ISNA(VLOOKUP(D13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="289">
+      <c r="Q13" s="242">
         <f>IF(ISNA(VLOOKUP(E13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="289">
+      <c r="R13" s="242">
         <f>IF(ISNA(VLOOKUP(F13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="289">
+      <c r="S13" s="242">
         <f>IF(ISNA(VLOOKUP(G13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="289">
+      <c r="T13" s="242">
         <f>IF(ISNA(VLOOKUP(H13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H13,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="290">
+      <c r="U13" s="243">
         <f>IF(ISNA(VLOOKUP(I13,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I13,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V13" s="60"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
@@ -4383,44 +4396,44 @@
       <c r="J14" s="3"/>
       <c r="K14" s="5">
         <f>(IF(N14&lt;21,(((100/9)*(0.5*N14*N14-0.5*N14+1))/(X3*50*(21-N14)))*3600/86400,(((100/9)*(0.5*N14*N14-0.5*N14+1))/(X3*22))*3600/86400))*X8</f>
-        <v>4.6296296296296294E-5</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="1"/>
-        <v>6.9444444444444444E-5</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="25">
         <v>1</v>
       </c>
-      <c r="O14" s="300"/>
-      <c r="P14" s="288">
+      <c r="O14" s="250"/>
+      <c r="P14" s="241">
         <f>IF(ISNA(VLOOKUP(D14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="289">
+      <c r="Q14" s="242">
         <f>IF(ISNA(VLOOKUP(E14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="289">
+      <c r="R14" s="242">
         <f>IF(ISNA(VLOOKUP(F14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="289">
+      <c r="S14" s="242">
         <f>IF(ISNA(VLOOKUP(G14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="289">
+      <c r="T14" s="242">
         <f>IF(ISNA(VLOOKUP(H14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="290">
+      <c r="U14" s="243">
         <f>IF(ISNA(VLOOKUP(I14,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I14,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V14" s="60"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
@@ -4449,38 +4462,38 @@
       <c r="J15" s="3"/>
       <c r="K15" s="5">
         <f>(IF(N15&lt;21,(((100/9)*(0.5*N15*N15-0.5*N15+1))/(X3*45*(21-N15)))*3600/86400,(((100/9)*(0.5*N15*N15-0.5*N15+1))/(X3*20))*3600/86400))*X8</f>
-        <v>5.1440329218106995E-5</v>
+        <v>5.1440329218106989E-4</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="1"/>
-        <v>7.7160493827160492E-5</v>
+        <v>7.716049382716049E-4</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="25">
         <v>1</v>
       </c>
-      <c r="O15" s="300"/>
-      <c r="P15" s="288">
+      <c r="O15" s="250"/>
+      <c r="P15" s="241">
         <f>IF(ISNA(VLOOKUP(D15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="289">
+      <c r="Q15" s="242">
         <f>IF(ISNA(VLOOKUP(E15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="289">
+      <c r="R15" s="242">
         <f>IF(ISNA(VLOOKUP(F15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="289">
+      <c r="S15" s="242">
         <f>IF(ISNA(VLOOKUP(G15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="289">
+      <c r="T15" s="242">
         <f>IF(ISNA(VLOOKUP(H15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="290">
+      <c r="U15" s="243">
         <f>IF(ISNA(VLOOKUP(I15,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I15,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
@@ -4488,7 +4501,7 @@
       <c r="W15" s="28"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="3"/>
       <c r="D16" s="15"/>
@@ -4502,16 +4515,16 @@
       <c r="L16" s="20"/>
       <c r="M16" s="6"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="302"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="302"/>
-      <c r="T16" s="302"/>
-      <c r="U16" s="303"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="262"/>
+      <c r="Q16" s="263"/>
+      <c r="R16" s="263"/>
+      <c r="S16" s="263"/>
+      <c r="T16" s="263"/>
+      <c r="U16" s="264"/>
       <c r="V16" s="60"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
@@ -4540,44 +4553,44 @@
       <c r="J17" s="3"/>
       <c r="K17" s="5">
         <f>((((100/9)*(0.5*N17*N17-0.5*N17+1))/(X3*80)*3600)/86400)*X8</f>
-        <v>5.7870370370370367E-4</v>
+        <v>5.7870370370370367E-3</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" ref="L17:L22" si="2">K17*(MAX(N17/$X$5,1.5))</f>
-        <v>8.6805555555555551E-4</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="25">
         <v>1</v>
       </c>
-      <c r="O17" s="300"/>
-      <c r="P17" s="288">
+      <c r="O17" s="250"/>
+      <c r="P17" s="241">
         <f>IF(ISNA(VLOOKUP(D17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="289">
+      <c r="Q17" s="242">
         <f>IF(ISNA(VLOOKUP(E17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="289">
+      <c r="R17" s="242">
         <f>IF(ISNA(VLOOKUP(F17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="289">
+      <c r="S17" s="242">
         <f>IF(ISNA(VLOOKUP(G17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="289">
+      <c r="T17" s="242">
         <f>IF(ISNA(VLOOKUP(H17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="290">
+      <c r="U17" s="243">
         <f>IF(ISNA(VLOOKUP(I17,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I17,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V17" s="60"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
@@ -4607,44 +4620,44 @@
       <c r="J18" s="3"/>
       <c r="K18" s="5">
         <f>((((100/9)*(0.5*N18*N18-0.5*N18+1))/(X3*78)*3600)/86400)*X8</f>
-        <v>5.9354226020892685E-4</v>
+        <v>5.9354226020892683E-3</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="2"/>
-        <v>8.9031339031339033E-4</v>
+        <v>8.9031339031339016E-3</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="25">
         <v>1</v>
       </c>
-      <c r="O18" s="300"/>
-      <c r="P18" s="288">
+      <c r="O18" s="250"/>
+      <c r="P18" s="241">
         <f>IF(ISNA(VLOOKUP(D18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="289">
+      <c r="Q18" s="242">
         <f>IF(ISNA(VLOOKUP(E18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="289">
+      <c r="R18" s="242">
         <f>IF(ISNA(VLOOKUP(F18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="289">
+      <c r="S18" s="242">
         <f>IF(ISNA(VLOOKUP(G18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="289">
+      <c r="T18" s="242">
         <f>IF(ISNA(VLOOKUP(H18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="290">
+      <c r="U18" s="243">
         <f>IF(ISNA(VLOOKUP(I18,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I18,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V18" s="60"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
@@ -4672,44 +4685,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="5">
         <f>((((100/9)*(0.5*N19*N19-0.5*N19+1))/(X3*76)*3600)/86400)*X8</f>
-        <v>6.0916179337231965E-4</v>
+        <v>6.0916179337231965E-3</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="2"/>
-        <v>9.1374269005847948E-4</v>
+        <v>9.1374269005847948E-3</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="25">
         <v>1</v>
       </c>
-      <c r="O19" s="300"/>
-      <c r="P19" s="288">
+      <c r="O19" s="250"/>
+      <c r="P19" s="241">
         <f>IF(ISNA(VLOOKUP(D19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="289">
+      <c r="Q19" s="242">
         <f>IF(ISNA(VLOOKUP(E19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="289">
+      <c r="R19" s="242">
         <f>IF(ISNA(VLOOKUP(F19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="289">
+      <c r="S19" s="242">
         <f>IF(ISNA(VLOOKUP(G19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="289">
+      <c r="T19" s="242">
         <f>IF(ISNA(VLOOKUP(H19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="290">
+      <c r="U19" s="243">
         <f>IF(ISNA(VLOOKUP(I19,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I19,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V19" s="60"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4737,44 +4750,44 @@
       <c r="J20" s="3"/>
       <c r="K20" s="5">
         <f>((((100/9)*(0.5*N20*N20-0.5*N20+1))/(X3*74)*3600)/86400)*X8</f>
-        <v>6.2562562562562562E-4</v>
+        <v>6.2562562562562558E-3</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="2"/>
-        <v>9.3843843843843843E-4</v>
+        <v>9.3843843843843845E-3</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="25">
         <v>1</v>
       </c>
-      <c r="O20" s="300"/>
-      <c r="P20" s="288">
+      <c r="O20" s="250"/>
+      <c r="P20" s="241">
         <f>IF(ISNA(VLOOKUP(D20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="289">
+      <c r="Q20" s="242">
         <f>IF(ISNA(VLOOKUP(E20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="289">
+      <c r="R20" s="242">
         <f>IF(ISNA(VLOOKUP(F20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="289">
+      <c r="S20" s="242">
         <f>IF(ISNA(VLOOKUP(G20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="289">
+      <c r="T20" s="242">
         <f>IF(ISNA(VLOOKUP(H20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U20" s="290">
+      <c r="U20" s="243">
         <f>IF(ISNA(VLOOKUP(I20,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I20,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V20" s="60"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4802,44 +4815,44 @@
       <c r="J21" s="3"/>
       <c r="K21" s="5">
         <f>((((100/9)*(0.5*N21*N21-0.5*N21+1))/(X3*72)*3600)/86400)*X8</f>
-        <v>6.4300411522633734E-4</v>
+        <v>6.4300411522633747E-3</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="2"/>
-        <v>9.6450617283950601E-4</v>
+        <v>9.6450617283950629E-3</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="25">
         <v>1</v>
       </c>
-      <c r="O21" s="300"/>
-      <c r="P21" s="288">
+      <c r="O21" s="250"/>
+      <c r="P21" s="241">
         <f>IF(ISNA(VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="289">
+      <c r="Q21" s="242">
         <f>IF(ISNA(VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="289">
+      <c r="R21" s="242">
         <f>IF(ISNA(VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="289">
+      <c r="S21" s="242">
         <f>IF(ISNA(VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="289">
+      <c r="T21" s="242">
         <f>IF(ISNA(VLOOKUP(H21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U21" s="290">
+      <c r="U21" s="243">
         <f>IF(ISNA(VLOOKUP(I21,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I21,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4868,44 +4881,44 @@
       <c r="J22" s="3"/>
       <c r="K22" s="5">
         <f>((((100/9)*(0.5*N22*N22-0.5*N22+1))/(X3*50)*3600)/86400)*X8</f>
-        <v>9.2592592592592596E-4</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="2"/>
-        <v>1.3888888888888889E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="25">
         <v>1</v>
       </c>
-      <c r="O22" s="300"/>
-      <c r="P22" s="288">
+      <c r="O22" s="250"/>
+      <c r="P22" s="241">
         <f>IF(ISNA(VLOOKUP(D22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="289">
+      <c r="Q22" s="242">
         <f>IF(ISNA(VLOOKUP(E22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="289">
+      <c r="R22" s="242">
         <f>IF(ISNA(VLOOKUP(F22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="289">
+      <c r="S22" s="242">
         <f>IF(ISNA(VLOOKUP(G22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="289">
+      <c r="T22" s="242">
         <f>IF(ISNA(VLOOKUP(H22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U22" s="290">
+      <c r="U22" s="243">
         <f>IF(ISNA(VLOOKUP(I22,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I22,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V22" s="60"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
       <c r="D23" s="15"/>
@@ -4919,16 +4932,16 @@
       <c r="L23" s="20"/>
       <c r="M23" s="6"/>
       <c r="N23" s="24"/>
-      <c r="O23" s="300"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="302"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="303"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="263"/>
+      <c r="R23" s="263"/>
+      <c r="S23" s="263"/>
+      <c r="T23" s="263"/>
+      <c r="U23" s="264"/>
       <c r="V23" s="60"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
@@ -4956,44 +4969,44 @@
       <c r="J24" s="3"/>
       <c r="K24" s="5">
         <f>(((((100/9)*(0.5*N24*N24-0.5*N24+1))/(X3*5))*3600) / 4 / 86400)*X8</f>
-        <v>2.3148148148148147E-3</v>
+        <v>2.3148148148148147E-2</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" ref="L24:L25" si="3">K24*(MAX(N24/$X$5,1.5))</f>
-        <v>3.472222222222222E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="25">
         <v>1</v>
       </c>
-      <c r="O24" s="300"/>
-      <c r="P24" s="288">
+      <c r="O24" s="250"/>
+      <c r="P24" s="241">
         <f>IF(ISNA(VLOOKUP(D24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="289">
+      <c r="Q24" s="242">
         <f>IF(ISNA(VLOOKUP(E24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="289">
+      <c r="R24" s="242">
         <f>IF(ISNA(VLOOKUP(F24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="289">
+      <c r="S24" s="242">
         <f>IF(ISNA(VLOOKUP(G24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="289">
+      <c r="T24" s="242">
         <f>IF(ISNA(VLOOKUP(H24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="290">
+      <c r="U24" s="243">
         <f>IF(ISNA(VLOOKUP(I24,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I24,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V24" s="60"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
@@ -5022,44 +5035,44 @@
       <c r="J25" s="3"/>
       <c r="K25" s="5">
         <f>((((100/9)*(0.5*N25*N25-0.5*N25+1))/(X3*3))*3600/86400)*X8</f>
-        <v>1.5432098765432098E-2</v>
+        <v>0.15432098765432101</v>
       </c>
       <c r="L25" s="19">
         <f t="shared" si="3"/>
-        <v>2.3148148148148147E-2</v>
+        <v>0.23148148148148151</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="25">
         <v>1</v>
       </c>
-      <c r="O25" s="300"/>
-      <c r="P25" s="288">
+      <c r="O25" s="250"/>
+      <c r="P25" s="241">
         <f>IF(ISNA(VLOOKUP(D25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="289">
+      <c r="Q25" s="242">
         <f>IF(ISNA(VLOOKUP(E25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>4</v>
       </c>
-      <c r="R25" s="289">
+      <c r="R25" s="242">
         <f>IF(ISNA(VLOOKUP(F25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="S25" s="289">
+      <c r="S25" s="242">
         <f>IF(ISNA(VLOOKUP(G25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="289">
+      <c r="T25" s="242">
         <f>IF(ISNA(VLOOKUP(H25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="290">
+      <c r="U25" s="243">
         <f>IF(ISNA(VLOOKUP(I25,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I25,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V25" s="60"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="3"/>
       <c r="D26" s="15"/>
@@ -5073,16 +5086,16 @@
       <c r="L26" s="20"/>
       <c r="M26" s="6"/>
       <c r="N26" s="24"/>
-      <c r="O26" s="300"/>
-      <c r="P26" s="301"/>
-      <c r="Q26" s="302"/>
-      <c r="R26" s="302"/>
-      <c r="S26" s="302"/>
-      <c r="T26" s="302"/>
-      <c r="U26" s="303"/>
+      <c r="O26" s="250"/>
+      <c r="P26" s="262"/>
+      <c r="Q26" s="263"/>
+      <c r="R26" s="263"/>
+      <c r="S26" s="263"/>
+      <c r="T26" s="263"/>
+      <c r="U26" s="264"/>
       <c r="V26" s="60"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>27</v>
       </c>
@@ -5111,44 +5124,44 @@
       <c r="J27" s="3"/>
       <c r="K27" s="5">
         <f>((((100/9)*(0.5*N27*N27-0.5*N27+1))/(X3*15))*3600/86400)*X8</f>
-        <v>3.0864197530864191E-3</v>
+        <v>3.0864197530864196E-2</v>
       </c>
       <c r="L27" s="19">
         <f t="shared" ref="L27:L32" si="4">K27*(MAX(N27/$X$5,1.5))</f>
-        <v>4.6296296296296285E-3</v>
+        <v>4.6296296296296294E-2</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="25">
         <v>1</v>
       </c>
-      <c r="O27" s="300"/>
-      <c r="P27" s="288">
+      <c r="O27" s="250"/>
+      <c r="P27" s="241">
         <f>IF(ISNA(VLOOKUP(D27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="289">
+      <c r="Q27" s="242">
         <f>IF(ISNA(VLOOKUP(E27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="289">
+      <c r="R27" s="242">
         <f>IF(ISNA(VLOOKUP(F27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="289">
+      <c r="S27" s="242">
         <f>IF(ISNA(VLOOKUP(G27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="289">
+      <c r="T27" s="242">
         <f>IF(ISNA(VLOOKUP(H27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="290">
+      <c r="U27" s="243">
         <f>IF(ISNA(VLOOKUP(I27,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I27,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V27" s="60"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
@@ -5177,44 +5190,44 @@
       <c r="J28" s="3"/>
       <c r="K28" s="5">
         <f>((((100/9)*(0.5*N28*N28-0.5*N28+1))/(X3*28))*3600/86400)*X8</f>
-        <v>1.6534391534391536E-3</v>
+        <v>1.6534391534391533E-2</v>
       </c>
       <c r="L28" s="19">
         <f t="shared" si="4"/>
-        <v>2.4801587301587305E-3</v>
+        <v>2.48015873015873E-2</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="25">
         <v>1</v>
       </c>
-      <c r="O28" s="300"/>
-      <c r="P28" s="288">
+      <c r="O28" s="250"/>
+      <c r="P28" s="241">
         <f>IF(ISNA(VLOOKUP(D28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="289">
+      <c r="Q28" s="242">
         <f>IF(ISNA(VLOOKUP(E28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="289">
+      <c r="R28" s="242">
         <f>IF(ISNA(VLOOKUP(F28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="289">
+      <c r="S28" s="242">
         <f>IF(ISNA(VLOOKUP(G28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="289">
+      <c r="T28" s="242">
         <f>IF(ISNA(VLOOKUP(H28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="290">
+      <c r="U28" s="243">
         <f>IF(ISNA(VLOOKUP(I28,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I28,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V28" s="60"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
@@ -5242,44 +5255,44 @@
       <c r="J29" s="3"/>
       <c r="K29" s="5">
         <f>((((100/9)*(0.5*N29*N29-0.5*N29+1))/(X3*40))*3600/86400)*X8</f>
-        <v>1.1574074074074073E-3</v>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="L29" s="19">
         <f t="shared" si="4"/>
-        <v>1.736111111111111E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="25">
         <v>1</v>
       </c>
-      <c r="O29" s="300"/>
-      <c r="P29" s="288">
+      <c r="O29" s="250"/>
+      <c r="P29" s="241">
         <f>IF(ISNA(VLOOKUP(D29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="289">
+      <c r="Q29" s="242">
         <f>IF(ISNA(VLOOKUP(E29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="289">
+      <c r="R29" s="242">
         <f>IF(ISNA(VLOOKUP(F29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="289">
+      <c r="S29" s="242">
         <f>IF(ISNA(VLOOKUP(G29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="289">
+      <c r="T29" s="242">
         <f>IF(ISNA(VLOOKUP(H29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U29" s="290">
+      <c r="U29" s="243">
         <f>IF(ISNA(VLOOKUP(I29,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I29,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V29" s="60"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
@@ -5308,44 +5321,44 @@
       <c r="J30" s="3"/>
       <c r="K30" s="5">
         <f>((((100/9)*(0.5*N30*N30-0.5*N30+1))/(X3*45))*3600/86400)*X8</f>
-        <v>1.0288065843621398E-3</v>
+        <v>1.0288065843621397E-2</v>
       </c>
       <c r="L30" s="19">
         <f t="shared" si="4"/>
-        <v>1.5432098765432098E-3</v>
+        <v>1.5432098765432096E-2</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="25">
         <v>1</v>
       </c>
-      <c r="O30" s="300"/>
-      <c r="P30" s="288">
+      <c r="O30" s="250"/>
+      <c r="P30" s="241">
         <f>IF(ISNA(VLOOKUP(D30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="289">
+      <c r="Q30" s="242">
         <f>IF(ISNA(VLOOKUP(E30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="289">
+      <c r="R30" s="242">
         <f>IF(ISNA(VLOOKUP(F30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="289">
+      <c r="S30" s="242">
         <f>IF(ISNA(VLOOKUP(G30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="289">
+      <c r="T30" s="242">
         <f>IF(ISNA(VLOOKUP(H30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="290">
+      <c r="U30" s="243">
         <f>IF(ISNA(VLOOKUP(I30,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I30,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V30" s="60"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>44</v>
       </c>
@@ -5375,44 +5388,44 @@
       <c r="J31" s="3"/>
       <c r="K31" s="5">
         <f>((((100/9)*(0.5*N31*N31-0.5*N31+1))/(X3*18))*3600/86400)*X8</f>
-        <v>2.5720164609053494E-3</v>
+        <v>2.5720164609053499E-2</v>
       </c>
       <c r="L31" s="19">
         <f t="shared" si="4"/>
-        <v>3.858024691358024E-3</v>
+        <v>3.8580246913580252E-2</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="25">
         <v>1</v>
       </c>
-      <c r="O31" s="300"/>
-      <c r="P31" s="288">
+      <c r="O31" s="250"/>
+      <c r="P31" s="241">
         <f>IF(ISNA(VLOOKUP(D31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="289">
+      <c r="Q31" s="242">
         <f>IF(ISNA(VLOOKUP(E31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="R31" s="289">
+      <c r="R31" s="242">
         <f>IF(ISNA(VLOOKUP(F31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="S31" s="289">
+      <c r="S31" s="242">
         <f>IF(ISNA(VLOOKUP(G31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="289">
+      <c r="T31" s="242">
         <f>IF(ISNA(VLOOKUP(H31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H31,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U31" s="290">
+      <c r="U31" s="243">
         <f>IF(ISNA(VLOOKUP(I31,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I31,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V31" s="60"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>43</v>
       </c>
@@ -5443,44 +5456,44 @@
       <c r="J32" s="3"/>
       <c r="K32" s="5">
         <f>((((100/9)*(0.5*N32*N32-0.5*N32+1))/(X3*7))*3600/86400)*X8</f>
-        <v>6.6137566137566143E-3</v>
+        <v>6.6137566137566134E-2</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="4"/>
-        <v>9.9206349206349218E-3</v>
+        <v>9.9206349206349201E-2</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="25">
         <v>1</v>
       </c>
-      <c r="O32" s="300"/>
-      <c r="P32" s="288">
+      <c r="O32" s="250"/>
+      <c r="P32" s="241">
         <f>IF(ISNA(VLOOKUP(D32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="Q32" s="289">
+      <c r="Q32" s="242">
         <f>IF(ISNA(VLOOKUP(E32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="289">
+      <c r="R32" s="242">
         <f>IF(ISNA(VLOOKUP(F32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="289">
+      <c r="S32" s="242">
         <f>IF(ISNA(VLOOKUP(G32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="289">
+      <c r="T32" s="242">
         <f>IF(ISNA(VLOOKUP(H32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="U32" s="290">
+      <c r="U32" s="243">
         <f>IF(ISNA(VLOOKUP(I32,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I32,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V32" s="60"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
       <c r="D33" s="15"/>
@@ -5494,16 +5507,16 @@
       <c r="L33" s="20"/>
       <c r="M33" s="6"/>
       <c r="N33" s="24"/>
-      <c r="O33" s="300"/>
-      <c r="P33" s="301"/>
-      <c r="Q33" s="302"/>
-      <c r="R33" s="302"/>
-      <c r="S33" s="302"/>
-      <c r="T33" s="302"/>
-      <c r="U33" s="303"/>
+      <c r="O33" s="250"/>
+      <c r="P33" s="262"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="263"/>
+      <c r="S33" s="263"/>
+      <c r="T33" s="263"/>
+      <c r="U33" s="264"/>
       <c r="V33" s="60"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>31</v>
       </c>
@@ -5532,44 +5545,44 @@
       <c r="J34" s="3"/>
       <c r="K34" s="5">
         <f>((((100/9)*(0.5*N34*N34-0.5*N34+1))/(X3*12))*3600/86400)*X8</f>
-        <v>3.8580246913580245E-3</v>
+        <v>3.8580246913580252E-2</v>
       </c>
       <c r="L34" s="19">
         <f t="shared" ref="L34:L36" si="5">K34*(MAX(N34/$X$5,1.5))</f>
-        <v>5.7870370370370367E-3</v>
+        <v>5.7870370370370378E-2</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="25">
         <v>1</v>
       </c>
-      <c r="O34" s="300"/>
-      <c r="P34" s="288">
+      <c r="O34" s="250"/>
+      <c r="P34" s="241">
         <f>IF(ISNA(VLOOKUP(D34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="289">
+      <c r="Q34" s="242">
         <f>IF(ISNA(VLOOKUP(E34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="289">
+      <c r="R34" s="242">
         <f>IF(ISNA(VLOOKUP(F34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="289">
+      <c r="S34" s="242">
         <f>IF(ISNA(VLOOKUP(G34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="289">
+      <c r="T34" s="242">
         <f>IF(ISNA(VLOOKUP(H34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="290">
+      <c r="U34" s="243">
         <f>IF(ISNA(VLOOKUP(I34,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I34,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V34" s="60"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>32</v>
       </c>
@@ -5598,44 +5611,44 @@
       <c r="J35" s="3"/>
       <c r="K35" s="5">
         <f>((((100/9)*(0.5*N35*N35-0.5*N35+1))/(X3*4))*3600/86400)*X8</f>
-        <v>1.1574074074074073E-2</v>
+        <v>0.11574074074074074</v>
       </c>
       <c r="L35" s="19">
         <f t="shared" si="5"/>
-        <v>1.7361111111111112E-2</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="25">
         <v>1</v>
       </c>
-      <c r="O35" s="300"/>
-      <c r="P35" s="288">
+      <c r="O35" s="250"/>
+      <c r="P35" s="241">
         <f>IF(ISNA(VLOOKUP(D35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="289">
+      <c r="Q35" s="242">
         <f>IF(ISNA(VLOOKUP(E35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="289">
+      <c r="R35" s="242">
         <f>IF(ISNA(VLOOKUP(F35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S35" s="289">
+      <c r="S35" s="242">
         <f>IF(ISNA(VLOOKUP(G35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="289">
+      <c r="T35" s="242">
         <f>IF(ISNA(VLOOKUP(H35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U35" s="290">
+      <c r="U35" s="243">
         <f>IF(ISNA(VLOOKUP(I35,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I35,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V35" s="60"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
@@ -5664,44 +5677,44 @@
       <c r="J36" s="3"/>
       <c r="K36" s="5">
         <f>((((100/9)*(0.5*N36*N36-0.5*N36+1))/(X3*8))*3600/86400)*X8</f>
-        <v>5.7870370370370367E-3</v>
+        <v>5.7870370370370371E-2</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" si="5"/>
-        <v>8.6805555555555559E-3</v>
+        <v>8.6805555555555552E-2</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="25">
         <v>1</v>
       </c>
-      <c r="O36" s="300"/>
-      <c r="P36" s="288">
+      <c r="O36" s="250"/>
+      <c r="P36" s="241">
         <f>IF(ISNA(VLOOKUP(D36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="289">
+      <c r="Q36" s="242">
         <f>IF(ISNA(VLOOKUP(E36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="289">
+      <c r="R36" s="242">
         <f>IF(ISNA(VLOOKUP(F36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="289">
+      <c r="S36" s="242">
         <f>IF(ISNA(VLOOKUP(G36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="289">
+      <c r="T36" s="242">
         <f>IF(ISNA(VLOOKUP(H36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H36,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="290">
+      <c r="U36" s="243">
         <f>IF(ISNA(VLOOKUP(I36,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I36,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V36" s="60"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="3"/>
       <c r="D37" s="15"/>
@@ -5715,16 +5728,16 @@
       <c r="L37" s="20"/>
       <c r="M37" s="6"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="300"/>
-      <c r="P37" s="304"/>
-      <c r="Q37" s="305"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="305"/>
-      <c r="T37" s="305"/>
-      <c r="U37" s="306"/>
+      <c r="O37" s="250"/>
+      <c r="P37" s="253"/>
+      <c r="Q37" s="254"/>
+      <c r="R37" s="254"/>
+      <c r="S37" s="254"/>
+      <c r="T37" s="254"/>
+      <c r="U37" s="255"/>
       <c r="V37" s="60"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>36</v>
       </c>
@@ -5754,44 +5767,44 @@
       <c r="J38" s="3"/>
       <c r="K38" s="5">
         <f>(((((100/9)*(0.5*N38*N38-0.5*N38+1))/(X3*5))*3600) / 4/86400)*X8</f>
-        <v>2.3148148148148147E-3</v>
+        <v>2.3148148148148147E-2</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" ref="L38:L41" si="6">K38*(MAX(N38/$X$5,1.5))</f>
-        <v>3.472222222222222E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="25">
         <v>1</v>
       </c>
-      <c r="O38" s="300"/>
-      <c r="P38" s="288">
+      <c r="O38" s="250"/>
+      <c r="P38" s="241">
         <f>IF(ISNA(VLOOKUP(D38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="307">
+      <c r="Q38" s="251">
         <f>IF(ISNA(VLOOKUP(E38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="307">
+      <c r="R38" s="251">
         <f>IF(ISNA(VLOOKUP(F38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="S38" s="307">
+      <c r="S38" s="251">
         <f>IF(ISNA(VLOOKUP(G38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="307">
+      <c r="T38" s="251">
         <f>IF(ISNA(VLOOKUP(H38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H38,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="308">
+      <c r="U38" s="252">
         <f>IF(ISNA(VLOOKUP(I38,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I38,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V38" s="67"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>37</v>
       </c>
@@ -5820,44 +5833,44 @@
       <c r="J39" s="3"/>
       <c r="K39" s="5">
         <f>(((((100/9)*(0.5*N39*N39-0.5*N39+1))/(X3*5))*3600) / 4/86400)*X8</f>
-        <v>2.3148148148148147E-3</v>
+        <v>2.3148148148148147E-2</v>
       </c>
       <c r="L39" s="19">
         <f t="shared" si="6"/>
-        <v>3.472222222222222E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="25">
         <v>1</v>
       </c>
-      <c r="O39" s="300"/>
-      <c r="P39" s="288">
+      <c r="O39" s="250"/>
+      <c r="P39" s="241">
         <f>IF(ISNA(VLOOKUP(D39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="Q39" s="307">
+      <c r="Q39" s="251">
         <f>IF(ISNA(VLOOKUP(E39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="R39" s="307">
+      <c r="R39" s="251">
         <f>IF(ISNA(VLOOKUP(F39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S39" s="307">
+      <c r="S39" s="251">
         <f>IF(ISNA(VLOOKUP(G39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T39" s="307">
+      <c r="T39" s="251">
         <f>IF(ISNA(VLOOKUP(H39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H39,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="308">
+      <c r="U39" s="252">
         <f>IF(ISNA(VLOOKUP(I39,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I39,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V39" s="40"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>34</v>
       </c>
@@ -5886,44 +5899,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="5">
         <f>(((((100/9)*(0.5*N40*N40-0.5*N40+1))/(X3*5))*3600) / 4/86400)*X8</f>
-        <v>2.3148148148148147E-3</v>
+        <v>2.3148148148148147E-2</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" si="6"/>
-        <v>3.472222222222222E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="25">
         <v>1</v>
       </c>
-      <c r="O40" s="300"/>
-      <c r="P40" s="288">
+      <c r="O40" s="250"/>
+      <c r="P40" s="241">
         <f>IF(ISNA(VLOOKUP(D40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="Q40" s="307">
+      <c r="Q40" s="251">
         <f>IF(ISNA(VLOOKUP(E40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="307">
+      <c r="R40" s="251">
         <f>IF(ISNA(VLOOKUP(F40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S40" s="307">
+      <c r="S40" s="251">
         <f>IF(ISNA(VLOOKUP(G40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T40" s="307">
+      <c r="T40" s="251">
         <f>IF(ISNA(VLOOKUP(H40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H40,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="308">
+      <c r="U40" s="252">
         <f>IF(ISNA(VLOOKUP(I40,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I40,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V40" s="40"/>
     </row>
-    <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>35</v>
       </c>
@@ -5952,44 +5965,44 @@
       <c r="J41" s="13"/>
       <c r="K41" s="21">
         <f>(((((100/9)*(0.5*N41*N41-0.5*N41+1))/(X3*5))*3600) / 4/86400)*X8</f>
-        <v>2.3148148148148147E-3</v>
+        <v>2.3148148148148147E-2</v>
       </c>
       <c r="L41" s="21">
         <f t="shared" si="6"/>
-        <v>3.472222222222222E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="M41" s="23"/>
       <c r="N41" s="26">
         <v>1</v>
       </c>
-      <c r="O41" s="300"/>
-      <c r="P41" s="291">
+      <c r="O41" s="250"/>
+      <c r="P41" s="244">
         <f>IF(ISNA(VLOOKUP(D41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="292">
+      <c r="Q41" s="245">
         <f>IF(ISNA(VLOOKUP(E41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="292">
+      <c r="R41" s="245">
         <f>IF(ISNA(VLOOKUP(F41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S41" s="292">
+      <c r="S41" s="245">
         <f>IF(ISNA(VLOOKUP(G41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T41" s="292">
+      <c r="T41" s="245">
         <f>IF(ISNA(VLOOKUP(H41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H41,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="U41" s="293">
+      <c r="U41" s="246">
         <f>IF(ISNA(VLOOKUP(I41,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I41,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="V41" s="40"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
@@ -5998,7 +6011,7 @@
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
@@ -6007,7 +6020,7 @@
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
@@ -6016,7 +6029,7 @@
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
@@ -6025,7 +6038,7 @@
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
@@ -6034,7 +6047,7 @@
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
@@ -6067,19 +6080,19 @@
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="40"/>
-    <col min="4" max="4" width="92.33203125" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="40"/>
+    <col min="1" max="3" width="11.42578125" style="40"/>
+    <col min="4" max="4" width="92.28515625" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="226" t="s">
         <v>130</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="229" t="s">
         <v>133</v>
       </c>
@@ -6101,7 +6114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="229" t="s">
         <v>134</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="229" t="s">
         <v>135</v>
       </c>
@@ -6123,7 +6136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="229" t="s">
         <v>139</v>
       </c>
@@ -6134,7 +6147,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="229" t="s">
         <v>141</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="233" t="s">
         <v>144</v>
       </c>
@@ -6156,17 +6169,29 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="233"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="233"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
-    </row>
-    <row r="11" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="233" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="234">
+        <v>43798</v>
+      </c>
+      <c r="D9" s="235" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="233" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="234">
+        <v>43798</v>
+      </c>
+      <c r="D10" s="235" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="236"/>
       <c r="C11" s="237"/>
       <c r="D11" s="238"/>
@@ -6185,976 +6210,976 @@
   <dimension ref="B1:W47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="40"/>
-    <col min="2" max="2" width="24.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="40" customWidth="1"/>
-    <col min="4" max="9" width="11.44140625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="41"/>
-    <col min="12" max="12" width="4.33203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="41"/>
-    <col min="14" max="14" width="6.6640625" style="41" customWidth="1"/>
-    <col min="15" max="20" width="3.33203125" style="41" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="6.6640625" style="41" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="25.6640625" style="40" customWidth="1"/>
-    <col min="23" max="260" width="11.44140625" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="2" max="2" width="24.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="40" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="41"/>
+    <col min="12" max="12" width="4.28515625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="41"/>
+    <col min="14" max="14" width="6.7109375" style="41" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="20" width="3.28515625" style="41" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="6.7109375" style="41" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" style="40" customWidth="1"/>
+    <col min="23" max="260" width="11.42578125" style="40"/>
     <col min="261" max="261" width="21" style="40" customWidth="1"/>
-    <col min="262" max="262" width="16.88671875" style="40" customWidth="1"/>
-    <col min="263" max="263" width="16.109375" style="40" customWidth="1"/>
-    <col min="264" max="264" width="13.33203125" style="40" customWidth="1"/>
-    <col min="265" max="265" width="14.5546875" style="40" customWidth="1"/>
-    <col min="266" max="266" width="14.44140625" style="40" customWidth="1"/>
-    <col min="267" max="267" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="3.6640625" style="40" customWidth="1"/>
-    <col min="269" max="269" width="11.44140625" style="40"/>
-    <col min="270" max="270" width="3.88671875" style="40" customWidth="1"/>
-    <col min="271" max="271" width="11.44140625" style="40"/>
-    <col min="272" max="272" width="3.109375" style="40" customWidth="1"/>
-    <col min="273" max="273" width="7.109375" style="40" customWidth="1"/>
-    <col min="274" max="274" width="14.88671875" style="40" customWidth="1"/>
-    <col min="275" max="516" width="11.44140625" style="40"/>
+    <col min="262" max="262" width="16.85546875" style="40" customWidth="1"/>
+    <col min="263" max="263" width="16.140625" style="40" customWidth="1"/>
+    <col min="264" max="264" width="13.28515625" style="40" customWidth="1"/>
+    <col min="265" max="265" width="14.5703125" style="40" customWidth="1"/>
+    <col min="266" max="266" width="14.42578125" style="40" customWidth="1"/>
+    <col min="267" max="267" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="3.7109375" style="40" customWidth="1"/>
+    <col min="269" max="269" width="11.42578125" style="40"/>
+    <col min="270" max="270" width="3.85546875" style="40" customWidth="1"/>
+    <col min="271" max="271" width="11.42578125" style="40"/>
+    <col min="272" max="272" width="3.140625" style="40" customWidth="1"/>
+    <col min="273" max="273" width="7.140625" style="40" customWidth="1"/>
+    <col min="274" max="274" width="14.85546875" style="40" customWidth="1"/>
+    <col min="275" max="516" width="11.42578125" style="40"/>
     <col min="517" max="517" width="21" style="40" customWidth="1"/>
-    <col min="518" max="518" width="16.88671875" style="40" customWidth="1"/>
-    <col min="519" max="519" width="16.109375" style="40" customWidth="1"/>
-    <col min="520" max="520" width="13.33203125" style="40" customWidth="1"/>
-    <col min="521" max="521" width="14.5546875" style="40" customWidth="1"/>
-    <col min="522" max="522" width="14.44140625" style="40" customWidth="1"/>
-    <col min="523" max="523" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="3.6640625" style="40" customWidth="1"/>
-    <col min="525" max="525" width="11.44140625" style="40"/>
-    <col min="526" max="526" width="3.88671875" style="40" customWidth="1"/>
-    <col min="527" max="527" width="11.44140625" style="40"/>
-    <col min="528" max="528" width="3.109375" style="40" customWidth="1"/>
-    <col min="529" max="529" width="7.109375" style="40" customWidth="1"/>
-    <col min="530" max="530" width="14.88671875" style="40" customWidth="1"/>
-    <col min="531" max="772" width="11.44140625" style="40"/>
+    <col min="518" max="518" width="16.85546875" style="40" customWidth="1"/>
+    <col min="519" max="519" width="16.140625" style="40" customWidth="1"/>
+    <col min="520" max="520" width="13.28515625" style="40" customWidth="1"/>
+    <col min="521" max="521" width="14.5703125" style="40" customWidth="1"/>
+    <col min="522" max="522" width="14.42578125" style="40" customWidth="1"/>
+    <col min="523" max="523" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="3.7109375" style="40" customWidth="1"/>
+    <col min="525" max="525" width="11.42578125" style="40"/>
+    <col min="526" max="526" width="3.85546875" style="40" customWidth="1"/>
+    <col min="527" max="527" width="11.42578125" style="40"/>
+    <col min="528" max="528" width="3.140625" style="40" customWidth="1"/>
+    <col min="529" max="529" width="7.140625" style="40" customWidth="1"/>
+    <col min="530" max="530" width="14.85546875" style="40" customWidth="1"/>
+    <col min="531" max="772" width="11.42578125" style="40"/>
     <col min="773" max="773" width="21" style="40" customWidth="1"/>
-    <col min="774" max="774" width="16.88671875" style="40" customWidth="1"/>
-    <col min="775" max="775" width="16.109375" style="40" customWidth="1"/>
-    <col min="776" max="776" width="13.33203125" style="40" customWidth="1"/>
-    <col min="777" max="777" width="14.5546875" style="40" customWidth="1"/>
-    <col min="778" max="778" width="14.44140625" style="40" customWidth="1"/>
-    <col min="779" max="779" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="3.6640625" style="40" customWidth="1"/>
-    <col min="781" max="781" width="11.44140625" style="40"/>
-    <col min="782" max="782" width="3.88671875" style="40" customWidth="1"/>
-    <col min="783" max="783" width="11.44140625" style="40"/>
-    <col min="784" max="784" width="3.109375" style="40" customWidth="1"/>
-    <col min="785" max="785" width="7.109375" style="40" customWidth="1"/>
-    <col min="786" max="786" width="14.88671875" style="40" customWidth="1"/>
-    <col min="787" max="1028" width="11.44140625" style="40"/>
+    <col min="774" max="774" width="16.85546875" style="40" customWidth="1"/>
+    <col min="775" max="775" width="16.140625" style="40" customWidth="1"/>
+    <col min="776" max="776" width="13.28515625" style="40" customWidth="1"/>
+    <col min="777" max="777" width="14.5703125" style="40" customWidth="1"/>
+    <col min="778" max="778" width="14.42578125" style="40" customWidth="1"/>
+    <col min="779" max="779" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="3.7109375" style="40" customWidth="1"/>
+    <col min="781" max="781" width="11.42578125" style="40"/>
+    <col min="782" max="782" width="3.85546875" style="40" customWidth="1"/>
+    <col min="783" max="783" width="11.42578125" style="40"/>
+    <col min="784" max="784" width="3.140625" style="40" customWidth="1"/>
+    <col min="785" max="785" width="7.140625" style="40" customWidth="1"/>
+    <col min="786" max="786" width="14.85546875" style="40" customWidth="1"/>
+    <col min="787" max="1028" width="11.42578125" style="40"/>
     <col min="1029" max="1029" width="21" style="40" customWidth="1"/>
-    <col min="1030" max="1030" width="16.88671875" style="40" customWidth="1"/>
-    <col min="1031" max="1031" width="16.109375" style="40" customWidth="1"/>
-    <col min="1032" max="1032" width="13.33203125" style="40" customWidth="1"/>
-    <col min="1033" max="1033" width="14.5546875" style="40" customWidth="1"/>
-    <col min="1034" max="1034" width="14.44140625" style="40" customWidth="1"/>
-    <col min="1035" max="1035" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="3.6640625" style="40" customWidth="1"/>
-    <col min="1037" max="1037" width="11.44140625" style="40"/>
-    <col min="1038" max="1038" width="3.88671875" style="40" customWidth="1"/>
-    <col min="1039" max="1039" width="11.44140625" style="40"/>
-    <col min="1040" max="1040" width="3.109375" style="40" customWidth="1"/>
-    <col min="1041" max="1041" width="7.109375" style="40" customWidth="1"/>
-    <col min="1042" max="1042" width="14.88671875" style="40" customWidth="1"/>
-    <col min="1043" max="1284" width="11.44140625" style="40"/>
+    <col min="1030" max="1030" width="16.85546875" style="40" customWidth="1"/>
+    <col min="1031" max="1031" width="16.140625" style="40" customWidth="1"/>
+    <col min="1032" max="1032" width="13.28515625" style="40" customWidth="1"/>
+    <col min="1033" max="1033" width="14.5703125" style="40" customWidth="1"/>
+    <col min="1034" max="1034" width="14.42578125" style="40" customWidth="1"/>
+    <col min="1035" max="1035" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="3.7109375" style="40" customWidth="1"/>
+    <col min="1037" max="1037" width="11.42578125" style="40"/>
+    <col min="1038" max="1038" width="3.85546875" style="40" customWidth="1"/>
+    <col min="1039" max="1039" width="11.42578125" style="40"/>
+    <col min="1040" max="1040" width="3.140625" style="40" customWidth="1"/>
+    <col min="1041" max="1041" width="7.140625" style="40" customWidth="1"/>
+    <col min="1042" max="1042" width="14.85546875" style="40" customWidth="1"/>
+    <col min="1043" max="1284" width="11.42578125" style="40"/>
     <col min="1285" max="1285" width="21" style="40" customWidth="1"/>
-    <col min="1286" max="1286" width="16.88671875" style="40" customWidth="1"/>
-    <col min="1287" max="1287" width="16.109375" style="40" customWidth="1"/>
-    <col min="1288" max="1288" width="13.33203125" style="40" customWidth="1"/>
-    <col min="1289" max="1289" width="14.5546875" style="40" customWidth="1"/>
-    <col min="1290" max="1290" width="14.44140625" style="40" customWidth="1"/>
-    <col min="1291" max="1291" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="3.6640625" style="40" customWidth="1"/>
-    <col min="1293" max="1293" width="11.44140625" style="40"/>
-    <col min="1294" max="1294" width="3.88671875" style="40" customWidth="1"/>
-    <col min="1295" max="1295" width="11.44140625" style="40"/>
-    <col min="1296" max="1296" width="3.109375" style="40" customWidth="1"/>
-    <col min="1297" max="1297" width="7.109375" style="40" customWidth="1"/>
-    <col min="1298" max="1298" width="14.88671875" style="40" customWidth="1"/>
-    <col min="1299" max="1540" width="11.44140625" style="40"/>
+    <col min="1286" max="1286" width="16.85546875" style="40" customWidth="1"/>
+    <col min="1287" max="1287" width="16.140625" style="40" customWidth="1"/>
+    <col min="1288" max="1288" width="13.28515625" style="40" customWidth="1"/>
+    <col min="1289" max="1289" width="14.5703125" style="40" customWidth="1"/>
+    <col min="1290" max="1290" width="14.42578125" style="40" customWidth="1"/>
+    <col min="1291" max="1291" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="3.7109375" style="40" customWidth="1"/>
+    <col min="1293" max="1293" width="11.42578125" style="40"/>
+    <col min="1294" max="1294" width="3.85546875" style="40" customWidth="1"/>
+    <col min="1295" max="1295" width="11.42578125" style="40"/>
+    <col min="1296" max="1296" width="3.140625" style="40" customWidth="1"/>
+    <col min="1297" max="1297" width="7.140625" style="40" customWidth="1"/>
+    <col min="1298" max="1298" width="14.85546875" style="40" customWidth="1"/>
+    <col min="1299" max="1540" width="11.42578125" style="40"/>
     <col min="1541" max="1541" width="21" style="40" customWidth="1"/>
-    <col min="1542" max="1542" width="16.88671875" style="40" customWidth="1"/>
-    <col min="1543" max="1543" width="16.109375" style="40" customWidth="1"/>
-    <col min="1544" max="1544" width="13.33203125" style="40" customWidth="1"/>
-    <col min="1545" max="1545" width="14.5546875" style="40" customWidth="1"/>
-    <col min="1546" max="1546" width="14.44140625" style="40" customWidth="1"/>
-    <col min="1547" max="1547" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="3.6640625" style="40" customWidth="1"/>
-    <col min="1549" max="1549" width="11.44140625" style="40"/>
-    <col min="1550" max="1550" width="3.88671875" style="40" customWidth="1"/>
-    <col min="1551" max="1551" width="11.44140625" style="40"/>
-    <col min="1552" max="1552" width="3.109375" style="40" customWidth="1"/>
-    <col min="1553" max="1553" width="7.109375" style="40" customWidth="1"/>
-    <col min="1554" max="1554" width="14.88671875" style="40" customWidth="1"/>
-    <col min="1555" max="1796" width="11.44140625" style="40"/>
+    <col min="1542" max="1542" width="16.85546875" style="40" customWidth="1"/>
+    <col min="1543" max="1543" width="16.140625" style="40" customWidth="1"/>
+    <col min="1544" max="1544" width="13.28515625" style="40" customWidth="1"/>
+    <col min="1545" max="1545" width="14.5703125" style="40" customWidth="1"/>
+    <col min="1546" max="1546" width="14.42578125" style="40" customWidth="1"/>
+    <col min="1547" max="1547" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="3.7109375" style="40" customWidth="1"/>
+    <col min="1549" max="1549" width="11.42578125" style="40"/>
+    <col min="1550" max="1550" width="3.85546875" style="40" customWidth="1"/>
+    <col min="1551" max="1551" width="11.42578125" style="40"/>
+    <col min="1552" max="1552" width="3.140625" style="40" customWidth="1"/>
+    <col min="1553" max="1553" width="7.140625" style="40" customWidth="1"/>
+    <col min="1554" max="1554" width="14.85546875" style="40" customWidth="1"/>
+    <col min="1555" max="1796" width="11.42578125" style="40"/>
     <col min="1797" max="1797" width="21" style="40" customWidth="1"/>
-    <col min="1798" max="1798" width="16.88671875" style="40" customWidth="1"/>
-    <col min="1799" max="1799" width="16.109375" style="40" customWidth="1"/>
-    <col min="1800" max="1800" width="13.33203125" style="40" customWidth="1"/>
-    <col min="1801" max="1801" width="14.5546875" style="40" customWidth="1"/>
-    <col min="1802" max="1802" width="14.44140625" style="40" customWidth="1"/>
-    <col min="1803" max="1803" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="3.6640625" style="40" customWidth="1"/>
-    <col min="1805" max="1805" width="11.44140625" style="40"/>
-    <col min="1806" max="1806" width="3.88671875" style="40" customWidth="1"/>
-    <col min="1807" max="1807" width="11.44140625" style="40"/>
-    <col min="1808" max="1808" width="3.109375" style="40" customWidth="1"/>
-    <col min="1809" max="1809" width="7.109375" style="40" customWidth="1"/>
-    <col min="1810" max="1810" width="14.88671875" style="40" customWidth="1"/>
-    <col min="1811" max="2052" width="11.44140625" style="40"/>
+    <col min="1798" max="1798" width="16.85546875" style="40" customWidth="1"/>
+    <col min="1799" max="1799" width="16.140625" style="40" customWidth="1"/>
+    <col min="1800" max="1800" width="13.28515625" style="40" customWidth="1"/>
+    <col min="1801" max="1801" width="14.5703125" style="40" customWidth="1"/>
+    <col min="1802" max="1802" width="14.42578125" style="40" customWidth="1"/>
+    <col min="1803" max="1803" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="3.7109375" style="40" customWidth="1"/>
+    <col min="1805" max="1805" width="11.42578125" style="40"/>
+    <col min="1806" max="1806" width="3.85546875" style="40" customWidth="1"/>
+    <col min="1807" max="1807" width="11.42578125" style="40"/>
+    <col min="1808" max="1808" width="3.140625" style="40" customWidth="1"/>
+    <col min="1809" max="1809" width="7.140625" style="40" customWidth="1"/>
+    <col min="1810" max="1810" width="14.85546875" style="40" customWidth="1"/>
+    <col min="1811" max="2052" width="11.42578125" style="40"/>
     <col min="2053" max="2053" width="21" style="40" customWidth="1"/>
-    <col min="2054" max="2054" width="16.88671875" style="40" customWidth="1"/>
-    <col min="2055" max="2055" width="16.109375" style="40" customWidth="1"/>
-    <col min="2056" max="2056" width="13.33203125" style="40" customWidth="1"/>
-    <col min="2057" max="2057" width="14.5546875" style="40" customWidth="1"/>
-    <col min="2058" max="2058" width="14.44140625" style="40" customWidth="1"/>
-    <col min="2059" max="2059" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="3.6640625" style="40" customWidth="1"/>
-    <col min="2061" max="2061" width="11.44140625" style="40"/>
-    <col min="2062" max="2062" width="3.88671875" style="40" customWidth="1"/>
-    <col min="2063" max="2063" width="11.44140625" style="40"/>
-    <col min="2064" max="2064" width="3.109375" style="40" customWidth="1"/>
-    <col min="2065" max="2065" width="7.109375" style="40" customWidth="1"/>
-    <col min="2066" max="2066" width="14.88671875" style="40" customWidth="1"/>
-    <col min="2067" max="2308" width="11.44140625" style="40"/>
+    <col min="2054" max="2054" width="16.85546875" style="40" customWidth="1"/>
+    <col min="2055" max="2055" width="16.140625" style="40" customWidth="1"/>
+    <col min="2056" max="2056" width="13.28515625" style="40" customWidth="1"/>
+    <col min="2057" max="2057" width="14.5703125" style="40" customWidth="1"/>
+    <col min="2058" max="2058" width="14.42578125" style="40" customWidth="1"/>
+    <col min="2059" max="2059" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="3.7109375" style="40" customWidth="1"/>
+    <col min="2061" max="2061" width="11.42578125" style="40"/>
+    <col min="2062" max="2062" width="3.85546875" style="40" customWidth="1"/>
+    <col min="2063" max="2063" width="11.42578125" style="40"/>
+    <col min="2064" max="2064" width="3.140625" style="40" customWidth="1"/>
+    <col min="2065" max="2065" width="7.140625" style="40" customWidth="1"/>
+    <col min="2066" max="2066" width="14.85546875" style="40" customWidth="1"/>
+    <col min="2067" max="2308" width="11.42578125" style="40"/>
     <col min="2309" max="2309" width="21" style="40" customWidth="1"/>
-    <col min="2310" max="2310" width="16.88671875" style="40" customWidth="1"/>
-    <col min="2311" max="2311" width="16.109375" style="40" customWidth="1"/>
-    <col min="2312" max="2312" width="13.33203125" style="40" customWidth="1"/>
-    <col min="2313" max="2313" width="14.5546875" style="40" customWidth="1"/>
-    <col min="2314" max="2314" width="14.44140625" style="40" customWidth="1"/>
-    <col min="2315" max="2315" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="3.6640625" style="40" customWidth="1"/>
-    <col min="2317" max="2317" width="11.44140625" style="40"/>
-    <col min="2318" max="2318" width="3.88671875" style="40" customWidth="1"/>
-    <col min="2319" max="2319" width="11.44140625" style="40"/>
-    <col min="2320" max="2320" width="3.109375" style="40" customWidth="1"/>
-    <col min="2321" max="2321" width="7.109375" style="40" customWidth="1"/>
-    <col min="2322" max="2322" width="14.88671875" style="40" customWidth="1"/>
-    <col min="2323" max="2564" width="11.44140625" style="40"/>
+    <col min="2310" max="2310" width="16.85546875" style="40" customWidth="1"/>
+    <col min="2311" max="2311" width="16.140625" style="40" customWidth="1"/>
+    <col min="2312" max="2312" width="13.28515625" style="40" customWidth="1"/>
+    <col min="2313" max="2313" width="14.5703125" style="40" customWidth="1"/>
+    <col min="2314" max="2314" width="14.42578125" style="40" customWidth="1"/>
+    <col min="2315" max="2315" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="3.7109375" style="40" customWidth="1"/>
+    <col min="2317" max="2317" width="11.42578125" style="40"/>
+    <col min="2318" max="2318" width="3.85546875" style="40" customWidth="1"/>
+    <col min="2319" max="2319" width="11.42578125" style="40"/>
+    <col min="2320" max="2320" width="3.140625" style="40" customWidth="1"/>
+    <col min="2321" max="2321" width="7.140625" style="40" customWidth="1"/>
+    <col min="2322" max="2322" width="14.85546875" style="40" customWidth="1"/>
+    <col min="2323" max="2564" width="11.42578125" style="40"/>
     <col min="2565" max="2565" width="21" style="40" customWidth="1"/>
-    <col min="2566" max="2566" width="16.88671875" style="40" customWidth="1"/>
-    <col min="2567" max="2567" width="16.109375" style="40" customWidth="1"/>
-    <col min="2568" max="2568" width="13.33203125" style="40" customWidth="1"/>
-    <col min="2569" max="2569" width="14.5546875" style="40" customWidth="1"/>
-    <col min="2570" max="2570" width="14.44140625" style="40" customWidth="1"/>
-    <col min="2571" max="2571" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="3.6640625" style="40" customWidth="1"/>
-    <col min="2573" max="2573" width="11.44140625" style="40"/>
-    <col min="2574" max="2574" width="3.88671875" style="40" customWidth="1"/>
-    <col min="2575" max="2575" width="11.44140625" style="40"/>
-    <col min="2576" max="2576" width="3.109375" style="40" customWidth="1"/>
-    <col min="2577" max="2577" width="7.109375" style="40" customWidth="1"/>
-    <col min="2578" max="2578" width="14.88671875" style="40" customWidth="1"/>
-    <col min="2579" max="2820" width="11.44140625" style="40"/>
+    <col min="2566" max="2566" width="16.85546875" style="40" customWidth="1"/>
+    <col min="2567" max="2567" width="16.140625" style="40" customWidth="1"/>
+    <col min="2568" max="2568" width="13.28515625" style="40" customWidth="1"/>
+    <col min="2569" max="2569" width="14.5703125" style="40" customWidth="1"/>
+    <col min="2570" max="2570" width="14.42578125" style="40" customWidth="1"/>
+    <col min="2571" max="2571" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="3.7109375" style="40" customWidth="1"/>
+    <col min="2573" max="2573" width="11.42578125" style="40"/>
+    <col min="2574" max="2574" width="3.85546875" style="40" customWidth="1"/>
+    <col min="2575" max="2575" width="11.42578125" style="40"/>
+    <col min="2576" max="2576" width="3.140625" style="40" customWidth="1"/>
+    <col min="2577" max="2577" width="7.140625" style="40" customWidth="1"/>
+    <col min="2578" max="2578" width="14.85546875" style="40" customWidth="1"/>
+    <col min="2579" max="2820" width="11.42578125" style="40"/>
     <col min="2821" max="2821" width="21" style="40" customWidth="1"/>
-    <col min="2822" max="2822" width="16.88671875" style="40" customWidth="1"/>
-    <col min="2823" max="2823" width="16.109375" style="40" customWidth="1"/>
-    <col min="2824" max="2824" width="13.33203125" style="40" customWidth="1"/>
-    <col min="2825" max="2825" width="14.5546875" style="40" customWidth="1"/>
-    <col min="2826" max="2826" width="14.44140625" style="40" customWidth="1"/>
-    <col min="2827" max="2827" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="3.6640625" style="40" customWidth="1"/>
-    <col min="2829" max="2829" width="11.44140625" style="40"/>
-    <col min="2830" max="2830" width="3.88671875" style="40" customWidth="1"/>
-    <col min="2831" max="2831" width="11.44140625" style="40"/>
-    <col min="2832" max="2832" width="3.109375" style="40" customWidth="1"/>
-    <col min="2833" max="2833" width="7.109375" style="40" customWidth="1"/>
-    <col min="2834" max="2834" width="14.88671875" style="40" customWidth="1"/>
-    <col min="2835" max="3076" width="11.44140625" style="40"/>
+    <col min="2822" max="2822" width="16.85546875" style="40" customWidth="1"/>
+    <col min="2823" max="2823" width="16.140625" style="40" customWidth="1"/>
+    <col min="2824" max="2824" width="13.28515625" style="40" customWidth="1"/>
+    <col min="2825" max="2825" width="14.5703125" style="40" customWidth="1"/>
+    <col min="2826" max="2826" width="14.42578125" style="40" customWidth="1"/>
+    <col min="2827" max="2827" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="3.7109375" style="40" customWidth="1"/>
+    <col min="2829" max="2829" width="11.42578125" style="40"/>
+    <col min="2830" max="2830" width="3.85546875" style="40" customWidth="1"/>
+    <col min="2831" max="2831" width="11.42578125" style="40"/>
+    <col min="2832" max="2832" width="3.140625" style="40" customWidth="1"/>
+    <col min="2833" max="2833" width="7.140625" style="40" customWidth="1"/>
+    <col min="2834" max="2834" width="14.85546875" style="40" customWidth="1"/>
+    <col min="2835" max="3076" width="11.42578125" style="40"/>
     <col min="3077" max="3077" width="21" style="40" customWidth="1"/>
-    <col min="3078" max="3078" width="16.88671875" style="40" customWidth="1"/>
-    <col min="3079" max="3079" width="16.109375" style="40" customWidth="1"/>
-    <col min="3080" max="3080" width="13.33203125" style="40" customWidth="1"/>
-    <col min="3081" max="3081" width="14.5546875" style="40" customWidth="1"/>
-    <col min="3082" max="3082" width="14.44140625" style="40" customWidth="1"/>
-    <col min="3083" max="3083" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="3.6640625" style="40" customWidth="1"/>
-    <col min="3085" max="3085" width="11.44140625" style="40"/>
-    <col min="3086" max="3086" width="3.88671875" style="40" customWidth="1"/>
-    <col min="3087" max="3087" width="11.44140625" style="40"/>
-    <col min="3088" max="3088" width="3.109375" style="40" customWidth="1"/>
-    <col min="3089" max="3089" width="7.109375" style="40" customWidth="1"/>
-    <col min="3090" max="3090" width="14.88671875" style="40" customWidth="1"/>
-    <col min="3091" max="3332" width="11.44140625" style="40"/>
+    <col min="3078" max="3078" width="16.85546875" style="40" customWidth="1"/>
+    <col min="3079" max="3079" width="16.140625" style="40" customWidth="1"/>
+    <col min="3080" max="3080" width="13.28515625" style="40" customWidth="1"/>
+    <col min="3081" max="3081" width="14.5703125" style="40" customWidth="1"/>
+    <col min="3082" max="3082" width="14.42578125" style="40" customWidth="1"/>
+    <col min="3083" max="3083" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="3.7109375" style="40" customWidth="1"/>
+    <col min="3085" max="3085" width="11.42578125" style="40"/>
+    <col min="3086" max="3086" width="3.85546875" style="40" customWidth="1"/>
+    <col min="3087" max="3087" width="11.42578125" style="40"/>
+    <col min="3088" max="3088" width="3.140625" style="40" customWidth="1"/>
+    <col min="3089" max="3089" width="7.140625" style="40" customWidth="1"/>
+    <col min="3090" max="3090" width="14.85546875" style="40" customWidth="1"/>
+    <col min="3091" max="3332" width="11.42578125" style="40"/>
     <col min="3333" max="3333" width="21" style="40" customWidth="1"/>
-    <col min="3334" max="3334" width="16.88671875" style="40" customWidth="1"/>
-    <col min="3335" max="3335" width="16.109375" style="40" customWidth="1"/>
-    <col min="3336" max="3336" width="13.33203125" style="40" customWidth="1"/>
-    <col min="3337" max="3337" width="14.5546875" style="40" customWidth="1"/>
-    <col min="3338" max="3338" width="14.44140625" style="40" customWidth="1"/>
-    <col min="3339" max="3339" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="3.6640625" style="40" customWidth="1"/>
-    <col min="3341" max="3341" width="11.44140625" style="40"/>
-    <col min="3342" max="3342" width="3.88671875" style="40" customWidth="1"/>
-    <col min="3343" max="3343" width="11.44140625" style="40"/>
-    <col min="3344" max="3344" width="3.109375" style="40" customWidth="1"/>
-    <col min="3345" max="3345" width="7.109375" style="40" customWidth="1"/>
-    <col min="3346" max="3346" width="14.88671875" style="40" customWidth="1"/>
-    <col min="3347" max="3588" width="11.44140625" style="40"/>
+    <col min="3334" max="3334" width="16.85546875" style="40" customWidth="1"/>
+    <col min="3335" max="3335" width="16.140625" style="40" customWidth="1"/>
+    <col min="3336" max="3336" width="13.28515625" style="40" customWidth="1"/>
+    <col min="3337" max="3337" width="14.5703125" style="40" customWidth="1"/>
+    <col min="3338" max="3338" width="14.42578125" style="40" customWidth="1"/>
+    <col min="3339" max="3339" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="3.7109375" style="40" customWidth="1"/>
+    <col min="3341" max="3341" width="11.42578125" style="40"/>
+    <col min="3342" max="3342" width="3.85546875" style="40" customWidth="1"/>
+    <col min="3343" max="3343" width="11.42578125" style="40"/>
+    <col min="3344" max="3344" width="3.140625" style="40" customWidth="1"/>
+    <col min="3345" max="3345" width="7.140625" style="40" customWidth="1"/>
+    <col min="3346" max="3346" width="14.85546875" style="40" customWidth="1"/>
+    <col min="3347" max="3588" width="11.42578125" style="40"/>
     <col min="3589" max="3589" width="21" style="40" customWidth="1"/>
-    <col min="3590" max="3590" width="16.88671875" style="40" customWidth="1"/>
-    <col min="3591" max="3591" width="16.109375" style="40" customWidth="1"/>
-    <col min="3592" max="3592" width="13.33203125" style="40" customWidth="1"/>
-    <col min="3593" max="3593" width="14.5546875" style="40" customWidth="1"/>
-    <col min="3594" max="3594" width="14.44140625" style="40" customWidth="1"/>
-    <col min="3595" max="3595" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="3.6640625" style="40" customWidth="1"/>
-    <col min="3597" max="3597" width="11.44140625" style="40"/>
-    <col min="3598" max="3598" width="3.88671875" style="40" customWidth="1"/>
-    <col min="3599" max="3599" width="11.44140625" style="40"/>
-    <col min="3600" max="3600" width="3.109375" style="40" customWidth="1"/>
-    <col min="3601" max="3601" width="7.109375" style="40" customWidth="1"/>
-    <col min="3602" max="3602" width="14.88671875" style="40" customWidth="1"/>
-    <col min="3603" max="3844" width="11.44140625" style="40"/>
+    <col min="3590" max="3590" width="16.85546875" style="40" customWidth="1"/>
+    <col min="3591" max="3591" width="16.140625" style="40" customWidth="1"/>
+    <col min="3592" max="3592" width="13.28515625" style="40" customWidth="1"/>
+    <col min="3593" max="3593" width="14.5703125" style="40" customWidth="1"/>
+    <col min="3594" max="3594" width="14.42578125" style="40" customWidth="1"/>
+    <col min="3595" max="3595" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="3.7109375" style="40" customWidth="1"/>
+    <col min="3597" max="3597" width="11.42578125" style="40"/>
+    <col min="3598" max="3598" width="3.85546875" style="40" customWidth="1"/>
+    <col min="3599" max="3599" width="11.42578125" style="40"/>
+    <col min="3600" max="3600" width="3.140625" style="40" customWidth="1"/>
+    <col min="3601" max="3601" width="7.140625" style="40" customWidth="1"/>
+    <col min="3602" max="3602" width="14.85546875" style="40" customWidth="1"/>
+    <col min="3603" max="3844" width="11.42578125" style="40"/>
     <col min="3845" max="3845" width="21" style="40" customWidth="1"/>
-    <col min="3846" max="3846" width="16.88671875" style="40" customWidth="1"/>
-    <col min="3847" max="3847" width="16.109375" style="40" customWidth="1"/>
-    <col min="3848" max="3848" width="13.33203125" style="40" customWidth="1"/>
-    <col min="3849" max="3849" width="14.5546875" style="40" customWidth="1"/>
-    <col min="3850" max="3850" width="14.44140625" style="40" customWidth="1"/>
-    <col min="3851" max="3851" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="3.6640625" style="40" customWidth="1"/>
-    <col min="3853" max="3853" width="11.44140625" style="40"/>
-    <col min="3854" max="3854" width="3.88671875" style="40" customWidth="1"/>
-    <col min="3855" max="3855" width="11.44140625" style="40"/>
-    <col min="3856" max="3856" width="3.109375" style="40" customWidth="1"/>
-    <col min="3857" max="3857" width="7.109375" style="40" customWidth="1"/>
-    <col min="3858" max="3858" width="14.88671875" style="40" customWidth="1"/>
-    <col min="3859" max="4100" width="11.44140625" style="40"/>
+    <col min="3846" max="3846" width="16.85546875" style="40" customWidth="1"/>
+    <col min="3847" max="3847" width="16.140625" style="40" customWidth="1"/>
+    <col min="3848" max="3848" width="13.28515625" style="40" customWidth="1"/>
+    <col min="3849" max="3849" width="14.5703125" style="40" customWidth="1"/>
+    <col min="3850" max="3850" width="14.42578125" style="40" customWidth="1"/>
+    <col min="3851" max="3851" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="3.7109375" style="40" customWidth="1"/>
+    <col min="3853" max="3853" width="11.42578125" style="40"/>
+    <col min="3854" max="3854" width="3.85546875" style="40" customWidth="1"/>
+    <col min="3855" max="3855" width="11.42578125" style="40"/>
+    <col min="3856" max="3856" width="3.140625" style="40" customWidth="1"/>
+    <col min="3857" max="3857" width="7.140625" style="40" customWidth="1"/>
+    <col min="3858" max="3858" width="14.85546875" style="40" customWidth="1"/>
+    <col min="3859" max="4100" width="11.42578125" style="40"/>
     <col min="4101" max="4101" width="21" style="40" customWidth="1"/>
-    <col min="4102" max="4102" width="16.88671875" style="40" customWidth="1"/>
-    <col min="4103" max="4103" width="16.109375" style="40" customWidth="1"/>
-    <col min="4104" max="4104" width="13.33203125" style="40" customWidth="1"/>
-    <col min="4105" max="4105" width="14.5546875" style="40" customWidth="1"/>
-    <col min="4106" max="4106" width="14.44140625" style="40" customWidth="1"/>
-    <col min="4107" max="4107" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="3.6640625" style="40" customWidth="1"/>
-    <col min="4109" max="4109" width="11.44140625" style="40"/>
-    <col min="4110" max="4110" width="3.88671875" style="40" customWidth="1"/>
-    <col min="4111" max="4111" width="11.44140625" style="40"/>
-    <col min="4112" max="4112" width="3.109375" style="40" customWidth="1"/>
-    <col min="4113" max="4113" width="7.109375" style="40" customWidth="1"/>
-    <col min="4114" max="4114" width="14.88671875" style="40" customWidth="1"/>
-    <col min="4115" max="4356" width="11.44140625" style="40"/>
+    <col min="4102" max="4102" width="16.85546875" style="40" customWidth="1"/>
+    <col min="4103" max="4103" width="16.140625" style="40" customWidth="1"/>
+    <col min="4104" max="4104" width="13.28515625" style="40" customWidth="1"/>
+    <col min="4105" max="4105" width="14.5703125" style="40" customWidth="1"/>
+    <col min="4106" max="4106" width="14.42578125" style="40" customWidth="1"/>
+    <col min="4107" max="4107" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="3.7109375" style="40" customWidth="1"/>
+    <col min="4109" max="4109" width="11.42578125" style="40"/>
+    <col min="4110" max="4110" width="3.85546875" style="40" customWidth="1"/>
+    <col min="4111" max="4111" width="11.42578125" style="40"/>
+    <col min="4112" max="4112" width="3.140625" style="40" customWidth="1"/>
+    <col min="4113" max="4113" width="7.140625" style="40" customWidth="1"/>
+    <col min="4114" max="4114" width="14.85546875" style="40" customWidth="1"/>
+    <col min="4115" max="4356" width="11.42578125" style="40"/>
     <col min="4357" max="4357" width="21" style="40" customWidth="1"/>
-    <col min="4358" max="4358" width="16.88671875" style="40" customWidth="1"/>
-    <col min="4359" max="4359" width="16.109375" style="40" customWidth="1"/>
-    <col min="4360" max="4360" width="13.33203125" style="40" customWidth="1"/>
-    <col min="4361" max="4361" width="14.5546875" style="40" customWidth="1"/>
-    <col min="4362" max="4362" width="14.44140625" style="40" customWidth="1"/>
-    <col min="4363" max="4363" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="3.6640625" style="40" customWidth="1"/>
-    <col min="4365" max="4365" width="11.44140625" style="40"/>
-    <col min="4366" max="4366" width="3.88671875" style="40" customWidth="1"/>
-    <col min="4367" max="4367" width="11.44140625" style="40"/>
-    <col min="4368" max="4368" width="3.109375" style="40" customWidth="1"/>
-    <col min="4369" max="4369" width="7.109375" style="40" customWidth="1"/>
-    <col min="4370" max="4370" width="14.88671875" style="40" customWidth="1"/>
-    <col min="4371" max="4612" width="11.44140625" style="40"/>
+    <col min="4358" max="4358" width="16.85546875" style="40" customWidth="1"/>
+    <col min="4359" max="4359" width="16.140625" style="40" customWidth="1"/>
+    <col min="4360" max="4360" width="13.28515625" style="40" customWidth="1"/>
+    <col min="4361" max="4361" width="14.5703125" style="40" customWidth="1"/>
+    <col min="4362" max="4362" width="14.42578125" style="40" customWidth="1"/>
+    <col min="4363" max="4363" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="3.7109375" style="40" customWidth="1"/>
+    <col min="4365" max="4365" width="11.42578125" style="40"/>
+    <col min="4366" max="4366" width="3.85546875" style="40" customWidth="1"/>
+    <col min="4367" max="4367" width="11.42578125" style="40"/>
+    <col min="4368" max="4368" width="3.140625" style="40" customWidth="1"/>
+    <col min="4369" max="4369" width="7.140625" style="40" customWidth="1"/>
+    <col min="4370" max="4370" width="14.85546875" style="40" customWidth="1"/>
+    <col min="4371" max="4612" width="11.42578125" style="40"/>
     <col min="4613" max="4613" width="21" style="40" customWidth="1"/>
-    <col min="4614" max="4614" width="16.88671875" style="40" customWidth="1"/>
-    <col min="4615" max="4615" width="16.109375" style="40" customWidth="1"/>
-    <col min="4616" max="4616" width="13.33203125" style="40" customWidth="1"/>
-    <col min="4617" max="4617" width="14.5546875" style="40" customWidth="1"/>
-    <col min="4618" max="4618" width="14.44140625" style="40" customWidth="1"/>
-    <col min="4619" max="4619" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="3.6640625" style="40" customWidth="1"/>
-    <col min="4621" max="4621" width="11.44140625" style="40"/>
-    <col min="4622" max="4622" width="3.88671875" style="40" customWidth="1"/>
-    <col min="4623" max="4623" width="11.44140625" style="40"/>
-    <col min="4624" max="4624" width="3.109375" style="40" customWidth="1"/>
-    <col min="4625" max="4625" width="7.109375" style="40" customWidth="1"/>
-    <col min="4626" max="4626" width="14.88671875" style="40" customWidth="1"/>
-    <col min="4627" max="4868" width="11.44140625" style="40"/>
+    <col min="4614" max="4614" width="16.85546875" style="40" customWidth="1"/>
+    <col min="4615" max="4615" width="16.140625" style="40" customWidth="1"/>
+    <col min="4616" max="4616" width="13.28515625" style="40" customWidth="1"/>
+    <col min="4617" max="4617" width="14.5703125" style="40" customWidth="1"/>
+    <col min="4618" max="4618" width="14.42578125" style="40" customWidth="1"/>
+    <col min="4619" max="4619" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="3.7109375" style="40" customWidth="1"/>
+    <col min="4621" max="4621" width="11.42578125" style="40"/>
+    <col min="4622" max="4622" width="3.85546875" style="40" customWidth="1"/>
+    <col min="4623" max="4623" width="11.42578125" style="40"/>
+    <col min="4624" max="4624" width="3.140625" style="40" customWidth="1"/>
+    <col min="4625" max="4625" width="7.140625" style="40" customWidth="1"/>
+    <col min="4626" max="4626" width="14.85546875" style="40" customWidth="1"/>
+    <col min="4627" max="4868" width="11.42578125" style="40"/>
     <col min="4869" max="4869" width="21" style="40" customWidth="1"/>
-    <col min="4870" max="4870" width="16.88671875" style="40" customWidth="1"/>
-    <col min="4871" max="4871" width="16.109375" style="40" customWidth="1"/>
-    <col min="4872" max="4872" width="13.33203125" style="40" customWidth="1"/>
-    <col min="4873" max="4873" width="14.5546875" style="40" customWidth="1"/>
-    <col min="4874" max="4874" width="14.44140625" style="40" customWidth="1"/>
-    <col min="4875" max="4875" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="3.6640625" style="40" customWidth="1"/>
-    <col min="4877" max="4877" width="11.44140625" style="40"/>
-    <col min="4878" max="4878" width="3.88671875" style="40" customWidth="1"/>
-    <col min="4879" max="4879" width="11.44140625" style="40"/>
-    <col min="4880" max="4880" width="3.109375" style="40" customWidth="1"/>
-    <col min="4881" max="4881" width="7.109375" style="40" customWidth="1"/>
-    <col min="4882" max="4882" width="14.88671875" style="40" customWidth="1"/>
-    <col min="4883" max="5124" width="11.44140625" style="40"/>
+    <col min="4870" max="4870" width="16.85546875" style="40" customWidth="1"/>
+    <col min="4871" max="4871" width="16.140625" style="40" customWidth="1"/>
+    <col min="4872" max="4872" width="13.28515625" style="40" customWidth="1"/>
+    <col min="4873" max="4873" width="14.5703125" style="40" customWidth="1"/>
+    <col min="4874" max="4874" width="14.42578125" style="40" customWidth="1"/>
+    <col min="4875" max="4875" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="3.7109375" style="40" customWidth="1"/>
+    <col min="4877" max="4877" width="11.42578125" style="40"/>
+    <col min="4878" max="4878" width="3.85546875" style="40" customWidth="1"/>
+    <col min="4879" max="4879" width="11.42578125" style="40"/>
+    <col min="4880" max="4880" width="3.140625" style="40" customWidth="1"/>
+    <col min="4881" max="4881" width="7.140625" style="40" customWidth="1"/>
+    <col min="4882" max="4882" width="14.85546875" style="40" customWidth="1"/>
+    <col min="4883" max="5124" width="11.42578125" style="40"/>
     <col min="5125" max="5125" width="21" style="40" customWidth="1"/>
-    <col min="5126" max="5126" width="16.88671875" style="40" customWidth="1"/>
-    <col min="5127" max="5127" width="16.109375" style="40" customWidth="1"/>
-    <col min="5128" max="5128" width="13.33203125" style="40" customWidth="1"/>
-    <col min="5129" max="5129" width="14.5546875" style="40" customWidth="1"/>
-    <col min="5130" max="5130" width="14.44140625" style="40" customWidth="1"/>
-    <col min="5131" max="5131" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="3.6640625" style="40" customWidth="1"/>
-    <col min="5133" max="5133" width="11.44140625" style="40"/>
-    <col min="5134" max="5134" width="3.88671875" style="40" customWidth="1"/>
-    <col min="5135" max="5135" width="11.44140625" style="40"/>
-    <col min="5136" max="5136" width="3.109375" style="40" customWidth="1"/>
-    <col min="5137" max="5137" width="7.109375" style="40" customWidth="1"/>
-    <col min="5138" max="5138" width="14.88671875" style="40" customWidth="1"/>
-    <col min="5139" max="5380" width="11.44140625" style="40"/>
+    <col min="5126" max="5126" width="16.85546875" style="40" customWidth="1"/>
+    <col min="5127" max="5127" width="16.140625" style="40" customWidth="1"/>
+    <col min="5128" max="5128" width="13.28515625" style="40" customWidth="1"/>
+    <col min="5129" max="5129" width="14.5703125" style="40" customWidth="1"/>
+    <col min="5130" max="5130" width="14.42578125" style="40" customWidth="1"/>
+    <col min="5131" max="5131" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="3.7109375" style="40" customWidth="1"/>
+    <col min="5133" max="5133" width="11.42578125" style="40"/>
+    <col min="5134" max="5134" width="3.85546875" style="40" customWidth="1"/>
+    <col min="5135" max="5135" width="11.42578125" style="40"/>
+    <col min="5136" max="5136" width="3.140625" style="40" customWidth="1"/>
+    <col min="5137" max="5137" width="7.140625" style="40" customWidth="1"/>
+    <col min="5138" max="5138" width="14.85546875" style="40" customWidth="1"/>
+    <col min="5139" max="5380" width="11.42578125" style="40"/>
     <col min="5381" max="5381" width="21" style="40" customWidth="1"/>
-    <col min="5382" max="5382" width="16.88671875" style="40" customWidth="1"/>
-    <col min="5383" max="5383" width="16.109375" style="40" customWidth="1"/>
-    <col min="5384" max="5384" width="13.33203125" style="40" customWidth="1"/>
-    <col min="5385" max="5385" width="14.5546875" style="40" customWidth="1"/>
-    <col min="5386" max="5386" width="14.44140625" style="40" customWidth="1"/>
-    <col min="5387" max="5387" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="3.6640625" style="40" customWidth="1"/>
-    <col min="5389" max="5389" width="11.44140625" style="40"/>
-    <col min="5390" max="5390" width="3.88671875" style="40" customWidth="1"/>
-    <col min="5391" max="5391" width="11.44140625" style="40"/>
-    <col min="5392" max="5392" width="3.109375" style="40" customWidth="1"/>
-    <col min="5393" max="5393" width="7.109375" style="40" customWidth="1"/>
-    <col min="5394" max="5394" width="14.88671875" style="40" customWidth="1"/>
-    <col min="5395" max="5636" width="11.44140625" style="40"/>
+    <col min="5382" max="5382" width="16.85546875" style="40" customWidth="1"/>
+    <col min="5383" max="5383" width="16.140625" style="40" customWidth="1"/>
+    <col min="5384" max="5384" width="13.28515625" style="40" customWidth="1"/>
+    <col min="5385" max="5385" width="14.5703125" style="40" customWidth="1"/>
+    <col min="5386" max="5386" width="14.42578125" style="40" customWidth="1"/>
+    <col min="5387" max="5387" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="3.7109375" style="40" customWidth="1"/>
+    <col min="5389" max="5389" width="11.42578125" style="40"/>
+    <col min="5390" max="5390" width="3.85546875" style="40" customWidth="1"/>
+    <col min="5391" max="5391" width="11.42578125" style="40"/>
+    <col min="5392" max="5392" width="3.140625" style="40" customWidth="1"/>
+    <col min="5393" max="5393" width="7.140625" style="40" customWidth="1"/>
+    <col min="5394" max="5394" width="14.85546875" style="40" customWidth="1"/>
+    <col min="5395" max="5636" width="11.42578125" style="40"/>
     <col min="5637" max="5637" width="21" style="40" customWidth="1"/>
-    <col min="5638" max="5638" width="16.88671875" style="40" customWidth="1"/>
-    <col min="5639" max="5639" width="16.109375" style="40" customWidth="1"/>
-    <col min="5640" max="5640" width="13.33203125" style="40" customWidth="1"/>
-    <col min="5641" max="5641" width="14.5546875" style="40" customWidth="1"/>
-    <col min="5642" max="5642" width="14.44140625" style="40" customWidth="1"/>
-    <col min="5643" max="5643" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="3.6640625" style="40" customWidth="1"/>
-    <col min="5645" max="5645" width="11.44140625" style="40"/>
-    <col min="5646" max="5646" width="3.88671875" style="40" customWidth="1"/>
-    <col min="5647" max="5647" width="11.44140625" style="40"/>
-    <col min="5648" max="5648" width="3.109375" style="40" customWidth="1"/>
-    <col min="5649" max="5649" width="7.109375" style="40" customWidth="1"/>
-    <col min="5650" max="5650" width="14.88671875" style="40" customWidth="1"/>
-    <col min="5651" max="5892" width="11.44140625" style="40"/>
+    <col min="5638" max="5638" width="16.85546875" style="40" customWidth="1"/>
+    <col min="5639" max="5639" width="16.140625" style="40" customWidth="1"/>
+    <col min="5640" max="5640" width="13.28515625" style="40" customWidth="1"/>
+    <col min="5641" max="5641" width="14.5703125" style="40" customWidth="1"/>
+    <col min="5642" max="5642" width="14.42578125" style="40" customWidth="1"/>
+    <col min="5643" max="5643" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="3.7109375" style="40" customWidth="1"/>
+    <col min="5645" max="5645" width="11.42578125" style="40"/>
+    <col min="5646" max="5646" width="3.85546875" style="40" customWidth="1"/>
+    <col min="5647" max="5647" width="11.42578125" style="40"/>
+    <col min="5648" max="5648" width="3.140625" style="40" customWidth="1"/>
+    <col min="5649" max="5649" width="7.140625" style="40" customWidth="1"/>
+    <col min="5650" max="5650" width="14.85546875" style="40" customWidth="1"/>
+    <col min="5651" max="5892" width="11.42578125" style="40"/>
     <col min="5893" max="5893" width="21" style="40" customWidth="1"/>
-    <col min="5894" max="5894" width="16.88671875" style="40" customWidth="1"/>
-    <col min="5895" max="5895" width="16.109375" style="40" customWidth="1"/>
-    <col min="5896" max="5896" width="13.33203125" style="40" customWidth="1"/>
-    <col min="5897" max="5897" width="14.5546875" style="40" customWidth="1"/>
-    <col min="5898" max="5898" width="14.44140625" style="40" customWidth="1"/>
-    <col min="5899" max="5899" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="3.6640625" style="40" customWidth="1"/>
-    <col min="5901" max="5901" width="11.44140625" style="40"/>
-    <col min="5902" max="5902" width="3.88671875" style="40" customWidth="1"/>
-    <col min="5903" max="5903" width="11.44140625" style="40"/>
-    <col min="5904" max="5904" width="3.109375" style="40" customWidth="1"/>
-    <col min="5905" max="5905" width="7.109375" style="40" customWidth="1"/>
-    <col min="5906" max="5906" width="14.88671875" style="40" customWidth="1"/>
-    <col min="5907" max="6148" width="11.44140625" style="40"/>
+    <col min="5894" max="5894" width="16.85546875" style="40" customWidth="1"/>
+    <col min="5895" max="5895" width="16.140625" style="40" customWidth="1"/>
+    <col min="5896" max="5896" width="13.28515625" style="40" customWidth="1"/>
+    <col min="5897" max="5897" width="14.5703125" style="40" customWidth="1"/>
+    <col min="5898" max="5898" width="14.42578125" style="40" customWidth="1"/>
+    <col min="5899" max="5899" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="3.7109375" style="40" customWidth="1"/>
+    <col min="5901" max="5901" width="11.42578125" style="40"/>
+    <col min="5902" max="5902" width="3.85546875" style="40" customWidth="1"/>
+    <col min="5903" max="5903" width="11.42578125" style="40"/>
+    <col min="5904" max="5904" width="3.140625" style="40" customWidth="1"/>
+    <col min="5905" max="5905" width="7.140625" style="40" customWidth="1"/>
+    <col min="5906" max="5906" width="14.85546875" style="40" customWidth="1"/>
+    <col min="5907" max="6148" width="11.42578125" style="40"/>
     <col min="6149" max="6149" width="21" style="40" customWidth="1"/>
-    <col min="6150" max="6150" width="16.88671875" style="40" customWidth="1"/>
-    <col min="6151" max="6151" width="16.109375" style="40" customWidth="1"/>
-    <col min="6152" max="6152" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6153" max="6153" width="14.5546875" style="40" customWidth="1"/>
-    <col min="6154" max="6154" width="14.44140625" style="40" customWidth="1"/>
-    <col min="6155" max="6155" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="3.6640625" style="40" customWidth="1"/>
-    <col min="6157" max="6157" width="11.44140625" style="40"/>
-    <col min="6158" max="6158" width="3.88671875" style="40" customWidth="1"/>
-    <col min="6159" max="6159" width="11.44140625" style="40"/>
-    <col min="6160" max="6160" width="3.109375" style="40" customWidth="1"/>
-    <col min="6161" max="6161" width="7.109375" style="40" customWidth="1"/>
-    <col min="6162" max="6162" width="14.88671875" style="40" customWidth="1"/>
-    <col min="6163" max="6404" width="11.44140625" style="40"/>
+    <col min="6150" max="6150" width="16.85546875" style="40" customWidth="1"/>
+    <col min="6151" max="6151" width="16.140625" style="40" customWidth="1"/>
+    <col min="6152" max="6152" width="13.28515625" style="40" customWidth="1"/>
+    <col min="6153" max="6153" width="14.5703125" style="40" customWidth="1"/>
+    <col min="6154" max="6154" width="14.42578125" style="40" customWidth="1"/>
+    <col min="6155" max="6155" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="3.7109375" style="40" customWidth="1"/>
+    <col min="6157" max="6157" width="11.42578125" style="40"/>
+    <col min="6158" max="6158" width="3.85546875" style="40" customWidth="1"/>
+    <col min="6159" max="6159" width="11.42578125" style="40"/>
+    <col min="6160" max="6160" width="3.140625" style="40" customWidth="1"/>
+    <col min="6161" max="6161" width="7.140625" style="40" customWidth="1"/>
+    <col min="6162" max="6162" width="14.85546875" style="40" customWidth="1"/>
+    <col min="6163" max="6404" width="11.42578125" style="40"/>
     <col min="6405" max="6405" width="21" style="40" customWidth="1"/>
-    <col min="6406" max="6406" width="16.88671875" style="40" customWidth="1"/>
-    <col min="6407" max="6407" width="16.109375" style="40" customWidth="1"/>
-    <col min="6408" max="6408" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6409" max="6409" width="14.5546875" style="40" customWidth="1"/>
-    <col min="6410" max="6410" width="14.44140625" style="40" customWidth="1"/>
-    <col min="6411" max="6411" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="3.6640625" style="40" customWidth="1"/>
-    <col min="6413" max="6413" width="11.44140625" style="40"/>
-    <col min="6414" max="6414" width="3.88671875" style="40" customWidth="1"/>
-    <col min="6415" max="6415" width="11.44140625" style="40"/>
-    <col min="6416" max="6416" width="3.109375" style="40" customWidth="1"/>
-    <col min="6417" max="6417" width="7.109375" style="40" customWidth="1"/>
-    <col min="6418" max="6418" width="14.88671875" style="40" customWidth="1"/>
-    <col min="6419" max="6660" width="11.44140625" style="40"/>
+    <col min="6406" max="6406" width="16.85546875" style="40" customWidth="1"/>
+    <col min="6407" max="6407" width="16.140625" style="40" customWidth="1"/>
+    <col min="6408" max="6408" width="13.28515625" style="40" customWidth="1"/>
+    <col min="6409" max="6409" width="14.5703125" style="40" customWidth="1"/>
+    <col min="6410" max="6410" width="14.42578125" style="40" customWidth="1"/>
+    <col min="6411" max="6411" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="3.7109375" style="40" customWidth="1"/>
+    <col min="6413" max="6413" width="11.42578125" style="40"/>
+    <col min="6414" max="6414" width="3.85546875" style="40" customWidth="1"/>
+    <col min="6415" max="6415" width="11.42578125" style="40"/>
+    <col min="6416" max="6416" width="3.140625" style="40" customWidth="1"/>
+    <col min="6417" max="6417" width="7.140625" style="40" customWidth="1"/>
+    <col min="6418" max="6418" width="14.85546875" style="40" customWidth="1"/>
+    <col min="6419" max="6660" width="11.42578125" style="40"/>
     <col min="6661" max="6661" width="21" style="40" customWidth="1"/>
-    <col min="6662" max="6662" width="16.88671875" style="40" customWidth="1"/>
-    <col min="6663" max="6663" width="16.109375" style="40" customWidth="1"/>
-    <col min="6664" max="6664" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6665" max="6665" width="14.5546875" style="40" customWidth="1"/>
-    <col min="6666" max="6666" width="14.44140625" style="40" customWidth="1"/>
-    <col min="6667" max="6667" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="3.6640625" style="40" customWidth="1"/>
-    <col min="6669" max="6669" width="11.44140625" style="40"/>
-    <col min="6670" max="6670" width="3.88671875" style="40" customWidth="1"/>
-    <col min="6671" max="6671" width="11.44140625" style="40"/>
-    <col min="6672" max="6672" width="3.109375" style="40" customWidth="1"/>
-    <col min="6673" max="6673" width="7.109375" style="40" customWidth="1"/>
-    <col min="6674" max="6674" width="14.88671875" style="40" customWidth="1"/>
-    <col min="6675" max="6916" width="11.44140625" style="40"/>
+    <col min="6662" max="6662" width="16.85546875" style="40" customWidth="1"/>
+    <col min="6663" max="6663" width="16.140625" style="40" customWidth="1"/>
+    <col min="6664" max="6664" width="13.28515625" style="40" customWidth="1"/>
+    <col min="6665" max="6665" width="14.5703125" style="40" customWidth="1"/>
+    <col min="6666" max="6666" width="14.42578125" style="40" customWidth="1"/>
+    <col min="6667" max="6667" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="3.7109375" style="40" customWidth="1"/>
+    <col min="6669" max="6669" width="11.42578125" style="40"/>
+    <col min="6670" max="6670" width="3.85546875" style="40" customWidth="1"/>
+    <col min="6671" max="6671" width="11.42578125" style="40"/>
+    <col min="6672" max="6672" width="3.140625" style="40" customWidth="1"/>
+    <col min="6673" max="6673" width="7.140625" style="40" customWidth="1"/>
+    <col min="6674" max="6674" width="14.85546875" style="40" customWidth="1"/>
+    <col min="6675" max="6916" width="11.42578125" style="40"/>
     <col min="6917" max="6917" width="21" style="40" customWidth="1"/>
-    <col min="6918" max="6918" width="16.88671875" style="40" customWidth="1"/>
-    <col min="6919" max="6919" width="16.109375" style="40" customWidth="1"/>
-    <col min="6920" max="6920" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6921" max="6921" width="14.5546875" style="40" customWidth="1"/>
-    <col min="6922" max="6922" width="14.44140625" style="40" customWidth="1"/>
-    <col min="6923" max="6923" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="3.6640625" style="40" customWidth="1"/>
-    <col min="6925" max="6925" width="11.44140625" style="40"/>
-    <col min="6926" max="6926" width="3.88671875" style="40" customWidth="1"/>
-    <col min="6927" max="6927" width="11.44140625" style="40"/>
-    <col min="6928" max="6928" width="3.109375" style="40" customWidth="1"/>
-    <col min="6929" max="6929" width="7.109375" style="40" customWidth="1"/>
-    <col min="6930" max="6930" width="14.88671875" style="40" customWidth="1"/>
-    <col min="6931" max="7172" width="11.44140625" style="40"/>
+    <col min="6918" max="6918" width="16.85546875" style="40" customWidth="1"/>
+    <col min="6919" max="6919" width="16.140625" style="40" customWidth="1"/>
+    <col min="6920" max="6920" width="13.28515625" style="40" customWidth="1"/>
+    <col min="6921" max="6921" width="14.5703125" style="40" customWidth="1"/>
+    <col min="6922" max="6922" width="14.42578125" style="40" customWidth="1"/>
+    <col min="6923" max="6923" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="3.7109375" style="40" customWidth="1"/>
+    <col min="6925" max="6925" width="11.42578125" style="40"/>
+    <col min="6926" max="6926" width="3.85546875" style="40" customWidth="1"/>
+    <col min="6927" max="6927" width="11.42578125" style="40"/>
+    <col min="6928" max="6928" width="3.140625" style="40" customWidth="1"/>
+    <col min="6929" max="6929" width="7.140625" style="40" customWidth="1"/>
+    <col min="6930" max="6930" width="14.85546875" style="40" customWidth="1"/>
+    <col min="6931" max="7172" width="11.42578125" style="40"/>
     <col min="7173" max="7173" width="21" style="40" customWidth="1"/>
-    <col min="7174" max="7174" width="16.88671875" style="40" customWidth="1"/>
-    <col min="7175" max="7175" width="16.109375" style="40" customWidth="1"/>
-    <col min="7176" max="7176" width="13.33203125" style="40" customWidth="1"/>
-    <col min="7177" max="7177" width="14.5546875" style="40" customWidth="1"/>
-    <col min="7178" max="7178" width="14.44140625" style="40" customWidth="1"/>
-    <col min="7179" max="7179" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="3.6640625" style="40" customWidth="1"/>
-    <col min="7181" max="7181" width="11.44140625" style="40"/>
-    <col min="7182" max="7182" width="3.88671875" style="40" customWidth="1"/>
-    <col min="7183" max="7183" width="11.44140625" style="40"/>
-    <col min="7184" max="7184" width="3.109375" style="40" customWidth="1"/>
-    <col min="7185" max="7185" width="7.109375" style="40" customWidth="1"/>
-    <col min="7186" max="7186" width="14.88671875" style="40" customWidth="1"/>
-    <col min="7187" max="7428" width="11.44140625" style="40"/>
+    <col min="7174" max="7174" width="16.85546875" style="40" customWidth="1"/>
+    <col min="7175" max="7175" width="16.140625" style="40" customWidth="1"/>
+    <col min="7176" max="7176" width="13.28515625" style="40" customWidth="1"/>
+    <col min="7177" max="7177" width="14.5703125" style="40" customWidth="1"/>
+    <col min="7178" max="7178" width="14.42578125" style="40" customWidth="1"/>
+    <col min="7179" max="7179" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="3.7109375" style="40" customWidth="1"/>
+    <col min="7181" max="7181" width="11.42578125" style="40"/>
+    <col min="7182" max="7182" width="3.85546875" style="40" customWidth="1"/>
+    <col min="7183" max="7183" width="11.42578125" style="40"/>
+    <col min="7184" max="7184" width="3.140625" style="40" customWidth="1"/>
+    <col min="7185" max="7185" width="7.140625" style="40" customWidth="1"/>
+    <col min="7186" max="7186" width="14.85546875" style="40" customWidth="1"/>
+    <col min="7187" max="7428" width="11.42578125" style="40"/>
     <col min="7429" max="7429" width="21" style="40" customWidth="1"/>
-    <col min="7430" max="7430" width="16.88671875" style="40" customWidth="1"/>
-    <col min="7431" max="7431" width="16.109375" style="40" customWidth="1"/>
-    <col min="7432" max="7432" width="13.33203125" style="40" customWidth="1"/>
-    <col min="7433" max="7433" width="14.5546875" style="40" customWidth="1"/>
-    <col min="7434" max="7434" width="14.44140625" style="40" customWidth="1"/>
-    <col min="7435" max="7435" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="3.6640625" style="40" customWidth="1"/>
-    <col min="7437" max="7437" width="11.44140625" style="40"/>
-    <col min="7438" max="7438" width="3.88671875" style="40" customWidth="1"/>
-    <col min="7439" max="7439" width="11.44140625" style="40"/>
-    <col min="7440" max="7440" width="3.109375" style="40" customWidth="1"/>
-    <col min="7441" max="7441" width="7.109375" style="40" customWidth="1"/>
-    <col min="7442" max="7442" width="14.88671875" style="40" customWidth="1"/>
-    <col min="7443" max="7684" width="11.44140625" style="40"/>
+    <col min="7430" max="7430" width="16.85546875" style="40" customWidth="1"/>
+    <col min="7431" max="7431" width="16.140625" style="40" customWidth="1"/>
+    <col min="7432" max="7432" width="13.28515625" style="40" customWidth="1"/>
+    <col min="7433" max="7433" width="14.5703125" style="40" customWidth="1"/>
+    <col min="7434" max="7434" width="14.42578125" style="40" customWidth="1"/>
+    <col min="7435" max="7435" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="3.7109375" style="40" customWidth="1"/>
+    <col min="7437" max="7437" width="11.42578125" style="40"/>
+    <col min="7438" max="7438" width="3.85546875" style="40" customWidth="1"/>
+    <col min="7439" max="7439" width="11.42578125" style="40"/>
+    <col min="7440" max="7440" width="3.140625" style="40" customWidth="1"/>
+    <col min="7441" max="7441" width="7.140625" style="40" customWidth="1"/>
+    <col min="7442" max="7442" width="14.85546875" style="40" customWidth="1"/>
+    <col min="7443" max="7684" width="11.42578125" style="40"/>
     <col min="7685" max="7685" width="21" style="40" customWidth="1"/>
-    <col min="7686" max="7686" width="16.88671875" style="40" customWidth="1"/>
-    <col min="7687" max="7687" width="16.109375" style="40" customWidth="1"/>
-    <col min="7688" max="7688" width="13.33203125" style="40" customWidth="1"/>
-    <col min="7689" max="7689" width="14.5546875" style="40" customWidth="1"/>
-    <col min="7690" max="7690" width="14.44140625" style="40" customWidth="1"/>
-    <col min="7691" max="7691" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="3.6640625" style="40" customWidth="1"/>
-    <col min="7693" max="7693" width="11.44140625" style="40"/>
-    <col min="7694" max="7694" width="3.88671875" style="40" customWidth="1"/>
-    <col min="7695" max="7695" width="11.44140625" style="40"/>
-    <col min="7696" max="7696" width="3.109375" style="40" customWidth="1"/>
-    <col min="7697" max="7697" width="7.109375" style="40" customWidth="1"/>
-    <col min="7698" max="7698" width="14.88671875" style="40" customWidth="1"/>
-    <col min="7699" max="7940" width="11.44140625" style="40"/>
+    <col min="7686" max="7686" width="16.85546875" style="40" customWidth="1"/>
+    <col min="7687" max="7687" width="16.140625" style="40" customWidth="1"/>
+    <col min="7688" max="7688" width="13.28515625" style="40" customWidth="1"/>
+    <col min="7689" max="7689" width="14.5703125" style="40" customWidth="1"/>
+    <col min="7690" max="7690" width="14.42578125" style="40" customWidth="1"/>
+    <col min="7691" max="7691" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="3.7109375" style="40" customWidth="1"/>
+    <col min="7693" max="7693" width="11.42578125" style="40"/>
+    <col min="7694" max="7694" width="3.85546875" style="40" customWidth="1"/>
+    <col min="7695" max="7695" width="11.42578125" style="40"/>
+    <col min="7696" max="7696" width="3.140625" style="40" customWidth="1"/>
+    <col min="7697" max="7697" width="7.140625" style="40" customWidth="1"/>
+    <col min="7698" max="7698" width="14.85546875" style="40" customWidth="1"/>
+    <col min="7699" max="7940" width="11.42578125" style="40"/>
     <col min="7941" max="7941" width="21" style="40" customWidth="1"/>
-    <col min="7942" max="7942" width="16.88671875" style="40" customWidth="1"/>
-    <col min="7943" max="7943" width="16.109375" style="40" customWidth="1"/>
-    <col min="7944" max="7944" width="13.33203125" style="40" customWidth="1"/>
-    <col min="7945" max="7945" width="14.5546875" style="40" customWidth="1"/>
-    <col min="7946" max="7946" width="14.44140625" style="40" customWidth="1"/>
-    <col min="7947" max="7947" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="3.6640625" style="40" customWidth="1"/>
-    <col min="7949" max="7949" width="11.44140625" style="40"/>
-    <col min="7950" max="7950" width="3.88671875" style="40" customWidth="1"/>
-    <col min="7951" max="7951" width="11.44140625" style="40"/>
-    <col min="7952" max="7952" width="3.109375" style="40" customWidth="1"/>
-    <col min="7953" max="7953" width="7.109375" style="40" customWidth="1"/>
-    <col min="7954" max="7954" width="14.88671875" style="40" customWidth="1"/>
-    <col min="7955" max="8196" width="11.44140625" style="40"/>
+    <col min="7942" max="7942" width="16.85546875" style="40" customWidth="1"/>
+    <col min="7943" max="7943" width="16.140625" style="40" customWidth="1"/>
+    <col min="7944" max="7944" width="13.28515625" style="40" customWidth="1"/>
+    <col min="7945" max="7945" width="14.5703125" style="40" customWidth="1"/>
+    <col min="7946" max="7946" width="14.42578125" style="40" customWidth="1"/>
+    <col min="7947" max="7947" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="3.7109375" style="40" customWidth="1"/>
+    <col min="7949" max="7949" width="11.42578125" style="40"/>
+    <col min="7950" max="7950" width="3.85546875" style="40" customWidth="1"/>
+    <col min="7951" max="7951" width="11.42578125" style="40"/>
+    <col min="7952" max="7952" width="3.140625" style="40" customWidth="1"/>
+    <col min="7953" max="7953" width="7.140625" style="40" customWidth="1"/>
+    <col min="7954" max="7954" width="14.85546875" style="40" customWidth="1"/>
+    <col min="7955" max="8196" width="11.42578125" style="40"/>
     <col min="8197" max="8197" width="21" style="40" customWidth="1"/>
-    <col min="8198" max="8198" width="16.88671875" style="40" customWidth="1"/>
-    <col min="8199" max="8199" width="16.109375" style="40" customWidth="1"/>
-    <col min="8200" max="8200" width="13.33203125" style="40" customWidth="1"/>
-    <col min="8201" max="8201" width="14.5546875" style="40" customWidth="1"/>
-    <col min="8202" max="8202" width="14.44140625" style="40" customWidth="1"/>
-    <col min="8203" max="8203" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="3.6640625" style="40" customWidth="1"/>
-    <col min="8205" max="8205" width="11.44140625" style="40"/>
-    <col min="8206" max="8206" width="3.88671875" style="40" customWidth="1"/>
-    <col min="8207" max="8207" width="11.44140625" style="40"/>
-    <col min="8208" max="8208" width="3.109375" style="40" customWidth="1"/>
-    <col min="8209" max="8209" width="7.109375" style="40" customWidth="1"/>
-    <col min="8210" max="8210" width="14.88671875" style="40" customWidth="1"/>
-    <col min="8211" max="8452" width="11.44140625" style="40"/>
+    <col min="8198" max="8198" width="16.85546875" style="40" customWidth="1"/>
+    <col min="8199" max="8199" width="16.140625" style="40" customWidth="1"/>
+    <col min="8200" max="8200" width="13.28515625" style="40" customWidth="1"/>
+    <col min="8201" max="8201" width="14.5703125" style="40" customWidth="1"/>
+    <col min="8202" max="8202" width="14.42578125" style="40" customWidth="1"/>
+    <col min="8203" max="8203" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="3.7109375" style="40" customWidth="1"/>
+    <col min="8205" max="8205" width="11.42578125" style="40"/>
+    <col min="8206" max="8206" width="3.85546875" style="40" customWidth="1"/>
+    <col min="8207" max="8207" width="11.42578125" style="40"/>
+    <col min="8208" max="8208" width="3.140625" style="40" customWidth="1"/>
+    <col min="8209" max="8209" width="7.140625" style="40" customWidth="1"/>
+    <col min="8210" max="8210" width="14.85546875" style="40" customWidth="1"/>
+    <col min="8211" max="8452" width="11.42578125" style="40"/>
     <col min="8453" max="8453" width="21" style="40" customWidth="1"/>
-    <col min="8454" max="8454" width="16.88671875" style="40" customWidth="1"/>
-    <col min="8455" max="8455" width="16.109375" style="40" customWidth="1"/>
-    <col min="8456" max="8456" width="13.33203125" style="40" customWidth="1"/>
-    <col min="8457" max="8457" width="14.5546875" style="40" customWidth="1"/>
-    <col min="8458" max="8458" width="14.44140625" style="40" customWidth="1"/>
-    <col min="8459" max="8459" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="3.6640625" style="40" customWidth="1"/>
-    <col min="8461" max="8461" width="11.44140625" style="40"/>
-    <col min="8462" max="8462" width="3.88671875" style="40" customWidth="1"/>
-    <col min="8463" max="8463" width="11.44140625" style="40"/>
-    <col min="8464" max="8464" width="3.109375" style="40" customWidth="1"/>
-    <col min="8465" max="8465" width="7.109375" style="40" customWidth="1"/>
-    <col min="8466" max="8466" width="14.88671875" style="40" customWidth="1"/>
-    <col min="8467" max="8708" width="11.44140625" style="40"/>
+    <col min="8454" max="8454" width="16.85546875" style="40" customWidth="1"/>
+    <col min="8455" max="8455" width="16.140625" style="40" customWidth="1"/>
+    <col min="8456" max="8456" width="13.28515625" style="40" customWidth="1"/>
+    <col min="8457" max="8457" width="14.5703125" style="40" customWidth="1"/>
+    <col min="8458" max="8458" width="14.42578125" style="40" customWidth="1"/>
+    <col min="8459" max="8459" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="3.7109375" style="40" customWidth="1"/>
+    <col min="8461" max="8461" width="11.42578125" style="40"/>
+    <col min="8462" max="8462" width="3.85546875" style="40" customWidth="1"/>
+    <col min="8463" max="8463" width="11.42578125" style="40"/>
+    <col min="8464" max="8464" width="3.140625" style="40" customWidth="1"/>
+    <col min="8465" max="8465" width="7.140625" style="40" customWidth="1"/>
+    <col min="8466" max="8466" width="14.85546875" style="40" customWidth="1"/>
+    <col min="8467" max="8708" width="11.42578125" style="40"/>
     <col min="8709" max="8709" width="21" style="40" customWidth="1"/>
-    <col min="8710" max="8710" width="16.88671875" style="40" customWidth="1"/>
-    <col min="8711" max="8711" width="16.109375" style="40" customWidth="1"/>
-    <col min="8712" max="8712" width="13.33203125" style="40" customWidth="1"/>
-    <col min="8713" max="8713" width="14.5546875" style="40" customWidth="1"/>
-    <col min="8714" max="8714" width="14.44140625" style="40" customWidth="1"/>
-    <col min="8715" max="8715" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="3.6640625" style="40" customWidth="1"/>
-    <col min="8717" max="8717" width="11.44140625" style="40"/>
-    <col min="8718" max="8718" width="3.88671875" style="40" customWidth="1"/>
-    <col min="8719" max="8719" width="11.44140625" style="40"/>
-    <col min="8720" max="8720" width="3.109375" style="40" customWidth="1"/>
-    <col min="8721" max="8721" width="7.109375" style="40" customWidth="1"/>
-    <col min="8722" max="8722" width="14.88671875" style="40" customWidth="1"/>
-    <col min="8723" max="8964" width="11.44140625" style="40"/>
+    <col min="8710" max="8710" width="16.85546875" style="40" customWidth="1"/>
+    <col min="8711" max="8711" width="16.140625" style="40" customWidth="1"/>
+    <col min="8712" max="8712" width="13.28515625" style="40" customWidth="1"/>
+    <col min="8713" max="8713" width="14.5703125" style="40" customWidth="1"/>
+    <col min="8714" max="8714" width="14.42578125" style="40" customWidth="1"/>
+    <col min="8715" max="8715" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="3.7109375" style="40" customWidth="1"/>
+    <col min="8717" max="8717" width="11.42578125" style="40"/>
+    <col min="8718" max="8718" width="3.85546875" style="40" customWidth="1"/>
+    <col min="8719" max="8719" width="11.42578125" style="40"/>
+    <col min="8720" max="8720" width="3.140625" style="40" customWidth="1"/>
+    <col min="8721" max="8721" width="7.140625" style="40" customWidth="1"/>
+    <col min="8722" max="8722" width="14.85546875" style="40" customWidth="1"/>
+    <col min="8723" max="8964" width="11.42578125" style="40"/>
     <col min="8965" max="8965" width="21" style="40" customWidth="1"/>
-    <col min="8966" max="8966" width="16.88671875" style="40" customWidth="1"/>
-    <col min="8967" max="8967" width="16.109375" style="40" customWidth="1"/>
-    <col min="8968" max="8968" width="13.33203125" style="40" customWidth="1"/>
-    <col min="8969" max="8969" width="14.5546875" style="40" customWidth="1"/>
-    <col min="8970" max="8970" width="14.44140625" style="40" customWidth="1"/>
-    <col min="8971" max="8971" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="3.6640625" style="40" customWidth="1"/>
-    <col min="8973" max="8973" width="11.44140625" style="40"/>
-    <col min="8974" max="8974" width="3.88671875" style="40" customWidth="1"/>
-    <col min="8975" max="8975" width="11.44140625" style="40"/>
-    <col min="8976" max="8976" width="3.109375" style="40" customWidth="1"/>
-    <col min="8977" max="8977" width="7.109375" style="40" customWidth="1"/>
-    <col min="8978" max="8978" width="14.88671875" style="40" customWidth="1"/>
-    <col min="8979" max="9220" width="11.44140625" style="40"/>
+    <col min="8966" max="8966" width="16.85546875" style="40" customWidth="1"/>
+    <col min="8967" max="8967" width="16.140625" style="40" customWidth="1"/>
+    <col min="8968" max="8968" width="13.28515625" style="40" customWidth="1"/>
+    <col min="8969" max="8969" width="14.5703125" style="40" customWidth="1"/>
+    <col min="8970" max="8970" width="14.42578125" style="40" customWidth="1"/>
+    <col min="8971" max="8971" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="3.7109375" style="40" customWidth="1"/>
+    <col min="8973" max="8973" width="11.42578125" style="40"/>
+    <col min="8974" max="8974" width="3.85546875" style="40" customWidth="1"/>
+    <col min="8975" max="8975" width="11.42578125" style="40"/>
+    <col min="8976" max="8976" width="3.140625" style="40" customWidth="1"/>
+    <col min="8977" max="8977" width="7.140625" style="40" customWidth="1"/>
+    <col min="8978" max="8978" width="14.85546875" style="40" customWidth="1"/>
+    <col min="8979" max="9220" width="11.42578125" style="40"/>
     <col min="9221" max="9221" width="21" style="40" customWidth="1"/>
-    <col min="9222" max="9222" width="16.88671875" style="40" customWidth="1"/>
-    <col min="9223" max="9223" width="16.109375" style="40" customWidth="1"/>
-    <col min="9224" max="9224" width="13.33203125" style="40" customWidth="1"/>
-    <col min="9225" max="9225" width="14.5546875" style="40" customWidth="1"/>
-    <col min="9226" max="9226" width="14.44140625" style="40" customWidth="1"/>
-    <col min="9227" max="9227" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="3.6640625" style="40" customWidth="1"/>
-    <col min="9229" max="9229" width="11.44140625" style="40"/>
-    <col min="9230" max="9230" width="3.88671875" style="40" customWidth="1"/>
-    <col min="9231" max="9231" width="11.44140625" style="40"/>
-    <col min="9232" max="9232" width="3.109375" style="40" customWidth="1"/>
-    <col min="9233" max="9233" width="7.109375" style="40" customWidth="1"/>
-    <col min="9234" max="9234" width="14.88671875" style="40" customWidth="1"/>
-    <col min="9235" max="9476" width="11.44140625" style="40"/>
+    <col min="9222" max="9222" width="16.85546875" style="40" customWidth="1"/>
+    <col min="9223" max="9223" width="16.140625" style="40" customWidth="1"/>
+    <col min="9224" max="9224" width="13.28515625" style="40" customWidth="1"/>
+    <col min="9225" max="9225" width="14.5703125" style="40" customWidth="1"/>
+    <col min="9226" max="9226" width="14.42578125" style="40" customWidth="1"/>
+    <col min="9227" max="9227" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="3.7109375" style="40" customWidth="1"/>
+    <col min="9229" max="9229" width="11.42578125" style="40"/>
+    <col min="9230" max="9230" width="3.85546875" style="40" customWidth="1"/>
+    <col min="9231" max="9231" width="11.42578125" style="40"/>
+    <col min="9232" max="9232" width="3.140625" style="40" customWidth="1"/>
+    <col min="9233" max="9233" width="7.140625" style="40" customWidth="1"/>
+    <col min="9234" max="9234" width="14.85546875" style="40" customWidth="1"/>
+    <col min="9235" max="9476" width="11.42578125" style="40"/>
     <col min="9477" max="9477" width="21" style="40" customWidth="1"/>
-    <col min="9478" max="9478" width="16.88671875" style="40" customWidth="1"/>
-    <col min="9479" max="9479" width="16.109375" style="40" customWidth="1"/>
-    <col min="9480" max="9480" width="13.33203125" style="40" customWidth="1"/>
-    <col min="9481" max="9481" width="14.5546875" style="40" customWidth="1"/>
-    <col min="9482" max="9482" width="14.44140625" style="40" customWidth="1"/>
-    <col min="9483" max="9483" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="3.6640625" style="40" customWidth="1"/>
-    <col min="9485" max="9485" width="11.44140625" style="40"/>
-    <col min="9486" max="9486" width="3.88671875" style="40" customWidth="1"/>
-    <col min="9487" max="9487" width="11.44140625" style="40"/>
-    <col min="9488" max="9488" width="3.109375" style="40" customWidth="1"/>
-    <col min="9489" max="9489" width="7.109375" style="40" customWidth="1"/>
-    <col min="9490" max="9490" width="14.88671875" style="40" customWidth="1"/>
-    <col min="9491" max="9732" width="11.44140625" style="40"/>
+    <col min="9478" max="9478" width="16.85546875" style="40" customWidth="1"/>
+    <col min="9479" max="9479" width="16.140625" style="40" customWidth="1"/>
+    <col min="9480" max="9480" width="13.28515625" style="40" customWidth="1"/>
+    <col min="9481" max="9481" width="14.5703125" style="40" customWidth="1"/>
+    <col min="9482" max="9482" width="14.42578125" style="40" customWidth="1"/>
+    <col min="9483" max="9483" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="3.7109375" style="40" customWidth="1"/>
+    <col min="9485" max="9485" width="11.42578125" style="40"/>
+    <col min="9486" max="9486" width="3.85546875" style="40" customWidth="1"/>
+    <col min="9487" max="9487" width="11.42578125" style="40"/>
+    <col min="9488" max="9488" width="3.140625" style="40" customWidth="1"/>
+    <col min="9489" max="9489" width="7.140625" style="40" customWidth="1"/>
+    <col min="9490" max="9490" width="14.85546875" style="40" customWidth="1"/>
+    <col min="9491" max="9732" width="11.42578125" style="40"/>
     <col min="9733" max="9733" width="21" style="40" customWidth="1"/>
-    <col min="9734" max="9734" width="16.88671875" style="40" customWidth="1"/>
-    <col min="9735" max="9735" width="16.109375" style="40" customWidth="1"/>
-    <col min="9736" max="9736" width="13.33203125" style="40" customWidth="1"/>
-    <col min="9737" max="9737" width="14.5546875" style="40" customWidth="1"/>
-    <col min="9738" max="9738" width="14.44140625" style="40" customWidth="1"/>
-    <col min="9739" max="9739" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="3.6640625" style="40" customWidth="1"/>
-    <col min="9741" max="9741" width="11.44140625" style="40"/>
-    <col min="9742" max="9742" width="3.88671875" style="40" customWidth="1"/>
-    <col min="9743" max="9743" width="11.44140625" style="40"/>
-    <col min="9744" max="9744" width="3.109375" style="40" customWidth="1"/>
-    <col min="9745" max="9745" width="7.109375" style="40" customWidth="1"/>
-    <col min="9746" max="9746" width="14.88671875" style="40" customWidth="1"/>
-    <col min="9747" max="9988" width="11.44140625" style="40"/>
+    <col min="9734" max="9734" width="16.85546875" style="40" customWidth="1"/>
+    <col min="9735" max="9735" width="16.140625" style="40" customWidth="1"/>
+    <col min="9736" max="9736" width="13.28515625" style="40" customWidth="1"/>
+    <col min="9737" max="9737" width="14.5703125" style="40" customWidth="1"/>
+    <col min="9738" max="9738" width="14.42578125" style="40" customWidth="1"/>
+    <col min="9739" max="9739" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="3.7109375" style="40" customWidth="1"/>
+    <col min="9741" max="9741" width="11.42578125" style="40"/>
+    <col min="9742" max="9742" width="3.85546875" style="40" customWidth="1"/>
+    <col min="9743" max="9743" width="11.42578125" style="40"/>
+    <col min="9744" max="9744" width="3.140625" style="40" customWidth="1"/>
+    <col min="9745" max="9745" width="7.140625" style="40" customWidth="1"/>
+    <col min="9746" max="9746" width="14.85546875" style="40" customWidth="1"/>
+    <col min="9747" max="9988" width="11.42578125" style="40"/>
     <col min="9989" max="9989" width="21" style="40" customWidth="1"/>
-    <col min="9990" max="9990" width="16.88671875" style="40" customWidth="1"/>
-    <col min="9991" max="9991" width="16.109375" style="40" customWidth="1"/>
-    <col min="9992" max="9992" width="13.33203125" style="40" customWidth="1"/>
-    <col min="9993" max="9993" width="14.5546875" style="40" customWidth="1"/>
-    <col min="9994" max="9994" width="14.44140625" style="40" customWidth="1"/>
-    <col min="9995" max="9995" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="3.6640625" style="40" customWidth="1"/>
-    <col min="9997" max="9997" width="11.44140625" style="40"/>
-    <col min="9998" max="9998" width="3.88671875" style="40" customWidth="1"/>
-    <col min="9999" max="9999" width="11.44140625" style="40"/>
-    <col min="10000" max="10000" width="3.109375" style="40" customWidth="1"/>
-    <col min="10001" max="10001" width="7.109375" style="40" customWidth="1"/>
-    <col min="10002" max="10002" width="14.88671875" style="40" customWidth="1"/>
-    <col min="10003" max="10244" width="11.44140625" style="40"/>
+    <col min="9990" max="9990" width="16.85546875" style="40" customWidth="1"/>
+    <col min="9991" max="9991" width="16.140625" style="40" customWidth="1"/>
+    <col min="9992" max="9992" width="13.28515625" style="40" customWidth="1"/>
+    <col min="9993" max="9993" width="14.5703125" style="40" customWidth="1"/>
+    <col min="9994" max="9994" width="14.42578125" style="40" customWidth="1"/>
+    <col min="9995" max="9995" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="3.7109375" style="40" customWidth="1"/>
+    <col min="9997" max="9997" width="11.42578125" style="40"/>
+    <col min="9998" max="9998" width="3.85546875" style="40" customWidth="1"/>
+    <col min="9999" max="9999" width="11.42578125" style="40"/>
+    <col min="10000" max="10000" width="3.140625" style="40" customWidth="1"/>
+    <col min="10001" max="10001" width="7.140625" style="40" customWidth="1"/>
+    <col min="10002" max="10002" width="14.85546875" style="40" customWidth="1"/>
+    <col min="10003" max="10244" width="11.42578125" style="40"/>
     <col min="10245" max="10245" width="21" style="40" customWidth="1"/>
-    <col min="10246" max="10246" width="16.88671875" style="40" customWidth="1"/>
-    <col min="10247" max="10247" width="16.109375" style="40" customWidth="1"/>
-    <col min="10248" max="10248" width="13.33203125" style="40" customWidth="1"/>
-    <col min="10249" max="10249" width="14.5546875" style="40" customWidth="1"/>
-    <col min="10250" max="10250" width="14.44140625" style="40" customWidth="1"/>
-    <col min="10251" max="10251" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="3.6640625" style="40" customWidth="1"/>
-    <col min="10253" max="10253" width="11.44140625" style="40"/>
-    <col min="10254" max="10254" width="3.88671875" style="40" customWidth="1"/>
-    <col min="10255" max="10255" width="11.44140625" style="40"/>
-    <col min="10256" max="10256" width="3.109375" style="40" customWidth="1"/>
-    <col min="10257" max="10257" width="7.109375" style="40" customWidth="1"/>
-    <col min="10258" max="10258" width="14.88671875" style="40" customWidth="1"/>
-    <col min="10259" max="10500" width="11.44140625" style="40"/>
+    <col min="10246" max="10246" width="16.85546875" style="40" customWidth="1"/>
+    <col min="10247" max="10247" width="16.140625" style="40" customWidth="1"/>
+    <col min="10248" max="10248" width="13.28515625" style="40" customWidth="1"/>
+    <col min="10249" max="10249" width="14.5703125" style="40" customWidth="1"/>
+    <col min="10250" max="10250" width="14.42578125" style="40" customWidth="1"/>
+    <col min="10251" max="10251" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="3.7109375" style="40" customWidth="1"/>
+    <col min="10253" max="10253" width="11.42578125" style="40"/>
+    <col min="10254" max="10254" width="3.85546875" style="40" customWidth="1"/>
+    <col min="10255" max="10255" width="11.42578125" style="40"/>
+    <col min="10256" max="10256" width="3.140625" style="40" customWidth="1"/>
+    <col min="10257" max="10257" width="7.140625" style="40" customWidth="1"/>
+    <col min="10258" max="10258" width="14.85546875" style="40" customWidth="1"/>
+    <col min="10259" max="10500" width="11.42578125" style="40"/>
     <col min="10501" max="10501" width="21" style="40" customWidth="1"/>
-    <col min="10502" max="10502" width="16.88671875" style="40" customWidth="1"/>
-    <col min="10503" max="10503" width="16.109375" style="40" customWidth="1"/>
-    <col min="10504" max="10504" width="13.33203125" style="40" customWidth="1"/>
-    <col min="10505" max="10505" width="14.5546875" style="40" customWidth="1"/>
-    <col min="10506" max="10506" width="14.44140625" style="40" customWidth="1"/>
-    <col min="10507" max="10507" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="3.6640625" style="40" customWidth="1"/>
-    <col min="10509" max="10509" width="11.44140625" style="40"/>
-    <col min="10510" max="10510" width="3.88671875" style="40" customWidth="1"/>
-    <col min="10511" max="10511" width="11.44140625" style="40"/>
-    <col min="10512" max="10512" width="3.109375" style="40" customWidth="1"/>
-    <col min="10513" max="10513" width="7.109375" style="40" customWidth="1"/>
-    <col min="10514" max="10514" width="14.88671875" style="40" customWidth="1"/>
-    <col min="10515" max="10756" width="11.44140625" style="40"/>
+    <col min="10502" max="10502" width="16.85546875" style="40" customWidth="1"/>
+    <col min="10503" max="10503" width="16.140625" style="40" customWidth="1"/>
+    <col min="10504" max="10504" width="13.28515625" style="40" customWidth="1"/>
+    <col min="10505" max="10505" width="14.5703125" style="40" customWidth="1"/>
+    <col min="10506" max="10506" width="14.42578125" style="40" customWidth="1"/>
+    <col min="10507" max="10507" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="3.7109375" style="40" customWidth="1"/>
+    <col min="10509" max="10509" width="11.42578125" style="40"/>
+    <col min="10510" max="10510" width="3.85546875" style="40" customWidth="1"/>
+    <col min="10511" max="10511" width="11.42578125" style="40"/>
+    <col min="10512" max="10512" width="3.140625" style="40" customWidth="1"/>
+    <col min="10513" max="10513" width="7.140625" style="40" customWidth="1"/>
+    <col min="10514" max="10514" width="14.85546875" style="40" customWidth="1"/>
+    <col min="10515" max="10756" width="11.42578125" style="40"/>
     <col min="10757" max="10757" width="21" style="40" customWidth="1"/>
-    <col min="10758" max="10758" width="16.88671875" style="40" customWidth="1"/>
-    <col min="10759" max="10759" width="16.109375" style="40" customWidth="1"/>
-    <col min="10760" max="10760" width="13.33203125" style="40" customWidth="1"/>
-    <col min="10761" max="10761" width="14.5546875" style="40" customWidth="1"/>
-    <col min="10762" max="10762" width="14.44140625" style="40" customWidth="1"/>
-    <col min="10763" max="10763" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="3.6640625" style="40" customWidth="1"/>
-    <col min="10765" max="10765" width="11.44140625" style="40"/>
-    <col min="10766" max="10766" width="3.88671875" style="40" customWidth="1"/>
-    <col min="10767" max="10767" width="11.44140625" style="40"/>
-    <col min="10768" max="10768" width="3.109375" style="40" customWidth="1"/>
-    <col min="10769" max="10769" width="7.109375" style="40" customWidth="1"/>
-    <col min="10770" max="10770" width="14.88671875" style="40" customWidth="1"/>
-    <col min="10771" max="11012" width="11.44140625" style="40"/>
+    <col min="10758" max="10758" width="16.85546875" style="40" customWidth="1"/>
+    <col min="10759" max="10759" width="16.140625" style="40" customWidth="1"/>
+    <col min="10760" max="10760" width="13.28515625" style="40" customWidth="1"/>
+    <col min="10761" max="10761" width="14.5703125" style="40" customWidth="1"/>
+    <col min="10762" max="10762" width="14.42578125" style="40" customWidth="1"/>
+    <col min="10763" max="10763" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="3.7109375" style="40" customWidth="1"/>
+    <col min="10765" max="10765" width="11.42578125" style="40"/>
+    <col min="10766" max="10766" width="3.85546875" style="40" customWidth="1"/>
+    <col min="10767" max="10767" width="11.42578125" style="40"/>
+    <col min="10768" max="10768" width="3.140625" style="40" customWidth="1"/>
+    <col min="10769" max="10769" width="7.140625" style="40" customWidth="1"/>
+    <col min="10770" max="10770" width="14.85546875" style="40" customWidth="1"/>
+    <col min="10771" max="11012" width="11.42578125" style="40"/>
     <col min="11013" max="11013" width="21" style="40" customWidth="1"/>
-    <col min="11014" max="11014" width="16.88671875" style="40" customWidth="1"/>
-    <col min="11015" max="11015" width="16.109375" style="40" customWidth="1"/>
-    <col min="11016" max="11016" width="13.33203125" style="40" customWidth="1"/>
-    <col min="11017" max="11017" width="14.5546875" style="40" customWidth="1"/>
-    <col min="11018" max="11018" width="14.44140625" style="40" customWidth="1"/>
-    <col min="11019" max="11019" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="3.6640625" style="40" customWidth="1"/>
-    <col min="11021" max="11021" width="11.44140625" style="40"/>
-    <col min="11022" max="11022" width="3.88671875" style="40" customWidth="1"/>
-    <col min="11023" max="11023" width="11.44140625" style="40"/>
-    <col min="11024" max="11024" width="3.109375" style="40" customWidth="1"/>
-    <col min="11025" max="11025" width="7.109375" style="40" customWidth="1"/>
-    <col min="11026" max="11026" width="14.88671875" style="40" customWidth="1"/>
-    <col min="11027" max="11268" width="11.44140625" style="40"/>
+    <col min="11014" max="11014" width="16.85546875" style="40" customWidth="1"/>
+    <col min="11015" max="11015" width="16.140625" style="40" customWidth="1"/>
+    <col min="11016" max="11016" width="13.28515625" style="40" customWidth="1"/>
+    <col min="11017" max="11017" width="14.5703125" style="40" customWidth="1"/>
+    <col min="11018" max="11018" width="14.42578125" style="40" customWidth="1"/>
+    <col min="11019" max="11019" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="3.7109375" style="40" customWidth="1"/>
+    <col min="11021" max="11021" width="11.42578125" style="40"/>
+    <col min="11022" max="11022" width="3.85546875" style="40" customWidth="1"/>
+    <col min="11023" max="11023" width="11.42578125" style="40"/>
+    <col min="11024" max="11024" width="3.140625" style="40" customWidth="1"/>
+    <col min="11025" max="11025" width="7.140625" style="40" customWidth="1"/>
+    <col min="11026" max="11026" width="14.85546875" style="40" customWidth="1"/>
+    <col min="11027" max="11268" width="11.42578125" style="40"/>
     <col min="11269" max="11269" width="21" style="40" customWidth="1"/>
-    <col min="11270" max="11270" width="16.88671875" style="40" customWidth="1"/>
-    <col min="11271" max="11271" width="16.109375" style="40" customWidth="1"/>
-    <col min="11272" max="11272" width="13.33203125" style="40" customWidth="1"/>
-    <col min="11273" max="11273" width="14.5546875" style="40" customWidth="1"/>
-    <col min="11274" max="11274" width="14.44140625" style="40" customWidth="1"/>
-    <col min="11275" max="11275" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="3.6640625" style="40" customWidth="1"/>
-    <col min="11277" max="11277" width="11.44140625" style="40"/>
-    <col min="11278" max="11278" width="3.88671875" style="40" customWidth="1"/>
-    <col min="11279" max="11279" width="11.44140625" style="40"/>
-    <col min="11280" max="11280" width="3.109375" style="40" customWidth="1"/>
-    <col min="11281" max="11281" width="7.109375" style="40" customWidth="1"/>
-    <col min="11282" max="11282" width="14.88671875" style="40" customWidth="1"/>
-    <col min="11283" max="11524" width="11.44140625" style="40"/>
+    <col min="11270" max="11270" width="16.85546875" style="40" customWidth="1"/>
+    <col min="11271" max="11271" width="16.140625" style="40" customWidth="1"/>
+    <col min="11272" max="11272" width="13.28515625" style="40" customWidth="1"/>
+    <col min="11273" max="11273" width="14.5703125" style="40" customWidth="1"/>
+    <col min="11274" max="11274" width="14.42578125" style="40" customWidth="1"/>
+    <col min="11275" max="11275" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="3.7109375" style="40" customWidth="1"/>
+    <col min="11277" max="11277" width="11.42578125" style="40"/>
+    <col min="11278" max="11278" width="3.85546875" style="40" customWidth="1"/>
+    <col min="11279" max="11279" width="11.42578125" style="40"/>
+    <col min="11280" max="11280" width="3.140625" style="40" customWidth="1"/>
+    <col min="11281" max="11281" width="7.140625" style="40" customWidth="1"/>
+    <col min="11282" max="11282" width="14.85546875" style="40" customWidth="1"/>
+    <col min="11283" max="11524" width="11.42578125" style="40"/>
     <col min="11525" max="11525" width="21" style="40" customWidth="1"/>
-    <col min="11526" max="11526" width="16.88671875" style="40" customWidth="1"/>
-    <col min="11527" max="11527" width="16.109375" style="40" customWidth="1"/>
-    <col min="11528" max="11528" width="13.33203125" style="40" customWidth="1"/>
-    <col min="11529" max="11529" width="14.5546875" style="40" customWidth="1"/>
-    <col min="11530" max="11530" width="14.44140625" style="40" customWidth="1"/>
-    <col min="11531" max="11531" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="3.6640625" style="40" customWidth="1"/>
-    <col min="11533" max="11533" width="11.44140625" style="40"/>
-    <col min="11534" max="11534" width="3.88671875" style="40" customWidth="1"/>
-    <col min="11535" max="11535" width="11.44140625" style="40"/>
-    <col min="11536" max="11536" width="3.109375" style="40" customWidth="1"/>
-    <col min="11537" max="11537" width="7.109375" style="40" customWidth="1"/>
-    <col min="11538" max="11538" width="14.88671875" style="40" customWidth="1"/>
-    <col min="11539" max="11780" width="11.44140625" style="40"/>
+    <col min="11526" max="11526" width="16.85546875" style="40" customWidth="1"/>
+    <col min="11527" max="11527" width="16.140625" style="40" customWidth="1"/>
+    <col min="11528" max="11528" width="13.28515625" style="40" customWidth="1"/>
+    <col min="11529" max="11529" width="14.5703125" style="40" customWidth="1"/>
+    <col min="11530" max="11530" width="14.42578125" style="40" customWidth="1"/>
+    <col min="11531" max="11531" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="3.7109375" style="40" customWidth="1"/>
+    <col min="11533" max="11533" width="11.42578125" style="40"/>
+    <col min="11534" max="11534" width="3.85546875" style="40" customWidth="1"/>
+    <col min="11535" max="11535" width="11.42578125" style="40"/>
+    <col min="11536" max="11536" width="3.140625" style="40" customWidth="1"/>
+    <col min="11537" max="11537" width="7.140625" style="40" customWidth="1"/>
+    <col min="11538" max="11538" width="14.85546875" style="40" customWidth="1"/>
+    <col min="11539" max="11780" width="11.42578125" style="40"/>
     <col min="11781" max="11781" width="21" style="40" customWidth="1"/>
-    <col min="11782" max="11782" width="16.88671875" style="40" customWidth="1"/>
-    <col min="11783" max="11783" width="16.109375" style="40" customWidth="1"/>
-    <col min="11784" max="11784" width="13.33203125" style="40" customWidth="1"/>
-    <col min="11785" max="11785" width="14.5546875" style="40" customWidth="1"/>
-    <col min="11786" max="11786" width="14.44140625" style="40" customWidth="1"/>
-    <col min="11787" max="11787" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="3.6640625" style="40" customWidth="1"/>
-    <col min="11789" max="11789" width="11.44140625" style="40"/>
-    <col min="11790" max="11790" width="3.88671875" style="40" customWidth="1"/>
-    <col min="11791" max="11791" width="11.44140625" style="40"/>
-    <col min="11792" max="11792" width="3.109375" style="40" customWidth="1"/>
-    <col min="11793" max="11793" width="7.109375" style="40" customWidth="1"/>
-    <col min="11794" max="11794" width="14.88671875" style="40" customWidth="1"/>
-    <col min="11795" max="12036" width="11.44140625" style="40"/>
+    <col min="11782" max="11782" width="16.85546875" style="40" customWidth="1"/>
+    <col min="11783" max="11783" width="16.140625" style="40" customWidth="1"/>
+    <col min="11784" max="11784" width="13.28515625" style="40" customWidth="1"/>
+    <col min="11785" max="11785" width="14.5703125" style="40" customWidth="1"/>
+    <col min="11786" max="11786" width="14.42578125" style="40" customWidth="1"/>
+    <col min="11787" max="11787" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="3.7109375" style="40" customWidth="1"/>
+    <col min="11789" max="11789" width="11.42578125" style="40"/>
+    <col min="11790" max="11790" width="3.85546875" style="40" customWidth="1"/>
+    <col min="11791" max="11791" width="11.42578125" style="40"/>
+    <col min="11792" max="11792" width="3.140625" style="40" customWidth="1"/>
+    <col min="11793" max="11793" width="7.140625" style="40" customWidth="1"/>
+    <col min="11794" max="11794" width="14.85546875" style="40" customWidth="1"/>
+    <col min="11795" max="12036" width="11.42578125" style="40"/>
     <col min="12037" max="12037" width="21" style="40" customWidth="1"/>
-    <col min="12038" max="12038" width="16.88671875" style="40" customWidth="1"/>
-    <col min="12039" max="12039" width="16.109375" style="40" customWidth="1"/>
-    <col min="12040" max="12040" width="13.33203125" style="40" customWidth="1"/>
-    <col min="12041" max="12041" width="14.5546875" style="40" customWidth="1"/>
-    <col min="12042" max="12042" width="14.44140625" style="40" customWidth="1"/>
-    <col min="12043" max="12043" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="3.6640625" style="40" customWidth="1"/>
-    <col min="12045" max="12045" width="11.44140625" style="40"/>
-    <col min="12046" max="12046" width="3.88671875" style="40" customWidth="1"/>
-    <col min="12047" max="12047" width="11.44140625" style="40"/>
-    <col min="12048" max="12048" width="3.109375" style="40" customWidth="1"/>
-    <col min="12049" max="12049" width="7.109375" style="40" customWidth="1"/>
-    <col min="12050" max="12050" width="14.88671875" style="40" customWidth="1"/>
-    <col min="12051" max="12292" width="11.44140625" style="40"/>
+    <col min="12038" max="12038" width="16.85546875" style="40" customWidth="1"/>
+    <col min="12039" max="12039" width="16.140625" style="40" customWidth="1"/>
+    <col min="12040" max="12040" width="13.28515625" style="40" customWidth="1"/>
+    <col min="12041" max="12041" width="14.5703125" style="40" customWidth="1"/>
+    <col min="12042" max="12042" width="14.42578125" style="40" customWidth="1"/>
+    <col min="12043" max="12043" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="3.7109375" style="40" customWidth="1"/>
+    <col min="12045" max="12045" width="11.42578125" style="40"/>
+    <col min="12046" max="12046" width="3.85546875" style="40" customWidth="1"/>
+    <col min="12047" max="12047" width="11.42578125" style="40"/>
+    <col min="12048" max="12048" width="3.140625" style="40" customWidth="1"/>
+    <col min="12049" max="12049" width="7.140625" style="40" customWidth="1"/>
+    <col min="12050" max="12050" width="14.85546875" style="40" customWidth="1"/>
+    <col min="12051" max="12292" width="11.42578125" style="40"/>
     <col min="12293" max="12293" width="21" style="40" customWidth="1"/>
-    <col min="12294" max="12294" width="16.88671875" style="40" customWidth="1"/>
-    <col min="12295" max="12295" width="16.109375" style="40" customWidth="1"/>
-    <col min="12296" max="12296" width="13.33203125" style="40" customWidth="1"/>
-    <col min="12297" max="12297" width="14.5546875" style="40" customWidth="1"/>
-    <col min="12298" max="12298" width="14.44140625" style="40" customWidth="1"/>
-    <col min="12299" max="12299" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="3.6640625" style="40" customWidth="1"/>
-    <col min="12301" max="12301" width="11.44140625" style="40"/>
-    <col min="12302" max="12302" width="3.88671875" style="40" customWidth="1"/>
-    <col min="12303" max="12303" width="11.44140625" style="40"/>
-    <col min="12304" max="12304" width="3.109375" style="40" customWidth="1"/>
-    <col min="12305" max="12305" width="7.109375" style="40" customWidth="1"/>
-    <col min="12306" max="12306" width="14.88671875" style="40" customWidth="1"/>
-    <col min="12307" max="12548" width="11.44140625" style="40"/>
+    <col min="12294" max="12294" width="16.85546875" style="40" customWidth="1"/>
+    <col min="12295" max="12295" width="16.140625" style="40" customWidth="1"/>
+    <col min="12296" max="12296" width="13.28515625" style="40" customWidth="1"/>
+    <col min="12297" max="12297" width="14.5703125" style="40" customWidth="1"/>
+    <col min="12298" max="12298" width="14.42578125" style="40" customWidth="1"/>
+    <col min="12299" max="12299" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="3.7109375" style="40" customWidth="1"/>
+    <col min="12301" max="12301" width="11.42578125" style="40"/>
+    <col min="12302" max="12302" width="3.85546875" style="40" customWidth="1"/>
+    <col min="12303" max="12303" width="11.42578125" style="40"/>
+    <col min="12304" max="12304" width="3.140625" style="40" customWidth="1"/>
+    <col min="12305" max="12305" width="7.140625" style="40" customWidth="1"/>
+    <col min="12306" max="12306" width="14.85546875" style="40" customWidth="1"/>
+    <col min="12307" max="12548" width="11.42578125" style="40"/>
     <col min="12549" max="12549" width="21" style="40" customWidth="1"/>
-    <col min="12550" max="12550" width="16.88671875" style="40" customWidth="1"/>
-    <col min="12551" max="12551" width="16.109375" style="40" customWidth="1"/>
-    <col min="12552" max="12552" width="13.33203125" style="40" customWidth="1"/>
-    <col min="12553" max="12553" width="14.5546875" style="40" customWidth="1"/>
-    <col min="12554" max="12554" width="14.44140625" style="40" customWidth="1"/>
-    <col min="12555" max="12555" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="3.6640625" style="40" customWidth="1"/>
-    <col min="12557" max="12557" width="11.44140625" style="40"/>
-    <col min="12558" max="12558" width="3.88671875" style="40" customWidth="1"/>
-    <col min="12559" max="12559" width="11.44140625" style="40"/>
-    <col min="12560" max="12560" width="3.109375" style="40" customWidth="1"/>
-    <col min="12561" max="12561" width="7.109375" style="40" customWidth="1"/>
-    <col min="12562" max="12562" width="14.88671875" style="40" customWidth="1"/>
-    <col min="12563" max="12804" width="11.44140625" style="40"/>
+    <col min="12550" max="12550" width="16.85546875" style="40" customWidth="1"/>
+    <col min="12551" max="12551" width="16.140625" style="40" customWidth="1"/>
+    <col min="12552" max="12552" width="13.28515625" style="40" customWidth="1"/>
+    <col min="12553" max="12553" width="14.5703125" style="40" customWidth="1"/>
+    <col min="12554" max="12554" width="14.42578125" style="40" customWidth="1"/>
+    <col min="12555" max="12555" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="3.7109375" style="40" customWidth="1"/>
+    <col min="12557" max="12557" width="11.42578125" style="40"/>
+    <col min="12558" max="12558" width="3.85546875" style="40" customWidth="1"/>
+    <col min="12559" max="12559" width="11.42578125" style="40"/>
+    <col min="12560" max="12560" width="3.140625" style="40" customWidth="1"/>
+    <col min="12561" max="12561" width="7.140625" style="40" customWidth="1"/>
+    <col min="12562" max="12562" width="14.85546875" style="40" customWidth="1"/>
+    <col min="12563" max="12804" width="11.42578125" style="40"/>
     <col min="12805" max="12805" width="21" style="40" customWidth="1"/>
-    <col min="12806" max="12806" width="16.88671875" style="40" customWidth="1"/>
-    <col min="12807" max="12807" width="16.109375" style="40" customWidth="1"/>
-    <col min="12808" max="12808" width="13.33203125" style="40" customWidth="1"/>
-    <col min="12809" max="12809" width="14.5546875" style="40" customWidth="1"/>
-    <col min="12810" max="12810" width="14.44140625" style="40" customWidth="1"/>
-    <col min="12811" max="12811" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="3.6640625" style="40" customWidth="1"/>
-    <col min="12813" max="12813" width="11.44140625" style="40"/>
-    <col min="12814" max="12814" width="3.88671875" style="40" customWidth="1"/>
-    <col min="12815" max="12815" width="11.44140625" style="40"/>
-    <col min="12816" max="12816" width="3.109375" style="40" customWidth="1"/>
-    <col min="12817" max="12817" width="7.109375" style="40" customWidth="1"/>
-    <col min="12818" max="12818" width="14.88671875" style="40" customWidth="1"/>
-    <col min="12819" max="13060" width="11.44140625" style="40"/>
+    <col min="12806" max="12806" width="16.85546875" style="40" customWidth="1"/>
+    <col min="12807" max="12807" width="16.140625" style="40" customWidth="1"/>
+    <col min="12808" max="12808" width="13.28515625" style="40" customWidth="1"/>
+    <col min="12809" max="12809" width="14.5703125" style="40" customWidth="1"/>
+    <col min="12810" max="12810" width="14.42578125" style="40" customWidth="1"/>
+    <col min="12811" max="12811" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="3.7109375" style="40" customWidth="1"/>
+    <col min="12813" max="12813" width="11.42578125" style="40"/>
+    <col min="12814" max="12814" width="3.85546875" style="40" customWidth="1"/>
+    <col min="12815" max="12815" width="11.42578125" style="40"/>
+    <col min="12816" max="12816" width="3.140625" style="40" customWidth="1"/>
+    <col min="12817" max="12817" width="7.140625" style="40" customWidth="1"/>
+    <col min="12818" max="12818" width="14.85546875" style="40" customWidth="1"/>
+    <col min="12819" max="13060" width="11.42578125" style="40"/>
     <col min="13061" max="13061" width="21" style="40" customWidth="1"/>
-    <col min="13062" max="13062" width="16.88671875" style="40" customWidth="1"/>
-    <col min="13063" max="13063" width="16.109375" style="40" customWidth="1"/>
-    <col min="13064" max="13064" width="13.33203125" style="40" customWidth="1"/>
-    <col min="13065" max="13065" width="14.5546875" style="40" customWidth="1"/>
-    <col min="13066" max="13066" width="14.44140625" style="40" customWidth="1"/>
-    <col min="13067" max="13067" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="3.6640625" style="40" customWidth="1"/>
-    <col min="13069" max="13069" width="11.44140625" style="40"/>
-    <col min="13070" max="13070" width="3.88671875" style="40" customWidth="1"/>
-    <col min="13071" max="13071" width="11.44140625" style="40"/>
-    <col min="13072" max="13072" width="3.109375" style="40" customWidth="1"/>
-    <col min="13073" max="13073" width="7.109375" style="40" customWidth="1"/>
-    <col min="13074" max="13074" width="14.88671875" style="40" customWidth="1"/>
-    <col min="13075" max="13316" width="11.44140625" style="40"/>
+    <col min="13062" max="13062" width="16.85546875" style="40" customWidth="1"/>
+    <col min="13063" max="13063" width="16.140625" style="40" customWidth="1"/>
+    <col min="13064" max="13064" width="13.28515625" style="40" customWidth="1"/>
+    <col min="13065" max="13065" width="14.5703125" style="40" customWidth="1"/>
+    <col min="13066" max="13066" width="14.42578125" style="40" customWidth="1"/>
+    <col min="13067" max="13067" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="3.7109375" style="40" customWidth="1"/>
+    <col min="13069" max="13069" width="11.42578125" style="40"/>
+    <col min="13070" max="13070" width="3.85546875" style="40" customWidth="1"/>
+    <col min="13071" max="13071" width="11.42578125" style="40"/>
+    <col min="13072" max="13072" width="3.140625" style="40" customWidth="1"/>
+    <col min="13073" max="13073" width="7.140625" style="40" customWidth="1"/>
+    <col min="13074" max="13074" width="14.85546875" style="40" customWidth="1"/>
+    <col min="13075" max="13316" width="11.42578125" style="40"/>
     <col min="13317" max="13317" width="21" style="40" customWidth="1"/>
-    <col min="13318" max="13318" width="16.88671875" style="40" customWidth="1"/>
-    <col min="13319" max="13319" width="16.109375" style="40" customWidth="1"/>
-    <col min="13320" max="13320" width="13.33203125" style="40" customWidth="1"/>
-    <col min="13321" max="13321" width="14.5546875" style="40" customWidth="1"/>
-    <col min="13322" max="13322" width="14.44140625" style="40" customWidth="1"/>
-    <col min="13323" max="13323" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="3.6640625" style="40" customWidth="1"/>
-    <col min="13325" max="13325" width="11.44140625" style="40"/>
-    <col min="13326" max="13326" width="3.88671875" style="40" customWidth="1"/>
-    <col min="13327" max="13327" width="11.44140625" style="40"/>
-    <col min="13328" max="13328" width="3.109375" style="40" customWidth="1"/>
-    <col min="13329" max="13329" width="7.109375" style="40" customWidth="1"/>
-    <col min="13330" max="13330" width="14.88671875" style="40" customWidth="1"/>
-    <col min="13331" max="13572" width="11.44140625" style="40"/>
+    <col min="13318" max="13318" width="16.85546875" style="40" customWidth="1"/>
+    <col min="13319" max="13319" width="16.140625" style="40" customWidth="1"/>
+    <col min="13320" max="13320" width="13.28515625" style="40" customWidth="1"/>
+    <col min="13321" max="13321" width="14.5703125" style="40" customWidth="1"/>
+    <col min="13322" max="13322" width="14.42578125" style="40" customWidth="1"/>
+    <col min="13323" max="13323" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="3.7109375" style="40" customWidth="1"/>
+    <col min="13325" max="13325" width="11.42578125" style="40"/>
+    <col min="13326" max="13326" width="3.85546875" style="40" customWidth="1"/>
+    <col min="13327" max="13327" width="11.42578125" style="40"/>
+    <col min="13328" max="13328" width="3.140625" style="40" customWidth="1"/>
+    <col min="13329" max="13329" width="7.140625" style="40" customWidth="1"/>
+    <col min="13330" max="13330" width="14.85546875" style="40" customWidth="1"/>
+    <col min="13331" max="13572" width="11.42578125" style="40"/>
     <col min="13573" max="13573" width="21" style="40" customWidth="1"/>
-    <col min="13574" max="13574" width="16.88671875" style="40" customWidth="1"/>
-    <col min="13575" max="13575" width="16.109375" style="40" customWidth="1"/>
-    <col min="13576" max="13576" width="13.33203125" style="40" customWidth="1"/>
-    <col min="13577" max="13577" width="14.5546875" style="40" customWidth="1"/>
-    <col min="13578" max="13578" width="14.44140625" style="40" customWidth="1"/>
-    <col min="13579" max="13579" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="3.6640625" style="40" customWidth="1"/>
-    <col min="13581" max="13581" width="11.44140625" style="40"/>
-    <col min="13582" max="13582" width="3.88671875" style="40" customWidth="1"/>
-    <col min="13583" max="13583" width="11.44140625" style="40"/>
-    <col min="13584" max="13584" width="3.109375" style="40" customWidth="1"/>
-    <col min="13585" max="13585" width="7.109375" style="40" customWidth="1"/>
-    <col min="13586" max="13586" width="14.88671875" style="40" customWidth="1"/>
-    <col min="13587" max="13828" width="11.44140625" style="40"/>
+    <col min="13574" max="13574" width="16.85546875" style="40" customWidth="1"/>
+    <col min="13575" max="13575" width="16.140625" style="40" customWidth="1"/>
+    <col min="13576" max="13576" width="13.28515625" style="40" customWidth="1"/>
+    <col min="13577" max="13577" width="14.5703125" style="40" customWidth="1"/>
+    <col min="13578" max="13578" width="14.42578125" style="40" customWidth="1"/>
+    <col min="13579" max="13579" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="3.7109375" style="40" customWidth="1"/>
+    <col min="13581" max="13581" width="11.42578125" style="40"/>
+    <col min="13582" max="13582" width="3.85546875" style="40" customWidth="1"/>
+    <col min="13583" max="13583" width="11.42578125" style="40"/>
+    <col min="13584" max="13584" width="3.140625" style="40" customWidth="1"/>
+    <col min="13585" max="13585" width="7.140625" style="40" customWidth="1"/>
+    <col min="13586" max="13586" width="14.85546875" style="40" customWidth="1"/>
+    <col min="13587" max="13828" width="11.42578125" style="40"/>
     <col min="13829" max="13829" width="21" style="40" customWidth="1"/>
-    <col min="13830" max="13830" width="16.88671875" style="40" customWidth="1"/>
-    <col min="13831" max="13831" width="16.109375" style="40" customWidth="1"/>
-    <col min="13832" max="13832" width="13.33203125" style="40" customWidth="1"/>
-    <col min="13833" max="13833" width="14.5546875" style="40" customWidth="1"/>
-    <col min="13834" max="13834" width="14.44140625" style="40" customWidth="1"/>
-    <col min="13835" max="13835" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="3.6640625" style="40" customWidth="1"/>
-    <col min="13837" max="13837" width="11.44140625" style="40"/>
-    <col min="13838" max="13838" width="3.88671875" style="40" customWidth="1"/>
-    <col min="13839" max="13839" width="11.44140625" style="40"/>
-    <col min="13840" max="13840" width="3.109375" style="40" customWidth="1"/>
-    <col min="13841" max="13841" width="7.109375" style="40" customWidth="1"/>
-    <col min="13842" max="13842" width="14.88671875" style="40" customWidth="1"/>
-    <col min="13843" max="14084" width="11.44140625" style="40"/>
+    <col min="13830" max="13830" width="16.85546875" style="40" customWidth="1"/>
+    <col min="13831" max="13831" width="16.140625" style="40" customWidth="1"/>
+    <col min="13832" max="13832" width="13.28515625" style="40" customWidth="1"/>
+    <col min="13833" max="13833" width="14.5703125" style="40" customWidth="1"/>
+    <col min="13834" max="13834" width="14.42578125" style="40" customWidth="1"/>
+    <col min="13835" max="13835" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="3.7109375" style="40" customWidth="1"/>
+    <col min="13837" max="13837" width="11.42578125" style="40"/>
+    <col min="13838" max="13838" width="3.85546875" style="40" customWidth="1"/>
+    <col min="13839" max="13839" width="11.42578125" style="40"/>
+    <col min="13840" max="13840" width="3.140625" style="40" customWidth="1"/>
+    <col min="13841" max="13841" width="7.140625" style="40" customWidth="1"/>
+    <col min="13842" max="13842" width="14.85546875" style="40" customWidth="1"/>
+    <col min="13843" max="14084" width="11.42578125" style="40"/>
     <col min="14085" max="14085" width="21" style="40" customWidth="1"/>
-    <col min="14086" max="14086" width="16.88671875" style="40" customWidth="1"/>
-    <col min="14087" max="14087" width="16.109375" style="40" customWidth="1"/>
-    <col min="14088" max="14088" width="13.33203125" style="40" customWidth="1"/>
-    <col min="14089" max="14089" width="14.5546875" style="40" customWidth="1"/>
-    <col min="14090" max="14090" width="14.44140625" style="40" customWidth="1"/>
-    <col min="14091" max="14091" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="3.6640625" style="40" customWidth="1"/>
-    <col min="14093" max="14093" width="11.44140625" style="40"/>
-    <col min="14094" max="14094" width="3.88671875" style="40" customWidth="1"/>
-    <col min="14095" max="14095" width="11.44140625" style="40"/>
-    <col min="14096" max="14096" width="3.109375" style="40" customWidth="1"/>
-    <col min="14097" max="14097" width="7.109375" style="40" customWidth="1"/>
-    <col min="14098" max="14098" width="14.88671875" style="40" customWidth="1"/>
-    <col min="14099" max="14340" width="11.44140625" style="40"/>
+    <col min="14086" max="14086" width="16.85546875" style="40" customWidth="1"/>
+    <col min="14087" max="14087" width="16.140625" style="40" customWidth="1"/>
+    <col min="14088" max="14088" width="13.28515625" style="40" customWidth="1"/>
+    <col min="14089" max="14089" width="14.5703125" style="40" customWidth="1"/>
+    <col min="14090" max="14090" width="14.42578125" style="40" customWidth="1"/>
+    <col min="14091" max="14091" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="3.7109375" style="40" customWidth="1"/>
+    <col min="14093" max="14093" width="11.42578125" style="40"/>
+    <col min="14094" max="14094" width="3.85546875" style="40" customWidth="1"/>
+    <col min="14095" max="14095" width="11.42578125" style="40"/>
+    <col min="14096" max="14096" width="3.140625" style="40" customWidth="1"/>
+    <col min="14097" max="14097" width="7.140625" style="40" customWidth="1"/>
+    <col min="14098" max="14098" width="14.85546875" style="40" customWidth="1"/>
+    <col min="14099" max="14340" width="11.42578125" style="40"/>
     <col min="14341" max="14341" width="21" style="40" customWidth="1"/>
-    <col min="14342" max="14342" width="16.88671875" style="40" customWidth="1"/>
-    <col min="14343" max="14343" width="16.109375" style="40" customWidth="1"/>
-    <col min="14344" max="14344" width="13.33203125" style="40" customWidth="1"/>
-    <col min="14345" max="14345" width="14.5546875" style="40" customWidth="1"/>
-    <col min="14346" max="14346" width="14.44140625" style="40" customWidth="1"/>
-    <col min="14347" max="14347" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="3.6640625" style="40" customWidth="1"/>
-    <col min="14349" max="14349" width="11.44140625" style="40"/>
-    <col min="14350" max="14350" width="3.88671875" style="40" customWidth="1"/>
-    <col min="14351" max="14351" width="11.44140625" style="40"/>
-    <col min="14352" max="14352" width="3.109375" style="40" customWidth="1"/>
-    <col min="14353" max="14353" width="7.109375" style="40" customWidth="1"/>
-    <col min="14354" max="14354" width="14.88671875" style="40" customWidth="1"/>
-    <col min="14355" max="14596" width="11.44140625" style="40"/>
+    <col min="14342" max="14342" width="16.85546875" style="40" customWidth="1"/>
+    <col min="14343" max="14343" width="16.140625" style="40" customWidth="1"/>
+    <col min="14344" max="14344" width="13.28515625" style="40" customWidth="1"/>
+    <col min="14345" max="14345" width="14.5703125" style="40" customWidth="1"/>
+    <col min="14346" max="14346" width="14.42578125" style="40" customWidth="1"/>
+    <col min="14347" max="14347" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="3.7109375" style="40" customWidth="1"/>
+    <col min="14349" max="14349" width="11.42578125" style="40"/>
+    <col min="14350" max="14350" width="3.85546875" style="40" customWidth="1"/>
+    <col min="14351" max="14351" width="11.42578125" style="40"/>
+    <col min="14352" max="14352" width="3.140625" style="40" customWidth="1"/>
+    <col min="14353" max="14353" width="7.140625" style="40" customWidth="1"/>
+    <col min="14354" max="14354" width="14.85546875" style="40" customWidth="1"/>
+    <col min="14355" max="14596" width="11.42578125" style="40"/>
     <col min="14597" max="14597" width="21" style="40" customWidth="1"/>
-    <col min="14598" max="14598" width="16.88671875" style="40" customWidth="1"/>
-    <col min="14599" max="14599" width="16.109375" style="40" customWidth="1"/>
-    <col min="14600" max="14600" width="13.33203125" style="40" customWidth="1"/>
-    <col min="14601" max="14601" width="14.5546875" style="40" customWidth="1"/>
-    <col min="14602" max="14602" width="14.44140625" style="40" customWidth="1"/>
-    <col min="14603" max="14603" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="3.6640625" style="40" customWidth="1"/>
-    <col min="14605" max="14605" width="11.44140625" style="40"/>
-    <col min="14606" max="14606" width="3.88671875" style="40" customWidth="1"/>
-    <col min="14607" max="14607" width="11.44140625" style="40"/>
-    <col min="14608" max="14608" width="3.109375" style="40" customWidth="1"/>
-    <col min="14609" max="14609" width="7.109375" style="40" customWidth="1"/>
-    <col min="14610" max="14610" width="14.88671875" style="40" customWidth="1"/>
-    <col min="14611" max="14852" width="11.44140625" style="40"/>
+    <col min="14598" max="14598" width="16.85546875" style="40" customWidth="1"/>
+    <col min="14599" max="14599" width="16.140625" style="40" customWidth="1"/>
+    <col min="14600" max="14600" width="13.28515625" style="40" customWidth="1"/>
+    <col min="14601" max="14601" width="14.5703125" style="40" customWidth="1"/>
+    <col min="14602" max="14602" width="14.42578125" style="40" customWidth="1"/>
+    <col min="14603" max="14603" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="3.7109375" style="40" customWidth="1"/>
+    <col min="14605" max="14605" width="11.42578125" style="40"/>
+    <col min="14606" max="14606" width="3.85546875" style="40" customWidth="1"/>
+    <col min="14607" max="14607" width="11.42578125" style="40"/>
+    <col min="14608" max="14608" width="3.140625" style="40" customWidth="1"/>
+    <col min="14609" max="14609" width="7.140625" style="40" customWidth="1"/>
+    <col min="14610" max="14610" width="14.85546875" style="40" customWidth="1"/>
+    <col min="14611" max="14852" width="11.42578125" style="40"/>
     <col min="14853" max="14853" width="21" style="40" customWidth="1"/>
-    <col min="14854" max="14854" width="16.88671875" style="40" customWidth="1"/>
-    <col min="14855" max="14855" width="16.109375" style="40" customWidth="1"/>
-    <col min="14856" max="14856" width="13.33203125" style="40" customWidth="1"/>
-    <col min="14857" max="14857" width="14.5546875" style="40" customWidth="1"/>
-    <col min="14858" max="14858" width="14.44140625" style="40" customWidth="1"/>
-    <col min="14859" max="14859" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="3.6640625" style="40" customWidth="1"/>
-    <col min="14861" max="14861" width="11.44140625" style="40"/>
-    <col min="14862" max="14862" width="3.88671875" style="40" customWidth="1"/>
-    <col min="14863" max="14863" width="11.44140625" style="40"/>
-    <col min="14864" max="14864" width="3.109375" style="40" customWidth="1"/>
-    <col min="14865" max="14865" width="7.109375" style="40" customWidth="1"/>
-    <col min="14866" max="14866" width="14.88671875" style="40" customWidth="1"/>
-    <col min="14867" max="15108" width="11.44140625" style="40"/>
+    <col min="14854" max="14854" width="16.85546875" style="40" customWidth="1"/>
+    <col min="14855" max="14855" width="16.140625" style="40" customWidth="1"/>
+    <col min="14856" max="14856" width="13.28515625" style="40" customWidth="1"/>
+    <col min="14857" max="14857" width="14.5703125" style="40" customWidth="1"/>
+    <col min="14858" max="14858" width="14.42578125" style="40" customWidth="1"/>
+    <col min="14859" max="14859" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="3.7109375" style="40" customWidth="1"/>
+    <col min="14861" max="14861" width="11.42578125" style="40"/>
+    <col min="14862" max="14862" width="3.85546875" style="40" customWidth="1"/>
+    <col min="14863" max="14863" width="11.42578125" style="40"/>
+    <col min="14864" max="14864" width="3.140625" style="40" customWidth="1"/>
+    <col min="14865" max="14865" width="7.140625" style="40" customWidth="1"/>
+    <col min="14866" max="14866" width="14.85546875" style="40" customWidth="1"/>
+    <col min="14867" max="15108" width="11.42578125" style="40"/>
     <col min="15109" max="15109" width="21" style="40" customWidth="1"/>
-    <col min="15110" max="15110" width="16.88671875" style="40" customWidth="1"/>
-    <col min="15111" max="15111" width="16.109375" style="40" customWidth="1"/>
-    <col min="15112" max="15112" width="13.33203125" style="40" customWidth="1"/>
-    <col min="15113" max="15113" width="14.5546875" style="40" customWidth="1"/>
-    <col min="15114" max="15114" width="14.44140625" style="40" customWidth="1"/>
-    <col min="15115" max="15115" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="3.6640625" style="40" customWidth="1"/>
-    <col min="15117" max="15117" width="11.44140625" style="40"/>
-    <col min="15118" max="15118" width="3.88671875" style="40" customWidth="1"/>
-    <col min="15119" max="15119" width="11.44140625" style="40"/>
-    <col min="15120" max="15120" width="3.109375" style="40" customWidth="1"/>
-    <col min="15121" max="15121" width="7.109375" style="40" customWidth="1"/>
-    <col min="15122" max="15122" width="14.88671875" style="40" customWidth="1"/>
-    <col min="15123" max="15364" width="11.44140625" style="40"/>
+    <col min="15110" max="15110" width="16.85546875" style="40" customWidth="1"/>
+    <col min="15111" max="15111" width="16.140625" style="40" customWidth="1"/>
+    <col min="15112" max="15112" width="13.28515625" style="40" customWidth="1"/>
+    <col min="15113" max="15113" width="14.5703125" style="40" customWidth="1"/>
+    <col min="15114" max="15114" width="14.42578125" style="40" customWidth="1"/>
+    <col min="15115" max="15115" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="3.7109375" style="40" customWidth="1"/>
+    <col min="15117" max="15117" width="11.42578125" style="40"/>
+    <col min="15118" max="15118" width="3.85546875" style="40" customWidth="1"/>
+    <col min="15119" max="15119" width="11.42578125" style="40"/>
+    <col min="15120" max="15120" width="3.140625" style="40" customWidth="1"/>
+    <col min="15121" max="15121" width="7.140625" style="40" customWidth="1"/>
+    <col min="15122" max="15122" width="14.85546875" style="40" customWidth="1"/>
+    <col min="15123" max="15364" width="11.42578125" style="40"/>
     <col min="15365" max="15365" width="21" style="40" customWidth="1"/>
-    <col min="15366" max="15366" width="16.88671875" style="40" customWidth="1"/>
-    <col min="15367" max="15367" width="16.109375" style="40" customWidth="1"/>
-    <col min="15368" max="15368" width="13.33203125" style="40" customWidth="1"/>
-    <col min="15369" max="15369" width="14.5546875" style="40" customWidth="1"/>
-    <col min="15370" max="15370" width="14.44140625" style="40" customWidth="1"/>
-    <col min="15371" max="15371" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="3.6640625" style="40" customWidth="1"/>
-    <col min="15373" max="15373" width="11.44140625" style="40"/>
-    <col min="15374" max="15374" width="3.88671875" style="40" customWidth="1"/>
-    <col min="15375" max="15375" width="11.44140625" style="40"/>
-    <col min="15376" max="15376" width="3.109375" style="40" customWidth="1"/>
-    <col min="15377" max="15377" width="7.109375" style="40" customWidth="1"/>
-    <col min="15378" max="15378" width="14.88671875" style="40" customWidth="1"/>
-    <col min="15379" max="15620" width="11.44140625" style="40"/>
+    <col min="15366" max="15366" width="16.85546875" style="40" customWidth="1"/>
+    <col min="15367" max="15367" width="16.140625" style="40" customWidth="1"/>
+    <col min="15368" max="15368" width="13.28515625" style="40" customWidth="1"/>
+    <col min="15369" max="15369" width="14.5703125" style="40" customWidth="1"/>
+    <col min="15370" max="15370" width="14.42578125" style="40" customWidth="1"/>
+    <col min="15371" max="15371" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="3.7109375" style="40" customWidth="1"/>
+    <col min="15373" max="15373" width="11.42578125" style="40"/>
+    <col min="15374" max="15374" width="3.85546875" style="40" customWidth="1"/>
+    <col min="15375" max="15375" width="11.42578125" style="40"/>
+    <col min="15376" max="15376" width="3.140625" style="40" customWidth="1"/>
+    <col min="15377" max="15377" width="7.140625" style="40" customWidth="1"/>
+    <col min="15378" max="15378" width="14.85546875" style="40" customWidth="1"/>
+    <col min="15379" max="15620" width="11.42578125" style="40"/>
     <col min="15621" max="15621" width="21" style="40" customWidth="1"/>
-    <col min="15622" max="15622" width="16.88671875" style="40" customWidth="1"/>
-    <col min="15623" max="15623" width="16.109375" style="40" customWidth="1"/>
-    <col min="15624" max="15624" width="13.33203125" style="40" customWidth="1"/>
-    <col min="15625" max="15625" width="14.5546875" style="40" customWidth="1"/>
-    <col min="15626" max="15626" width="14.44140625" style="40" customWidth="1"/>
-    <col min="15627" max="15627" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="3.6640625" style="40" customWidth="1"/>
-    <col min="15629" max="15629" width="11.44140625" style="40"/>
-    <col min="15630" max="15630" width="3.88671875" style="40" customWidth="1"/>
-    <col min="15631" max="15631" width="11.44140625" style="40"/>
-    <col min="15632" max="15632" width="3.109375" style="40" customWidth="1"/>
-    <col min="15633" max="15633" width="7.109375" style="40" customWidth="1"/>
-    <col min="15634" max="15634" width="14.88671875" style="40" customWidth="1"/>
-    <col min="15635" max="15876" width="11.44140625" style="40"/>
+    <col min="15622" max="15622" width="16.85546875" style="40" customWidth="1"/>
+    <col min="15623" max="15623" width="16.140625" style="40" customWidth="1"/>
+    <col min="15624" max="15624" width="13.28515625" style="40" customWidth="1"/>
+    <col min="15625" max="15625" width="14.5703125" style="40" customWidth="1"/>
+    <col min="15626" max="15626" width="14.42578125" style="40" customWidth="1"/>
+    <col min="15627" max="15627" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="3.7109375" style="40" customWidth="1"/>
+    <col min="15629" max="15629" width="11.42578125" style="40"/>
+    <col min="15630" max="15630" width="3.85546875" style="40" customWidth="1"/>
+    <col min="15631" max="15631" width="11.42578125" style="40"/>
+    <col min="15632" max="15632" width="3.140625" style="40" customWidth="1"/>
+    <col min="15633" max="15633" width="7.140625" style="40" customWidth="1"/>
+    <col min="15634" max="15634" width="14.85546875" style="40" customWidth="1"/>
+    <col min="15635" max="15876" width="11.42578125" style="40"/>
     <col min="15877" max="15877" width="21" style="40" customWidth="1"/>
-    <col min="15878" max="15878" width="16.88671875" style="40" customWidth="1"/>
-    <col min="15879" max="15879" width="16.109375" style="40" customWidth="1"/>
-    <col min="15880" max="15880" width="13.33203125" style="40" customWidth="1"/>
-    <col min="15881" max="15881" width="14.5546875" style="40" customWidth="1"/>
-    <col min="15882" max="15882" width="14.44140625" style="40" customWidth="1"/>
-    <col min="15883" max="15883" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="3.6640625" style="40" customWidth="1"/>
-    <col min="15885" max="15885" width="11.44140625" style="40"/>
-    <col min="15886" max="15886" width="3.88671875" style="40" customWidth="1"/>
-    <col min="15887" max="15887" width="11.44140625" style="40"/>
-    <col min="15888" max="15888" width="3.109375" style="40" customWidth="1"/>
-    <col min="15889" max="15889" width="7.109375" style="40" customWidth="1"/>
-    <col min="15890" max="15890" width="14.88671875" style="40" customWidth="1"/>
-    <col min="15891" max="16132" width="11.44140625" style="40"/>
+    <col min="15878" max="15878" width="16.85546875" style="40" customWidth="1"/>
+    <col min="15879" max="15879" width="16.140625" style="40" customWidth="1"/>
+    <col min="15880" max="15880" width="13.28515625" style="40" customWidth="1"/>
+    <col min="15881" max="15881" width="14.5703125" style="40" customWidth="1"/>
+    <col min="15882" max="15882" width="14.42578125" style="40" customWidth="1"/>
+    <col min="15883" max="15883" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="3.7109375" style="40" customWidth="1"/>
+    <col min="15885" max="15885" width="11.42578125" style="40"/>
+    <col min="15886" max="15886" width="3.85546875" style="40" customWidth="1"/>
+    <col min="15887" max="15887" width="11.42578125" style="40"/>
+    <col min="15888" max="15888" width="3.140625" style="40" customWidth="1"/>
+    <col min="15889" max="15889" width="7.140625" style="40" customWidth="1"/>
+    <col min="15890" max="15890" width="14.85546875" style="40" customWidth="1"/>
+    <col min="15891" max="16132" width="11.42578125" style="40"/>
     <col min="16133" max="16133" width="21" style="40" customWidth="1"/>
-    <col min="16134" max="16134" width="16.88671875" style="40" customWidth="1"/>
-    <col min="16135" max="16135" width="16.109375" style="40" customWidth="1"/>
-    <col min="16136" max="16136" width="13.33203125" style="40" customWidth="1"/>
-    <col min="16137" max="16137" width="14.5546875" style="40" customWidth="1"/>
-    <col min="16138" max="16138" width="14.44140625" style="40" customWidth="1"/>
-    <col min="16139" max="16139" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="3.6640625" style="40" customWidth="1"/>
-    <col min="16141" max="16141" width="11.44140625" style="40"/>
-    <col min="16142" max="16142" width="3.88671875" style="40" customWidth="1"/>
-    <col min="16143" max="16143" width="11.44140625" style="40"/>
-    <col min="16144" max="16144" width="3.109375" style="40" customWidth="1"/>
-    <col min="16145" max="16145" width="7.109375" style="40" customWidth="1"/>
-    <col min="16146" max="16146" width="14.88671875" style="40" customWidth="1"/>
-    <col min="16147" max="16384" width="11.44140625" style="40"/>
+    <col min="16134" max="16134" width="16.85546875" style="40" customWidth="1"/>
+    <col min="16135" max="16135" width="16.140625" style="40" customWidth="1"/>
+    <col min="16136" max="16136" width="13.28515625" style="40" customWidth="1"/>
+    <col min="16137" max="16137" width="14.5703125" style="40" customWidth="1"/>
+    <col min="16138" max="16138" width="14.42578125" style="40" customWidth="1"/>
+    <col min="16139" max="16139" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="3.7109375" style="40" customWidth="1"/>
+    <col min="16141" max="16141" width="11.42578125" style="40"/>
+    <col min="16142" max="16142" width="3.85546875" style="40" customWidth="1"/>
+    <col min="16143" max="16143" width="11.42578125" style="40"/>
+    <col min="16144" max="16144" width="3.140625" style="40" customWidth="1"/>
+    <col min="16145" max="16145" width="7.140625" style="40" customWidth="1"/>
+    <col min="16146" max="16146" width="14.85546875" style="40" customWidth="1"/>
+    <col min="16147" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U2" s="65"/>
     </row>
-    <row r="3" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="77" t="s">
         <v>78</v>
       </c>
@@ -7186,23 +7211,23 @@
         <v>40</v>
       </c>
       <c r="N3" s="66"/>
-      <c r="O3" s="241" t="s">
+      <c r="O3" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
       <c r="U3" s="66"/>
       <c r="V3" s="186" t="s">
         <v>77</v>
       </c>
       <c r="W3" s="187">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="70"/>
       <c r="C4" s="46"/>
       <c r="D4" s="42"/>
@@ -7216,16 +7241,16 @@
       <c r="L4" s="45"/>
       <c r="M4" s="47"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="285"/>
-      <c r="P4" s="286"/>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="286"/>
-      <c r="S4" s="286"/>
-      <c r="T4" s="287"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="U4" s="65"/>
       <c r="V4" s="67"/>
     </row>
-    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71" t="s">
         <v>47</v>
       </c>
@@ -7253,41 +7278,41 @@
       <c r="J5" s="55"/>
       <c r="K5" s="62">
         <f>((1800*M5)*0.9)/$W$3/86400</f>
-        <v>8.5227272727272734E-4</v>
+        <v>8.9285714285714283E-4</v>
       </c>
       <c r="L5" s="68"/>
       <c r="M5" s="74">
         <v>1</v>
       </c>
       <c r="N5" s="240"/>
-      <c r="O5" s="288">
+      <c r="O5" s="241">
         <f>IF(ISNA(VLOOKUP(D5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="289">
+      <c r="P5" s="242">
         <f>IF(ISNA(VLOOKUP(E5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="289">
+      <c r="Q5" s="242">
         <f>IF(ISNA(VLOOKUP(F5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="289">
+      <c r="R5" s="242">
         <f>IF(ISNA(VLOOKUP(G5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="289">
+      <c r="S5" s="242">
         <f>IF(ISNA(VLOOKUP(H5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H5,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="290">
+      <c r="T5" s="243">
         <f>IF(ISNA(VLOOKUP(I5,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I5,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U5" s="60"/>
       <c r="V5" s="65"/>
     </row>
-    <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
         <v>48</v>
       </c>
@@ -7315,40 +7340,40 @@
       <c r="J6" s="55"/>
       <c r="K6" s="62">
         <f>((100000*M6)*0.9)/$W$3/86400</f>
-        <v>4.7348484848484848E-2</v>
+        <v>4.96031746031746E-2</v>
       </c>
       <c r="L6" s="68"/>
       <c r="M6" s="74">
         <v>1</v>
       </c>
       <c r="N6" s="240"/>
-      <c r="O6" s="288">
+      <c r="O6" s="241">
         <f>IF(ISNA(VLOOKUP(D6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="289">
+      <c r="P6" s="242">
         <f>IF(ISNA(VLOOKUP(E6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="289">
+      <c r="Q6" s="242">
         <f>IF(ISNA(VLOOKUP(F6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="289">
+      <c r="R6" s="242">
         <f>IF(ISNA(VLOOKUP(G6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="289">
+      <c r="S6" s="242">
         <f>IF(ISNA(VLOOKUP(H6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H6,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="290">
+      <c r="T6" s="243">
         <f>IF(ISNA(VLOOKUP(I6,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I6,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U6" s="60"/>
     </row>
-    <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
         <v>49</v>
       </c>
@@ -7376,40 +7401,40 @@
       <c r="J7" s="55"/>
       <c r="K7" s="62">
         <f>((7000*M7)*0.9)/$W$3/86400</f>
-        <v>3.3143939393939395E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="L7" s="68"/>
       <c r="M7" s="74">
         <v>1</v>
       </c>
       <c r="N7" s="240"/>
-      <c r="O7" s="288">
+      <c r="O7" s="241">
         <f>IF(ISNA(VLOOKUP(D7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="289">
+      <c r="P7" s="242">
         <f>IF(ISNA(VLOOKUP(E7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="289">
+      <c r="Q7" s="242">
         <f>IF(ISNA(VLOOKUP(F7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="289">
+      <c r="R7" s="242">
         <f>IF(ISNA(VLOOKUP(G7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="289">
+      <c r="S7" s="242">
         <f>IF(ISNA(VLOOKUP(H7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H7,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="290">
+      <c r="T7" s="243">
         <f>IF(ISNA(VLOOKUP(I7,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I7,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U7" s="60"/>
     </row>
-    <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="71" t="s">
         <v>50</v>
       </c>
@@ -7437,40 +7462,40 @@
       <c r="J8" s="55"/>
       <c r="K8" s="62">
         <f>((130000*M8)*0.9)/$W$3/86400</f>
-        <v>6.1553030303030304E-2</v>
+        <v>6.4484126984126991E-2</v>
       </c>
       <c r="L8" s="68"/>
       <c r="M8" s="74">
         <v>1</v>
       </c>
       <c r="N8" s="240"/>
-      <c r="O8" s="288">
+      <c r="O8" s="241">
         <f>IF(ISNA(VLOOKUP(D8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="289">
+      <c r="P8" s="242">
         <f>IF(ISNA(VLOOKUP(E8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="289">
+      <c r="Q8" s="242">
         <f>IF(ISNA(VLOOKUP(F8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="289">
+      <c r="R8" s="242">
         <f>IF(ISNA(VLOOKUP(G8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="289">
+      <c r="S8" s="242">
         <f>IF(ISNA(VLOOKUP(H8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H8,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="290">
+      <c r="T8" s="243">
         <f>IF(ISNA(VLOOKUP(I8,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I8,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U8" s="60"/>
     </row>
-    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="71" t="s">
         <v>51</v>
       </c>
@@ -7497,40 +7522,40 @@
       <c r="J9" s="55"/>
       <c r="K9" s="62">
         <f>((110000*M9)*0.9)/$W$3/3/86400</f>
-        <v>1.7361111111111112E-2</v>
+        <v>1.818783068783069E-2</v>
       </c>
       <c r="L9" s="68"/>
       <c r="M9" s="74">
         <v>1</v>
       </c>
       <c r="N9" s="240"/>
-      <c r="O9" s="288">
+      <c r="O9" s="241">
         <f>IF(ISNA(VLOOKUP(D9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="289">
+      <c r="P9" s="242">
         <f>IF(ISNA(VLOOKUP(E9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="289">
+      <c r="Q9" s="242">
         <f>IF(ISNA(VLOOKUP(F9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="289">
+      <c r="R9" s="242">
         <f>IF(ISNA(VLOOKUP(G9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="289">
+      <c r="S9" s="242">
         <f>IF(ISNA(VLOOKUP(H9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H9,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="290">
+      <c r="T9" s="243">
         <f>IF(ISNA(VLOOKUP(I9,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I9,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U9" s="60"/>
     </row>
-    <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="71" t="s">
         <v>52</v>
       </c>
@@ -7558,40 +7583,40 @@
       <c r="J10" s="55"/>
       <c r="K10" s="62">
         <f>((80000*M10)*0.9)/$W$3/2/86400</f>
-        <v>1.893939393939394E-2</v>
+        <v>1.984126984126984E-2</v>
       </c>
       <c r="L10" s="68"/>
       <c r="M10" s="74">
         <v>1</v>
       </c>
       <c r="N10" s="240"/>
-      <c r="O10" s="288">
+      <c r="O10" s="241">
         <f>IF(ISNA(VLOOKUP(D10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="289">
+      <c r="P10" s="242">
         <f>IF(ISNA(VLOOKUP(E10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="289">
+      <c r="Q10" s="242">
         <f>IF(ISNA(VLOOKUP(F10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="289">
+      <c r="R10" s="242">
         <f>IF(ISNA(VLOOKUP(G10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="289">
+      <c r="S10" s="242">
         <f>IF(ISNA(VLOOKUP(H10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H10,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="290">
+      <c r="T10" s="243">
         <f>IF(ISNA(VLOOKUP(I10,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I10,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U10" s="60"/>
     </row>
-    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="71" t="s">
         <v>53</v>
       </c>
@@ -7619,40 +7644,40 @@
       <c r="J11" s="55"/>
       <c r="K11" s="62">
         <f>((510000*M11)*0.9)/$W$3/4/86400</f>
-        <v>6.0369318181818184E-2</v>
+        <v>6.324404761904763E-2</v>
       </c>
       <c r="L11" s="68"/>
       <c r="M11" s="74">
         <v>1</v>
       </c>
       <c r="N11" s="240"/>
-      <c r="O11" s="288">
+      <c r="O11" s="241">
         <f>IF(ISNA(VLOOKUP(D11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="289">
+      <c r="P11" s="242">
         <f>IF(ISNA(VLOOKUP(E11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="289">
+      <c r="Q11" s="242">
         <f>IF(ISNA(VLOOKUP(F11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="289">
+      <c r="R11" s="242">
         <f>IF(ISNA(VLOOKUP(G11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="289">
+      <c r="S11" s="242">
         <f>IF(ISNA(VLOOKUP(H11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H11,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="290">
+      <c r="T11" s="243">
         <f>IF(ISNA(VLOOKUP(I11,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I11,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U11" s="60"/>
     </row>
-    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="71" t="s">
         <v>54</v>
       </c>
@@ -7665,7 +7690,7 @@
       </c>
       <c r="F12" s="54">
         <f>4500*(M12^2)+13500</f>
-        <v>126000</v>
+        <v>18000</v>
       </c>
       <c r="G12" s="54">
         <v>0</v>
@@ -7675,46 +7700,46 @@
       </c>
       <c r="I12" s="54">
         <f>1500*(M12^2)+4500</f>
-        <v>42000</v>
+        <v>6000</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="62">
         <f>((170000*M12)*0.9)/$W$3/86400</f>
-        <v>0.40246212121212122</v>
+        <v>8.4325396825396817E-2</v>
       </c>
       <c r="L12" s="68"/>
       <c r="M12" s="74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" s="240"/>
-      <c r="O12" s="288">
+      <c r="O12" s="241">
         <f>IF(ISNA(VLOOKUP(D12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="289">
+      <c r="P12" s="242">
         <f>IF(ISNA(VLOOKUP(E12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="289">
+      <c r="Q12" s="242">
         <f>IF(ISNA(VLOOKUP(F12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
-        <v>7</v>
-      </c>
-      <c r="R12" s="289">
+        <v>2</v>
+      </c>
+      <c r="R12" s="242">
         <f>IF(ISNA(VLOOKUP(G12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="289">
+      <c r="S12" s="242">
         <f>IF(ISNA(VLOOKUP(H12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H12,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="290">
+      <c r="T12" s="243">
         <f>IF(ISNA(VLOOKUP(I12,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I12,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U12" s="60"/>
       <c r="V12" s="41"/>
     </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
       <c r="C13" s="48"/>
       <c r="D13" s="56"/>
@@ -7728,16 +7753,16 @@
       <c r="L13" s="68"/>
       <c r="M13" s="75"/>
       <c r="N13" s="240"/>
-      <c r="O13" s="294"/>
-      <c r="P13" s="295"/>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="295"/>
-      <c r="T13" s="296"/>
+      <c r="O13" s="265"/>
+      <c r="P13" s="266"/>
+      <c r="Q13" s="266"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="267"/>
       <c r="U13" s="60"/>
       <c r="V13" s="41"/>
     </row>
-    <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="71" t="s">
         <v>55</v>
       </c>
@@ -7765,40 +7790,40 @@
       <c r="J14" s="55"/>
       <c r="K14" s="62">
         <f>((210000*M14)*0.9)/$W$3/5/86400</f>
-        <v>1.9886363636363636E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L14" s="68"/>
       <c r="M14" s="74">
         <v>1</v>
       </c>
       <c r="N14" s="240"/>
-      <c r="O14" s="288">
+      <c r="O14" s="241">
         <f>IF(ISNA(VLOOKUP(D14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="289">
+      <c r="P14" s="242">
         <f>IF(ISNA(VLOOKUP(E14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="289">
+      <c r="Q14" s="242">
         <f>IF(ISNA(VLOOKUP(F14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="289">
+      <c r="R14" s="242">
         <f>IF(ISNA(VLOOKUP(G14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="289">
+      <c r="S14" s="242">
         <f>IF(ISNA(VLOOKUP(H14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H14,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="290">
+      <c r="T14" s="243">
         <f>IF(ISNA(VLOOKUP(I14,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I14,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U14" s="60"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="71" t="s">
         <v>56</v>
       </c>
@@ -7826,40 +7851,40 @@
       <c r="J15" s="55"/>
       <c r="K15" s="62">
         <f>((950000*M15)*0.9)/$W$3/12/86400</f>
-        <v>3.7484217171717168E-2</v>
+        <v>3.9269179894179898E-2</v>
       </c>
       <c r="L15" s="68"/>
       <c r="M15" s="74">
         <v>1</v>
       </c>
       <c r="N15" s="240"/>
-      <c r="O15" s="288">
+      <c r="O15" s="241">
         <f>IF(ISNA(VLOOKUP(D15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="289">
+      <c r="P15" s="242">
         <f>IF(ISNA(VLOOKUP(E15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="289">
+      <c r="Q15" s="242">
         <f>IF(ISNA(VLOOKUP(F15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="289">
+      <c r="R15" s="242">
         <f>IF(ISNA(VLOOKUP(G15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="289">
+      <c r="S15" s="242">
         <f>IF(ISNA(VLOOKUP(H15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H15,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="290">
+      <c r="T15" s="243">
         <f>IF(ISNA(VLOOKUP(I15,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I15,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U15" s="60"/>
     </row>
-    <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="71" t="s">
         <v>57</v>
       </c>
@@ -7887,40 +7912,40 @@
       <c r="J16" s="55"/>
       <c r="K16" s="62">
         <f>((450000*M16)*0.9)/$W$3/3/86400</f>
-        <v>7.1022727272727265E-2</v>
+        <v>7.4404761904761904E-2</v>
       </c>
       <c r="L16" s="68"/>
       <c r="M16" s="74">
         <v>1</v>
       </c>
       <c r="N16" s="240"/>
-      <c r="O16" s="288">
+      <c r="O16" s="241">
         <f>IF(ISNA(VLOOKUP(D16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="289">
+      <c r="P16" s="242">
         <f>IF(ISNA(VLOOKUP(E16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="289">
+      <c r="Q16" s="242">
         <f>IF(ISNA(VLOOKUP(F16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="289">
+      <c r="R16" s="242">
         <f>IF(ISNA(VLOOKUP(G16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="289">
+      <c r="S16" s="242">
         <f>IF(ISNA(VLOOKUP(H16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H16,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="290">
+      <c r="T16" s="243">
         <f>IF(ISNA(VLOOKUP(I16,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I16,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U16" s="60"/>
     </row>
-    <row r="17" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
         <v>58</v>
       </c>
@@ -7948,40 +7973,40 @@
       <c r="J17" s="55"/>
       <c r="K17" s="62">
         <f>((11000*M17)*0.9)/$W$3/86400</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.4563492063492069E-3</v>
       </c>
       <c r="L17" s="68"/>
       <c r="M17" s="74">
         <v>1</v>
       </c>
       <c r="N17" s="240"/>
-      <c r="O17" s="288">
+      <c r="O17" s="241">
         <f>IF(ISNA(VLOOKUP(D17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="289">
+      <c r="P17" s="242">
         <f>IF(ISNA(VLOOKUP(E17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="289">
+      <c r="Q17" s="242">
         <f>IF(ISNA(VLOOKUP(F17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="289">
+      <c r="R17" s="242">
         <f>IF(ISNA(VLOOKUP(G17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="289">
+      <c r="S17" s="242">
         <f>IF(ISNA(VLOOKUP(H17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H17,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="290">
+      <c r="T17" s="243">
         <f>IF(ISNA(VLOOKUP(I17,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I17,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U17" s="60"/>
     </row>
-    <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="71" t="s">
         <v>59</v>
       </c>
@@ -8009,40 +8034,40 @@
       <c r="J18" s="55"/>
       <c r="K18" s="62">
         <f>((9000*M18)*0.9)/$W$3/86400</f>
-        <v>4.261363636363636E-3</v>
+        <v>4.464285714285714E-3</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="74">
         <v>1</v>
       </c>
       <c r="N18" s="240"/>
-      <c r="O18" s="288">
+      <c r="O18" s="241">
         <f>IF(ISNA(VLOOKUP(D18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="289">
+      <c r="P18" s="242">
         <f>IF(ISNA(VLOOKUP(E18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="289">
+      <c r="Q18" s="242">
         <f>IF(ISNA(VLOOKUP(F18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="289">
+      <c r="R18" s="242">
         <f>IF(ISNA(VLOOKUP(G18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="289">
+      <c r="S18" s="242">
         <f>IF(ISNA(VLOOKUP(H18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H18,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="290">
+      <c r="T18" s="243">
         <f>IF(ISNA(VLOOKUP(I18,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I18,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U18" s="60"/>
     </row>
-    <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71" t="s">
         <v>60</v>
       </c>
@@ -8070,40 +8095,40 @@
       <c r="J19" s="55"/>
       <c r="K19" s="62">
         <f>((1000000*M19)*0.9)/$W$3/5/86400</f>
-        <v>9.4696969696969696E-2</v>
+        <v>9.9206349206349201E-2</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="74">
         <v>1</v>
       </c>
       <c r="N19" s="240"/>
-      <c r="O19" s="288">
+      <c r="O19" s="241">
         <f>IF(ISNA(VLOOKUP(D19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="289">
+      <c r="P19" s="242">
         <f>IF(ISNA(VLOOKUP(E19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="289">
+      <c r="Q19" s="242">
         <f>IF(ISNA(VLOOKUP(F19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="289">
+      <c r="R19" s="242">
         <f>IF(ISNA(VLOOKUP(G19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="289">
+      <c r="S19" s="242">
         <f>IF(ISNA(VLOOKUP(H19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H19,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="290">
+      <c r="T19" s="243">
         <f>IF(ISNA(VLOOKUP(I19,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I19,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U19" s="60"/>
     </row>
-    <row r="20" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="71" t="s">
         <v>61</v>
       </c>
@@ -8115,56 +8140,56 @@
         <v>0</v>
       </c>
       <c r="F20" s="54">
-        <f>1875*(M20^2)+5625</f>
-        <v>7500</v>
+        <f>1875*(2^M20)+5625</f>
+        <v>9375</v>
       </c>
       <c r="G20" s="54">
         <v>0</v>
       </c>
       <c r="H20" s="54">
-        <f>3500*(M20^2)+10500</f>
-        <v>14000</v>
+        <f>3500*(2^M20)+10500</f>
+        <v>17500</v>
       </c>
       <c r="I20" s="54">
         <v>0</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="62">
-        <f>((400000*M20)*0.9)/$W$3/86400</f>
-        <v>0.18939393939393939</v>
+        <f>((330000*M20)*0.9)/$W$3/86400</f>
+        <v>0.16369047619047619</v>
       </c>
       <c r="L20" s="68"/>
       <c r="M20" s="74">
         <v>1</v>
       </c>
       <c r="N20" s="240"/>
-      <c r="O20" s="288">
+      <c r="O20" s="241">
         <f>IF(ISNA(VLOOKUP(D20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="289">
+      <c r="P20" s="242">
         <f>IF(ISNA(VLOOKUP(E20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="289">
+      <c r="Q20" s="242">
         <f>IF(ISNA(VLOOKUP(F20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="289">
+      <c r="R20" s="242">
         <f>IF(ISNA(VLOOKUP(G20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="289">
+      <c r="S20" s="242">
         <f>IF(ISNA(VLOOKUP(H20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H20,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
-        <v>1</v>
-      </c>
-      <c r="T20" s="290">
+        <v>2</v>
+      </c>
+      <c r="T20" s="243">
         <f>IF(ISNA(VLOOKUP(I20,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I20,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U20" s="60"/>
     </row>
-    <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="71" t="s">
         <v>62</v>
       </c>
@@ -8192,40 +8217,40 @@
       <c r="J21" s="55"/>
       <c r="K21" s="62">
         <f>((500000*M21)*0.9)/$W$3/86400</f>
-        <v>0.23674242424242425</v>
+        <v>0.248015873015873</v>
       </c>
       <c r="L21" s="68"/>
       <c r="M21" s="74">
         <v>1</v>
       </c>
       <c r="N21" s="240"/>
-      <c r="O21" s="288">
+      <c r="O21" s="241">
         <f>IF(ISNA(VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="289">
+      <c r="P21" s="242">
         <f>IF(ISNA(VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="289">
+      <c r="Q21" s="242">
         <f>IF(ISNA(VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="289">
+      <c r="R21" s="242">
         <f>IF(ISNA(VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="S21" s="289">
+      <c r="S21" s="242">
         <f>IF(ISNA(VLOOKUP(H21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="290">
+      <c r="T21" s="243">
         <f>IF(ISNA(VLOOKUP(I21,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I21,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U21" s="60"/>
     </row>
-    <row r="22" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="71" t="s">
         <v>63</v>
       </c>
@@ -8253,40 +8278,40 @@
       <c r="J22" s="55"/>
       <c r="K22" s="62">
         <f>((160000*M22)*0.9)/$W$3/86400</f>
-        <v>7.575757575757576E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="74">
         <v>1</v>
       </c>
       <c r="N22" s="240"/>
-      <c r="O22" s="288">
+      <c r="O22" s="241">
         <f>IF(ISNA(VLOOKUP(D22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="P22" s="289">
+      <c r="P22" s="242">
         <f>IF(ISNA(VLOOKUP(E22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="289">
+      <c r="Q22" s="242">
         <f>IF(ISNA(VLOOKUP(F22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="289">
+      <c r="R22" s="242">
         <f>IF(ISNA(VLOOKUP(G22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="289">
+      <c r="S22" s="242">
         <f>IF(ISNA(VLOOKUP(H22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H22,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="290">
+      <c r="T22" s="243">
         <f>IF(ISNA(VLOOKUP(I22,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I22,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U22" s="60"/>
     </row>
-    <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="71" t="s">
         <v>64</v>
       </c>
@@ -8314,40 +8339,40 @@
       <c r="J23" s="55"/>
       <c r="K23" s="62">
         <f>((230000*M23)*0.9)/$W$3/86400</f>
-        <v>0.10890151515151517</v>
+        <v>0.11408730158730158</v>
       </c>
       <c r="L23" s="68"/>
       <c r="M23" s="74">
         <v>1</v>
       </c>
       <c r="N23" s="240"/>
-      <c r="O23" s="288">
+      <c r="O23" s="241">
         <f>IF(ISNA(VLOOKUP(D23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="P23" s="289">
+      <c r="P23" s="242">
         <f>IF(ISNA(VLOOKUP(E23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="289">
+      <c r="Q23" s="242">
         <f>IF(ISNA(VLOOKUP(F23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="289">
+      <c r="R23" s="242">
         <f>IF(ISNA(VLOOKUP(G23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="289">
+      <c r="S23" s="242">
         <f>IF(ISNA(VLOOKUP(H23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H23,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="290">
+      <c r="T23" s="243">
         <f>IF(ISNA(VLOOKUP(I23,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I23,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U23" s="60"/>
     </row>
-    <row r="24" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="71" t="s">
         <v>65</v>
       </c>
@@ -8375,40 +8400,40 @@
       <c r="J24" s="55"/>
       <c r="K24" s="62">
         <f>((400000*M24)*0.9)/$W$3/86400</f>
-        <v>0.18939393939393939</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L24" s="68"/>
       <c r="M24" s="74">
         <v>1</v>
       </c>
       <c r="N24" s="240"/>
-      <c r="O24" s="288">
+      <c r="O24" s="241">
         <f>IF(ISNA(VLOOKUP(D24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="289">
+      <c r="P24" s="242">
         <f>IF(ISNA(VLOOKUP(E24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="289">
+      <c r="Q24" s="242">
         <f>IF(ISNA(VLOOKUP(F24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="289">
+      <c r="R24" s="242">
         <f>IF(ISNA(VLOOKUP(G24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="289">
+      <c r="S24" s="242">
         <f>IF(ISNA(VLOOKUP(H24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H24,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="T24" s="290">
+      <c r="T24" s="243">
         <f>IF(ISNA(VLOOKUP(I24,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I24,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U24" s="60"/>
     </row>
-    <row r="25" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="71" t="s">
         <v>66</v>
       </c>
@@ -8436,40 +8461,40 @@
       <c r="J25" s="55"/>
       <c r="K25" s="62">
         <f>((490000*M25)*0.9)/$W$3/86400</f>
-        <v>0.23200757575757575</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="74">
         <v>1</v>
       </c>
       <c r="N25" s="240"/>
-      <c r="O25" s="288">
+      <c r="O25" s="241">
         <f>IF(ISNA(VLOOKUP(D25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="P25" s="289">
+      <c r="P25" s="242">
         <f>IF(ISNA(VLOOKUP(E25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>4</v>
       </c>
-      <c r="Q25" s="289">
+      <c r="Q25" s="242">
         <f>IF(ISNA(VLOOKUP(F25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="289">
+      <c r="R25" s="242">
         <f>IF(ISNA(VLOOKUP(G25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="289">
+      <c r="S25" s="242">
         <f>IF(ISNA(VLOOKUP(H25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H25,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="290">
+      <c r="T25" s="243">
         <f>IF(ISNA(VLOOKUP(I25,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I25,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U25" s="60"/>
     </row>
-    <row r="26" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="71" t="s">
         <v>67</v>
       </c>
@@ -8498,47 +8523,47 @@
       <c r="J26" s="55"/>
       <c r="K26" s="62">
         <f>((320000*M26)*0.9)/$W$3/86400</f>
-        <v>0.15151515151515152</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="74">
         <v>1</v>
       </c>
       <c r="N26" s="240"/>
-      <c r="O26" s="288">
+      <c r="O26" s="241">
         <f>IF(ISNA(VLOOKUP(D26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="289">
+      <c r="P26" s="242">
         <f>IF(ISNA(VLOOKUP(E26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="289">
+      <c r="Q26" s="242">
         <f>IF(ISNA(VLOOKUP(F26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="R26" s="289">
+      <c r="R26" s="242">
         <f>IF(ISNA(VLOOKUP(G26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="289">
+      <c r="S26" s="242">
         <f>IF(ISNA(VLOOKUP(H26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H26,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="290">
+      <c r="T26" s="243">
         <f>IF(ISNA(VLOOKUP(I26,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I26,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U26" s="60"/>
     </row>
-    <row r="27" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="71" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="54">
-        <f>2500*(M27^2)+7500</f>
-        <v>10000</v>
+        <f>2500*(2^M27)+7500</f>
+        <v>12500</v>
       </c>
       <c r="E27" s="54">
         <v>0</v>
@@ -8547,12 +8572,12 @@
         <v>0</v>
       </c>
       <c r="G27" s="54">
-        <f>12500*(M27^2)+37500</f>
-        <v>50000</v>
+        <f>12500*(2^M27)+37500</f>
+        <v>62500</v>
       </c>
       <c r="H27" s="54">
-        <f>4500*(M27^2)+13500</f>
-        <v>18000</v>
+        <f>4500*(2^M27)+13500</f>
+        <v>22500</v>
       </c>
       <c r="I27" s="54">
         <v>0</v>
@@ -8560,40 +8585,40 @@
       <c r="J27" s="55"/>
       <c r="K27" s="62">
         <f>((380000*M27)*0.9)/$W$3/86400</f>
-        <v>0.17992424242424243</v>
+        <v>0.18849206349206349</v>
       </c>
       <c r="L27" s="68"/>
       <c r="M27" s="74">
         <v>1</v>
       </c>
       <c r="N27" s="240"/>
-      <c r="O27" s="288">
+      <c r="O27" s="241">
         <f>IF(ISNA(VLOOKUP(D27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>1</v>
       </c>
-      <c r="P27" s="289">
+      <c r="P27" s="242">
         <f>IF(ISNA(VLOOKUP(E27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="289">
+      <c r="Q27" s="242">
         <f>IF(ISNA(VLOOKUP(F27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="289">
+      <c r="R27" s="242">
         <f>IF(ISNA(VLOOKUP(G27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
-        <v>4</v>
-      </c>
-      <c r="S27" s="289">
+        <v>5</v>
+      </c>
+      <c r="S27" s="242">
         <f>IF(ISNA(VLOOKUP(H27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H27,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="T27" s="290">
+      <c r="T27" s="243">
         <f>IF(ISNA(VLOOKUP(I27,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I27,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U27" s="60"/>
     </row>
-    <row r="28" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="71" t="s">
         <v>69</v>
       </c>
@@ -8621,40 +8646,40 @@
       <c r="J28" s="55"/>
       <c r="K28" s="62">
         <f>((460000*M28)*0.9)/$W$3/86400</f>
-        <v>0.21780303030303033</v>
+        <v>0.22817460317460317</v>
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="74">
         <v>1</v>
       </c>
       <c r="N28" s="240"/>
-      <c r="O28" s="288">
+      <c r="O28" s="241">
         <f>IF(ISNA(VLOOKUP(D28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="P28" s="289">
+      <c r="P28" s="242">
         <f>IF(ISNA(VLOOKUP(E28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="289">
+      <c r="Q28" s="242">
         <f>IF(ISNA(VLOOKUP(F28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="R28" s="289">
+      <c r="R28" s="242">
         <f>IF(ISNA(VLOOKUP(G28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="289">
+      <c r="S28" s="242">
         <f>IF(ISNA(VLOOKUP(H28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H28,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="290">
+      <c r="T28" s="243">
         <f>IF(ISNA(VLOOKUP(I28,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I28,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U28" s="60"/>
     </row>
-    <row r="29" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="71" t="s">
         <v>70</v>
       </c>
@@ -8684,40 +8709,40 @@
       <c r="J29" s="55"/>
       <c r="K29" s="62">
         <f>((900000*M29)*0.9)/$W$3/86400</f>
-        <v>0.42613636363636359</v>
+        <v>0.44642857142857145</v>
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="74">
         <v>1</v>
       </c>
       <c r="N29" s="240"/>
-      <c r="O29" s="288">
+      <c r="O29" s="241">
         <f>IF(ISNA(VLOOKUP(D29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>5</v>
       </c>
-      <c r="P29" s="289">
+      <c r="P29" s="242">
         <f>IF(ISNA(VLOOKUP(E29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="289">
+      <c r="Q29" s="242">
         <f>IF(ISNA(VLOOKUP(F29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="289">
+      <c r="R29" s="242">
         <f>IF(ISNA(VLOOKUP(G29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>8</v>
       </c>
-      <c r="S29" s="289">
+      <c r="S29" s="242">
         <f>IF(ISNA(VLOOKUP(H29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H29,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>7</v>
       </c>
-      <c r="T29" s="290">
+      <c r="T29" s="243">
         <f>IF(ISNA(VLOOKUP(I29,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I29,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>4</v>
       </c>
       <c r="U29" s="60"/>
     </row>
-    <row r="30" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="71" t="s">
         <v>71</v>
       </c>
@@ -8746,40 +8771,40 @@
       <c r="J30" s="55"/>
       <c r="K30" s="62">
         <f>((520000*M30)*0.9)/$W$3/2/86400</f>
-        <v>0.12310606060606061</v>
+        <v>0.12896825396825398</v>
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="74">
         <v>1</v>
       </c>
       <c r="N30" s="240"/>
-      <c r="O30" s="288">
+      <c r="O30" s="241">
         <f>IF(ISNA(VLOOKUP(D30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>3</v>
       </c>
-      <c r="P30" s="289">
+      <c r="P30" s="242">
         <f>IF(ISNA(VLOOKUP(E30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>7</v>
       </c>
-      <c r="Q30" s="289">
+      <c r="Q30" s="242">
         <f>IF(ISNA(VLOOKUP(F30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>5</v>
       </c>
-      <c r="R30" s="289">
+      <c r="R30" s="242">
         <f>IF(ISNA(VLOOKUP(G30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="289">
+      <c r="S30" s="242">
         <f>IF(ISNA(VLOOKUP(H30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H30,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="290">
+      <c r="T30" s="243">
         <f>IF(ISNA(VLOOKUP(I30,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I30,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U30" s="60"/>
     </row>
-    <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
       <c r="C31" s="48"/>
       <c r="D31" s="56"/>
@@ -8793,15 +8818,15 @@
       <c r="L31" s="68"/>
       <c r="M31" s="75"/>
       <c r="N31" s="240"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="295"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="296"/>
+      <c r="O31" s="265"/>
+      <c r="P31" s="266"/>
+      <c r="Q31" s="266"/>
+      <c r="R31" s="266"/>
+      <c r="S31" s="266"/>
+      <c r="T31" s="267"/>
       <c r="U31" s="60"/>
     </row>
-    <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="71" t="s">
         <v>72</v>
       </c>
@@ -8830,40 +8855,40 @@
       <c r="J32" s="55"/>
       <c r="K32" s="62">
         <f>((140000*M32)*0.9)/$W$3/2/86400</f>
-        <v>3.3143939393939392E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="74">
         <v>1</v>
       </c>
       <c r="N32" s="240"/>
-      <c r="O32" s="288">
+      <c r="O32" s="241">
         <f>IF(ISNA(VLOOKUP(D32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="289">
+      <c r="P32" s="242">
         <f>IF(ISNA(VLOOKUP(E32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="289">
+      <c r="Q32" s="242">
         <f>IF(ISNA(VLOOKUP(F32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="289">
+      <c r="R32" s="242">
         <f>IF(ISNA(VLOOKUP(G32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="289">
+      <c r="S32" s="242">
         <f>IF(ISNA(VLOOKUP(H32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H32,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="290">
+      <c r="T32" s="243">
         <f>IF(ISNA(VLOOKUP(I32,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I32,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U32" s="60"/>
     </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
         <v>73</v>
       </c>
@@ -8891,40 +8916,40 @@
       <c r="J33" s="55"/>
       <c r="K33" s="62">
         <f>((80000*M33)*0.9)/$W$3/86400</f>
-        <v>3.787878787878788E-2</v>
+        <v>3.968253968253968E-2</v>
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="74">
         <v>1</v>
       </c>
       <c r="N33" s="240"/>
-      <c r="O33" s="288">
+      <c r="O33" s="241">
         <f>IF(ISNA(VLOOKUP(D33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="289">
+      <c r="P33" s="242">
         <f>IF(ISNA(VLOOKUP(E33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="289">
+      <c r="Q33" s="242">
         <f>IF(ISNA(VLOOKUP(F33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="289">
+      <c r="R33" s="242">
         <f>IF(ISNA(VLOOKUP(G33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="289">
+      <c r="S33" s="242">
         <f>IF(ISNA(VLOOKUP(H33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H33,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="290">
+      <c r="T33" s="243">
         <f>IF(ISNA(VLOOKUP(I33,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I33,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U33" s="60"/>
     </row>
-    <row r="34" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="71" t="s">
         <v>74</v>
       </c>
@@ -8954,40 +8979,40 @@
       <c r="J34" s="55"/>
       <c r="K34" s="62">
         <f>((190000*M34)*0.9)/$W$3/86400</f>
-        <v>8.9962121212121215E-2</v>
+        <v>9.4246031746031744E-2</v>
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="74">
         <v>1</v>
       </c>
       <c r="N34" s="240"/>
-      <c r="O34" s="288">
+      <c r="O34" s="241">
         <f>IF(ISNA(VLOOKUP(D34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="289">
+      <c r="P34" s="242">
         <f>IF(ISNA(VLOOKUP(E34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="Q34" s="289">
+      <c r="Q34" s="242">
         <f>IF(ISNA(VLOOKUP(F34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="289">
+      <c r="R34" s="242">
         <f>IF(ISNA(VLOOKUP(G34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>5</v>
       </c>
-      <c r="S34" s="289">
+      <c r="S34" s="242">
         <f>IF(ISNA(VLOOKUP(H34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H34,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>4</v>
       </c>
-      <c r="T34" s="290">
+      <c r="T34" s="243">
         <f>IF(ISNA(VLOOKUP(I34,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I34,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
       <c r="U34" s="60"/>
     </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="71" t="s">
         <v>75</v>
       </c>
@@ -9018,40 +9043,40 @@
       <c r="J35" s="55"/>
       <c r="K35" s="62">
         <f>((3000000*M35)*0.9)/$W$3/86400</f>
-        <v>1.4204545454545454</v>
+        <v>1.4880952380952379</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="74">
         <v>1</v>
       </c>
       <c r="N35" s="240"/>
-      <c r="O35" s="288">
+      <c r="O35" s="241">
         <f>IF(ISNA(VLOOKUP(D35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="289">
+      <c r="P35" s="242">
         <f>IF(ISNA(VLOOKUP(E35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>11</v>
       </c>
-      <c r="Q35" s="289">
+      <c r="Q35" s="242">
         <f>IF(ISNA(VLOOKUP(F35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>9</v>
       </c>
-      <c r="R35" s="289">
+      <c r="R35" s="242">
         <f>IF(ISNA(VLOOKUP(G35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>11</v>
       </c>
-      <c r="S35" s="289">
+      <c r="S35" s="242">
         <f>IF(ISNA(VLOOKUP(H35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H35,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>12</v>
       </c>
-      <c r="T35" s="290">
+      <c r="T35" s="243">
         <f>IF(ISNA(VLOOKUP(I35,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I35,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>6</v>
       </c>
       <c r="U35" s="60"/>
     </row>
-    <row r="36" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
       <c r="C36" s="48"/>
       <c r="D36" s="56"/>
@@ -9065,15 +9090,15 @@
       <c r="L36" s="68"/>
       <c r="M36" s="75"/>
       <c r="N36" s="240"/>
-      <c r="O36" s="294"/>
-      <c r="P36" s="295"/>
-      <c r="Q36" s="295"/>
-      <c r="R36" s="295"/>
-      <c r="S36" s="295"/>
-      <c r="T36" s="296"/>
+      <c r="O36" s="265"/>
+      <c r="P36" s="266"/>
+      <c r="Q36" s="266"/>
+      <c r="R36" s="266"/>
+      <c r="S36" s="266"/>
+      <c r="T36" s="267"/>
       <c r="U36" s="60"/>
     </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="73" t="s">
         <v>76</v>
       </c>
@@ -9105,34 +9130,34 @@
       <c r="J37" s="59"/>
       <c r="K37" s="64">
         <f>((2500000*M37)*0.9)/$W$3/2/86400</f>
-        <v>0.59185606060606066</v>
+        <v>0.62003968253968256</v>
       </c>
       <c r="L37" s="69"/>
       <c r="M37" s="76">
         <v>1</v>
       </c>
       <c r="N37" s="240"/>
-      <c r="O37" s="291">
+      <c r="O37" s="244">
         <f>IF(ISNA(VLOOKUP(D37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>5</v>
       </c>
-      <c r="P37" s="292">
+      <c r="P37" s="245">
         <f>IF(ISNA(VLOOKUP(E37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>7</v>
       </c>
-      <c r="Q37" s="292">
+      <c r="Q37" s="245">
         <f>IF(ISNA(VLOOKUP(F37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>6</v>
       </c>
-      <c r="R37" s="292">
+      <c r="R37" s="245">
         <f>IF(ISNA(VLOOKUP(G37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>6</v>
       </c>
-      <c r="S37" s="292">
+      <c r="S37" s="245">
         <f>IF(ISNA(VLOOKUP(H37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(H37,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
         <v>4</v>
       </c>
-      <c r="T37" s="293">
+      <c r="T37" s="246">
         <f>IF(ISNA(VLOOKUP(I37,Lagerkapazität!$D$4:$E$54,2,TRUE)+1),0,VLOOKUP(I37,Lagerkapazität!$D$4:$E$54,2,TRUE)+1)</f>
         <v>0</v>
       </c>
@@ -9140,7 +9165,7 @@
       <c r="V37" s="239"/>
       <c r="W37" s="239"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D38" s="41"/>
       <c r="H38" s="41"/>
       <c r="K38" s="40"/>
@@ -9155,7 +9180,7 @@
       <c r="T38" s="40"/>
       <c r="U38" s="67"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D39" s="41"/>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
@@ -9169,7 +9194,7 @@
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D40" s="41"/>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -9183,7 +9208,7 @@
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D41" s="41"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
@@ -9197,7 +9222,7 @@
       <c r="T41" s="40"/>
       <c r="U41" s="40"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D42" s="41"/>
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
@@ -9211,7 +9236,7 @@
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D43" s="41"/>
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
@@ -9225,7 +9250,7 @@
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D44" s="41"/>
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
@@ -9239,7 +9264,7 @@
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D45" s="41"/>
       <c r="I45" s="78"/>
       <c r="K45" s="40"/>
@@ -9254,7 +9279,7 @@
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D46" s="41"/>
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
@@ -9268,7 +9293,7 @@
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D47" s="41"/>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -9306,15 +9331,15 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="14" max="29" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="14" max="29" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>40</v>
       </c>
@@ -9394,7 +9419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -9470,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -9556,7 +9581,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -9643,7 +9668,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -9725,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -9811,7 +9836,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -9898,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -9928,7 +9953,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -9965,7 +9990,7 @@
       </c>
       <c r="N11" s="101"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>8</v>
       </c>
@@ -10004,7 +10029,7 @@
       <c r="N12" s="109"/>
       <c r="O12" s="108"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>9</v>
       </c>
@@ -10041,7 +10066,7 @@
       </c>
       <c r="N13" s="109"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
         <v>10</v>
       </c>
@@ -10078,7 +10103,7 @@
       </c>
       <c r="N14" s="109"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>11</v>
       </c>
@@ -10115,7 +10140,7 @@
       </c>
       <c r="N15" s="109"/>
     </row>
-    <row r="16" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>12</v>
       </c>
@@ -10151,7 +10176,7 @@
       </c>
       <c r="N16" s="109"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>13</v>
       </c>
@@ -10181,7 +10206,7 @@
       </c>
       <c r="N17" s="109"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>14</v>
       </c>
@@ -10210,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>15</v>
       </c>
@@ -10239,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>16</v>
       </c>
@@ -10268,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>17</v>
       </c>
@@ -10297,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>18</v>
       </c>
@@ -10326,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <v>19</v>
       </c>
@@ -10355,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>20</v>
       </c>
@@ -10384,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <v>21</v>
       </c>
@@ -10413,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <v>22</v>
       </c>
@@ -10442,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>23</v>
       </c>
@@ -10471,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>24</v>
       </c>
@@ -10500,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>25</v>
       </c>
@@ -10529,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>26</v>
       </c>
@@ -10558,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>27</v>
       </c>
@@ -10587,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <v>28</v>
       </c>
@@ -10616,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>29</v>
       </c>
@@ -10645,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <v>30</v>
       </c>
@@ -10674,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <v>31</v>
       </c>
@@ -10703,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
         <v>32</v>
       </c>
@@ -10732,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
         <v>33</v>
       </c>
@@ -10761,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <v>34</v>
       </c>
@@ -10790,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>35</v>
       </c>
@@ -10819,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <v>36</v>
       </c>
@@ -10848,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
         <v>37</v>
       </c>
@@ -10877,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <v>38</v>
       </c>
@@ -10906,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
         <v>39</v>
       </c>
@@ -10935,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
         <v>40</v>
       </c>
@@ -10964,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <v>41</v>
       </c>
@@ -10993,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
         <v>42</v>
       </c>
@@ -11022,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <v>43</v>
       </c>
@@ -11051,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
         <v>44</v>
       </c>
@@ -11080,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>45</v>
       </c>
@@ -11109,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>46</v>
       </c>
@@ -11138,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>47</v>
       </c>
@@ -11167,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>48</v>
       </c>
@@ -11196,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="34">
         <v>49</v>
       </c>
@@ -11225,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="34">
         <v>50</v>
       </c>
@@ -11254,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <v>51</v>
       </c>
@@ -11283,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="34">
         <v>52</v>
       </c>
@@ -11312,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="34">
         <v>53</v>
       </c>
@@ -11341,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="34">
         <v>54</v>
       </c>
@@ -11370,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="34">
         <v>55</v>
       </c>
@@ -11399,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="34">
         <v>56</v>
       </c>
@@ -11428,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="34">
         <v>57</v>
       </c>
@@ -11457,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="34">
         <v>58</v>
       </c>
@@ -11486,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="34">
         <v>59</v>
       </c>
@@ -11515,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="34">
         <v>60</v>
       </c>
@@ -11544,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="34">
         <v>61</v>
       </c>
@@ -11573,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="34">
         <v>62</v>
       </c>
@@ -11602,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="34">
         <v>63</v>
       </c>
@@ -11631,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="34">
         <v>64</v>
       </c>
@@ -11660,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="34">
         <v>65</v>
       </c>
@@ -11689,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="34">
         <v>66</v>
       </c>
@@ -11718,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="34">
         <v>67</v>
       </c>
@@ -11747,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -11776,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -11805,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="34">
         <v>70</v>
       </c>
@@ -11834,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -11863,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="34">
         <v>72</v>
       </c>
@@ -11892,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="34">
         <v>73</v>
       </c>
@@ -11921,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="34">
         <v>74</v>
       </c>
@@ -11950,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="34">
         <v>75</v>
       </c>
@@ -11979,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
         <v>76</v>
       </c>
@@ -12008,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="34">
         <v>77</v>
       </c>
@@ -12037,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="34">
         <v>78</v>
       </c>
@@ -12066,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="34">
         <v>79</v>
       </c>
@@ -12095,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="34">
         <v>80</v>
       </c>
@@ -12124,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="34">
         <v>81</v>
       </c>
@@ -12153,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="34">
         <v>82</v>
       </c>
@@ -12182,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="34">
         <v>83</v>
       </c>
@@ -12211,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="34">
         <v>84</v>
       </c>
@@ -12240,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="34">
         <v>85</v>
       </c>
@@ -12269,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="34">
         <v>86</v>
       </c>
@@ -12298,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="34">
         <v>87</v>
       </c>
@@ -12327,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="34">
         <v>88</v>
       </c>
@@ -12356,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="34">
         <v>89</v>
       </c>
@@ -12385,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="34">
         <v>90</v>
       </c>
@@ -12414,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="34">
         <v>91</v>
       </c>
@@ -12443,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="34">
         <v>92</v>
       </c>
@@ -12472,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="34">
         <v>93</v>
       </c>
@@ -12501,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="34">
         <v>94</v>
       </c>
@@ -12530,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="34">
         <v>95</v>
       </c>
@@ -12559,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="34">
         <v>96</v>
       </c>
@@ -12588,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="34">
         <v>97</v>
       </c>
@@ -12617,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="34">
         <v>98</v>
       </c>
@@ -12646,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="34">
         <v>99</v>
       </c>
@@ -12675,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="38">
         <v>100</v>
       </c>
@@ -12729,14 +12754,14 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>40</v>
       </c>
@@ -12747,7 +12772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -12761,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -12775,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -12791,7 +12816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -12807,7 +12832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -12823,7 +12848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -12839,7 +12864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -12855,7 +12880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -12871,7 +12896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>8</v>
       </c>
@@ -12887,7 +12912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>9</v>
       </c>
@@ -12903,7 +12928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
         <v>10</v>
       </c>
@@ -12919,7 +12944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>11</v>
       </c>
@@ -12935,7 +12960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>12</v>
       </c>
@@ -12951,7 +12976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>13</v>
       </c>
@@ -12967,7 +12992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>14</v>
       </c>
@@ -12983,7 +13008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>15</v>
       </c>
@@ -12999,7 +13024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>16</v>
       </c>
@@ -13015,7 +13040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>17</v>
       </c>
@@ -13031,7 +13056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>18</v>
       </c>
@@ -13047,7 +13072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <v>19</v>
       </c>
@@ -13063,7 +13088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>20</v>
       </c>
@@ -13079,7 +13104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <v>21</v>
       </c>
@@ -13095,7 +13120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <v>22</v>
       </c>
@@ -13111,7 +13136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>23</v>
       </c>
@@ -13127,7 +13152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>24</v>
       </c>
@@ -13143,7 +13168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>25</v>
       </c>
@@ -13159,7 +13184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>26</v>
       </c>
@@ -13175,7 +13200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>27</v>
       </c>
@@ -13191,7 +13216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <v>28</v>
       </c>
@@ -13207,7 +13232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>29</v>
       </c>
@@ -13223,7 +13248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <v>30</v>
       </c>
@@ -13239,7 +13264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <v>31</v>
       </c>
@@ -13255,7 +13280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
         <v>32</v>
       </c>
@@ -13271,7 +13296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
         <v>33</v>
       </c>
@@ -13287,7 +13312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <v>34</v>
       </c>
@@ -13303,7 +13328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>35</v>
       </c>
@@ -13319,7 +13344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <v>36</v>
       </c>
@@ -13335,7 +13360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
         <v>37</v>
       </c>
@@ -13351,7 +13376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <v>38</v>
       </c>
@@ -13367,7 +13392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
         <v>39</v>
       </c>
@@ -13383,7 +13408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
         <v>40</v>
       </c>
@@ -13399,7 +13424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <v>41</v>
       </c>
@@ -13415,7 +13440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
         <v>42</v>
       </c>
@@ -13431,7 +13456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <v>43</v>
       </c>
@@ -13447,7 +13472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
         <v>44</v>
       </c>
@@ -13463,7 +13488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>45</v>
       </c>
@@ -13479,7 +13504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>46</v>
       </c>
@@ -13495,7 +13520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>47</v>
       </c>
@@ -13511,7 +13536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>48</v>
       </c>
@@ -13527,7 +13552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="34">
         <v>49</v>
       </c>
@@ -13543,7 +13568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="38">
         <v>50</v>
       </c>
@@ -13576,32 +13601,32 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="246" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="244" t="s">
+      <c r="C3" s="272"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="268" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="245"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="247"/>
+      <c r="P3" s="269"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="271"/>
       <c r="C4" s="206" t="s">
         <v>117</v>
       </c>
@@ -13645,7 +13670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="201" t="s">
         <v>1</v>
       </c>
@@ -13694,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="201" t="s">
         <v>2</v>
       </c>
@@ -13743,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="201" t="s">
         <v>3</v>
       </c>
@@ -13792,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="201" t="s">
         <v>4</v>
       </c>
@@ -13841,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="201" t="s">
         <v>5</v>
       </c>
@@ -13890,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="202" t="s">
         <v>6</v>
       </c>
@@ -13966,144 +13991,144 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="40"/>
-    <col min="2" max="3" width="5.6640625" style="40" customWidth="1"/>
-    <col min="4" max="19" width="8.5546875" style="40" customWidth="1"/>
-    <col min="20" max="21" width="5.6640625" style="40" customWidth="1"/>
-    <col min="22" max="258" width="11.44140625" style="40"/>
-    <col min="259" max="276" width="7.6640625" style="40" customWidth="1"/>
-    <col min="277" max="514" width="11.44140625" style="40"/>
-    <col min="515" max="532" width="7.6640625" style="40" customWidth="1"/>
-    <col min="533" max="770" width="11.44140625" style="40"/>
-    <col min="771" max="788" width="7.6640625" style="40" customWidth="1"/>
-    <col min="789" max="1026" width="11.44140625" style="40"/>
-    <col min="1027" max="1044" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1045" max="1282" width="11.44140625" style="40"/>
-    <col min="1283" max="1300" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1301" max="1538" width="11.44140625" style="40"/>
-    <col min="1539" max="1556" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1557" max="1794" width="11.44140625" style="40"/>
-    <col min="1795" max="1812" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1813" max="2050" width="11.44140625" style="40"/>
-    <col min="2051" max="2068" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2069" max="2306" width="11.44140625" style="40"/>
-    <col min="2307" max="2324" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2325" max="2562" width="11.44140625" style="40"/>
-    <col min="2563" max="2580" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2581" max="2818" width="11.44140625" style="40"/>
-    <col min="2819" max="2836" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2837" max="3074" width="11.44140625" style="40"/>
-    <col min="3075" max="3092" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3093" max="3330" width="11.44140625" style="40"/>
-    <col min="3331" max="3348" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3349" max="3586" width="11.44140625" style="40"/>
-    <col min="3587" max="3604" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3605" max="3842" width="11.44140625" style="40"/>
-    <col min="3843" max="3860" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3861" max="4098" width="11.44140625" style="40"/>
-    <col min="4099" max="4116" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4117" max="4354" width="11.44140625" style="40"/>
-    <col min="4355" max="4372" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4373" max="4610" width="11.44140625" style="40"/>
-    <col min="4611" max="4628" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4629" max="4866" width="11.44140625" style="40"/>
-    <col min="4867" max="4884" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4885" max="5122" width="11.44140625" style="40"/>
-    <col min="5123" max="5140" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5141" max="5378" width="11.44140625" style="40"/>
-    <col min="5379" max="5396" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5397" max="5634" width="11.44140625" style="40"/>
-    <col min="5635" max="5652" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5653" max="5890" width="11.44140625" style="40"/>
-    <col min="5891" max="5908" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5909" max="6146" width="11.44140625" style="40"/>
-    <col min="6147" max="6164" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6165" max="6402" width="11.44140625" style="40"/>
-    <col min="6403" max="6420" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6421" max="6658" width="11.44140625" style="40"/>
-    <col min="6659" max="6676" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6677" max="6914" width="11.44140625" style="40"/>
-    <col min="6915" max="6932" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6933" max="7170" width="11.44140625" style="40"/>
-    <col min="7171" max="7188" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7189" max="7426" width="11.44140625" style="40"/>
-    <col min="7427" max="7444" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7445" max="7682" width="11.44140625" style="40"/>
-    <col min="7683" max="7700" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7701" max="7938" width="11.44140625" style="40"/>
-    <col min="7939" max="7956" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7957" max="8194" width="11.44140625" style="40"/>
-    <col min="8195" max="8212" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8213" max="8450" width="11.44140625" style="40"/>
-    <col min="8451" max="8468" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8469" max="8706" width="11.44140625" style="40"/>
-    <col min="8707" max="8724" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8725" max="8962" width="11.44140625" style="40"/>
-    <col min="8963" max="8980" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8981" max="9218" width="11.44140625" style="40"/>
-    <col min="9219" max="9236" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9237" max="9474" width="11.44140625" style="40"/>
-    <col min="9475" max="9492" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9493" max="9730" width="11.44140625" style="40"/>
-    <col min="9731" max="9748" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9749" max="9986" width="11.44140625" style="40"/>
-    <col min="9987" max="10004" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10005" max="10242" width="11.44140625" style="40"/>
-    <col min="10243" max="10260" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10261" max="10498" width="11.44140625" style="40"/>
-    <col min="10499" max="10516" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10517" max="10754" width="11.44140625" style="40"/>
-    <col min="10755" max="10772" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10773" max="11010" width="11.44140625" style="40"/>
-    <col min="11011" max="11028" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11029" max="11266" width="11.44140625" style="40"/>
-    <col min="11267" max="11284" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11285" max="11522" width="11.44140625" style="40"/>
-    <col min="11523" max="11540" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11541" max="11778" width="11.44140625" style="40"/>
-    <col min="11779" max="11796" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11797" max="12034" width="11.44140625" style="40"/>
-    <col min="12035" max="12052" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12053" max="12290" width="11.44140625" style="40"/>
-    <col min="12291" max="12308" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12309" max="12546" width="11.44140625" style="40"/>
-    <col min="12547" max="12564" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12565" max="12802" width="11.44140625" style="40"/>
-    <col min="12803" max="12820" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12821" max="13058" width="11.44140625" style="40"/>
-    <col min="13059" max="13076" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13077" max="13314" width="11.44140625" style="40"/>
-    <col min="13315" max="13332" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13333" max="13570" width="11.44140625" style="40"/>
-    <col min="13571" max="13588" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13589" max="13826" width="11.44140625" style="40"/>
-    <col min="13827" max="13844" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13845" max="14082" width="11.44140625" style="40"/>
-    <col min="14083" max="14100" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14101" max="14338" width="11.44140625" style="40"/>
-    <col min="14339" max="14356" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14357" max="14594" width="11.44140625" style="40"/>
-    <col min="14595" max="14612" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14613" max="14850" width="11.44140625" style="40"/>
-    <col min="14851" max="14868" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14869" max="15106" width="11.44140625" style="40"/>
-    <col min="15107" max="15124" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15125" max="15362" width="11.44140625" style="40"/>
-    <col min="15363" max="15380" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15381" max="15618" width="11.44140625" style="40"/>
-    <col min="15619" max="15636" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15637" max="15874" width="11.44140625" style="40"/>
-    <col min="15875" max="15892" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15893" max="16130" width="11.44140625" style="40"/>
-    <col min="16131" max="16148" width="7.6640625" style="40" customWidth="1"/>
-    <col min="16149" max="16384" width="11.44140625" style="40"/>
+    <col min="1" max="1" width="11.42578125" style="40"/>
+    <col min="2" max="3" width="5.7109375" style="40" customWidth="1"/>
+    <col min="4" max="19" width="8.5703125" style="40" customWidth="1"/>
+    <col min="20" max="21" width="5.7109375" style="40" customWidth="1"/>
+    <col min="22" max="258" width="11.42578125" style="40"/>
+    <col min="259" max="276" width="7.7109375" style="40" customWidth="1"/>
+    <col min="277" max="514" width="11.42578125" style="40"/>
+    <col min="515" max="532" width="7.7109375" style="40" customWidth="1"/>
+    <col min="533" max="770" width="11.42578125" style="40"/>
+    <col min="771" max="788" width="7.7109375" style="40" customWidth="1"/>
+    <col min="789" max="1026" width="11.42578125" style="40"/>
+    <col min="1027" max="1044" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1045" max="1282" width="11.42578125" style="40"/>
+    <col min="1283" max="1300" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1301" max="1538" width="11.42578125" style="40"/>
+    <col min="1539" max="1556" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1557" max="1794" width="11.42578125" style="40"/>
+    <col min="1795" max="1812" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1813" max="2050" width="11.42578125" style="40"/>
+    <col min="2051" max="2068" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2069" max="2306" width="11.42578125" style="40"/>
+    <col min="2307" max="2324" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2325" max="2562" width="11.42578125" style="40"/>
+    <col min="2563" max="2580" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2581" max="2818" width="11.42578125" style="40"/>
+    <col min="2819" max="2836" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2837" max="3074" width="11.42578125" style="40"/>
+    <col min="3075" max="3092" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3093" max="3330" width="11.42578125" style="40"/>
+    <col min="3331" max="3348" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3349" max="3586" width="11.42578125" style="40"/>
+    <col min="3587" max="3604" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3605" max="3842" width="11.42578125" style="40"/>
+    <col min="3843" max="3860" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3861" max="4098" width="11.42578125" style="40"/>
+    <col min="4099" max="4116" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4117" max="4354" width="11.42578125" style="40"/>
+    <col min="4355" max="4372" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4373" max="4610" width="11.42578125" style="40"/>
+    <col min="4611" max="4628" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4629" max="4866" width="11.42578125" style="40"/>
+    <col min="4867" max="4884" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4885" max="5122" width="11.42578125" style="40"/>
+    <col min="5123" max="5140" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5141" max="5378" width="11.42578125" style="40"/>
+    <col min="5379" max="5396" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5397" max="5634" width="11.42578125" style="40"/>
+    <col min="5635" max="5652" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5653" max="5890" width="11.42578125" style="40"/>
+    <col min="5891" max="5908" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5909" max="6146" width="11.42578125" style="40"/>
+    <col min="6147" max="6164" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6165" max="6402" width="11.42578125" style="40"/>
+    <col min="6403" max="6420" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6421" max="6658" width="11.42578125" style="40"/>
+    <col min="6659" max="6676" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6677" max="6914" width="11.42578125" style="40"/>
+    <col min="6915" max="6932" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6933" max="7170" width="11.42578125" style="40"/>
+    <col min="7171" max="7188" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7189" max="7426" width="11.42578125" style="40"/>
+    <col min="7427" max="7444" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7445" max="7682" width="11.42578125" style="40"/>
+    <col min="7683" max="7700" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7701" max="7938" width="11.42578125" style="40"/>
+    <col min="7939" max="7956" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7957" max="8194" width="11.42578125" style="40"/>
+    <col min="8195" max="8212" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8213" max="8450" width="11.42578125" style="40"/>
+    <col min="8451" max="8468" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8469" max="8706" width="11.42578125" style="40"/>
+    <col min="8707" max="8724" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8725" max="8962" width="11.42578125" style="40"/>
+    <col min="8963" max="8980" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8981" max="9218" width="11.42578125" style="40"/>
+    <col min="9219" max="9236" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9237" max="9474" width="11.42578125" style="40"/>
+    <col min="9475" max="9492" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9493" max="9730" width="11.42578125" style="40"/>
+    <col min="9731" max="9748" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9749" max="9986" width="11.42578125" style="40"/>
+    <col min="9987" max="10004" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10005" max="10242" width="11.42578125" style="40"/>
+    <col min="10243" max="10260" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10261" max="10498" width="11.42578125" style="40"/>
+    <col min="10499" max="10516" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10517" max="10754" width="11.42578125" style="40"/>
+    <col min="10755" max="10772" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10773" max="11010" width="11.42578125" style="40"/>
+    <col min="11011" max="11028" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11029" max="11266" width="11.42578125" style="40"/>
+    <col min="11267" max="11284" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11285" max="11522" width="11.42578125" style="40"/>
+    <col min="11523" max="11540" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11541" max="11778" width="11.42578125" style="40"/>
+    <col min="11779" max="11796" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11797" max="12034" width="11.42578125" style="40"/>
+    <col min="12035" max="12052" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12053" max="12290" width="11.42578125" style="40"/>
+    <col min="12291" max="12308" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12309" max="12546" width="11.42578125" style="40"/>
+    <col min="12547" max="12564" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12565" max="12802" width="11.42578125" style="40"/>
+    <col min="12803" max="12820" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12821" max="13058" width="11.42578125" style="40"/>
+    <col min="13059" max="13076" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13077" max="13314" width="11.42578125" style="40"/>
+    <col min="13315" max="13332" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13333" max="13570" width="11.42578125" style="40"/>
+    <col min="13571" max="13588" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13589" max="13826" width="11.42578125" style="40"/>
+    <col min="13827" max="13844" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13845" max="14082" width="11.42578125" style="40"/>
+    <col min="14083" max="14100" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14101" max="14338" width="11.42578125" style="40"/>
+    <col min="14339" max="14356" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14357" max="14594" width="11.42578125" style="40"/>
+    <col min="14595" max="14612" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14613" max="14850" width="11.42578125" style="40"/>
+    <col min="14851" max="14868" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14869" max="15106" width="11.42578125" style="40"/>
+    <col min="15107" max="15124" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15125" max="15362" width="11.42578125" style="40"/>
+    <col min="15363" max="15380" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15381" max="15618" width="11.42578125" style="40"/>
+    <col min="15619" max="15636" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15637" max="15874" width="11.42578125" style="40"/>
+    <col min="15875" max="15892" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15893" max="16130" width="11.42578125" style="40"/>
+    <col min="16131" max="16148" width="7.7109375" style="40" customWidth="1"/>
+    <col min="16149" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="88"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90" t="s">
@@ -14157,7 +14182,7 @@
       <c r="T3" s="89"/>
       <c r="U3" s="91"/>
     </row>
-    <row r="4" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="92"/>
       <c r="C4" s="93"/>
       <c r="D4" s="124">
@@ -14211,7 +14236,7 @@
       <c r="T4" s="93"/>
       <c r="U4" s="94"/>
     </row>
-    <row r="5" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>80</v>
       </c>
@@ -14274,7 +14299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="92" t="s">
         <v>80</v>
       </c>
@@ -14352,7 +14377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="92" t="s">
         <v>80</v>
       </c>
@@ -14430,7 +14455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
         <v>80</v>
       </c>
@@ -14508,7 +14533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>80</v>
       </c>
@@ -14586,7 +14611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="92" t="s">
         <v>80</v>
       </c>
@@ -14664,7 +14689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>80</v>
       </c>
@@ -14742,7 +14767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="92" t="s">
         <v>80</v>
       </c>
@@ -14820,7 +14845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="92" t="s">
         <v>80</v>
       </c>
@@ -14898,7 +14923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="92" t="s">
         <v>80</v>
       </c>
@@ -14976,7 +15001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="92" t="s">
         <v>80</v>
       </c>
@@ -15054,7 +15079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="92" t="s">
         <v>80</v>
       </c>
@@ -15130,7 +15155,7 @@
       </c>
       <c r="U16" s="95"/>
     </row>
-    <row r="17" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="96"/>
       <c r="C17" s="93"/>
       <c r="D17" s="124">
@@ -15184,7 +15209,7 @@
       <c r="T17" s="93"/>
       <c r="U17" s="94"/>
     </row>
-    <row r="18" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
       <c r="D18" s="99" t="s">
@@ -15260,177 +15285,177 @@
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="40"/>
-    <col min="2" max="2" width="6.109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="40"/>
+    <col min="2" max="2" width="6.140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="40" customWidth="1"/>
     <col min="4" max="24" width="10" style="40" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="40" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="40" customWidth="1"/>
-    <col min="27" max="262" width="11.5546875" style="40"/>
-    <col min="263" max="280" width="7.6640625" style="40" customWidth="1"/>
-    <col min="281" max="518" width="11.5546875" style="40"/>
-    <col min="519" max="536" width="7.6640625" style="40" customWidth="1"/>
-    <col min="537" max="774" width="11.5546875" style="40"/>
-    <col min="775" max="792" width="7.6640625" style="40" customWidth="1"/>
-    <col min="793" max="1030" width="11.5546875" style="40"/>
-    <col min="1031" max="1048" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1049" max="1286" width="11.5546875" style="40"/>
-    <col min="1287" max="1304" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1305" max="1542" width="11.5546875" style="40"/>
-    <col min="1543" max="1560" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1561" max="1798" width="11.5546875" style="40"/>
-    <col min="1799" max="1816" width="7.6640625" style="40" customWidth="1"/>
-    <col min="1817" max="2054" width="11.5546875" style="40"/>
-    <col min="2055" max="2072" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2073" max="2310" width="11.5546875" style="40"/>
-    <col min="2311" max="2328" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2329" max="2566" width="11.5546875" style="40"/>
-    <col min="2567" max="2584" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2585" max="2822" width="11.5546875" style="40"/>
-    <col min="2823" max="2840" width="7.6640625" style="40" customWidth="1"/>
-    <col min="2841" max="3078" width="11.5546875" style="40"/>
-    <col min="3079" max="3096" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3097" max="3334" width="11.5546875" style="40"/>
-    <col min="3335" max="3352" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3353" max="3590" width="11.5546875" style="40"/>
-    <col min="3591" max="3608" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3609" max="3846" width="11.5546875" style="40"/>
-    <col min="3847" max="3864" width="7.6640625" style="40" customWidth="1"/>
-    <col min="3865" max="4102" width="11.5546875" style="40"/>
-    <col min="4103" max="4120" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4121" max="4358" width="11.5546875" style="40"/>
-    <col min="4359" max="4376" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4377" max="4614" width="11.5546875" style="40"/>
-    <col min="4615" max="4632" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4633" max="4870" width="11.5546875" style="40"/>
-    <col min="4871" max="4888" width="7.6640625" style="40" customWidth="1"/>
-    <col min="4889" max="5126" width="11.5546875" style="40"/>
-    <col min="5127" max="5144" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5145" max="5382" width="11.5546875" style="40"/>
-    <col min="5383" max="5400" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5401" max="5638" width="11.5546875" style="40"/>
-    <col min="5639" max="5656" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5657" max="5894" width="11.5546875" style="40"/>
-    <col min="5895" max="5912" width="7.6640625" style="40" customWidth="1"/>
-    <col min="5913" max="6150" width="11.5546875" style="40"/>
-    <col min="6151" max="6168" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6169" max="6406" width="11.5546875" style="40"/>
-    <col min="6407" max="6424" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6425" max="6662" width="11.5546875" style="40"/>
-    <col min="6663" max="6680" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6681" max="6918" width="11.5546875" style="40"/>
-    <col min="6919" max="6936" width="7.6640625" style="40" customWidth="1"/>
-    <col min="6937" max="7174" width="11.5546875" style="40"/>
-    <col min="7175" max="7192" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7193" max="7430" width="11.5546875" style="40"/>
-    <col min="7431" max="7448" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7449" max="7686" width="11.5546875" style="40"/>
-    <col min="7687" max="7704" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7705" max="7942" width="11.5546875" style="40"/>
-    <col min="7943" max="7960" width="7.6640625" style="40" customWidth="1"/>
-    <col min="7961" max="8198" width="11.5546875" style="40"/>
-    <col min="8199" max="8216" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8217" max="8454" width="11.5546875" style="40"/>
-    <col min="8455" max="8472" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8473" max="8710" width="11.5546875" style="40"/>
-    <col min="8711" max="8728" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8729" max="8966" width="11.5546875" style="40"/>
-    <col min="8967" max="8984" width="7.6640625" style="40" customWidth="1"/>
-    <col min="8985" max="9222" width="11.5546875" style="40"/>
-    <col min="9223" max="9240" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9241" max="9478" width="11.5546875" style="40"/>
-    <col min="9479" max="9496" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9497" max="9734" width="11.5546875" style="40"/>
-    <col min="9735" max="9752" width="7.6640625" style="40" customWidth="1"/>
-    <col min="9753" max="9990" width="11.5546875" style="40"/>
-    <col min="9991" max="10008" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10009" max="10246" width="11.5546875" style="40"/>
-    <col min="10247" max="10264" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10265" max="10502" width="11.5546875" style="40"/>
-    <col min="10503" max="10520" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10521" max="10758" width="11.5546875" style="40"/>
-    <col min="10759" max="10776" width="7.6640625" style="40" customWidth="1"/>
-    <col min="10777" max="11014" width="11.5546875" style="40"/>
-    <col min="11015" max="11032" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11033" max="11270" width="11.5546875" style="40"/>
-    <col min="11271" max="11288" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11289" max="11526" width="11.5546875" style="40"/>
-    <col min="11527" max="11544" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11545" max="11782" width="11.5546875" style="40"/>
-    <col min="11783" max="11800" width="7.6640625" style="40" customWidth="1"/>
-    <col min="11801" max="12038" width="11.5546875" style="40"/>
-    <col min="12039" max="12056" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12057" max="12294" width="11.5546875" style="40"/>
-    <col min="12295" max="12312" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12313" max="12550" width="11.5546875" style="40"/>
-    <col min="12551" max="12568" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12569" max="12806" width="11.5546875" style="40"/>
-    <col min="12807" max="12824" width="7.6640625" style="40" customWidth="1"/>
-    <col min="12825" max="13062" width="11.5546875" style="40"/>
-    <col min="13063" max="13080" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13081" max="13318" width="11.5546875" style="40"/>
-    <col min="13319" max="13336" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13337" max="13574" width="11.5546875" style="40"/>
-    <col min="13575" max="13592" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13593" max="13830" width="11.5546875" style="40"/>
-    <col min="13831" max="13848" width="7.6640625" style="40" customWidth="1"/>
-    <col min="13849" max="14086" width="11.5546875" style="40"/>
-    <col min="14087" max="14104" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14105" max="14342" width="11.5546875" style="40"/>
-    <col min="14343" max="14360" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14361" max="14598" width="11.5546875" style="40"/>
-    <col min="14599" max="14616" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14617" max="14854" width="11.5546875" style="40"/>
-    <col min="14855" max="14872" width="7.6640625" style="40" customWidth="1"/>
-    <col min="14873" max="15110" width="11.5546875" style="40"/>
-    <col min="15111" max="15128" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15129" max="15366" width="11.5546875" style="40"/>
-    <col min="15367" max="15384" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15385" max="15622" width="11.5546875" style="40"/>
-    <col min="15623" max="15640" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15641" max="15878" width="11.5546875" style="40"/>
-    <col min="15879" max="15896" width="7.6640625" style="40" customWidth="1"/>
-    <col min="15897" max="16134" width="11.5546875" style="40"/>
-    <col min="16135" max="16152" width="7.6640625" style="40" customWidth="1"/>
-    <col min="16153" max="16384" width="11.5546875" style="40"/>
+    <col min="25" max="25" width="5.7109375" style="40" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="40" customWidth="1"/>
+    <col min="27" max="262" width="11.5703125" style="40"/>
+    <col min="263" max="280" width="7.7109375" style="40" customWidth="1"/>
+    <col min="281" max="518" width="11.5703125" style="40"/>
+    <col min="519" max="536" width="7.7109375" style="40" customWidth="1"/>
+    <col min="537" max="774" width="11.5703125" style="40"/>
+    <col min="775" max="792" width="7.7109375" style="40" customWidth="1"/>
+    <col min="793" max="1030" width="11.5703125" style="40"/>
+    <col min="1031" max="1048" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1049" max="1286" width="11.5703125" style="40"/>
+    <col min="1287" max="1304" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1305" max="1542" width="11.5703125" style="40"/>
+    <col min="1543" max="1560" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1561" max="1798" width="11.5703125" style="40"/>
+    <col min="1799" max="1816" width="7.7109375" style="40" customWidth="1"/>
+    <col min="1817" max="2054" width="11.5703125" style="40"/>
+    <col min="2055" max="2072" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2073" max="2310" width="11.5703125" style="40"/>
+    <col min="2311" max="2328" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2329" max="2566" width="11.5703125" style="40"/>
+    <col min="2567" max="2584" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2585" max="2822" width="11.5703125" style="40"/>
+    <col min="2823" max="2840" width="7.7109375" style="40" customWidth="1"/>
+    <col min="2841" max="3078" width="11.5703125" style="40"/>
+    <col min="3079" max="3096" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3097" max="3334" width="11.5703125" style="40"/>
+    <col min="3335" max="3352" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3353" max="3590" width="11.5703125" style="40"/>
+    <col min="3591" max="3608" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3609" max="3846" width="11.5703125" style="40"/>
+    <col min="3847" max="3864" width="7.7109375" style="40" customWidth="1"/>
+    <col min="3865" max="4102" width="11.5703125" style="40"/>
+    <col min="4103" max="4120" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4121" max="4358" width="11.5703125" style="40"/>
+    <col min="4359" max="4376" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4377" max="4614" width="11.5703125" style="40"/>
+    <col min="4615" max="4632" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4633" max="4870" width="11.5703125" style="40"/>
+    <col min="4871" max="4888" width="7.7109375" style="40" customWidth="1"/>
+    <col min="4889" max="5126" width="11.5703125" style="40"/>
+    <col min="5127" max="5144" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5145" max="5382" width="11.5703125" style="40"/>
+    <col min="5383" max="5400" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5401" max="5638" width="11.5703125" style="40"/>
+    <col min="5639" max="5656" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5657" max="5894" width="11.5703125" style="40"/>
+    <col min="5895" max="5912" width="7.7109375" style="40" customWidth="1"/>
+    <col min="5913" max="6150" width="11.5703125" style="40"/>
+    <col min="6151" max="6168" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6169" max="6406" width="11.5703125" style="40"/>
+    <col min="6407" max="6424" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6425" max="6662" width="11.5703125" style="40"/>
+    <col min="6663" max="6680" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6681" max="6918" width="11.5703125" style="40"/>
+    <col min="6919" max="6936" width="7.7109375" style="40" customWidth="1"/>
+    <col min="6937" max="7174" width="11.5703125" style="40"/>
+    <col min="7175" max="7192" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7193" max="7430" width="11.5703125" style="40"/>
+    <col min="7431" max="7448" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7449" max="7686" width="11.5703125" style="40"/>
+    <col min="7687" max="7704" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7705" max="7942" width="11.5703125" style="40"/>
+    <col min="7943" max="7960" width="7.7109375" style="40" customWidth="1"/>
+    <col min="7961" max="8198" width="11.5703125" style="40"/>
+    <col min="8199" max="8216" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8217" max="8454" width="11.5703125" style="40"/>
+    <col min="8455" max="8472" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8473" max="8710" width="11.5703125" style="40"/>
+    <col min="8711" max="8728" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8729" max="8966" width="11.5703125" style="40"/>
+    <col min="8967" max="8984" width="7.7109375" style="40" customWidth="1"/>
+    <col min="8985" max="9222" width="11.5703125" style="40"/>
+    <col min="9223" max="9240" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9241" max="9478" width="11.5703125" style="40"/>
+    <col min="9479" max="9496" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9497" max="9734" width="11.5703125" style="40"/>
+    <col min="9735" max="9752" width="7.7109375" style="40" customWidth="1"/>
+    <col min="9753" max="9990" width="11.5703125" style="40"/>
+    <col min="9991" max="10008" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10009" max="10246" width="11.5703125" style="40"/>
+    <col min="10247" max="10264" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10265" max="10502" width="11.5703125" style="40"/>
+    <col min="10503" max="10520" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10521" max="10758" width="11.5703125" style="40"/>
+    <col min="10759" max="10776" width="7.7109375" style="40" customWidth="1"/>
+    <col min="10777" max="11014" width="11.5703125" style="40"/>
+    <col min="11015" max="11032" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11033" max="11270" width="11.5703125" style="40"/>
+    <col min="11271" max="11288" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11289" max="11526" width="11.5703125" style="40"/>
+    <col min="11527" max="11544" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11545" max="11782" width="11.5703125" style="40"/>
+    <col min="11783" max="11800" width="7.7109375" style="40" customWidth="1"/>
+    <col min="11801" max="12038" width="11.5703125" style="40"/>
+    <col min="12039" max="12056" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12057" max="12294" width="11.5703125" style="40"/>
+    <col min="12295" max="12312" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12313" max="12550" width="11.5703125" style="40"/>
+    <col min="12551" max="12568" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12569" max="12806" width="11.5703125" style="40"/>
+    <col min="12807" max="12824" width="7.7109375" style="40" customWidth="1"/>
+    <col min="12825" max="13062" width="11.5703125" style="40"/>
+    <col min="13063" max="13080" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13081" max="13318" width="11.5703125" style="40"/>
+    <col min="13319" max="13336" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13337" max="13574" width="11.5703125" style="40"/>
+    <col min="13575" max="13592" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13593" max="13830" width="11.5703125" style="40"/>
+    <col min="13831" max="13848" width="7.7109375" style="40" customWidth="1"/>
+    <col min="13849" max="14086" width="11.5703125" style="40"/>
+    <col min="14087" max="14104" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14105" max="14342" width="11.5703125" style="40"/>
+    <col min="14343" max="14360" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14361" max="14598" width="11.5703125" style="40"/>
+    <col min="14599" max="14616" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14617" max="14854" width="11.5703125" style="40"/>
+    <col min="14855" max="14872" width="7.7109375" style="40" customWidth="1"/>
+    <col min="14873" max="15110" width="11.5703125" style="40"/>
+    <col min="15111" max="15128" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15129" max="15366" width="11.5703125" style="40"/>
+    <col min="15367" max="15384" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15385" max="15622" width="11.5703125" style="40"/>
+    <col min="15623" max="15640" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15641" max="15878" width="11.5703125" style="40"/>
+    <col min="15879" max="15896" width="7.7109375" style="40" customWidth="1"/>
+    <col min="15897" max="16134" width="11.5703125" style="40"/>
+    <col min="16135" max="16152" width="7.7109375" style="40" customWidth="1"/>
+    <col min="16153" max="16384" width="11.5703125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="271"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="265" t="s">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="295"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="254"/>
-      <c r="Z3" s="255"/>
-    </row>
-    <row r="4" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="262"/>
-      <c r="C4" s="256"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="290"/>
+      <c r="P3" s="290"/>
+      <c r="Q3" s="290"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="290"/>
+      <c r="T3" s="290"/>
+      <c r="U3" s="290"/>
+      <c r="V3" s="290"/>
+      <c r="W3" s="290"/>
+      <c r="X3" s="291"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="279"/>
+    </row>
+    <row r="4" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="286"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="150">
         <v>0</v>
       </c>
@@ -15494,11 +15519,11 @@
       <c r="X4" s="154">
         <v>20</v>
       </c>
-      <c r="Y4" s="256"/>
-      <c r="Z4" s="257"/>
-    </row>
-    <row r="5" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="268" t="s">
+      <c r="Y4" s="280"/>
+      <c r="Z4" s="281"/>
+    </row>
+    <row r="5" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="292" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="162">
@@ -15591,12 +15616,12 @@
       <c r="Y5" s="163">
         <v>0</v>
       </c>
-      <c r="Z5" s="268" t="s">
+      <c r="Z5" s="292" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="269"/>
+    <row r="6" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="293"/>
       <c r="C6" s="164">
         <v>1</v>
       </c>
@@ -15687,10 +15712,10 @@
       <c r="Y6" s="165">
         <v>1</v>
       </c>
-      <c r="Z6" s="269"/>
-    </row>
-    <row r="7" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="269"/>
+      <c r="Z6" s="293"/>
+    </row>
+    <row r="7" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="293"/>
       <c r="C7" s="164">
         <v>2</v>
       </c>
@@ -15781,10 +15806,10 @@
       <c r="Y7" s="165">
         <v>2</v>
       </c>
-      <c r="Z7" s="269"/>
-    </row>
-    <row r="8" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="269"/>
+      <c r="Z7" s="293"/>
+    </row>
+    <row r="8" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="293"/>
       <c r="C8" s="164">
         <v>3</v>
       </c>
@@ -15875,10 +15900,10 @@
       <c r="Y8" s="165">
         <v>3</v>
       </c>
-      <c r="Z8" s="269"/>
-    </row>
-    <row r="9" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="269"/>
+      <c r="Z8" s="293"/>
+    </row>
+    <row r="9" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="293"/>
       <c r="C9" s="164">
         <v>4</v>
       </c>
@@ -15969,10 +15994,10 @@
       <c r="Y9" s="165">
         <v>4</v>
       </c>
-      <c r="Z9" s="269"/>
-    </row>
-    <row r="10" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="269"/>
+      <c r="Z9" s="293"/>
+    </row>
+    <row r="10" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="293"/>
       <c r="C10" s="164">
         <v>5</v>
       </c>
@@ -16063,10 +16088,10 @@
       <c r="Y10" s="165">
         <v>5</v>
       </c>
-      <c r="Z10" s="269"/>
-    </row>
-    <row r="11" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="269"/>
+      <c r="Z10" s="293"/>
+    </row>
+    <row r="11" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="293"/>
       <c r="C11" s="166">
         <v>6</v>
       </c>
@@ -16157,10 +16182,10 @@
       <c r="Y11" s="167">
         <v>6</v>
       </c>
-      <c r="Z11" s="269"/>
-    </row>
-    <row r="12" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="269"/>
+      <c r="Z11" s="293"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="293"/>
       <c r="C12" s="168">
         <v>7</v>
       </c>
@@ -16251,10 +16276,10 @@
       <c r="Y12" s="169">
         <v>7</v>
       </c>
-      <c r="Z12" s="269"/>
-    </row>
-    <row r="13" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="269"/>
+      <c r="Z12" s="293"/>
+    </row>
+    <row r="13" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="293"/>
       <c r="C13" s="164">
         <v>8</v>
       </c>
@@ -16345,10 +16370,10 @@
       <c r="Y13" s="165">
         <v>8</v>
       </c>
-      <c r="Z13" s="269"/>
-    </row>
-    <row r="14" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="269"/>
+      <c r="Z13" s="293"/>
+    </row>
+    <row r="14" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="293"/>
       <c r="C14" s="164">
         <v>9</v>
       </c>
@@ -16439,10 +16464,10 @@
       <c r="Y14" s="165">
         <v>9</v>
       </c>
-      <c r="Z14" s="269"/>
-    </row>
-    <row r="15" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="269"/>
+      <c r="Z14" s="293"/>
+    </row>
+    <row r="15" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="293"/>
       <c r="C15" s="164">
         <v>10</v>
       </c>
@@ -16533,10 +16558,10 @@
       <c r="Y15" s="165">
         <v>10</v>
       </c>
-      <c r="Z15" s="269"/>
-    </row>
-    <row r="16" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="269"/>
+      <c r="Z15" s="293"/>
+    </row>
+    <row r="16" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="293"/>
       <c r="C16" s="164">
         <v>11</v>
       </c>
@@ -16627,10 +16652,10 @@
       <c r="Y16" s="165">
         <v>11</v>
       </c>
-      <c r="Z16" s="269"/>
-    </row>
-    <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="269"/>
+      <c r="Z16" s="293"/>
+    </row>
+    <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="293"/>
       <c r="C17" s="164">
         <v>12</v>
       </c>
@@ -16721,10 +16746,10 @@
       <c r="Y17" s="165">
         <v>12</v>
       </c>
-      <c r="Z17" s="269"/>
-    </row>
-    <row r="18" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="269"/>
+      <c r="Z17" s="293"/>
+    </row>
+    <row r="18" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="293"/>
       <c r="C18" s="170">
         <v>13</v>
       </c>
@@ -16815,10 +16840,10 @@
       <c r="Y18" s="171">
         <v>13</v>
       </c>
-      <c r="Z18" s="269"/>
-    </row>
-    <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="269"/>
+      <c r="Z18" s="293"/>
+    </row>
+    <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="293"/>
       <c r="C19" s="172">
         <v>14</v>
       </c>
@@ -16909,10 +16934,10 @@
       <c r="Y19" s="173">
         <v>14</v>
       </c>
-      <c r="Z19" s="269"/>
-    </row>
-    <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="269"/>
+      <c r="Z19" s="293"/>
+    </row>
+    <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="293"/>
       <c r="C20" s="164">
         <v>15</v>
       </c>
@@ -17003,10 +17028,10 @@
       <c r="Y20" s="165">
         <v>15</v>
       </c>
-      <c r="Z20" s="269"/>
-    </row>
-    <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="269"/>
+      <c r="Z20" s="293"/>
+    </row>
+    <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="293"/>
       <c r="C21" s="164">
         <v>16</v>
       </c>
@@ -17097,10 +17122,10 @@
       <c r="Y21" s="165">
         <v>16</v>
       </c>
-      <c r="Z21" s="269"/>
-    </row>
-    <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="269"/>
+      <c r="Z21" s="293"/>
+    </row>
+    <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="293"/>
       <c r="C22" s="164">
         <v>17</v>
       </c>
@@ -17191,10 +17216,10 @@
       <c r="Y22" s="165">
         <v>17</v>
       </c>
-      <c r="Z22" s="269"/>
-    </row>
-    <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="269"/>
+      <c r="Z22" s="293"/>
+    </row>
+    <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="293"/>
       <c r="C23" s="164">
         <v>18</v>
       </c>
@@ -17285,10 +17310,10 @@
       <c r="Y23" s="165">
         <v>18</v>
       </c>
-      <c r="Z23" s="269"/>
-    </row>
-    <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="269"/>
+      <c r="Z23" s="293"/>
+    </row>
+    <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="293"/>
       <c r="C24" s="164">
         <v>19</v>
       </c>
@@ -17379,10 +17404,10 @@
       <c r="Y24" s="165">
         <v>19</v>
       </c>
-      <c r="Z24" s="269"/>
-    </row>
-    <row r="25" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="270"/>
+      <c r="Z24" s="293"/>
+    </row>
+    <row r="25" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="294"/>
       <c r="C25" s="170">
         <v>20</v>
       </c>
@@ -17473,11 +17498,11 @@
       <c r="Y25" s="171">
         <v>20</v>
       </c>
-      <c r="Z25" s="270"/>
-    </row>
-    <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="262"/>
-      <c r="C26" s="256"/>
+      <c r="Z25" s="294"/>
+    </row>
+    <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="286"/>
+      <c r="C26" s="280"/>
       <c r="D26" s="156">
         <v>0</v>
       </c>
@@ -17541,37 +17566,37 @@
       <c r="X26" s="160">
         <v>20</v>
       </c>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="259"/>
-    </row>
-    <row r="27" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="263"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="265" t="s">
+      <c r="Y26" s="282"/>
+      <c r="Z26" s="283"/>
+    </row>
+    <row r="27" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="266"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="266"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="266"/>
-      <c r="M27" s="266"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="266"/>
-      <c r="R27" s="266"/>
-      <c r="S27" s="266"/>
-      <c r="T27" s="266"/>
-      <c r="U27" s="266"/>
-      <c r="V27" s="266"/>
-      <c r="W27" s="266"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="261"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="290"/>
+      <c r="M27" s="290"/>
+      <c r="N27" s="290"/>
+      <c r="O27" s="290"/>
+      <c r="P27" s="290"/>
+      <c r="Q27" s="290"/>
+      <c r="R27" s="290"/>
+      <c r="S27" s="290"/>
+      <c r="T27" s="290"/>
+      <c r="U27" s="290"/>
+      <c r="V27" s="290"/>
+      <c r="W27" s="290"/>
+      <c r="X27" s="291"/>
+      <c r="Y27" s="284"/>
+      <c r="Z27" s="285"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17602,19 +17627,19 @@
   <dimension ref="B2:J104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="204" t="s">
         <v>122</v>
       </c>
@@ -17630,13 +17655,13 @@
       <c r="G3" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="277">
+      <c r="H3" s="301">
         <v>1</v>
       </c>
-      <c r="I3" s="277"/>
-      <c r="J3" s="278"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="301"/>
+      <c r="J3" s="302"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -17653,7 +17678,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -17673,16 +17698,16 @@
         <v>119</v>
       </c>
       <c r="H5" s="221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="195">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -17699,7 +17724,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -17719,16 +17744,16 @@
         <v>120</v>
       </c>
       <c r="H7" s="221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="221">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="195">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -17745,7 +17770,7 @@
         <v>0.169875</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -17764,14 +17789,14 @@
       <c r="G9" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="274">
+      <c r="H9" s="298">
         <f>IF(H5=H7,ABS(I5-I7),IF(_xlfn.XOR(H5=1,H7=1,),1000+I7,IF(OR(ABS(H5-H7)=1,ABS(H5-H7)=5),1000+I7,IF(ABS(H5-H7)=3,2000+I7,1500+I7))))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="275"/>
-      <c r="J9" s="276"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="299"/>
+      <c r="J9" s="300"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -17788,7 +17813,7 @@
         <v>0.17147685185185185</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -17807,14 +17832,14 @@
       <c r="G11" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="279">
+      <c r="H11" s="303">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,((20250+112.5*(H9-70))*(2-$H$3/1)),IF(H9&gt;=7,((11100+300*(H9-7))*(2-$H$3/1)),IF(H9&gt;=3,((9450+420*(H9-3))*(2-$H$3/1)),IF(H9=2,9000*(2-$H$3/1),7200*(2-$H$3/1))))))/86400</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I11" s="279"/>
-      <c r="J11" s="280"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>8</v>
       </c>
@@ -17833,14 +17858,14 @@
       <c r="G12" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="281">
+      <c r="H12" s="305">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,((19800+105.86*(H9-68))*(2-$H$3/1)),IF(H9&gt;=7,((12600+180*(H9-7))*(2-$H$3/1)),IF(H9&gt;=1,(10800+300*(H9-1))*(2-$H$3/1),10800*(2-$H$3/1))))/86400)</f>
         <v>0.125</v>
       </c>
-      <c r="I12" s="281"/>
-      <c r="J12" s="282"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="305"/>
+      <c r="J12" s="306"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>9</v>
       </c>
@@ -17859,14 +17884,14 @@
       <c r="G13" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="281">
+      <c r="H13" s="305">
         <f>IF(H9&gt;=27,((16686+18*(H9-27))*(2-$H$3/1)),IF(H9&gt;=3,((14628+69.2*(H9-3))*(2-$H$3/1)),IF(H9=2,14400*(2-$H$3/1),10800*(2-$H$3/1))))/86400</f>
         <v>0.125</v>
       </c>
-      <c r="I13" s="281"/>
-      <c r="J13" s="282"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="305"/>
+      <c r="J13" s="306"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34">
         <v>10</v>
       </c>
@@ -17885,14 +17910,14 @@
       <c r="G14" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="272">
+      <c r="H14" s="296">
         <f>16200*(2-$H$3/1)/86400</f>
         <v>0.1875</v>
       </c>
-      <c r="I14" s="272"/>
-      <c r="J14" s="273"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="296"/>
+      <c r="J14" s="297"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>11</v>
       </c>
@@ -17909,7 +17934,7 @@
         <v>0.17548148148148149</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>12</v>
       </c>
@@ -17926,7 +17951,7 @@
         <v>0.17628240740740739</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>13</v>
       </c>
@@ -17943,7 +17968,7 @@
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <v>14</v>
       </c>
@@ -17960,7 +17985,7 @@
         <v>0.17788425925925927</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>15</v>
       </c>
@@ -17977,7 +18002,7 @@
         <v>0.17868518518518517</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>16</v>
       </c>
@@ -17994,7 +18019,7 @@
         <v>0.17948611111111112</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>17</v>
       </c>
@@ -18011,7 +18036,7 @@
         <v>0.18028703703703702</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
         <v>18</v>
       </c>
@@ -18028,7 +18053,7 @@
         <v>0.18108796296296295</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <v>19</v>
       </c>
@@ -18045,7 +18070,7 @@
         <v>0.18188888888888891</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>20</v>
       </c>
@@ -18062,7 +18087,7 @@
         <v>0.1826898148148148</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <v>21</v>
       </c>
@@ -18079,7 +18104,7 @@
         <v>0.18349074074074073</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <v>22</v>
       </c>
@@ -18096,7 +18121,7 @@
         <v>0.18429166666666666</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>23</v>
       </c>
@@ -18113,7 +18138,7 @@
         <v>0.18509259259259259</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>24</v>
       </c>
@@ -18130,7 +18155,7 @@
         <v>0.18589351851851851</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>25</v>
       </c>
@@ -18147,7 +18172,7 @@
         <v>0.18669444444444444</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>26</v>
       </c>
@@ -18164,7 +18189,7 @@
         <v>0.18749537037037037</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>27</v>
       </c>
@@ -18181,7 +18206,7 @@
         <v>0.19312499999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <v>28</v>
       </c>
@@ -18198,7 +18223,7 @@
         <v>0.19333333333333333</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="34">
         <v>29</v>
       </c>
@@ -18215,7 +18240,7 @@
         <v>0.19354166666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <v>30</v>
       </c>
@@ -18232,7 +18257,7 @@
         <v>0.19375000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <v>31</v>
       </c>
@@ -18249,7 +18274,7 @@
         <v>0.19395833333333334</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
         <v>32</v>
       </c>
@@ -18266,7 +18291,7 @@
         <v>0.19416666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="34">
         <v>33</v>
       </c>
@@ -18283,7 +18308,7 @@
         <v>0.19437499999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="34">
         <v>34</v>
       </c>
@@ -18300,7 +18325,7 @@
         <v>0.19458333333333333</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="34">
         <v>35</v>
       </c>
@@ -18317,7 +18342,7 @@
         <v>0.19479166666666667</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="34">
         <v>36</v>
       </c>
@@ -18334,7 +18359,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="34">
         <v>37</v>
       </c>
@@ -18351,7 +18376,7 @@
         <v>0.19520833333333334</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <v>38</v>
       </c>
@@ -18368,7 +18393,7 @@
         <v>0.19541666666666666</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
         <v>39</v>
       </c>
@@ -18385,7 +18410,7 @@
         <v>0.19562499999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="34">
         <v>40</v>
       </c>
@@ -18402,7 +18427,7 @@
         <v>0.19583333333333333</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <v>41</v>
       </c>
@@ -18419,7 +18444,7 @@
         <v>0.19604166666666667</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
         <v>42</v>
       </c>
@@ -18436,7 +18461,7 @@
         <v>0.19625000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <v>43</v>
       </c>
@@ -18453,7 +18478,7 @@
         <v>0.19645833333333335</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="34">
         <v>44</v>
       </c>
@@ -18470,7 +18495,7 @@
         <v>0.19666666666666666</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="34">
         <v>45</v>
       </c>
@@ -18487,7 +18512,7 @@
         <v>0.19687499999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="34">
         <v>46</v>
       </c>
@@ -18504,7 +18529,7 @@
         <v>0.19708333333333333</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="34">
         <v>47</v>
       </c>
@@ -18521,7 +18546,7 @@
         <v>0.19729166666666667</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="34">
         <v>48</v>
       </c>
@@ -18538,7 +18563,7 @@
         <v>0.19750000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="34">
         <v>49</v>
       </c>
@@ -18555,7 +18580,7 @@
         <v>0.19770833333333335</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="34">
         <v>50</v>
       </c>
@@ -18572,7 +18597,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="34">
         <v>51</v>
       </c>
@@ -18589,7 +18614,7 @@
         <v>0.198125</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="34">
         <v>52</v>
       </c>
@@ -18606,7 +18631,7 @@
         <v>0.19833333333333333</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="34">
         <v>53</v>
       </c>
@@ -18623,7 +18648,7 @@
         <v>0.19854166666666667</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="34">
         <v>54</v>
       </c>
@@ -18640,7 +18665,7 @@
         <v>0.19875000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="34">
         <v>55</v>
       </c>
@@ -18657,7 +18682,7 @@
         <v>0.19895833333333332</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="34">
         <v>56</v>
       </c>
@@ -18674,7 +18699,7 @@
         <v>0.19916666666666666</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="34">
         <v>57</v>
       </c>
@@ -18691,7 +18716,7 @@
         <v>0.199375</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="34">
         <v>58</v>
       </c>
@@ -18708,7 +18733,7 @@
         <v>0.19958333333333333</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="34">
         <v>59</v>
       </c>
@@ -18725,7 +18750,7 @@
         <v>0.19979166666666667</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="34">
         <v>60</v>
       </c>
@@ -18742,7 +18767,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="34">
         <v>61</v>
       </c>
@@ -18759,7 +18784,7 @@
         <v>0.20020833333333332</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="34">
         <v>62</v>
       </c>
@@ -18776,7 +18801,7 @@
         <v>0.20041666666666666</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="34">
         <v>63</v>
       </c>
@@ -18793,7 +18818,7 @@
         <v>0.200625</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="34">
         <v>64</v>
       </c>
@@ -18810,7 +18835,7 @@
         <v>0.20083333333333334</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="34">
         <v>65</v>
       </c>
@@ -18827,7 +18852,7 @@
         <v>0.20104166666666667</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="34">
         <v>66</v>
       </c>
@@ -18844,7 +18869,7 @@
         <v>0.20125000000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="34">
         <v>67</v>
       </c>
@@ -18861,7 +18886,7 @@
         <v>0.20145833333333332</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -18878,7 +18903,7 @@
         <v>0.20166666666666666</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -18895,7 +18920,7 @@
         <v>0.201875</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="34">
         <v>70</v>
       </c>
@@ -18912,7 +18937,7 @@
         <v>0.20208333333333334</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -18929,7 +18954,7 @@
         <v>0.20229166666666668</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="34">
         <v>72</v>
       </c>
@@ -18946,7 +18971,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="34">
         <v>73</v>
       </c>
@@ -18963,7 +18988,7 @@
         <v>0.20270833333333332</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="34">
         <v>74</v>
       </c>
@@ -18980,7 +19005,7 @@
         <v>0.20291666666666666</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="34">
         <v>75</v>
       </c>
@@ -18997,7 +19022,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
         <v>76</v>
       </c>
@@ -19014,7 +19039,7 @@
         <v>0.20333333333333334</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="34">
         <v>77</v>
       </c>
@@ -19031,7 +19056,7 @@
         <v>0.20354166666666668</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="34">
         <v>78</v>
       </c>
@@ -19048,7 +19073,7 @@
         <v>0.20374999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="34">
         <v>79</v>
       </c>
@@ -19065,7 +19090,7 @@
         <v>0.20395833333333332</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="34">
         <v>80</v>
       </c>
@@ -19082,7 +19107,7 @@
         <v>0.20416666666666666</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="34">
         <v>81</v>
       </c>
@@ -19099,7 +19124,7 @@
         <v>0.204375</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="34">
         <v>82</v>
       </c>
@@ -19116,7 +19141,7 @@
         <v>0.20458333333333334</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="34">
         <v>83</v>
       </c>
@@ -19133,7 +19158,7 @@
         <v>0.20479166666666668</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="34">
         <v>84</v>
       </c>
@@ -19150,7 +19175,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="34">
         <v>85</v>
       </c>
@@ -19167,7 +19192,7 @@
         <v>0.20520833333333333</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="34">
         <v>86</v>
       </c>
@@ -19184,7 +19209,7 @@
         <v>0.20541666666666666</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="34">
         <v>87</v>
       </c>
@@ -19201,7 +19226,7 @@
         <v>0.205625</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="34">
         <v>88</v>
       </c>
@@ -19218,7 +19243,7 @@
         <v>0.20583333333333334</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="34">
         <v>89</v>
       </c>
@@ -19235,7 +19260,7 @@
         <v>0.20604166666666668</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="34">
         <v>90</v>
       </c>
@@ -19252,7 +19277,7 @@
         <v>0.20624999999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="34">
         <v>91</v>
       </c>
@@ -19269,7 +19294,7 @@
         <v>0.20645833333333333</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="34">
         <v>92</v>
       </c>
@@ -19286,7 +19311,7 @@
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="34">
         <v>93</v>
       </c>
@@ -19303,7 +19328,7 @@
         <v>0.206875</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="34">
         <v>94</v>
       </c>
@@ -19320,7 +19345,7 @@
         <v>0.20708333333333334</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="34">
         <v>95</v>
       </c>
@@ -19337,7 +19362,7 @@
         <v>0.20729166666666668</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="34">
         <v>96</v>
       </c>
@@ -19354,7 +19379,7 @@
         <v>0.20749999999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="34">
         <v>97</v>
       </c>
@@ -19371,7 +19396,7 @@
         <v>0.20770833333333333</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="34">
         <v>98</v>
       </c>
@@ -19388,7 +19413,7 @@
         <v>0.20791666666666667</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="34">
         <v>99</v>
       </c>
@@ -19405,7 +19430,7 @@
         <v>0.208125</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="38">
         <v>100</v>
       </c>
@@ -19461,23 +19486,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="283" t="s">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="307" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="284"/>
+      <c r="C3" s="308"/>
       <c r="D3" s="181" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="174" t="s">
         <v>112</v>
       </c>
@@ -19486,7 +19511,7 @@
       </c>
       <c r="D4" s="182"/>
     </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="175" t="s">
         <v>113</v>
       </c>
@@ -19498,21 +19523,21 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="176"/>
       <c r="C6" s="177"/>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="283" t="s">
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="307" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="284"/>
+      <c r="C8" s="308"/>
       <c r="D8" s="181" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="174" t="s">
         <v>112</v>
       </c>
@@ -19521,7 +19546,7 @@
       </c>
       <c r="D9" s="180"/>
     </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="175" t="s">
         <v>113</v>
       </c>

--- a/Formelsammlung/LW-Formelsammlung.xlsx
+++ b/Formelsammlung/LW-Formelsammlung.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanitas\Desktop\Last War\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanitas\Desktop\Last War\Overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61810CF-275A-4A07-9EBF-8DD242B50CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BA221-B870-48EF-9FD5-923E63F537C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konstruktion" sheetId="1" r:id="rId1"/>
     <sheet name="Forschung" sheetId="3" r:id="rId2"/>
     <sheet name="Rohstoffe" sheetId="5" r:id="rId3"/>
     <sheet name="Lagerkapazität" sheetId="2" r:id="rId4"/>
-    <sheet name="Tagesproduktion" sheetId="10" r:id="rId5"/>
-    <sheet name="Frühwarnradius" sheetId="4" r:id="rId6"/>
-    <sheet name="Tarnreichweite" sheetId="8" r:id="rId7"/>
-    <sheet name="Flugzeitrechner" sheetId="11" r:id="rId8"/>
-    <sheet name="KS-Simulator" sheetId="9" r:id="rId9"/>
-    <sheet name="Releasenotes" sheetId="12" r:id="rId10"/>
+    <sheet name="Bankkapazität" sheetId="13" r:id="rId5"/>
+    <sheet name="Tagesproduktion" sheetId="10" r:id="rId6"/>
+    <sheet name="Frühwarnradius" sheetId="4" r:id="rId7"/>
+    <sheet name="Tarnreichweite" sheetId="8" r:id="rId8"/>
+    <sheet name="Flugzeitrechner" sheetId="11" r:id="rId9"/>
+    <sheet name="KS-Simulator" sheetId="9" r:id="rId10"/>
+    <sheet name="Releasenotes" sheetId="12" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Antrieb">[1]Komponenten!$C$5:$Y$14</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>Gebäudetyp</t>
   </si>
@@ -502,12 +503,35 @@
   <si>
     <t>- Fehler bei der Forschungszeit im Bereich Plasmaforschung gefixt</t>
   </si>
+  <si>
+    <t>Gesamtflugzeit</t>
+  </si>
+  <si>
+    <t>Speed Nuk</t>
+  </si>
+  <si>
+    <t>Speed Ion</t>
+  </si>
+  <si>
+    <t>Speed Hyp</t>
+  </si>
+  <si>
+    <t>Speed Gty</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>- Flugzeitrechner ergänzt: Anhand der Entfernung und der Flugdauer kann nun die verwendete Antriebsart und Geschwindigkeit berechnet werden
+- KS-Simulator von 5:1 auf 3:1 (LW Update vom 04.12.2019) umgestellt
+- Reiter mit der Bankkapazität hinzugefügt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +576,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1971,7 +2001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2625,6 +2655,10 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2754,6 +2788,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2792,13 +2853,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{BFEBEBCE-DFA9-4635-997C-8E87F5D07237}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3761,14 +3849,14 @@
         <v>40</v>
       </c>
       <c r="O3" s="248"/>
-      <c r="P3" s="256" t="s">
+      <c r="P3" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="258"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="259"/>
+      <c r="U3" s="260"/>
       <c r="V3" s="66"/>
       <c r="W3" s="219" t="s">
         <v>38</v>
@@ -3792,12 +3880,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="249"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="263"/>
       <c r="V4" s="65"/>
       <c r="X4" s="1"/>
     </row>
@@ -4097,12 +4185,12 @@
       <c r="M9" s="6"/>
       <c r="N9" s="24"/>
       <c r="O9" s="250"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="264"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="265"/>
+      <c r="S9" s="265"/>
+      <c r="T9" s="265"/>
+      <c r="U9" s="266"/>
       <c r="V9" s="60"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -4516,12 +4604,12 @@
       <c r="M16" s="6"/>
       <c r="N16" s="24"/>
       <c r="O16" s="250"/>
-      <c r="P16" s="262"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="263"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="264"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="265"/>
+      <c r="S16" s="265"/>
+      <c r="T16" s="265"/>
+      <c r="U16" s="266"/>
       <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -4933,12 +5021,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="24"/>
       <c r="O23" s="250"/>
-      <c r="P23" s="262"/>
-      <c r="Q23" s="263"/>
-      <c r="R23" s="263"/>
-      <c r="S23" s="263"/>
-      <c r="T23" s="263"/>
-      <c r="U23" s="264"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="265"/>
+      <c r="S23" s="265"/>
+      <c r="T23" s="265"/>
+      <c r="U23" s="266"/>
       <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -5087,12 +5175,12 @@
       <c r="M26" s="6"/>
       <c r="N26" s="24"/>
       <c r="O26" s="250"/>
-      <c r="P26" s="262"/>
-      <c r="Q26" s="263"/>
-      <c r="R26" s="263"/>
-      <c r="S26" s="263"/>
-      <c r="T26" s="263"/>
-      <c r="U26" s="264"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="265"/>
+      <c r="R26" s="265"/>
+      <c r="S26" s="265"/>
+      <c r="T26" s="265"/>
+      <c r="U26" s="266"/>
       <c r="V26" s="60"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
@@ -5508,12 +5596,12 @@
       <c r="M33" s="6"/>
       <c r="N33" s="24"/>
       <c r="O33" s="250"/>
-      <c r="P33" s="262"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="263"/>
-      <c r="S33" s="263"/>
-      <c r="T33" s="263"/>
-      <c r="U33" s="264"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="265"/>
+      <c r="R33" s="265"/>
+      <c r="S33" s="265"/>
+      <c r="T33" s="265"/>
+      <c r="U33" s="266"/>
       <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -5729,12 +5817,12 @@
       <c r="M37" s="6"/>
       <c r="N37" s="24"/>
       <c r="O37" s="250"/>
-      <c r="P37" s="253"/>
-      <c r="Q37" s="254"/>
-      <c r="R37" s="254"/>
-      <c r="S37" s="254"/>
-      <c r="T37" s="254"/>
-      <c r="U37" s="255"/>
+      <c r="P37" s="255"/>
+      <c r="Q37" s="256"/>
+      <c r="R37" s="256"/>
+      <c r="S37" s="256"/>
+      <c r="T37" s="256"/>
+      <c r="U37" s="257"/>
       <c r="V37" s="60"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -6076,18 +6164,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FD970-C187-4792-81C7-A63C9D801B5E}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="318" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="319"/>
+      <c r="D3" s="181" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="178">
+        <v>40000</v>
+      </c>
+      <c r="D4" s="182"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="179">
+        <v>40000</v>
+      </c>
+      <c r="D5" s="183">
+        <f>C9/3</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="176"/>
+      <c r="C6" s="177"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="318" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="319"/>
+      <c r="D8" s="181" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="178">
+        <v>18000</v>
+      </c>
+      <c r="D9" s="180"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="179">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="183">
+        <f>C4/3</f>
+        <v>13333.333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>$C$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>$C$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Arial"&amp;9&amp;K737373 Copyright Protection: Confidential - ISO 16016&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520DBC8-E3F3-4475-A1AE-84ADA5E48381}">
   <sheetPr codeName="Tabelle10"/>
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D27" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11.42578125" style="40"/>
-    <col min="4" max="4" width="92.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="123.5703125" style="40" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
@@ -6191,10 +6382,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="236"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="238"/>
+    <row r="11" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="234">
+        <v>43804</v>
+      </c>
+      <c r="D11" s="235" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="236"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="238"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6209,8 +6411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E5291-BE47-4F96-B117-A94C73D11EFD}">
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7211,14 +7413,14 @@
         <v>40</v>
       </c>
       <c r="N3" s="66"/>
-      <c r="O3" s="256" t="s">
+      <c r="O3" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="258"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
       <c r="U3" s="66"/>
       <c r="V3" s="186" t="s">
         <v>77</v>
@@ -7241,12 +7443,12 @@
       <c r="L4" s="45"/>
       <c r="M4" s="47"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="263"/>
       <c r="U4" s="65"/>
       <c r="V4" s="67"/>
     </row>
@@ -7753,12 +7955,12 @@
       <c r="L13" s="68"/>
       <c r="M13" s="75"/>
       <c r="N13" s="240"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="266"/>
-      <c r="T13" s="267"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="268"/>
+      <c r="S13" s="268"/>
+      <c r="T13" s="269"/>
       <c r="U13" s="60"/>
       <c r="V13" s="41"/>
     </row>
@@ -8818,12 +9020,12 @@
       <c r="L31" s="68"/>
       <c r="M31" s="75"/>
       <c r="N31" s="240"/>
-      <c r="O31" s="265"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="266"/>
-      <c r="S31" s="266"/>
-      <c r="T31" s="267"/>
+      <c r="O31" s="267"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="268"/>
+      <c r="S31" s="268"/>
+      <c r="T31" s="269"/>
       <c r="U31" s="60"/>
     </row>
     <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,12 +9292,12 @@
       <c r="L36" s="68"/>
       <c r="M36" s="75"/>
       <c r="N36" s="240"/>
-      <c r="O36" s="265"/>
-      <c r="P36" s="266"/>
-      <c r="Q36" s="266"/>
-      <c r="R36" s="266"/>
-      <c r="S36" s="266"/>
-      <c r="T36" s="267"/>
+      <c r="O36" s="267"/>
+      <c r="P36" s="268"/>
+      <c r="Q36" s="268"/>
+      <c r="R36" s="268"/>
+      <c r="S36" s="268"/>
+      <c r="T36" s="269"/>
       <c r="U36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12751,7 +12953,7 @@
   <dimension ref="B2:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13576,7 +13778,7 @@
         <f t="shared" si="2"/>
         <v>7404250</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="322">
         <f t="shared" si="1"/>
         <v>7399250</v>
       </c>
@@ -13594,6 +13796,484 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462C428-07B3-4392-8B5D-70FCF56B750A}">
+  <dimension ref="B1:F52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="253" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="323" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="324">
+        <f>1000*(4*B3^2-3*B3+9)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="324">
+        <f t="shared" ref="C4:C52" si="0">1000*(4*B4^2-3*B4+9)</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="324">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="F5" s="321"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="324">
+        <f t="shared" si="0"/>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="324">
+        <f t="shared" si="0"/>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
+        <v>6</v>
+      </c>
+      <c r="C8" s="324">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>7</v>
+      </c>
+      <c r="C9" s="324">
+        <f t="shared" si="0"/>
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="34">
+        <v>8</v>
+      </c>
+      <c r="C10" s="324">
+        <f t="shared" si="0"/>
+        <v>241000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>9</v>
+      </c>
+      <c r="C11" s="324">
+        <f t="shared" si="0"/>
+        <v>306000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <v>10</v>
+      </c>
+      <c r="C12" s="324">
+        <f t="shared" si="0"/>
+        <v>379000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>11</v>
+      </c>
+      <c r="C13" s="324">
+        <f t="shared" si="0"/>
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>12</v>
+      </c>
+      <c r="C14" s="324">
+        <f t="shared" si="0"/>
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>13</v>
+      </c>
+      <c r="C15" s="324">
+        <f t="shared" si="0"/>
+        <v>646000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>14</v>
+      </c>
+      <c r="C16" s="324">
+        <f t="shared" si="0"/>
+        <v>751000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>15</v>
+      </c>
+      <c r="C17" s="324">
+        <f t="shared" si="0"/>
+        <v>864000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>16</v>
+      </c>
+      <c r="C18" s="324">
+        <f t="shared" si="0"/>
+        <v>985000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>17</v>
+      </c>
+      <c r="C19" s="324">
+        <f t="shared" si="0"/>
+        <v>1114000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="34">
+        <v>18</v>
+      </c>
+      <c r="C20" s="324">
+        <f t="shared" si="0"/>
+        <v>1251000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="34">
+        <v>19</v>
+      </c>
+      <c r="C21" s="324">
+        <f t="shared" si="0"/>
+        <v>1396000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="34">
+        <v>20</v>
+      </c>
+      <c r="C22" s="324">
+        <f t="shared" si="0"/>
+        <v>1549000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="34">
+        <v>21</v>
+      </c>
+      <c r="C23" s="324">
+        <f t="shared" si="0"/>
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="34">
+        <v>22</v>
+      </c>
+      <c r="C24" s="324">
+        <f t="shared" si="0"/>
+        <v>1879000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
+        <v>23</v>
+      </c>
+      <c r="C25" s="324">
+        <f t="shared" si="0"/>
+        <v>2056000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="34">
+        <v>24</v>
+      </c>
+      <c r="C26" s="324">
+        <f t="shared" si="0"/>
+        <v>2241000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
+        <v>25</v>
+      </c>
+      <c r="C27" s="324">
+        <f t="shared" si="0"/>
+        <v>2434000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
+        <v>26</v>
+      </c>
+      <c r="C28" s="324">
+        <f t="shared" si="0"/>
+        <v>2635000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
+        <v>27</v>
+      </c>
+      <c r="C29" s="324">
+        <f t="shared" si="0"/>
+        <v>2844000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="34">
+        <v>28</v>
+      </c>
+      <c r="C30" s="324">
+        <f t="shared" si="0"/>
+        <v>3061000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>29</v>
+      </c>
+      <c r="C31" s="324">
+        <f t="shared" si="0"/>
+        <v>3286000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="34">
+        <v>30</v>
+      </c>
+      <c r="C32" s="324">
+        <f t="shared" si="0"/>
+        <v>3519000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>31</v>
+      </c>
+      <c r="C33" s="324">
+        <f t="shared" si="0"/>
+        <v>3760000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="324">
+        <f t="shared" si="0"/>
+        <v>4009000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
+        <v>33</v>
+      </c>
+      <c r="C35" s="324">
+        <f t="shared" si="0"/>
+        <v>4266000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="34">
+        <v>34</v>
+      </c>
+      <c r="C36" s="324">
+        <f t="shared" si="0"/>
+        <v>4531000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
+        <v>35</v>
+      </c>
+      <c r="C37" s="324">
+        <f t="shared" si="0"/>
+        <v>4804000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
+        <v>36</v>
+      </c>
+      <c r="C38" s="324">
+        <f t="shared" si="0"/>
+        <v>5085000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
+        <v>37</v>
+      </c>
+      <c r="C39" s="324">
+        <f t="shared" si="0"/>
+        <v>5374000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="34">
+        <v>38</v>
+      </c>
+      <c r="C40" s="324">
+        <f t="shared" si="0"/>
+        <v>5671000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="34">
+        <v>39</v>
+      </c>
+      <c r="C41" s="324">
+        <f t="shared" si="0"/>
+        <v>5976000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="34">
+        <v>40</v>
+      </c>
+      <c r="C42" s="324">
+        <f t="shared" si="0"/>
+        <v>6289000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="34">
+        <v>41</v>
+      </c>
+      <c r="C43" s="324">
+        <f t="shared" si="0"/>
+        <v>6610000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="34">
+        <v>42</v>
+      </c>
+      <c r="C44" s="324">
+        <f t="shared" si="0"/>
+        <v>6939000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="34">
+        <v>43</v>
+      </c>
+      <c r="C45" s="324">
+        <f t="shared" si="0"/>
+        <v>7276000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="34">
+        <v>44</v>
+      </c>
+      <c r="C46" s="324">
+        <f t="shared" si="0"/>
+        <v>7621000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="34">
+        <v>45</v>
+      </c>
+      <c r="C47" s="324">
+        <f t="shared" si="0"/>
+        <v>7974000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="34">
+        <v>46</v>
+      </c>
+      <c r="C48" s="324">
+        <f t="shared" si="0"/>
+        <v>8335000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
+        <v>47</v>
+      </c>
+      <c r="C49" s="324">
+        <f t="shared" si="0"/>
+        <v>8704000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="34">
+        <v>48</v>
+      </c>
+      <c r="C50" s="324">
+        <f t="shared" si="0"/>
+        <v>9081000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="34">
+        <v>49</v>
+      </c>
+      <c r="C51" s="324">
+        <f t="shared" si="0"/>
+        <v>9466000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="38">
+        <v>50</v>
+      </c>
+      <c r="C52" s="322">
+        <f t="shared" si="0"/>
+        <v>9859000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC3E5CE-1426-4E67-B274-C0F11884207F}">
   <dimension ref="B2:P10"/>
   <sheetViews>
@@ -13605,28 +14285,28 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="268" t="s">
+      <c r="C3" s="274"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="270" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="269"/>
+      <c r="P3" s="271"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="271"/>
+      <c r="B4" s="273"/>
       <c r="C4" s="206" t="s">
         <v>117</v>
       </c>
@@ -13983,7 +14663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C51D51F-8810-45DE-8676-814BAD115BB5}">
   <dimension ref="B1:U18"/>
   <sheetViews>
@@ -15265,7 +15945,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:S16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>2100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15277,7 +15957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D411B-DF36-4111-AC30-CB23D3EC7496}">
   <dimension ref="B1:Z27"/>
   <sheetViews>
@@ -15425,37 +16105,37 @@
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="295"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="289" t="s">
+      <c r="B3" s="297"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="291" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="290"/>
-      <c r="S3" s="290"/>
-      <c r="T3" s="290"/>
-      <c r="U3" s="290"/>
-      <c r="V3" s="290"/>
-      <c r="W3" s="290"/>
-      <c r="X3" s="291"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="279"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="292"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="292"/>
+      <c r="W3" s="292"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="281"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="286"/>
-      <c r="C4" s="280"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="282"/>
       <c r="D4" s="150">
         <v>0</v>
       </c>
@@ -15519,11 +16199,11 @@
       <c r="X4" s="154">
         <v>20</v>
       </c>
-      <c r="Y4" s="280"/>
-      <c r="Z4" s="281"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="283"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="294" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="162">
@@ -15616,12 +16296,12 @@
       <c r="Y5" s="163">
         <v>0</v>
       </c>
-      <c r="Z5" s="292" t="s">
+      <c r="Z5" s="294" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="293"/>
+      <c r="B6" s="295"/>
       <c r="C6" s="164">
         <v>1</v>
       </c>
@@ -15712,10 +16392,10 @@
       <c r="Y6" s="165">
         <v>1</v>
       </c>
-      <c r="Z6" s="293"/>
+      <c r="Z6" s="295"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="293"/>
+      <c r="B7" s="295"/>
       <c r="C7" s="164">
         <v>2</v>
       </c>
@@ -15806,10 +16486,10 @@
       <c r="Y7" s="165">
         <v>2</v>
       </c>
-      <c r="Z7" s="293"/>
+      <c r="Z7" s="295"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="293"/>
+      <c r="B8" s="295"/>
       <c r="C8" s="164">
         <v>3</v>
       </c>
@@ -15900,10 +16580,10 @@
       <c r="Y8" s="165">
         <v>3</v>
       </c>
-      <c r="Z8" s="293"/>
+      <c r="Z8" s="295"/>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="293"/>
+      <c r="B9" s="295"/>
       <c r="C9" s="164">
         <v>4</v>
       </c>
@@ -15994,10 +16674,10 @@
       <c r="Y9" s="165">
         <v>4</v>
       </c>
-      <c r="Z9" s="293"/>
+      <c r="Z9" s="295"/>
     </row>
     <row r="10" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="293"/>
+      <c r="B10" s="295"/>
       <c r="C10" s="164">
         <v>5</v>
       </c>
@@ -16088,10 +16768,10 @@
       <c r="Y10" s="165">
         <v>5</v>
       </c>
-      <c r="Z10" s="293"/>
+      <c r="Z10" s="295"/>
     </row>
     <row r="11" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="293"/>
+      <c r="B11" s="295"/>
       <c r="C11" s="166">
         <v>6</v>
       </c>
@@ -16182,10 +16862,10 @@
       <c r="Y11" s="167">
         <v>6</v>
       </c>
-      <c r="Z11" s="293"/>
+      <c r="Z11" s="295"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="293"/>
+      <c r="B12" s="295"/>
       <c r="C12" s="168">
         <v>7</v>
       </c>
@@ -16276,10 +16956,10 @@
       <c r="Y12" s="169">
         <v>7</v>
       </c>
-      <c r="Z12" s="293"/>
+      <c r="Z12" s="295"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="293"/>
+      <c r="B13" s="295"/>
       <c r="C13" s="164">
         <v>8</v>
       </c>
@@ -16370,10 +17050,10 @@
       <c r="Y13" s="165">
         <v>8</v>
       </c>
-      <c r="Z13" s="293"/>
+      <c r="Z13" s="295"/>
     </row>
     <row r="14" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="293"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="164">
         <v>9</v>
       </c>
@@ -16464,10 +17144,10 @@
       <c r="Y14" s="165">
         <v>9</v>
       </c>
-      <c r="Z14" s="293"/>
+      <c r="Z14" s="295"/>
     </row>
     <row r="15" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="293"/>
+      <c r="B15" s="295"/>
       <c r="C15" s="164">
         <v>10</v>
       </c>
@@ -16558,10 +17238,10 @@
       <c r="Y15" s="165">
         <v>10</v>
       </c>
-      <c r="Z15" s="293"/>
+      <c r="Z15" s="295"/>
     </row>
     <row r="16" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="293"/>
+      <c r="B16" s="295"/>
       <c r="C16" s="164">
         <v>11</v>
       </c>
@@ -16652,10 +17332,10 @@
       <c r="Y16" s="165">
         <v>11</v>
       </c>
-      <c r="Z16" s="293"/>
+      <c r="Z16" s="295"/>
     </row>
     <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="293"/>
+      <c r="B17" s="295"/>
       <c r="C17" s="164">
         <v>12</v>
       </c>
@@ -16746,10 +17426,10 @@
       <c r="Y17" s="165">
         <v>12</v>
       </c>
-      <c r="Z17" s="293"/>
+      <c r="Z17" s="295"/>
     </row>
     <row r="18" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="293"/>
+      <c r="B18" s="295"/>
       <c r="C18" s="170">
         <v>13</v>
       </c>
@@ -16840,10 +17520,10 @@
       <c r="Y18" s="171">
         <v>13</v>
       </c>
-      <c r="Z18" s="293"/>
+      <c r="Z18" s="295"/>
     </row>
     <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="293"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="172">
         <v>14</v>
       </c>
@@ -16934,10 +17614,10 @@
       <c r="Y19" s="173">
         <v>14</v>
       </c>
-      <c r="Z19" s="293"/>
+      <c r="Z19" s="295"/>
     </row>
     <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="293"/>
+      <c r="B20" s="295"/>
       <c r="C20" s="164">
         <v>15</v>
       </c>
@@ -17028,10 +17708,10 @@
       <c r="Y20" s="165">
         <v>15</v>
       </c>
-      <c r="Z20" s="293"/>
+      <c r="Z20" s="295"/>
     </row>
     <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="293"/>
+      <c r="B21" s="295"/>
       <c r="C21" s="164">
         <v>16</v>
       </c>
@@ -17122,10 +17802,10 @@
       <c r="Y21" s="165">
         <v>16</v>
       </c>
-      <c r="Z21" s="293"/>
+      <c r="Z21" s="295"/>
     </row>
     <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="293"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="164">
         <v>17</v>
       </c>
@@ -17216,10 +17896,10 @@
       <c r="Y22" s="165">
         <v>17</v>
       </c>
-      <c r="Z22" s="293"/>
+      <c r="Z22" s="295"/>
     </row>
     <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="293"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="164">
         <v>18</v>
       </c>
@@ -17310,10 +17990,10 @@
       <c r="Y23" s="165">
         <v>18</v>
       </c>
-      <c r="Z23" s="293"/>
+      <c r="Z23" s="295"/>
     </row>
     <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="293"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="164">
         <v>19</v>
       </c>
@@ -17404,10 +18084,10 @@
       <c r="Y24" s="165">
         <v>19</v>
       </c>
-      <c r="Z24" s="293"/>
+      <c r="Z24" s="295"/>
     </row>
     <row r="25" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="294"/>
+      <c r="B25" s="296"/>
       <c r="C25" s="170">
         <v>20</v>
       </c>
@@ -17498,11 +18178,11 @@
       <c r="Y25" s="171">
         <v>20</v>
       </c>
-      <c r="Z25" s="294"/>
+      <c r="Z25" s="296"/>
     </row>
     <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="286"/>
-      <c r="C26" s="280"/>
+      <c r="B26" s="288"/>
+      <c r="C26" s="282"/>
       <c r="D26" s="156">
         <v>0</v>
       </c>
@@ -17566,37 +18246,37 @@
       <c r="X26" s="160">
         <v>20</v>
       </c>
-      <c r="Y26" s="282"/>
-      <c r="Z26" s="283"/>
+      <c r="Y26" s="284"/>
+      <c r="Z26" s="285"/>
     </row>
     <row r="27" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="287"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289" t="s">
+      <c r="B27" s="289"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="291" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="290"/>
-      <c r="M27" s="290"/>
-      <c r="N27" s="290"/>
-      <c r="O27" s="290"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="290"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
-      <c r="W27" s="290"/>
-      <c r="X27" s="291"/>
-      <c r="Y27" s="284"/>
-      <c r="Z27" s="285"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="293"/>
+      <c r="Y27" s="286"/>
+      <c r="Z27" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17610,7 +18290,7 @@
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:X25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>2100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17622,12 +18302,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07D4E5-5940-4365-A9C3-E08B80C35744}">
-  <dimension ref="B2:J104"/>
+  <dimension ref="B2:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17636,10 +18316,12 @@
     <col min="3" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="10" width="5" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="204" t="s">
         <v>122</v>
       </c>
@@ -17655,13 +18337,14 @@
       <c r="G3" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="301">
+      <c r="H3" s="312">
         <v>1</v>
       </c>
-      <c r="I3" s="301"/>
-      <c r="J3" s="302"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="312"/>
+      <c r="J3" s="313"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -17678,7 +18361,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -17707,7 +18390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34">
         <v>2</v>
       </c>
@@ -17723,8 +18406,9 @@
         <f>((14400)*(2-$H$3/1))/86400</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="254"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="34">
         <v>3</v>
       </c>
@@ -17752,8 +18436,9 @@
       <c r="J7" s="195">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -17770,7 +18455,7 @@
         <v>0.169875</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>5</v>
       </c>
@@ -17789,14 +18474,14 @@
       <c r="G9" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="298">
+      <c r="H9" s="309">
         <f>IF(H5=H7,ABS(I5-I7),IF(_xlfn.XOR(H5=1,H7=1,),1000+I7,IF(OR(ABS(H5-H7)=1,ABS(H5-H7)=5),1000+I7,IF(ABS(H5-H7)=3,2000+I7,1500+I7))))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="299"/>
-      <c r="J9" s="300"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="310"/>
+      <c r="J9" s="311"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>6</v>
       </c>
@@ -17813,7 +18498,7 @@
         <v>0.17147685185185185</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -17832,14 +18517,15 @@
       <c r="G11" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="303">
+      <c r="H11" s="314">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,((20250+112.5*(H9-70))*(2-$H$3/1)),IF(H9&gt;=7,((11100+300*(H9-7))*(2-$H$3/1)),IF(H9&gt;=3,((9450+420*(H9-3))*(2-$H$3/1)),IF(H9=2,9000*(2-$H$3/1),7200*(2-$H$3/1))))))/86400</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I11" s="303"/>
-      <c r="J11" s="304"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="314"/>
+      <c r="J11" s="315"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="34">
         <v>8</v>
       </c>
@@ -17858,14 +18544,14 @@
       <c r="G12" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="305">
+      <c r="H12" s="316">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,((19800+105.86*(H9-68))*(2-$H$3/1)),IF(H9&gt;=7,((12600+180*(H9-7))*(2-$H$3/1)),IF(H9&gt;=1,(10800+300*(H9-1))*(2-$H$3/1),10800*(2-$H$3/1))))/86400)</f>
         <v>0.125</v>
       </c>
-      <c r="I12" s="305"/>
-      <c r="J12" s="306"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="316"/>
+      <c r="J12" s="317"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>9</v>
       </c>
@@ -17884,14 +18570,14 @@
       <c r="G13" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="305">
+      <c r="H13" s="316">
         <f>IF(H9&gt;=27,((16686+18*(H9-27))*(2-$H$3/1)),IF(H9&gt;=3,((14628+69.2*(H9-3))*(2-$H$3/1)),IF(H9=2,14400*(2-$H$3/1),10800*(2-$H$3/1))))/86400</f>
         <v>0.125</v>
       </c>
-      <c r="I13" s="305"/>
-      <c r="J13" s="306"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="316"/>
+      <c r="J13" s="317"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34">
         <v>10</v>
       </c>
@@ -17910,14 +18596,14 @@
       <c r="G14" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="296">
+      <c r="H14" s="307">
         <f>16200*(2-$H$3/1)/86400</f>
         <v>0.1875</v>
       </c>
-      <c r="I14" s="296"/>
-      <c r="J14" s="297"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="307"/>
+      <c r="J14" s="308"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
         <v>11</v>
       </c>
@@ -17934,7 +18620,7 @@
         <v>0.17548148148148149</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>12</v>
       </c>
@@ -17951,7 +18637,7 @@
         <v>0.17628240740740739</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34">
         <v>13</v>
       </c>
@@ -17967,8 +18653,17 @@
         <f t="shared" si="1"/>
         <v>0.17708333333333334</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="219" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="298">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I17" s="299"/>
+      <c r="J17" s="300"/>
+      <c r="M17" s="254"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34">
         <v>14</v>
       </c>
@@ -17984,8 +18679,9 @@
         <f t="shared" si="1"/>
         <v>0.17788425925925927</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="M18" s="320"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
         <v>15</v>
       </c>
@@ -18001,8 +18697,18 @@
         <f t="shared" si="1"/>
         <v>0.17868518518518517</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="301">
+        <f>IF(H9&gt;100,0,IF(H9&gt;=19,2-((H17*86400)/(20250+112.5*(H9-70))),IF(H9&gt;=7,2-((H17*86400)/(11100+300*(H9-7))),IF(H9&gt;=3,2-((H17*86400)/(9450+420*(H9-3))),IF(H9=2,2-((H17*86400)/(9000)),2-((H17*86400)/(7200)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="301"/>
+      <c r="J19" s="302"/>
+      <c r="M19" s="320"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>16</v>
       </c>
@@ -18018,8 +18724,18 @@
         <f t="shared" si="1"/>
         <v>0.17948611111111112</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="190" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="303">
+        <f>IF(H9&gt;100,0,IF(H9&gt;=18,2-((H17*86400)/(19800+105.86*(H9-68))),IF(H9&gt;=7,2-((H17*86400)/(12600+180*(H9-7))),IF(H9&gt;=1,2-((H17*86400)/(10800+300*(H9-1))),2-((H17*86400)/(10800))))))</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="I20" s="303"/>
+      <c r="J20" s="304"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>17</v>
       </c>
@@ -18035,8 +18751,17 @@
         <f t="shared" si="1"/>
         <v>0.18028703703703702</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="190" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="303">
+        <f>IF(H9&gt;=27,2-((H17*86400)/(16686+18*(H9-27))),IF(H9&gt;=3,2-((H17*86400)/(14628+69.2*(H9-3))),IF(H9=2,2-((H17*86400)/(14400)),2-((H17*86400)/(10800)))))</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="I21" s="303"/>
+      <c r="J21" s="304"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34">
         <v>18</v>
       </c>
@@ -18052,8 +18777,17 @@
         <f t="shared" si="1"/>
         <v>0.18108796296296295</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="192" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="305">
+        <f>2-((H17*86400)/(16200))</f>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="I22" s="305"/>
+      <c r="J22" s="306"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <v>19</v>
       </c>
@@ -18070,7 +18804,7 @@
         <v>0.18188888888888891</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <v>20</v>
       </c>
@@ -18087,7 +18821,7 @@
         <v>0.1826898148148148</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <v>21</v>
       </c>
@@ -18104,7 +18838,7 @@
         <v>0.18349074074074073</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <v>22</v>
       </c>
@@ -18121,7 +18855,7 @@
         <v>0.18429166666666666</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <v>23</v>
       </c>
@@ -18138,7 +18872,7 @@
         <v>0.18509259259259259</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="34">
         <v>24</v>
       </c>
@@ -18155,7 +18889,7 @@
         <v>0.18589351851851851</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="34">
         <v>25</v>
       </c>
@@ -18172,7 +18906,7 @@
         <v>0.18669444444444444</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="34">
         <v>26</v>
       </c>
@@ -18189,7 +18923,7 @@
         <v>0.18749537037037037</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="34">
         <v>27</v>
       </c>
@@ -18206,7 +18940,7 @@
         <v>0.19312499999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="34">
         <v>28</v>
       </c>
@@ -19448,14 +20182,31 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
+  <conditionalFormatting sqref="H19:J21">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
+      <formula>0.2</formula>
+      <formula>1.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:J22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+      <formula>0.2</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H7" xr:uid="{9772C5CD-5BAB-4121-82EC-9A44FAE3C83B}">
       <formula1>1</formula1>
@@ -19476,107 +20227,4 @@
     <oddHeader>&amp;R&amp;"Arial"&amp;9&amp;K737373 Copyright Protection: Confidential - ISO 16016&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FD970-C187-4792-81C7-A63C9D801B5E}">
-  <dimension ref="B2:D10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="307" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="181" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="174" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="178">
-        <v>40000</v>
-      </c>
-      <c r="D4" s="182"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="175" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="179">
-        <v>40000</v>
-      </c>
-      <c r="D5" s="183">
-        <f>C9/5</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="176"/>
-      <c r="C6" s="177"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="307" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="308"/>
-      <c r="D8" s="181" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="174" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="178">
-        <v>18000</v>
-      </c>
-      <c r="D9" s="180"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="175" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="179">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="183">
-        <f>C4/5</f>
-        <v>8000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>$C$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>$C$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial"&amp;9&amp;K737373 Copyright Protection: Confidential - ISO 16016&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Formelsammlung/LW-Formelsammlung.xlsx
+++ b/Formelsammlung/LW-Formelsammlung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanitas\Desktop\Last War\Overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247BA221-B870-48EF-9FD5-923E63F537C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989DAB1-CE83-46C3-A7E9-D411DEB0E7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konstruktion" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="Frühwarnradius" sheetId="4" r:id="rId7"/>
     <sheet name="Tarnreichweite" sheetId="8" r:id="rId8"/>
     <sheet name="Flugzeitrechner" sheetId="11" r:id="rId9"/>
-    <sheet name="KS-Simulator" sheetId="9" r:id="rId10"/>
-    <sheet name="Releasenotes" sheetId="12" r:id="rId11"/>
+    <sheet name="Geheimdienstzentrum" sheetId="14" r:id="rId10"/>
+    <sheet name="KS-Simulator" sheetId="9" r:id="rId11"/>
+    <sheet name="Releasenotes" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="Antrieb">[1]Komponenten!$C$5:$Y$14</definedName>
@@ -49,8 +50,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vanitas</author>
+  </authors>
+  <commentList>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{0B1F7CA9-F17C-4603-8778-AB1B1659EF15}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ab GDZ Stufe 16 sinkt die benötigte Einsatzbereitschaft um 2,5% pro Stufe bis auf minimal 25%
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="207">
   <si>
     <t>Gebäudetyp</t>
   </si>
@@ -526,12 +551,165 @@
 - KS-Simulator von 5:1 auf 3:1 (LW Update vom 04.12.2019) umgestellt
 - Reiter mit der Bankkapazität hinzugefügt</t>
   </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>Aktion</t>
+  </si>
+  <si>
+    <t>Erfolgswahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Spionageforschung</t>
+  </si>
+  <si>
+    <t>Erweiterte Spionageforschung</t>
+  </si>
+  <si>
+    <t>Bugserianische Volksmusik</t>
+  </si>
+  <si>
+    <t>Rostbombe</t>
+  </si>
+  <si>
+    <t>Technologiespionage</t>
+  </si>
+  <si>
+    <t>Brandstiftung</t>
+  </si>
+  <si>
+    <t>Alchemistenspray</t>
+  </si>
+  <si>
+    <t>Vorraussetzung</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 9</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 1</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 3</t>
+  </si>
+  <si>
+    <t>Einsatzbereitschaft</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 5</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 7</t>
+  </si>
+  <si>
+    <t>Super-Rostbombe</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 10</t>
+  </si>
+  <si>
+    <t>Kernschmelze</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 12</t>
+  </si>
+  <si>
+    <t>Erw. Technologiespionage</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 15</t>
+  </si>
+  <si>
+    <t>Supergau</t>
+  </si>
+  <si>
+    <t>GDZ Stufe 25</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Planetenpunkte</t>
+  </si>
+  <si>
+    <t>Konstruktion</t>
+  </si>
+  <si>
+    <t>Forschung</t>
+  </si>
+  <si>
+    <t>Roheisenmine</t>
+  </si>
+  <si>
+    <t>Kristallförderungsanlage</t>
+  </si>
+  <si>
+    <t>Frubinsammler</t>
+  </si>
+  <si>
+    <t>Orizingewinnungsanlage</t>
+  </si>
+  <si>
+    <t>Frurozinherstellung</t>
+  </si>
+  <si>
+    <t>Goldmine</t>
+  </si>
+  <si>
+    <t>Roheisenlager</t>
+  </si>
+  <si>
+    <t>Kristalllager</t>
+  </si>
+  <si>
+    <t>Frubinlager</t>
+  </si>
+  <si>
+    <t>Orizinlager</t>
+  </si>
+  <si>
+    <t>Frurozinlager</t>
+  </si>
+  <si>
+    <t>Goldlager</t>
+  </si>
+  <si>
+    <t>Raumschifffabrik</t>
+  </si>
+  <si>
+    <t>Allianzhangar</t>
+  </si>
+  <si>
+    <t>Schiffskonstruktion</t>
+  </si>
+  <si>
+    <t>Taktische Kriegsführung</t>
+  </si>
+  <si>
+    <t>Hochexplosive Substanzen</t>
+  </si>
+  <si>
+    <t>Erweiterte Legierungen</t>
+  </si>
+  <si>
+    <t>- Reiter Geheimdienstzentrum hinzugefügt, mit dessen Hilfe man sich die Erfolgschancen der einzelnen Aktionen berechnen lassen kann, sowie die Kosten nach Eingabe der Konstruktionen und Forschungen des Zielplaneten</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>- Bonusberechnung bei der Kristall-Fördermenge bei den Rohstoffen korrigiert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +760,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -707,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -1996,12 +2180,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2659,201 +2910,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="95" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2865,6 +2921,302 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="104" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="93" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="96" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="95" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3849,14 +4201,14 @@
         <v>40</v>
       </c>
       <c r="O3" s="248"/>
-      <c r="P3" s="258" t="s">
+      <c r="P3" s="292" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="259"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="260"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="293"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="294"/>
       <c r="V3" s="66"/>
       <c r="W3" s="219" t="s">
         <v>38</v>
@@ -3880,12 +4232,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="249"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="262"/>
-      <c r="T4" s="262"/>
-      <c r="U4" s="263"/>
+      <c r="P4" s="295"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="296"/>
+      <c r="U4" s="297"/>
       <c r="V4" s="65"/>
       <c r="X4" s="1"/>
     </row>
@@ -4185,12 +4537,12 @@
       <c r="M9" s="6"/>
       <c r="N9" s="24"/>
       <c r="O9" s="250"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="265"/>
-      <c r="S9" s="265"/>
-      <c r="T9" s="265"/>
-      <c r="U9" s="266"/>
+      <c r="P9" s="298"/>
+      <c r="Q9" s="299"/>
+      <c r="R9" s="299"/>
+      <c r="S9" s="299"/>
+      <c r="T9" s="299"/>
+      <c r="U9" s="300"/>
       <c r="V9" s="60"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -4604,12 +4956,12 @@
       <c r="M16" s="6"/>
       <c r="N16" s="24"/>
       <c r="O16" s="250"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="265"/>
-      <c r="R16" s="265"/>
-      <c r="S16" s="265"/>
-      <c r="T16" s="265"/>
-      <c r="U16" s="266"/>
+      <c r="P16" s="298"/>
+      <c r="Q16" s="299"/>
+      <c r="R16" s="299"/>
+      <c r="S16" s="299"/>
+      <c r="T16" s="299"/>
+      <c r="U16" s="300"/>
       <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -5021,12 +5373,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="24"/>
       <c r="O23" s="250"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="265"/>
-      <c r="R23" s="265"/>
-      <c r="S23" s="265"/>
-      <c r="T23" s="265"/>
-      <c r="U23" s="266"/>
+      <c r="P23" s="298"/>
+      <c r="Q23" s="299"/>
+      <c r="R23" s="299"/>
+      <c r="S23" s="299"/>
+      <c r="T23" s="299"/>
+      <c r="U23" s="300"/>
       <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -5175,12 +5527,12 @@
       <c r="M26" s="6"/>
       <c r="N26" s="24"/>
       <c r="O26" s="250"/>
-      <c r="P26" s="264"/>
-      <c r="Q26" s="265"/>
-      <c r="R26" s="265"/>
-      <c r="S26" s="265"/>
-      <c r="T26" s="265"/>
-      <c r="U26" s="266"/>
+      <c r="P26" s="298"/>
+      <c r="Q26" s="299"/>
+      <c r="R26" s="299"/>
+      <c r="S26" s="299"/>
+      <c r="T26" s="299"/>
+      <c r="U26" s="300"/>
       <c r="V26" s="60"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
@@ -5596,12 +5948,12 @@
       <c r="M33" s="6"/>
       <c r="N33" s="24"/>
       <c r="O33" s="250"/>
-      <c r="P33" s="264"/>
-      <c r="Q33" s="265"/>
-      <c r="R33" s="265"/>
-      <c r="S33" s="265"/>
-      <c r="T33" s="265"/>
-      <c r="U33" s="266"/>
+      <c r="P33" s="298"/>
+      <c r="Q33" s="299"/>
+      <c r="R33" s="299"/>
+      <c r="S33" s="299"/>
+      <c r="T33" s="299"/>
+      <c r="U33" s="300"/>
       <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -5817,12 +6169,12 @@
       <c r="M37" s="6"/>
       <c r="N37" s="24"/>
       <c r="O37" s="250"/>
-      <c r="P37" s="255"/>
-      <c r="Q37" s="256"/>
-      <c r="R37" s="256"/>
-      <c r="S37" s="256"/>
-      <c r="T37" s="256"/>
-      <c r="U37" s="257"/>
+      <c r="P37" s="289"/>
+      <c r="Q37" s="290"/>
+      <c r="R37" s="290"/>
+      <c r="S37" s="290"/>
+      <c r="T37" s="290"/>
+      <c r="U37" s="291"/>
       <c r="V37" s="60"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -6164,6 +6516,1063 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CD7F26-07CB-407D-8806-B328BBA96B09}">
+  <dimension ref="B1:W33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="266" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="352" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="354"/>
+      <c r="J2" s="267" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="258" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="260" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="261">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="355" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="356"/>
+      <c r="S2" s="280"/>
+      <c r="U2" s="355" t="s">
+        <v>185</v>
+      </c>
+      <c r="V2" s="356"/>
+      <c r="W2" s="285"/>
+    </row>
+    <row r="3" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="268" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="269" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="278">
+        <f>N8/55</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="278">
+        <f>N8/73</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="278">
+        <f>N8/65</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="278">
+        <v>0</v>
+      </c>
+      <c r="H3" s="278">
+        <v>0</v>
+      </c>
+      <c r="I3" s="278">
+        <v>0</v>
+      </c>
+      <c r="J3" s="270">
+        <v>-0.03</v>
+      </c>
+      <c r="K3" s="271">
+        <f>IF((150/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,150/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="263" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="262">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="283" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="287">
+        <v>0</v>
+      </c>
+      <c r="S3" s="281">
+        <f>R3*7</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="283" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="287">
+        <v>0</v>
+      </c>
+      <c r="W3" s="281">
+        <f>V3*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="268" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="269" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="278">
+        <v>0</v>
+      </c>
+      <c r="E4" s="278">
+        <f>N8/41</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="278">
+        <v>0</v>
+      </c>
+      <c r="G4" s="278">
+        <f>N8/35</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="278">
+        <f>N8/43</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="278">
+        <v>0</v>
+      </c>
+      <c r="J4" s="270">
+        <v>-0.1</v>
+      </c>
+      <c r="K4" s="271">
+        <f>IF((45/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,45/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="264" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="265">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="283" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="287">
+        <v>0</v>
+      </c>
+      <c r="S4" s="281">
+        <f>IF(R4=0,0,ROUND((R4*R4+5)/10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="283" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="287">
+        <v>0</v>
+      </c>
+      <c r="W4" s="281">
+        <f t="shared" ref="W4:W5" si="0">V4*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="268" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="269" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="278">
+        <f>N8*3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="278">
+        <f>N8*2.5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="278">
+        <f>N8*1.7</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="278">
+        <v>0</v>
+      </c>
+      <c r="H5" s="278">
+        <v>0</v>
+      </c>
+      <c r="I5" s="278">
+        <v>0</v>
+      </c>
+      <c r="J5" s="270">
+        <v>-0.25</v>
+      </c>
+      <c r="K5" s="271">
+        <f>IF((18/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,18/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="Q5" s="283" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="287">
+        <v>0</v>
+      </c>
+      <c r="S5" s="281">
+        <f>R5*12</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="283" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="287">
+        <v>0</v>
+      </c>
+      <c r="W5" s="281">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="268" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="269" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="278">
+        <f>N8*8.2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="278">
+        <v>0</v>
+      </c>
+      <c r="F6" s="278">
+        <f>N8*5.6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="278">
+        <f>N8*11.3</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="278">
+        <f>N8*13.7</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="278">
+        <v>0</v>
+      </c>
+      <c r="J6" s="270">
+        <v>-0.15</v>
+      </c>
+      <c r="K6" s="271">
+        <f>IF((30/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,30/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="195">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>IF(N6=0,1,N6)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="283" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="287">
+        <v>0</v>
+      </c>
+      <c r="S6" s="281">
+        <f>R6*10</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="283" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="287">
+        <v>0</v>
+      </c>
+      <c r="W6" s="281">
+        <f>V6*20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="268" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="269" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="278">
+        <v>0</v>
+      </c>
+      <c r="E7" s="278">
+        <v>0</v>
+      </c>
+      <c r="F7" s="278">
+        <v>0</v>
+      </c>
+      <c r="G7" s="278">
+        <v>0</v>
+      </c>
+      <c r="H7" s="278">
+        <v>0</v>
+      </c>
+      <c r="I7" s="278">
+        <f>N8/50</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="270">
+        <v>-0.25</v>
+      </c>
+      <c r="K7" s="271">
+        <f>IF((45/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,45/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="283" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="287">
+        <v>0</v>
+      </c>
+      <c r="S7" s="281">
+        <f>R7*2</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="283" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="287">
+        <v>0</v>
+      </c>
+      <c r="W7" s="281">
+        <f>V7*15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="268" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="269" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="278">
+        <f>N8*9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="278">
+        <f>N8*7.5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="278">
+        <f>N8*5.1</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="278">
+        <v>0</v>
+      </c>
+      <c r="H8" s="278">
+        <v>0</v>
+      </c>
+      <c r="I8" s="278">
+        <v>0</v>
+      </c>
+      <c r="J8" s="270">
+        <v>-0.25</v>
+      </c>
+      <c r="K8" s="271">
+        <f>IF((18/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,18/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="276" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" s="277">
+        <f>S30+W33</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="283" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="287">
+        <v>0</v>
+      </c>
+      <c r="S8" s="281">
+        <f>R8*2</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="283" t="s">
+        <v>200</v>
+      </c>
+      <c r="V8" s="287">
+        <v>0</v>
+      </c>
+      <c r="W8" s="281">
+        <f>V8*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="268" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="269" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="278">
+        <f>N8*7.1</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="278">
+        <f>N8*6.4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="278">
+        <f>N8*4.4</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="278">
+        <f>N8*2.3</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="278">
+        <f>N8*3.6</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="278">
+        <v>0</v>
+      </c>
+      <c r="J9" s="270">
+        <v>-0.5</v>
+      </c>
+      <c r="K9" s="271">
+        <f>IF((9/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,9/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="283" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" s="287">
+        <v>0</v>
+      </c>
+      <c r="S9" s="281">
+        <f>R9*3</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="283" t="s">
+        <v>201</v>
+      </c>
+      <c r="V9" s="287">
+        <v>0</v>
+      </c>
+      <c r="W9" s="281">
+        <f>V9*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="268" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="269" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="278">
+        <f>N8*5.8</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="278">
+        <f>N8*6.9</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="278">
+        <f>N8*8.8</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="278">
+        <f>N8*2.7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="278">
+        <f>N8*1.8</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="278">
+        <v>0</v>
+      </c>
+      <c r="J10" s="270">
+        <v>-0.75</v>
+      </c>
+      <c r="K10" s="271">
+        <f>IF((6/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,6/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="283" t="s">
+        <v>189</v>
+      </c>
+      <c r="R10" s="287">
+        <v>0</v>
+      </c>
+      <c r="S10" s="281">
+        <f>R10*3</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="283" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="287">
+        <v>0</v>
+      </c>
+      <c r="W10" s="281">
+        <f>V10*75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="272" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="273" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="279">
+        <f>N8*12.3</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="279">
+        <f>N8*13.9</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="279">
+        <f>N8*11.7</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="279">
+        <f>N8*17.9</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="279">
+        <f>N8*21.9</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="279">
+        <v>0</v>
+      </c>
+      <c r="J11" s="274">
+        <v>-0.9</v>
+      </c>
+      <c r="K11" s="275">
+        <f>IF((5/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)&gt;1,1,5/45 * (10% * N3 + 30% * N4 + 10% * N2) / O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="283" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="287">
+        <v>0</v>
+      </c>
+      <c r="S11" s="281">
+        <f>R11*4</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="283" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="287">
+        <v>0</v>
+      </c>
+      <c r="W11" s="281">
+        <f>V11*9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="283" t="s">
+        <v>191</v>
+      </c>
+      <c r="R12" s="287">
+        <v>0</v>
+      </c>
+      <c r="S12" s="281">
+        <f>R12*6</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="283" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="287">
+        <v>0</v>
+      </c>
+      <c r="W12" s="281">
+        <f>V12*19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="283" t="s">
+        <v>192</v>
+      </c>
+      <c r="R13" s="287">
+        <v>0</v>
+      </c>
+      <c r="S13" s="281">
+        <f>R13*2</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="283" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="287">
+        <v>0</v>
+      </c>
+      <c r="W13" s="281">
+        <f>V13*15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="283" t="s">
+        <v>193</v>
+      </c>
+      <c r="R14" s="287">
+        <v>0</v>
+      </c>
+      <c r="S14" s="281">
+        <f t="shared" ref="S14:S18" si="1">R14*2</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="283" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="287">
+        <v>0</v>
+      </c>
+      <c r="W14" s="281">
+        <f>V14*8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="283" t="s">
+        <v>194</v>
+      </c>
+      <c r="R15" s="287">
+        <v>0</v>
+      </c>
+      <c r="S15" s="281">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="283" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" s="287">
+        <v>0</v>
+      </c>
+      <c r="W15" s="281">
+        <f>V15*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="283" t="s">
+        <v>195</v>
+      </c>
+      <c r="R16" s="287">
+        <v>0</v>
+      </c>
+      <c r="S16" s="281">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="283" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="287">
+        <v>0</v>
+      </c>
+      <c r="W16" s="281">
+        <f>V16*35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="283" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" s="287">
+        <v>0</v>
+      </c>
+      <c r="S17" s="281">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="283" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="287">
+        <v>0</v>
+      </c>
+      <c r="W17" s="281">
+        <f>V17*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="283" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="287">
+        <v>0</v>
+      </c>
+      <c r="S18" s="281">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="283" t="s">
+        <v>202</v>
+      </c>
+      <c r="V18" s="287">
+        <v>0</v>
+      </c>
+      <c r="W18" s="281">
+        <f>V18*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="283" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="287">
+        <v>0</v>
+      </c>
+      <c r="S19" s="281">
+        <f>R19*20</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="283" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="287">
+        <v>0</v>
+      </c>
+      <c r="W19" s="281">
+        <f>V19*16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="283" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="287">
+        <v>0</v>
+      </c>
+      <c r="S20" s="281">
+        <f>R20*100</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="283" t="s">
+        <v>203</v>
+      </c>
+      <c r="V20" s="287">
+        <v>0</v>
+      </c>
+      <c r="W20" s="281">
+        <f>V20*7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="283" t="s">
+        <v>198</v>
+      </c>
+      <c r="R21" s="287">
+        <v>0</v>
+      </c>
+      <c r="S21" s="281">
+        <f>R21*50</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="283" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="287">
+        <v>0</v>
+      </c>
+      <c r="W21" s="281">
+        <f>V21*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="283" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="287">
+        <v>0</v>
+      </c>
+      <c r="S22" s="281">
+        <f>R22*50</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="283" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="287">
+        <v>0</v>
+      </c>
+      <c r="W22" s="281">
+        <f>V22*3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="283" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="287">
+        <v>0</v>
+      </c>
+      <c r="S23" s="281">
+        <f>R23*35</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="283" t="s">
+        <v>67</v>
+      </c>
+      <c r="V23" s="287">
+        <v>0</v>
+      </c>
+      <c r="W23" s="281">
+        <f>V23*6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="283" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="287">
+        <v>0</v>
+      </c>
+      <c r="S24" s="281">
+        <f>R24*15</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="283" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24" s="287">
+        <v>0</v>
+      </c>
+      <c r="W24" s="281">
+        <f>V24*13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="283" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="287">
+        <v>0</v>
+      </c>
+      <c r="S25" s="281">
+        <f>R25*30</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="283" t="s">
+        <v>69</v>
+      </c>
+      <c r="V25" s="287">
+        <v>0</v>
+      </c>
+      <c r="W25" s="281">
+        <f>V25*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="283" t="s">
+        <v>199</v>
+      </c>
+      <c r="R26" s="287">
+        <v>0</v>
+      </c>
+      <c r="S26" s="281">
+        <f>R26*70</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="283" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" s="287">
+        <v>0</v>
+      </c>
+      <c r="W26" s="281">
+        <f>V26*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="283" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="287">
+        <v>0</v>
+      </c>
+      <c r="S27" s="281">
+        <f>R27*80</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="283" t="s">
+        <v>71</v>
+      </c>
+      <c r="V27" s="287">
+        <v>0</v>
+      </c>
+      <c r="W27" s="281">
+        <f>V27*65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="283" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="287">
+        <v>0</v>
+      </c>
+      <c r="S28" s="281">
+        <f>R28*40</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="283" t="s">
+        <v>72</v>
+      </c>
+      <c r="V28" s="287">
+        <v>0</v>
+      </c>
+      <c r="W28" s="281">
+        <f>V28*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="17:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="284" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="288">
+        <v>0</v>
+      </c>
+      <c r="S29" s="282">
+        <f>R29*35</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="283" t="s">
+        <v>73</v>
+      </c>
+      <c r="V29" s="287">
+        <v>0</v>
+      </c>
+      <c r="W29" s="281">
+        <f>V29*12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="286">
+        <f>SUM(S3:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="283" t="s">
+        <v>74</v>
+      </c>
+      <c r="V30" s="287">
+        <v>0</v>
+      </c>
+      <c r="W30" s="281">
+        <f>V30*18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="17:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="283" t="s">
+        <v>75</v>
+      </c>
+      <c r="V31" s="287">
+        <v>0</v>
+      </c>
+      <c r="W31" s="281">
+        <f>V31*50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="17:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="284" t="s">
+        <v>76</v>
+      </c>
+      <c r="V32" s="288">
+        <v>0</v>
+      </c>
+      <c r="W32" s="282">
+        <f>V32*80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f>SUM(W3:W32)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27FD970-C187-4792-81C7-A63C9D801B5E}">
   <dimension ref="B2:D10"/>
   <sheetViews>
@@ -6179,10 +7588,10 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="357" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="319"/>
+      <c r="C3" s="358"/>
       <c r="D3" s="181" t="s">
         <v>115</v>
       </c>
@@ -6214,10 +7623,10 @@
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="357" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="319"/>
+      <c r="C8" s="358"/>
       <c r="D8" s="181" t="s">
         <v>115</v>
       </c>
@@ -6266,13 +7675,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520DBC8-E3F3-4475-A1AE-84ADA5E48381}">
   <sheetPr codeName="Tabelle10"/>
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D26:D27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6393,10 +7802,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="236"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="238"/>
+    <row r="12" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="233" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="234">
+        <v>43814</v>
+      </c>
+      <c r="D12" s="235" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="233" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="234">
+        <v>43814</v>
+      </c>
+      <c r="D13" s="235" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="236"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="238"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7413,14 +8844,14 @@
         <v>40</v>
       </c>
       <c r="N3" s="66"/>
-      <c r="O3" s="258" t="s">
+      <c r="O3" s="292" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="259"/>
-      <c r="T3" s="260"/>
+      <c r="P3" s="293"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="293"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="294"/>
       <c r="U3" s="66"/>
       <c r="V3" s="186" t="s">
         <v>77</v>
@@ -7443,12 +8874,12 @@
       <c r="L4" s="45"/>
       <c r="M4" s="47"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="262"/>
-      <c r="T4" s="263"/>
+      <c r="O4" s="295"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="297"/>
       <c r="U4" s="65"/>
       <c r="V4" s="67"/>
     </row>
@@ -7955,12 +9386,12 @@
       <c r="L13" s="68"/>
       <c r="M13" s="75"/>
       <c r="N13" s="240"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="268"/>
-      <c r="S13" s="268"/>
-      <c r="T13" s="269"/>
+      <c r="O13" s="301"/>
+      <c r="P13" s="302"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="302"/>
+      <c r="S13" s="302"/>
+      <c r="T13" s="303"/>
       <c r="U13" s="60"/>
       <c r="V13" s="41"/>
     </row>
@@ -9020,12 +10451,12 @@
       <c r="L31" s="68"/>
       <c r="M31" s="75"/>
       <c r="N31" s="240"/>
-      <c r="O31" s="267"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="268"/>
-      <c r="S31" s="268"/>
-      <c r="T31" s="269"/>
+      <c r="O31" s="301"/>
+      <c r="P31" s="302"/>
+      <c r="Q31" s="302"/>
+      <c r="R31" s="302"/>
+      <c r="S31" s="302"/>
+      <c r="T31" s="303"/>
       <c r="U31" s="60"/>
     </row>
     <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9292,12 +10723,12 @@
       <c r="L36" s="68"/>
       <c r="M36" s="75"/>
       <c r="N36" s="240"/>
-      <c r="O36" s="267"/>
-      <c r="P36" s="268"/>
-      <c r="Q36" s="268"/>
-      <c r="R36" s="268"/>
-      <c r="S36" s="268"/>
-      <c r="T36" s="269"/>
+      <c r="O36" s="301"/>
+      <c r="P36" s="302"/>
+      <c r="Q36" s="302"/>
+      <c r="R36" s="302"/>
+      <c r="S36" s="302"/>
+      <c r="T36" s="303"/>
       <c r="U36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9530,7 +10961,7 @@
   <dimension ref="B1:AC104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9703,23 +11134,23 @@
       </c>
       <c r="C5" s="104">
         <f>11*(1+$K$11)*$K$9</f>
-        <v>11</v>
+        <v>12.649999999999999</v>
       </c>
       <c r="D5" s="104">
         <f>9*(1+$K$12)*$K$9</f>
-        <v>9</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="E5" s="104">
         <f>7*(1+$K$13)*$K$9</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F5" s="104">
         <f>7*(1+$K$14)*$K$9</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="104">
         <f>4*(1+$K$15)*$K$9</f>
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H5" s="105">
         <f>(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,1))*(1+$K$16)*$K$9</f>
@@ -9729,7 +11160,7 @@
         <v>82</v>
       </c>
       <c r="K5" s="197" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M5" s="120" t="s">
         <v>2</v>
@@ -9789,23 +11220,23 @@
       </c>
       <c r="C6" s="104">
         <f>19*(1+$K$11)*$K$9</f>
-        <v>19</v>
+        <v>21.849999999999998</v>
       </c>
       <c r="D6" s="104">
         <f>15*(1+$K$12)*$K$9</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="104">
         <f>11*(1+$K$13)*$K$9</f>
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="F6" s="104">
         <f>11*(1+$K$14)*$K$9</f>
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="G6" s="104">
         <f>9*(1+$K$15)*$K$9</f>
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="H6" s="105">
         <f>(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,2))*(1+$K$16)*$K$9</f>
@@ -9816,7 +11247,7 @@
       </c>
       <c r="K6" s="199">
         <f>MATCH(K5,N3:AC3,0)+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" s="120" t="s">
         <v>3</v>
@@ -9876,23 +11307,23 @@
       </c>
       <c r="C7" s="104">
         <f>(4.5*B7*B7-10.5*B7+26)*(1+$K$11)*$K$9</f>
-        <v>35</v>
+        <v>40.25</v>
       </c>
       <c r="D7" s="104">
         <f>(3.8*B7*B7-10.5*B7+23)*(1+$K$12)*$K$9</f>
-        <v>25.699999999999996</v>
+        <v>30.839999999999993</v>
       </c>
       <c r="E7" s="104">
         <f>(3.5*B7*B7-10.5*B7+20)*(1+$K$13)*$K$9</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="104">
         <f>(3.5*B7*B7-10.5*B7+20)*(1+$K$14)*$K$9</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="104">
         <f>(3*B7*B7-10.5*B7+15)*(1+$K$15)*$K$9</f>
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="H7" s="105">
         <f>(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,B7*(B7/2)))*(1+$K$16)*$K$9</f>
@@ -9958,23 +11389,23 @@
       </c>
       <c r="C8" s="104">
         <f>(4.5*B8*B8-10.5*B8+26)*(1+$K$11)*$K$9</f>
-        <v>56</v>
+        <v>64.399999999999991</v>
       </c>
       <c r="D8" s="104">
-        <f t="shared" ref="D8:D11" si="0">(3.8*B8*B8-10.5*B8+23)*(1+$K$12)*$K$9</f>
-        <v>41.8</v>
+        <f t="shared" ref="D8:D71" si="0">(3.8*B8*B8-10.5*B8+23)*(1+$K$12)*$K$9</f>
+        <v>50.16</v>
       </c>
       <c r="E8" s="104">
         <f t="shared" ref="E8:E71" si="1">(3.5*B8*B8-10.5*B8+20)*(1+$K$13)*$K$9</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="F8" s="104">
         <f t="shared" ref="F8:F71" si="2">(3.5*B8*B8-10.5*B8+20)*(1+$K$14)*$K$9</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="G8" s="104">
         <f t="shared" ref="G8:G71" si="3">(3*B8*B8-10.5*B8+15)*(1+$K$15)*$K$9</f>
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="H8" s="105">
         <f t="shared" ref="H8:H71" si="4">(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,B8*(B8/2)))*(1+$K$16)*$K$9</f>
@@ -10044,23 +11475,23 @@
       </c>
       <c r="C9" s="104">
         <f t="shared" ref="C9:C72" si="5">(4.5*B9*B9-10.5*B9+26)*(1+$K$11)*$K$9</f>
-        <v>86</v>
+        <v>98.899999999999991</v>
       </c>
       <c r="D9" s="104">
         <f t="shared" si="0"/>
-        <v>65.5</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="E9" s="104">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="F9" s="104">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="G9" s="104">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="H9" s="105">
         <f t="shared" si="4"/>
@@ -10131,23 +11562,23 @@
       </c>
       <c r="C10" s="104">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>143.75</v>
       </c>
       <c r="D10" s="104">
         <f t="shared" si="0"/>
-        <v>96.799999999999983</v>
+        <v>116.15999999999997</v>
       </c>
       <c r="E10" s="104">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>74.7</v>
       </c>
       <c r="F10" s="104">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>74.7</v>
       </c>
       <c r="G10" s="104">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H10" s="105">
         <f t="shared" si="4"/>
@@ -10161,23 +11592,23 @@
       </c>
       <c r="C11" s="104">
         <f t="shared" si="5"/>
-        <v>173</v>
+        <v>198.95</v>
       </c>
       <c r="D11" s="104">
         <f t="shared" si="0"/>
-        <v>135.69999999999999</v>
+        <v>162.83999999999997</v>
       </c>
       <c r="E11" s="104">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>106.2</v>
       </c>
       <c r="F11" s="104">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>106.2</v>
       </c>
       <c r="G11" s="104">
         <f t="shared" si="3"/>
-        <v>88.5</v>
+        <v>70.8</v>
       </c>
       <c r="H11" s="105">
         <f t="shared" si="4"/>
@@ -10188,7 +11619,7 @@
       </c>
       <c r="K11" s="189">
         <f>IF($K$3="Ja",0.1,0)+VLOOKUP(M4,$M$4:$AC$9,K6,FALSE)</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N11" s="101"/>
     </row>
@@ -10198,23 +11629,23 @@
       </c>
       <c r="C12" s="104">
         <f t="shared" si="5"/>
-        <v>230</v>
+        <v>264.5</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:D71" si="6">3.8*B12*B12-10.5*B12+23</f>
-        <v>182.2</v>
+        <f t="shared" si="0"/>
+        <v>218.64</v>
       </c>
       <c r="E12" s="104">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F12" s="104">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G12" s="104">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>98.4</v>
       </c>
       <c r="H12" s="105">
         <f t="shared" si="4"/>
@@ -10225,7 +11656,7 @@
       </c>
       <c r="K12" s="191">
         <f>IF($K$3="Ja",0.1,0)+VLOOKUP(M5,$M$4:$AC$9,K6,FALSE)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="109"/>
@@ -10237,23 +11668,23 @@
       </c>
       <c r="C13" s="104">
         <f t="shared" si="5"/>
-        <v>296</v>
+        <v>340.4</v>
       </c>
       <c r="D13" s="104">
-        <f t="shared" si="6"/>
-        <v>236.29999999999995</v>
+        <f t="shared" si="0"/>
+        <v>283.55999999999995</v>
       </c>
       <c r="E13" s="104">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>188.1</v>
       </c>
       <c r="F13" s="104">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>188.1</v>
       </c>
       <c r="G13" s="104">
         <f t="shared" si="3"/>
-        <v>163.5</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="H13" s="105">
         <f t="shared" si="4"/>
@@ -10264,7 +11695,7 @@
       </c>
       <c r="K13" s="191">
         <f>IF($K$3="Ja",0.1,0)+VLOOKUP(M6,$M$4:$AC$9,K6,FALSE)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N13" s="109"/>
     </row>
@@ -10274,23 +11705,23 @@
       </c>
       <c r="C14" s="104">
         <f t="shared" si="5"/>
-        <v>371</v>
+        <v>426.65</v>
       </c>
       <c r="D14" s="104">
-        <f t="shared" si="6"/>
-        <v>298</v>
+        <f t="shared" si="0"/>
+        <v>357.59999999999997</v>
       </c>
       <c r="E14" s="104">
         <f t="shared" si="1"/>
-        <v>265</v>
+        <v>238.5</v>
       </c>
       <c r="F14" s="104">
         <f t="shared" si="2"/>
-        <v>265</v>
+        <v>238.5</v>
       </c>
       <c r="G14" s="104">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="H14" s="105">
         <f t="shared" si="4"/>
@@ -10301,7 +11732,7 @@
       </c>
       <c r="K14" s="191">
         <f>IF($K$3="Ja",0.1,0)+VLOOKUP(M7,$M$4:$AC$9,K6,FALSE)</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N14" s="109"/>
     </row>
@@ -10311,23 +11742,23 @@
       </c>
       <c r="C15" s="104">
         <f t="shared" si="5"/>
-        <v>455</v>
+        <v>523.25</v>
       </c>
       <c r="D15" s="104">
-        <f t="shared" si="6"/>
-        <v>367.29999999999995</v>
+        <f t="shared" si="0"/>
+        <v>440.75999999999993</v>
       </c>
       <c r="E15" s="104">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>295.2</v>
       </c>
       <c r="F15" s="104">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>295.2</v>
       </c>
       <c r="G15" s="104">
         <f t="shared" si="3"/>
-        <v>262.5</v>
+        <v>210</v>
       </c>
       <c r="H15" s="105">
         <f t="shared" si="4"/>
@@ -10338,7 +11769,7 @@
       </c>
       <c r="K15" s="191">
         <f>IF($K$3="Ja",0.1,0)+VLOOKUP(M8,$M$4:$AC$9,K6,FALSE)</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="N15" s="109"/>
     </row>
@@ -10348,23 +11779,23 @@
       </c>
       <c r="C16" s="104">
         <f t="shared" si="5"/>
-        <v>548</v>
+        <v>630.19999999999993</v>
       </c>
       <c r="D16" s="104">
-        <f t="shared" si="6"/>
-        <v>444.19999999999993</v>
+        <f t="shared" si="0"/>
+        <v>533.03999999999985</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>358.2</v>
       </c>
       <c r="F16" s="104">
         <f t="shared" si="2"/>
-        <v>398</v>
+        <v>358.2</v>
       </c>
       <c r="G16" s="104">
         <f t="shared" si="3"/>
-        <v>321</v>
+        <v>256.8</v>
       </c>
       <c r="H16" s="105">
         <f t="shared" si="4"/>
@@ -10384,23 +11815,23 @@
       </c>
       <c r="C17" s="104">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>747.49999999999989</v>
       </c>
       <c r="D17" s="104">
-        <f t="shared" si="6"/>
-        <v>528.69999999999993</v>
+        <f t="shared" si="0"/>
+        <v>634.43999999999994</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>427.5</v>
       </c>
       <c r="F17" s="104">
         <f t="shared" si="2"/>
-        <v>475</v>
+        <v>427.5</v>
       </c>
       <c r="G17" s="104">
         <f t="shared" si="3"/>
-        <v>385.5</v>
+        <v>308.40000000000003</v>
       </c>
       <c r="H17" s="105">
         <f t="shared" si="4"/>
@@ -10414,23 +11845,23 @@
       </c>
       <c r="C18" s="104">
         <f t="shared" si="5"/>
-        <v>761</v>
+        <v>875.15</v>
       </c>
       <c r="D18" s="104">
-        <f t="shared" si="6"/>
-        <v>620.79999999999995</v>
+        <f t="shared" si="0"/>
+        <v>744.95999999999992</v>
       </c>
       <c r="E18" s="104">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>503.1</v>
       </c>
       <c r="F18" s="104">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>503.1</v>
       </c>
       <c r="G18" s="104">
         <f t="shared" si="3"/>
-        <v>456</v>
+        <v>364.8</v>
       </c>
       <c r="H18" s="105">
         <f t="shared" si="4"/>
@@ -10443,23 +11874,23 @@
       </c>
       <c r="C19" s="104">
         <f t="shared" si="5"/>
-        <v>881</v>
+        <v>1013.15</v>
       </c>
       <c r="D19" s="104">
-        <f t="shared" si="6"/>
-        <v>720.5</v>
+        <f t="shared" si="0"/>
+        <v>864.6</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" si="2"/>
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="3"/>
-        <v>532.5</v>
+        <v>426</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="4"/>
@@ -10472,23 +11903,23 @@
       </c>
       <c r="C20" s="104">
         <f t="shared" si="5"/>
-        <v>1010</v>
+        <v>1161.5</v>
       </c>
       <c r="D20" s="104">
-        <f t="shared" si="6"/>
-        <v>827.8</v>
+        <f t="shared" si="0"/>
+        <v>993.3599999999999</v>
       </c>
       <c r="E20" s="104">
         <f t="shared" si="1"/>
-        <v>748</v>
+        <v>673.2</v>
       </c>
       <c r="F20" s="104">
         <f t="shared" si="2"/>
-        <v>748</v>
+        <v>673.2</v>
       </c>
       <c r="G20" s="104">
         <f t="shared" si="3"/>
-        <v>615</v>
+        <v>492</v>
       </c>
       <c r="H20" s="105">
         <f t="shared" si="4"/>
@@ -10501,23 +11932,23 @@
       </c>
       <c r="C21" s="104">
         <f t="shared" si="5"/>
-        <v>1148</v>
+        <v>1320.1999999999998</v>
       </c>
       <c r="D21" s="104">
-        <f t="shared" si="6"/>
-        <v>942.69999999999982</v>
+        <f t="shared" si="0"/>
+        <v>1131.2399999999998</v>
       </c>
       <c r="E21" s="104">
         <f t="shared" si="1"/>
-        <v>853</v>
+        <v>767.7</v>
       </c>
       <c r="F21" s="104">
         <f t="shared" si="2"/>
-        <v>853</v>
+        <v>767.7</v>
       </c>
       <c r="G21" s="104">
         <f t="shared" si="3"/>
-        <v>703.5</v>
+        <v>562.80000000000007</v>
       </c>
       <c r="H21" s="105">
         <f t="shared" si="4"/>
@@ -10530,23 +11961,23 @@
       </c>
       <c r="C22" s="104">
         <f t="shared" si="5"/>
-        <v>1295</v>
+        <v>1489.2499999999998</v>
       </c>
       <c r="D22" s="104">
-        <f t="shared" si="6"/>
-        <v>1065.1999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1278.2399999999998</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" si="1"/>
-        <v>965</v>
+        <v>868.5</v>
       </c>
       <c r="F22" s="104">
         <f t="shared" si="2"/>
-        <v>965</v>
+        <v>868.5</v>
       </c>
       <c r="G22" s="104">
         <f t="shared" si="3"/>
-        <v>798</v>
+        <v>638.40000000000009</v>
       </c>
       <c r="H22" s="105">
         <f t="shared" si="4"/>
@@ -10559,23 +11990,23 @@
       </c>
       <c r="C23" s="104">
         <f t="shared" si="5"/>
-        <v>1451</v>
+        <v>1668.6499999999999</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" si="6"/>
-        <v>1195.3</v>
+        <f t="shared" si="0"/>
+        <v>1434.36</v>
       </c>
       <c r="E23" s="104">
         <f t="shared" si="1"/>
-        <v>1084</v>
+        <v>975.6</v>
       </c>
       <c r="F23" s="104">
         <f t="shared" si="2"/>
-        <v>1084</v>
+        <v>975.6</v>
       </c>
       <c r="G23" s="104">
         <f t="shared" si="3"/>
-        <v>898.5</v>
+        <v>718.80000000000007</v>
       </c>
       <c r="H23" s="105">
         <f t="shared" si="4"/>
@@ -10588,23 +12019,23 @@
       </c>
       <c r="C24" s="104">
         <f t="shared" si="5"/>
-        <v>1616</v>
+        <v>1858.3999999999999</v>
       </c>
       <c r="D24" s="104">
-        <f t="shared" si="6"/>
-        <v>1333</v>
+        <f t="shared" si="0"/>
+        <v>1599.6</v>
       </c>
       <c r="E24" s="104">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1089</v>
       </c>
       <c r="F24" s="104">
         <f t="shared" si="2"/>
-        <v>1210</v>
+        <v>1089</v>
       </c>
       <c r="G24" s="104">
         <f t="shared" si="3"/>
-        <v>1005</v>
+        <v>804</v>
       </c>
       <c r="H24" s="105">
         <f t="shared" si="4"/>
@@ -10617,23 +12048,23 @@
       </c>
       <c r="C25" s="104">
         <f t="shared" si="5"/>
-        <v>1790</v>
+        <v>2058.5</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" si="6"/>
-        <v>1478.3</v>
+        <f t="shared" si="0"/>
+        <v>1773.9599999999998</v>
       </c>
       <c r="E25" s="104">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>1208.7</v>
       </c>
       <c r="F25" s="104">
         <f t="shared" si="2"/>
-        <v>1343</v>
+        <v>1208.7</v>
       </c>
       <c r="G25" s="104">
         <f t="shared" si="3"/>
-        <v>1117.5</v>
+        <v>894</v>
       </c>
       <c r="H25" s="105">
         <f t="shared" si="4"/>
@@ -10646,23 +12077,23 @@
       </c>
       <c r="C26" s="104">
         <f t="shared" si="5"/>
-        <v>1973</v>
+        <v>2268.9499999999998</v>
       </c>
       <c r="D26" s="104">
-        <f t="shared" si="6"/>
-        <v>1631.1999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1957.4399999999996</v>
       </c>
       <c r="E26" s="104">
         <f t="shared" si="1"/>
-        <v>1483</v>
+        <v>1334.7</v>
       </c>
       <c r="F26" s="104">
         <f t="shared" si="2"/>
-        <v>1483</v>
+        <v>1334.7</v>
       </c>
       <c r="G26" s="104">
         <f t="shared" si="3"/>
-        <v>1236</v>
+        <v>988.80000000000007</v>
       </c>
       <c r="H26" s="105">
         <f t="shared" si="4"/>
@@ -10675,23 +12106,23 @@
       </c>
       <c r="C27" s="104">
         <f t="shared" si="5"/>
-        <v>2165</v>
+        <v>2489.75</v>
       </c>
       <c r="D27" s="104">
-        <f t="shared" si="6"/>
-        <v>1791.6999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2150.0399999999995</v>
       </c>
       <c r="E27" s="104">
         <f t="shared" si="1"/>
-        <v>1630</v>
+        <v>1467</v>
       </c>
       <c r="F27" s="104">
         <f t="shared" si="2"/>
-        <v>1630</v>
+        <v>1467</v>
       </c>
       <c r="G27" s="104">
         <f t="shared" si="3"/>
-        <v>1360.5</v>
+        <v>1088.4000000000001</v>
       </c>
       <c r="H27" s="105">
         <f t="shared" si="4"/>
@@ -10704,23 +12135,23 @@
       </c>
       <c r="C28" s="104">
         <f t="shared" si="5"/>
-        <v>2366</v>
+        <v>2720.8999999999996</v>
       </c>
       <c r="D28" s="104">
-        <f t="shared" si="6"/>
-        <v>1959.7999999999997</v>
+        <f t="shared" si="0"/>
+        <v>2351.7599999999998</v>
       </c>
       <c r="E28" s="104">
         <f t="shared" si="1"/>
-        <v>1784</v>
+        <v>1605.6000000000001</v>
       </c>
       <c r="F28" s="104">
         <f t="shared" si="2"/>
-        <v>1784</v>
+        <v>1605.6000000000001</v>
       </c>
       <c r="G28" s="104">
         <f t="shared" si="3"/>
-        <v>1491</v>
+        <v>1192.8</v>
       </c>
       <c r="H28" s="105">
         <f t="shared" si="4"/>
@@ -10733,23 +12164,23 @@
       </c>
       <c r="C29" s="104">
         <f t="shared" si="5"/>
-        <v>2576</v>
+        <v>2962.3999999999996</v>
       </c>
       <c r="D29" s="104">
-        <f t="shared" si="6"/>
-        <v>2135.5</v>
+        <f t="shared" si="0"/>
+        <v>2562.6</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" si="1"/>
-        <v>1945</v>
+        <v>1750.5</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" si="2"/>
-        <v>1945</v>
+        <v>1750.5</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" si="3"/>
-        <v>1627.5</v>
+        <v>1302</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" si="4"/>
@@ -10762,23 +12193,23 @@
       </c>
       <c r="C30" s="104">
         <f t="shared" si="5"/>
-        <v>2795</v>
+        <v>3214.2499999999995</v>
       </c>
       <c r="D30" s="104">
-        <f t="shared" si="6"/>
-        <v>2318.7999999999997</v>
+        <f t="shared" si="0"/>
+        <v>2782.5599999999995</v>
       </c>
       <c r="E30" s="104">
         <f t="shared" si="1"/>
-        <v>2113</v>
+        <v>1901.7</v>
       </c>
       <c r="F30" s="104">
         <f t="shared" si="2"/>
-        <v>2113</v>
+        <v>1901.7</v>
       </c>
       <c r="G30" s="104">
         <f t="shared" si="3"/>
-        <v>1770</v>
+        <v>1416</v>
       </c>
       <c r="H30" s="105">
         <f t="shared" si="4"/>
@@ -10791,23 +12222,23 @@
       </c>
       <c r="C31" s="104">
         <f t="shared" si="5"/>
-        <v>3023</v>
+        <v>3476.45</v>
       </c>
       <c r="D31" s="104">
-        <f t="shared" si="6"/>
-        <v>2509.6999999999998</v>
+        <f t="shared" si="0"/>
+        <v>3011.64</v>
       </c>
       <c r="E31" s="104">
         <f t="shared" si="1"/>
-        <v>2288</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="F31" s="104">
         <f t="shared" si="2"/>
-        <v>2288</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" si="3"/>
-        <v>1918.5</v>
+        <v>1534.8000000000002</v>
       </c>
       <c r="H31" s="105">
         <f t="shared" si="4"/>
@@ -10820,23 +12251,23 @@
       </c>
       <c r="C32" s="104">
         <f t="shared" si="5"/>
-        <v>3260</v>
+        <v>3748.9999999999995</v>
       </c>
       <c r="D32" s="104">
-        <f t="shared" si="6"/>
-        <v>2708.2</v>
+        <f t="shared" si="0"/>
+        <v>3249.8399999999997</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" si="1"/>
-        <v>2470</v>
+        <v>2223</v>
       </c>
       <c r="F32" s="104">
         <f t="shared" si="2"/>
-        <v>2470</v>
+        <v>2223</v>
       </c>
       <c r="G32" s="104">
         <f t="shared" si="3"/>
-        <v>2073</v>
+        <v>1658.4</v>
       </c>
       <c r="H32" s="105">
         <f t="shared" si="4"/>
@@ -10849,23 +12280,23 @@
       </c>
       <c r="C33" s="104">
         <f t="shared" si="5"/>
-        <v>3506</v>
+        <v>4031.8999999999996</v>
       </c>
       <c r="D33" s="104">
-        <f t="shared" si="6"/>
-        <v>2914.2999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3497.1599999999994</v>
       </c>
       <c r="E33" s="104">
         <f t="shared" si="1"/>
-        <v>2659</v>
+        <v>2393.1</v>
       </c>
       <c r="F33" s="104">
         <f t="shared" si="2"/>
-        <v>2659</v>
+        <v>2393.1</v>
       </c>
       <c r="G33" s="104">
         <f t="shared" si="3"/>
-        <v>2233.5</v>
+        <v>1786.8000000000002</v>
       </c>
       <c r="H33" s="105">
         <f t="shared" si="4"/>
@@ -10878,23 +12309,23 @@
       </c>
       <c r="C34" s="104">
         <f t="shared" si="5"/>
-        <v>3761</v>
+        <v>4325.1499999999996</v>
       </c>
       <c r="D34" s="104">
-        <f t="shared" si="6"/>
-        <v>3128</v>
+        <f t="shared" si="0"/>
+        <v>3753.6</v>
       </c>
       <c r="E34" s="104">
         <f t="shared" si="1"/>
-        <v>2855</v>
+        <v>2569.5</v>
       </c>
       <c r="F34" s="104">
         <f t="shared" si="2"/>
-        <v>2855</v>
+        <v>2569.5</v>
       </c>
       <c r="G34" s="104">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="H34" s="105">
         <f t="shared" si="4"/>
@@ -10907,23 +12338,23 @@
       </c>
       <c r="C35" s="104">
         <f t="shared" si="5"/>
-        <v>4025</v>
+        <v>4628.75</v>
       </c>
       <c r="D35" s="104">
-        <f t="shared" si="6"/>
-        <v>3349.2999999999997</v>
+        <f t="shared" si="0"/>
+        <v>4019.1599999999994</v>
       </c>
       <c r="E35" s="104">
         <f t="shared" si="1"/>
-        <v>3058</v>
+        <v>2752.2000000000003</v>
       </c>
       <c r="F35" s="104">
         <f t="shared" si="2"/>
-        <v>3058</v>
+        <v>2752.2000000000003</v>
       </c>
       <c r="G35" s="104">
         <f t="shared" si="3"/>
-        <v>2572.5</v>
+        <v>2058</v>
       </c>
       <c r="H35" s="105">
         <f t="shared" si="4"/>
@@ -10936,23 +12367,23 @@
       </c>
       <c r="C36" s="104">
         <f t="shared" si="5"/>
-        <v>4298</v>
+        <v>4942.7</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" si="6"/>
-        <v>3578.2</v>
+        <f t="shared" si="0"/>
+        <v>4293.8399999999992</v>
       </c>
       <c r="E36" s="104">
         <f t="shared" si="1"/>
-        <v>3268</v>
+        <v>2941.2000000000003</v>
       </c>
       <c r="F36" s="104">
         <f t="shared" si="2"/>
-        <v>3268</v>
+        <v>2941.2000000000003</v>
       </c>
       <c r="G36" s="104">
         <f t="shared" si="3"/>
-        <v>2751</v>
+        <v>2200.8000000000002</v>
       </c>
       <c r="H36" s="105">
         <f t="shared" si="4"/>
@@ -10965,23 +12396,23 @@
       </c>
       <c r="C37" s="104">
         <f t="shared" si="5"/>
-        <v>4580</v>
+        <v>5267</v>
       </c>
       <c r="D37" s="104">
-        <f t="shared" si="6"/>
-        <v>3814.7</v>
+        <f t="shared" si="0"/>
+        <v>4577.6399999999994</v>
       </c>
       <c r="E37" s="104">
         <f t="shared" si="1"/>
-        <v>3485</v>
+        <v>3136.5</v>
       </c>
       <c r="F37" s="104">
         <f t="shared" si="2"/>
-        <v>3485</v>
+        <v>3136.5</v>
       </c>
       <c r="G37" s="104">
         <f t="shared" si="3"/>
-        <v>2935.5</v>
+        <v>2348.4</v>
       </c>
       <c r="H37" s="105">
         <f t="shared" si="4"/>
@@ -10994,23 +12425,23 @@
       </c>
       <c r="C38" s="104">
         <f t="shared" si="5"/>
-        <v>4871</v>
+        <v>5601.65</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" si="6"/>
-        <v>4058.7999999999993</v>
+        <f t="shared" si="0"/>
+        <v>4870.5599999999986</v>
       </c>
       <c r="E38" s="104">
         <f t="shared" si="1"/>
-        <v>3709</v>
+        <v>3338.1</v>
       </c>
       <c r="F38" s="104">
         <f t="shared" si="2"/>
-        <v>3709</v>
+        <v>3338.1</v>
       </c>
       <c r="G38" s="104">
         <f t="shared" si="3"/>
-        <v>3126</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="H38" s="105">
         <f t="shared" si="4"/>
@@ -11023,23 +12454,23 @@
       </c>
       <c r="C39" s="104">
         <f t="shared" si="5"/>
-        <v>5171</v>
+        <v>5946.65</v>
       </c>
       <c r="D39" s="104">
-        <f t="shared" si="6"/>
-        <v>4310.5</v>
+        <f t="shared" si="0"/>
+        <v>5172.5999999999995</v>
       </c>
       <c r="E39" s="104">
         <f t="shared" si="1"/>
-        <v>3940</v>
+        <v>3546</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" si="2"/>
-        <v>3940</v>
+        <v>3546</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" si="3"/>
-        <v>3322.5</v>
+        <v>2658</v>
       </c>
       <c r="H39" s="105">
         <f t="shared" si="4"/>
@@ -11052,23 +12483,23 @@
       </c>
       <c r="C40" s="104">
         <f t="shared" si="5"/>
-        <v>5480</v>
+        <v>6301.9999999999991</v>
       </c>
       <c r="D40" s="104">
-        <f t="shared" si="6"/>
-        <v>4569.7999999999993</v>
+        <f t="shared" si="0"/>
+        <v>5483.7599999999993</v>
       </c>
       <c r="E40" s="104">
         <f t="shared" si="1"/>
-        <v>4178</v>
+        <v>3760.2000000000003</v>
       </c>
       <c r="F40" s="104">
         <f t="shared" si="2"/>
-        <v>4178</v>
+        <v>3760.2000000000003</v>
       </c>
       <c r="G40" s="104">
         <f t="shared" si="3"/>
-        <v>3525</v>
+        <v>2820</v>
       </c>
       <c r="H40" s="105">
         <f t="shared" si="4"/>
@@ -11081,23 +12512,23 @@
       </c>
       <c r="C41" s="104">
         <f t="shared" si="5"/>
-        <v>5798</v>
+        <v>6667.7</v>
       </c>
       <c r="D41" s="104">
-        <f t="shared" si="6"/>
-        <v>4836.7</v>
+        <f t="shared" si="0"/>
+        <v>5804.04</v>
       </c>
       <c r="E41" s="104">
         <f t="shared" si="1"/>
-        <v>4423</v>
+        <v>3980.7000000000003</v>
       </c>
       <c r="F41" s="104">
         <f t="shared" si="2"/>
-        <v>4423</v>
+        <v>3980.7000000000003</v>
       </c>
       <c r="G41" s="104">
         <f t="shared" si="3"/>
-        <v>3733.5</v>
+        <v>2986.8</v>
       </c>
       <c r="H41" s="105">
         <f t="shared" si="4"/>
@@ -11110,23 +12541,23 @@
       </c>
       <c r="C42" s="104">
         <f t="shared" si="5"/>
-        <v>6125</v>
+        <v>7043.7499999999991</v>
       </c>
       <c r="D42" s="104">
-        <f t="shared" si="6"/>
-        <v>5111.2</v>
+        <f t="shared" si="0"/>
+        <v>6133.44</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" si="1"/>
-        <v>4675</v>
+        <v>4207.5</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="2"/>
-        <v>4675</v>
+        <v>4207.5</v>
       </c>
       <c r="G42" s="104">
         <f t="shared" si="3"/>
-        <v>3948</v>
+        <v>3158.4</v>
       </c>
       <c r="H42" s="105">
         <f t="shared" si="4"/>
@@ -11139,23 +12570,23 @@
       </c>
       <c r="C43" s="104">
         <f t="shared" si="5"/>
-        <v>6461</v>
+        <v>7430.15</v>
       </c>
       <c r="D43" s="104">
-        <f t="shared" si="6"/>
-        <v>5393.2999999999993</v>
+        <f t="shared" si="0"/>
+        <v>6471.9599999999991</v>
       </c>
       <c r="E43" s="104">
         <f t="shared" si="1"/>
-        <v>4934</v>
+        <v>4440.6000000000004</v>
       </c>
       <c r="F43" s="104">
         <f t="shared" si="2"/>
-        <v>4934</v>
+        <v>4440.6000000000004</v>
       </c>
       <c r="G43" s="104">
         <f t="shared" si="3"/>
-        <v>4168.5</v>
+        <v>3334.8</v>
       </c>
       <c r="H43" s="105">
         <f t="shared" si="4"/>
@@ -11168,23 +12599,23 @@
       </c>
       <c r="C44" s="104">
         <f t="shared" si="5"/>
-        <v>6806</v>
+        <v>7826.9</v>
       </c>
       <c r="D44" s="104">
-        <f t="shared" si="6"/>
-        <v>5683</v>
+        <f t="shared" si="0"/>
+        <v>6819.5999999999995</v>
       </c>
       <c r="E44" s="104">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>4680</v>
       </c>
       <c r="F44" s="104">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>4680</v>
       </c>
       <c r="G44" s="104">
         <f t="shared" si="3"/>
-        <v>4395</v>
+        <v>3516</v>
       </c>
       <c r="H44" s="105">
         <f t="shared" si="4"/>
@@ -11197,23 +12628,23 @@
       </c>
       <c r="C45" s="104">
         <f t="shared" si="5"/>
-        <v>7160</v>
+        <v>8234</v>
       </c>
       <c r="D45" s="104">
-        <f t="shared" si="6"/>
-        <v>5980.2999999999993</v>
+        <f t="shared" si="0"/>
+        <v>7176.3599999999988</v>
       </c>
       <c r="E45" s="104">
         <f t="shared" si="1"/>
-        <v>5473</v>
+        <v>4925.7</v>
       </c>
       <c r="F45" s="104">
         <f t="shared" si="2"/>
-        <v>5473</v>
+        <v>4925.7</v>
       </c>
       <c r="G45" s="104">
         <f t="shared" si="3"/>
-        <v>4627.5</v>
+        <v>3702</v>
       </c>
       <c r="H45" s="105">
         <f t="shared" si="4"/>
@@ -11226,23 +12657,23 @@
       </c>
       <c r="C46" s="104">
         <f t="shared" si="5"/>
-        <v>7523</v>
+        <v>8651.4499999999989</v>
       </c>
       <c r="D46" s="104">
-        <f t="shared" si="6"/>
-        <v>6285.2</v>
+        <f t="shared" si="0"/>
+        <v>7542.24</v>
       </c>
       <c r="E46" s="104">
         <f t="shared" si="1"/>
-        <v>5753</v>
+        <v>5177.7</v>
       </c>
       <c r="F46" s="104">
         <f t="shared" si="2"/>
-        <v>5753</v>
+        <v>5177.7</v>
       </c>
       <c r="G46" s="104">
         <f t="shared" si="3"/>
-        <v>4866</v>
+        <v>3892.8</v>
       </c>
       <c r="H46" s="105">
         <f t="shared" si="4"/>
@@ -11255,23 +12686,23 @@
       </c>
       <c r="C47" s="104">
         <f t="shared" si="5"/>
-        <v>7895</v>
+        <v>9079.25</v>
       </c>
       <c r="D47" s="104">
-        <f t="shared" si="6"/>
-        <v>6597.7</v>
+        <f t="shared" si="0"/>
+        <v>7917.24</v>
       </c>
       <c r="E47" s="104">
         <f t="shared" si="1"/>
-        <v>6040</v>
+        <v>5436</v>
       </c>
       <c r="F47" s="104">
         <f t="shared" si="2"/>
-        <v>6040</v>
+        <v>5436</v>
       </c>
       <c r="G47" s="104">
         <f t="shared" si="3"/>
-        <v>5110.5</v>
+        <v>4088.4</v>
       </c>
       <c r="H47" s="105">
         <f t="shared" si="4"/>
@@ -11284,23 +12715,23 @@
       </c>
       <c r="C48" s="104">
         <f t="shared" si="5"/>
-        <v>8276</v>
+        <v>9517.4</v>
       </c>
       <c r="D48" s="104">
-        <f t="shared" si="6"/>
-        <v>6917.7999999999993</v>
+        <f t="shared" si="0"/>
+        <v>8301.3599999999988</v>
       </c>
       <c r="E48" s="104">
         <f t="shared" si="1"/>
-        <v>6334</v>
+        <v>5700.6</v>
       </c>
       <c r="F48" s="104">
         <f t="shared" si="2"/>
-        <v>6334</v>
+        <v>5700.6</v>
       </c>
       <c r="G48" s="104">
         <f t="shared" si="3"/>
-        <v>5361</v>
+        <v>4288.8</v>
       </c>
       <c r="H48" s="105">
         <f t="shared" si="4"/>
@@ -11313,23 +12744,23 @@
       </c>
       <c r="C49" s="104">
         <f t="shared" si="5"/>
-        <v>8666</v>
+        <v>9965.9</v>
       </c>
       <c r="D49" s="104">
-        <f t="shared" si="6"/>
-        <v>7245.5</v>
+        <f t="shared" si="0"/>
+        <v>8694.6</v>
       </c>
       <c r="E49" s="104">
         <f t="shared" si="1"/>
-        <v>6635</v>
+        <v>5971.5</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" si="2"/>
-        <v>6635</v>
+        <v>5971.5</v>
       </c>
       <c r="G49" s="104">
         <f t="shared" si="3"/>
-        <v>5617.5</v>
+        <v>4494</v>
       </c>
       <c r="H49" s="105">
         <f t="shared" si="4"/>
@@ -11342,23 +12773,23 @@
       </c>
       <c r="C50" s="104">
         <f t="shared" si="5"/>
-        <v>9065</v>
+        <v>10424.75</v>
       </c>
       <c r="D50" s="104">
-        <f t="shared" si="6"/>
-        <v>7580.7999999999993</v>
+        <f t="shared" si="0"/>
+        <v>9096.9599999999991</v>
       </c>
       <c r="E50" s="104">
         <f t="shared" si="1"/>
-        <v>6943</v>
+        <v>6248.7</v>
       </c>
       <c r="F50" s="104">
         <f t="shared" si="2"/>
-        <v>6943</v>
+        <v>6248.7</v>
       </c>
       <c r="G50" s="104">
         <f t="shared" si="3"/>
-        <v>5880</v>
+        <v>4704</v>
       </c>
       <c r="H50" s="105">
         <f t="shared" si="4"/>
@@ -11371,23 +12802,23 @@
       </c>
       <c r="C51" s="104">
         <f t="shared" si="5"/>
-        <v>9473</v>
+        <v>10893.949999999999</v>
       </c>
       <c r="D51" s="104">
-        <f t="shared" si="6"/>
-        <v>7923.6999999999989</v>
+        <f t="shared" si="0"/>
+        <v>9508.4399999999987</v>
       </c>
       <c r="E51" s="104">
         <f t="shared" si="1"/>
-        <v>7258</v>
+        <v>6532.2</v>
       </c>
       <c r="F51" s="104">
         <f t="shared" si="2"/>
-        <v>7258</v>
+        <v>6532.2</v>
       </c>
       <c r="G51" s="104">
         <f t="shared" si="3"/>
-        <v>6148.5</v>
+        <v>4918.8</v>
       </c>
       <c r="H51" s="105">
         <f t="shared" si="4"/>
@@ -11400,23 +12831,23 @@
       </c>
       <c r="C52" s="104">
         <f t="shared" si="5"/>
-        <v>9890</v>
+        <v>11373.5</v>
       </c>
       <c r="D52" s="104">
-        <f t="shared" si="6"/>
-        <v>8274.1999999999989</v>
+        <f t="shared" si="0"/>
+        <v>9929.0399999999991</v>
       </c>
       <c r="E52" s="104">
         <f t="shared" si="1"/>
-        <v>7580</v>
+        <v>6822</v>
       </c>
       <c r="F52" s="104">
         <f t="shared" si="2"/>
-        <v>7580</v>
+        <v>6822</v>
       </c>
       <c r="G52" s="104">
         <f t="shared" si="3"/>
-        <v>6423</v>
+        <v>5138.4000000000005</v>
       </c>
       <c r="H52" s="105">
         <f t="shared" si="4"/>
@@ -11429,23 +12860,23 @@
       </c>
       <c r="C53" s="104">
         <f t="shared" si="5"/>
-        <v>10316</v>
+        <v>11863.4</v>
       </c>
       <c r="D53" s="104">
-        <f t="shared" si="6"/>
-        <v>8632.2999999999993</v>
+        <f t="shared" si="0"/>
+        <v>10358.759999999998</v>
       </c>
       <c r="E53" s="104">
         <f t="shared" si="1"/>
-        <v>7909</v>
+        <v>7118.1</v>
       </c>
       <c r="F53" s="104">
         <f t="shared" si="2"/>
-        <v>7909</v>
+        <v>7118.1</v>
       </c>
       <c r="G53" s="104">
         <f t="shared" si="3"/>
-        <v>6703.5</v>
+        <v>5362.8</v>
       </c>
       <c r="H53" s="105">
         <f t="shared" si="4"/>
@@ -11458,23 +12889,23 @@
       </c>
       <c r="C54" s="104">
         <f t="shared" si="5"/>
-        <v>10751</v>
+        <v>12363.65</v>
       </c>
       <c r="D54" s="104">
-        <f t="shared" si="6"/>
-        <v>8998</v>
+        <f t="shared" si="0"/>
+        <v>10797.6</v>
       </c>
       <c r="E54" s="104">
         <f t="shared" si="1"/>
-        <v>8245</v>
+        <v>7420.5</v>
       </c>
       <c r="F54" s="104">
         <f t="shared" si="2"/>
-        <v>8245</v>
+        <v>7420.5</v>
       </c>
       <c r="G54" s="104">
         <f t="shared" si="3"/>
-        <v>6990</v>
+        <v>5592</v>
       </c>
       <c r="H54" s="105">
         <f t="shared" si="4"/>
@@ -11487,23 +12918,23 @@
       </c>
       <c r="C55" s="104">
         <f t="shared" si="5"/>
-        <v>11195</v>
+        <v>12874.249999999998</v>
       </c>
       <c r="D55" s="104">
-        <f t="shared" si="6"/>
-        <v>9371.2999999999993</v>
+        <f t="shared" si="0"/>
+        <v>11245.56</v>
       </c>
       <c r="E55" s="104">
         <f t="shared" si="1"/>
-        <v>8588</v>
+        <v>7729.2</v>
       </c>
       <c r="F55" s="104">
         <f t="shared" si="2"/>
-        <v>8588</v>
+        <v>7729.2</v>
       </c>
       <c r="G55" s="104">
         <f t="shared" si="3"/>
-        <v>7282.5</v>
+        <v>5826</v>
       </c>
       <c r="H55" s="105">
         <f t="shared" si="4"/>
@@ -11516,23 +12947,23 @@
       </c>
       <c r="C56" s="104">
         <f t="shared" si="5"/>
-        <v>11648</v>
+        <v>13395.199999999999</v>
       </c>
       <c r="D56" s="104">
-        <f t="shared" si="6"/>
-        <v>9752.1999999999989</v>
+        <f t="shared" si="0"/>
+        <v>11702.639999999998</v>
       </c>
       <c r="E56" s="104">
         <f t="shared" si="1"/>
-        <v>8938</v>
+        <v>8044.2</v>
       </c>
       <c r="F56" s="104">
         <f t="shared" si="2"/>
-        <v>8938</v>
+        <v>8044.2</v>
       </c>
       <c r="G56" s="104">
         <f t="shared" si="3"/>
-        <v>7581</v>
+        <v>6064.8</v>
       </c>
       <c r="H56" s="105">
         <f t="shared" si="4"/>
@@ -11545,23 +12976,23 @@
       </c>
       <c r="C57" s="104">
         <f t="shared" si="5"/>
-        <v>12110</v>
+        <v>13926.499999999998</v>
       </c>
       <c r="D57" s="104">
-        <f t="shared" si="6"/>
-        <v>10140.699999999999</v>
+        <f t="shared" si="0"/>
+        <v>12168.839999999998</v>
       </c>
       <c r="E57" s="104">
         <f t="shared" si="1"/>
-        <v>9295</v>
+        <v>8365.5</v>
       </c>
       <c r="F57" s="104">
         <f t="shared" si="2"/>
-        <v>9295</v>
+        <v>8365.5</v>
       </c>
       <c r="G57" s="104">
         <f t="shared" si="3"/>
-        <v>7885.5</v>
+        <v>6308.4000000000005</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="4"/>
@@ -11574,23 +13005,23 @@
       </c>
       <c r="C58" s="104">
         <f t="shared" si="5"/>
-        <v>12581</v>
+        <v>14468.15</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" si="6"/>
-        <v>10536.8</v>
+        <f t="shared" si="0"/>
+        <v>12644.159999999998</v>
       </c>
       <c r="E58" s="104">
         <f t="shared" si="1"/>
-        <v>9659</v>
+        <v>8693.1</v>
       </c>
       <c r="F58" s="104">
         <f t="shared" si="2"/>
-        <v>9659</v>
+        <v>8693.1</v>
       </c>
       <c r="G58" s="104">
         <f t="shared" si="3"/>
-        <v>8196</v>
+        <v>6556.8</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="4"/>
@@ -11603,23 +13034,23 @@
       </c>
       <c r="C59" s="104">
         <f t="shared" si="5"/>
-        <v>13061</v>
+        <v>15020.15</v>
       </c>
       <c r="D59" s="104">
-        <f t="shared" si="6"/>
-        <v>10940.5</v>
+        <f t="shared" si="0"/>
+        <v>13128.6</v>
       </c>
       <c r="E59" s="104">
         <f t="shared" si="1"/>
-        <v>10030</v>
+        <v>9027</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" si="2"/>
-        <v>10030</v>
+        <v>9027</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" si="3"/>
-        <v>8512.5</v>
+        <v>6810</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" si="4"/>
@@ -11632,23 +13063,23 @@
       </c>
       <c r="C60" s="104">
         <f t="shared" si="5"/>
-        <v>13550</v>
+        <v>15582.499999999998</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="6"/>
-        <v>11351.8</v>
+        <f t="shared" si="0"/>
+        <v>13622.159999999998</v>
       </c>
       <c r="E60" s="104">
         <f t="shared" si="1"/>
-        <v>10408</v>
+        <v>9367.2000000000007</v>
       </c>
       <c r="F60" s="104">
         <f t="shared" si="2"/>
-        <v>10408</v>
+        <v>9367.2000000000007</v>
       </c>
       <c r="G60" s="104">
         <f t="shared" si="3"/>
-        <v>8835</v>
+        <v>7068</v>
       </c>
       <c r="H60" s="105">
         <f t="shared" si="4"/>
@@ -11661,23 +13092,23 @@
       </c>
       <c r="C61" s="104">
         <f t="shared" si="5"/>
-        <v>14048</v>
+        <v>16155.199999999999</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="6"/>
-        <v>11770.699999999999</v>
+        <f t="shared" si="0"/>
+        <v>14124.839999999998</v>
       </c>
       <c r="E61" s="104">
         <f t="shared" si="1"/>
-        <v>10793</v>
+        <v>9713.7000000000007</v>
       </c>
       <c r="F61" s="104">
         <f t="shared" si="2"/>
-        <v>10793</v>
+        <v>9713.7000000000007</v>
       </c>
       <c r="G61" s="104">
         <f t="shared" si="3"/>
-        <v>9163.5</v>
+        <v>7330.8</v>
       </c>
       <c r="H61" s="105">
         <f t="shared" si="4"/>
@@ -11690,23 +13121,23 @@
       </c>
       <c r="C62" s="104">
         <f t="shared" si="5"/>
-        <v>14555</v>
+        <v>16738.25</v>
       </c>
       <c r="D62" s="104">
-        <f t="shared" si="6"/>
-        <v>12197.199999999999</v>
+        <f t="shared" si="0"/>
+        <v>14636.639999999998</v>
       </c>
       <c r="E62" s="104">
         <f t="shared" si="1"/>
-        <v>11185</v>
+        <v>10066.5</v>
       </c>
       <c r="F62" s="104">
         <f t="shared" si="2"/>
-        <v>11185</v>
+        <v>10066.5</v>
       </c>
       <c r="G62" s="104">
         <f t="shared" si="3"/>
-        <v>9498</v>
+        <v>7598.4000000000005</v>
       </c>
       <c r="H62" s="105">
         <f t="shared" si="4"/>
@@ -11719,23 +13150,23 @@
       </c>
       <c r="C63" s="104">
         <f t="shared" si="5"/>
-        <v>15071</v>
+        <v>17331.649999999998</v>
       </c>
       <c r="D63" s="104">
-        <f t="shared" si="6"/>
-        <v>12631.3</v>
+        <f t="shared" si="0"/>
+        <v>15157.559999999998</v>
       </c>
       <c r="E63" s="104">
         <f t="shared" si="1"/>
-        <v>11584</v>
+        <v>10425.6</v>
       </c>
       <c r="F63" s="104">
         <f t="shared" si="2"/>
-        <v>11584</v>
+        <v>10425.6</v>
       </c>
       <c r="G63" s="104">
         <f t="shared" si="3"/>
-        <v>9838.5</v>
+        <v>7870.8</v>
       </c>
       <c r="H63" s="105">
         <f t="shared" si="4"/>
@@ -11748,23 +13179,23 @@
       </c>
       <c r="C64" s="104">
         <f t="shared" si="5"/>
-        <v>15596</v>
+        <v>17935.399999999998</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" si="6"/>
-        <v>13073</v>
+        <f t="shared" si="0"/>
+        <v>15687.599999999999</v>
       </c>
       <c r="E64" s="104">
         <f t="shared" si="1"/>
-        <v>11990</v>
+        <v>10791</v>
       </c>
       <c r="F64" s="104">
         <f t="shared" si="2"/>
-        <v>11990</v>
+        <v>10791</v>
       </c>
       <c r="G64" s="104">
         <f t="shared" si="3"/>
-        <v>10185</v>
+        <v>8148</v>
       </c>
       <c r="H64" s="105">
         <f t="shared" si="4"/>
@@ -11777,23 +13208,23 @@
       </c>
       <c r="C65" s="104">
         <f t="shared" si="5"/>
-        <v>16130</v>
+        <v>18549.5</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="6"/>
-        <v>13522.3</v>
+        <f t="shared" si="0"/>
+        <v>16226.759999999998</v>
       </c>
       <c r="E65" s="104">
         <f t="shared" si="1"/>
-        <v>12403</v>
+        <v>11162.7</v>
       </c>
       <c r="F65" s="104">
         <f t="shared" si="2"/>
-        <v>12403</v>
+        <v>11162.7</v>
       </c>
       <c r="G65" s="104">
         <f t="shared" si="3"/>
-        <v>10537.5</v>
+        <v>8430</v>
       </c>
       <c r="H65" s="105">
         <f t="shared" si="4"/>
@@ -11806,23 +13237,23 @@
       </c>
       <c r="C66" s="104">
         <f t="shared" si="5"/>
-        <v>16673</v>
+        <v>19173.949999999997</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="6"/>
-        <v>13979.199999999999</v>
+        <f t="shared" si="0"/>
+        <v>16775.039999999997</v>
       </c>
       <c r="E66" s="104">
         <f t="shared" si="1"/>
-        <v>12823</v>
+        <v>11540.7</v>
       </c>
       <c r="F66" s="104">
         <f t="shared" si="2"/>
-        <v>12823</v>
+        <v>11540.7</v>
       </c>
       <c r="G66" s="104">
         <f t="shared" si="3"/>
-        <v>10896</v>
+        <v>8716.8000000000011</v>
       </c>
       <c r="H66" s="105">
         <f t="shared" si="4"/>
@@ -11835,23 +13266,23 @@
       </c>
       <c r="C67" s="104">
         <f t="shared" si="5"/>
-        <v>17225</v>
+        <v>19808.75</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="6"/>
-        <v>14443.699999999999</v>
+        <f t="shared" si="0"/>
+        <v>17332.439999999999</v>
       </c>
       <c r="E67" s="104">
         <f t="shared" si="1"/>
-        <v>13250</v>
+        <v>11925</v>
       </c>
       <c r="F67" s="104">
         <f t="shared" si="2"/>
-        <v>13250</v>
+        <v>11925</v>
       </c>
       <c r="G67" s="104">
         <f t="shared" si="3"/>
-        <v>11260.5</v>
+        <v>9008.4</v>
       </c>
       <c r="H67" s="105">
         <f t="shared" si="4"/>
@@ -11864,23 +13295,23 @@
       </c>
       <c r="C68" s="104">
         <f t="shared" si="5"/>
-        <v>17786</v>
+        <v>20453.899999999998</v>
       </c>
       <c r="D68" s="104">
-        <f t="shared" si="6"/>
-        <v>14915.8</v>
+        <f t="shared" si="0"/>
+        <v>17898.96</v>
       </c>
       <c r="E68" s="104">
         <f t="shared" si="1"/>
-        <v>13684</v>
+        <v>12315.6</v>
       </c>
       <c r="F68" s="104">
         <f t="shared" si="2"/>
-        <v>13684</v>
+        <v>12315.6</v>
       </c>
       <c r="G68" s="104">
         <f t="shared" si="3"/>
-        <v>11631</v>
+        <v>9304.8000000000011</v>
       </c>
       <c r="H68" s="105">
         <f t="shared" si="4"/>
@@ -11893,23 +13324,23 @@
       </c>
       <c r="C69" s="104">
         <f t="shared" si="5"/>
-        <v>18356</v>
+        <v>21109.399999999998</v>
       </c>
       <c r="D69" s="104">
-        <f t="shared" si="6"/>
-        <v>15395.5</v>
+        <f t="shared" si="0"/>
+        <v>18474.599999999999</v>
       </c>
       <c r="E69" s="104">
         <f t="shared" si="1"/>
-        <v>14125</v>
+        <v>12712.5</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="2"/>
-        <v>14125</v>
+        <v>12712.5</v>
       </c>
       <c r="G69" s="104">
         <f t="shared" si="3"/>
-        <v>12007.5</v>
+        <v>9606</v>
       </c>
       <c r="H69" s="105">
         <f t="shared" si="4"/>
@@ -11922,23 +13353,23 @@
       </c>
       <c r="C70" s="104">
         <f t="shared" si="5"/>
-        <v>18935</v>
+        <v>21775.25</v>
       </c>
       <c r="D70" s="104">
-        <f t="shared" si="6"/>
-        <v>15882.8</v>
+        <f t="shared" si="0"/>
+        <v>19059.359999999997</v>
       </c>
       <c r="E70" s="104">
         <f t="shared" si="1"/>
-        <v>14573</v>
+        <v>13115.7</v>
       </c>
       <c r="F70" s="104">
         <f t="shared" si="2"/>
-        <v>14573</v>
+        <v>13115.7</v>
       </c>
       <c r="G70" s="104">
         <f t="shared" si="3"/>
-        <v>12390</v>
+        <v>9912</v>
       </c>
       <c r="H70" s="105">
         <f t="shared" si="4"/>
@@ -11951,23 +13382,23 @@
       </c>
       <c r="C71" s="104">
         <f t="shared" si="5"/>
-        <v>19523</v>
+        <v>22451.449999999997</v>
       </c>
       <c r="D71" s="104">
-        <f t="shared" si="6"/>
-        <v>16377.7</v>
+        <f t="shared" si="0"/>
+        <v>19653.240000000002</v>
       </c>
       <c r="E71" s="104">
         <f t="shared" si="1"/>
-        <v>15028</v>
+        <v>13525.2</v>
       </c>
       <c r="F71" s="104">
         <f t="shared" si="2"/>
-        <v>15028</v>
+        <v>13525.2</v>
       </c>
       <c r="G71" s="104">
         <f t="shared" si="3"/>
-        <v>12778.5</v>
+        <v>10222.800000000001</v>
       </c>
       <c r="H71" s="105">
         <f t="shared" si="4"/>
@@ -11980,26 +13411,26 @@
       </c>
       <c r="C72" s="104">
         <f t="shared" si="5"/>
-        <v>20120</v>
+        <v>23138</v>
       </c>
       <c r="D72" s="104">
-        <f t="shared" ref="D72:D104" si="7">3.8*B72*B72-10.5*B72+23</f>
-        <v>16880.199999999997</v>
+        <f t="shared" ref="D72:D104" si="6">(3.8*B72*B72-10.5*B72+23)*(1+$K$12)*$K$9</f>
+        <v>20256.239999999994</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" ref="E72:E104" si="8">(3.5*B72*B72-10.5*B72+20)*(1+$K$13)*$K$9</f>
-        <v>15490</v>
+        <f t="shared" ref="E72:E104" si="7">(3.5*B72*B72-10.5*B72+20)*(1+$K$13)*$K$9</f>
+        <v>13941</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" ref="F72:F104" si="9">(3.5*B72*B72-10.5*B72+20)*(1+$K$14)*$K$9</f>
-        <v>15490</v>
+        <f t="shared" ref="F72:F104" si="8">(3.5*B72*B72-10.5*B72+20)*(1+$K$14)*$K$9</f>
+        <v>13941</v>
       </c>
       <c r="G72" s="104">
-        <f t="shared" ref="G72:G104" si="10">(3*B72*B72-10.5*B72+15)*(1+$K$15)*$K$9</f>
-        <v>13173</v>
+        <f t="shared" ref="G72:G104" si="9">(3*B72*B72-10.5*B72+15)*(1+$K$15)*$K$9</f>
+        <v>10538.400000000001</v>
       </c>
       <c r="H72" s="105">
-        <f t="shared" ref="H72:H104" si="11">(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,B72*(B72/2)))*(1+$K$16)*$K$9</f>
+        <f t="shared" ref="H72:H104" si="10">(IF(OR($K$5="M",$K$5="N",$K$5="O",$K$5="P",$K$5="Q",$K$5="R",$K$5="T",$K$5="U",$K$5="V"),0,B72*(B72/2)))*(1+$K$16)*$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -12008,27 +13439,27 @@
         <v>69</v>
       </c>
       <c r="C73" s="104">
-        <f t="shared" ref="C73:C104" si="12">(4.5*B73*B73-10.5*B73+26)*(1+$K$11)*$K$9</f>
-        <v>20726</v>
+        <f t="shared" ref="C73:C104" si="11">(4.5*B73*B73-10.5*B73+26)*(1+$K$11)*$K$9</f>
+        <v>23834.899999999998</v>
       </c>
       <c r="D73" s="104">
+        <f t="shared" si="6"/>
+        <v>20868.359999999997</v>
+      </c>
+      <c r="E73" s="104">
         <f t="shared" si="7"/>
-        <v>17390.3</v>
-      </c>
-      <c r="E73" s="104">
+        <v>14363.1</v>
+      </c>
+      <c r="F73" s="104">
         <f t="shared" si="8"/>
-        <v>15959</v>
-      </c>
-      <c r="F73" s="104">
+        <v>14363.1</v>
+      </c>
+      <c r="G73" s="104">
         <f t="shared" si="9"/>
-        <v>15959</v>
-      </c>
-      <c r="G73" s="104">
+        <v>10858.800000000001</v>
+      </c>
+      <c r="H73" s="105">
         <f t="shared" si="10"/>
-        <v>13573.5</v>
-      </c>
-      <c r="H73" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12037,27 +13468,27 @@
         <v>70</v>
       </c>
       <c r="C74" s="104">
-        <f t="shared" si="12"/>
-        <v>21341</v>
+        <f t="shared" si="11"/>
+        <v>24542.149999999998</v>
       </c>
       <c r="D74" s="104">
+        <f t="shared" si="6"/>
+        <v>21489.599999999999</v>
+      </c>
+      <c r="E74" s="104">
         <f t="shared" si="7"/>
-        <v>17908</v>
-      </c>
-      <c r="E74" s="104">
+        <v>14791.5</v>
+      </c>
+      <c r="F74" s="104">
         <f t="shared" si="8"/>
-        <v>16435</v>
-      </c>
-      <c r="F74" s="104">
+        <v>14791.5</v>
+      </c>
+      <c r="G74" s="104">
         <f t="shared" si="9"/>
-        <v>16435</v>
-      </c>
-      <c r="G74" s="104">
+        <v>11184</v>
+      </c>
+      <c r="H74" s="105">
         <f t="shared" si="10"/>
-        <v>13980</v>
-      </c>
-      <c r="H74" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12066,27 +13497,27 @@
         <v>71</v>
       </c>
       <c r="C75" s="104">
-        <f t="shared" si="12"/>
-        <v>21965</v>
+        <f t="shared" si="11"/>
+        <v>25259.749999999996</v>
       </c>
       <c r="D75" s="104">
+        <f t="shared" si="6"/>
+        <v>22119.96</v>
+      </c>
+      <c r="E75" s="104">
         <f t="shared" si="7"/>
-        <v>18433.3</v>
-      </c>
-      <c r="E75" s="104">
+        <v>15226.2</v>
+      </c>
+      <c r="F75" s="104">
         <f t="shared" si="8"/>
-        <v>16918</v>
-      </c>
-      <c r="F75" s="104">
+        <v>15226.2</v>
+      </c>
+      <c r="G75" s="104">
         <f t="shared" si="9"/>
-        <v>16918</v>
-      </c>
-      <c r="G75" s="104">
+        <v>11514</v>
+      </c>
+      <c r="H75" s="105">
         <f t="shared" si="10"/>
-        <v>14392.5</v>
-      </c>
-      <c r="H75" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12095,27 +13526,27 @@
         <v>72</v>
       </c>
       <c r="C76" s="104">
-        <f t="shared" si="12"/>
-        <v>22598</v>
+        <f t="shared" si="11"/>
+        <v>25987.699999999997</v>
       </c>
       <c r="D76" s="104">
+        <f t="shared" si="6"/>
+        <v>22759.439999999995</v>
+      </c>
+      <c r="E76" s="104">
         <f t="shared" si="7"/>
-        <v>18966.199999999997</v>
-      </c>
-      <c r="E76" s="104">
+        <v>15667.2</v>
+      </c>
+      <c r="F76" s="104">
         <f t="shared" si="8"/>
-        <v>17408</v>
-      </c>
-      <c r="F76" s="104">
+        <v>15667.2</v>
+      </c>
+      <c r="G76" s="104">
         <f t="shared" si="9"/>
-        <v>17408</v>
-      </c>
-      <c r="G76" s="104">
+        <v>11848.800000000001</v>
+      </c>
+      <c r="H76" s="105">
         <f t="shared" si="10"/>
-        <v>14811</v>
-      </c>
-      <c r="H76" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12124,27 +13555,27 @@
         <v>73</v>
       </c>
       <c r="C77" s="104">
-        <f t="shared" si="12"/>
-        <v>23240</v>
+        <f t="shared" si="11"/>
+        <v>26725.999999999996</v>
       </c>
       <c r="D77" s="104">
+        <f t="shared" si="6"/>
+        <v>23408.039999999997</v>
+      </c>
+      <c r="E77" s="104">
         <f t="shared" si="7"/>
-        <v>19506.699999999997</v>
-      </c>
-      <c r="E77" s="104">
+        <v>16114.5</v>
+      </c>
+      <c r="F77" s="104">
         <f t="shared" si="8"/>
-        <v>17905</v>
-      </c>
-      <c r="F77" s="104">
+        <v>16114.5</v>
+      </c>
+      <c r="G77" s="104">
         <f t="shared" si="9"/>
-        <v>17905</v>
-      </c>
-      <c r="G77" s="104">
+        <v>12188.400000000001</v>
+      </c>
+      <c r="H77" s="105">
         <f t="shared" si="10"/>
-        <v>15235.5</v>
-      </c>
-      <c r="H77" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12153,27 +13584,27 @@
         <v>74</v>
       </c>
       <c r="C78" s="104">
-        <f t="shared" si="12"/>
-        <v>23891</v>
+        <f t="shared" si="11"/>
+        <v>27474.649999999998</v>
       </c>
       <c r="D78" s="104">
+        <f t="shared" si="6"/>
+        <v>24065.759999999998</v>
+      </c>
+      <c r="E78" s="104">
         <f t="shared" si="7"/>
-        <v>20054.8</v>
-      </c>
-      <c r="E78" s="104">
+        <v>16568.100000000002</v>
+      </c>
+      <c r="F78" s="104">
         <f t="shared" si="8"/>
-        <v>18409</v>
-      </c>
-      <c r="F78" s="104">
+        <v>16568.100000000002</v>
+      </c>
+      <c r="G78" s="104">
         <f t="shared" si="9"/>
-        <v>18409</v>
-      </c>
-      <c r="G78" s="104">
+        <v>12532.800000000001</v>
+      </c>
+      <c r="H78" s="105">
         <f t="shared" si="10"/>
-        <v>15666</v>
-      </c>
-      <c r="H78" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12182,27 +13613,27 @@
         <v>75</v>
       </c>
       <c r="C79" s="104">
-        <f t="shared" si="12"/>
-        <v>24551</v>
+        <f t="shared" si="11"/>
+        <v>28233.649999999998</v>
       </c>
       <c r="D79" s="104">
+        <f t="shared" si="6"/>
+        <v>24732.6</v>
+      </c>
+      <c r="E79" s="104">
         <f t="shared" si="7"/>
-        <v>20610.5</v>
-      </c>
-      <c r="E79" s="104">
+        <v>17028</v>
+      </c>
+      <c r="F79" s="104">
         <f t="shared" si="8"/>
-        <v>18920</v>
-      </c>
-      <c r="F79" s="104">
+        <v>17028</v>
+      </c>
+      <c r="G79" s="104">
         <f t="shared" si="9"/>
-        <v>18920</v>
-      </c>
-      <c r="G79" s="104">
+        <v>12882</v>
+      </c>
+      <c r="H79" s="105">
         <f t="shared" si="10"/>
-        <v>16102.5</v>
-      </c>
-      <c r="H79" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12211,27 +13642,27 @@
         <v>76</v>
       </c>
       <c r="C80" s="104">
-        <f t="shared" si="12"/>
-        <v>25220</v>
+        <f t="shared" si="11"/>
+        <v>29002.999999999996</v>
       </c>
       <c r="D80" s="104">
+        <f t="shared" si="6"/>
+        <v>25408.559999999998</v>
+      </c>
+      <c r="E80" s="104">
         <f t="shared" si="7"/>
-        <v>21173.8</v>
-      </c>
-      <c r="E80" s="104">
+        <v>17494.2</v>
+      </c>
+      <c r="F80" s="104">
         <f t="shared" si="8"/>
-        <v>19438</v>
-      </c>
-      <c r="F80" s="104">
+        <v>17494.2</v>
+      </c>
+      <c r="G80" s="104">
         <f t="shared" si="9"/>
-        <v>19438</v>
-      </c>
-      <c r="G80" s="104">
+        <v>13236</v>
+      </c>
+      <c r="H80" s="105">
         <f t="shared" si="10"/>
-        <v>16545</v>
-      </c>
-      <c r="H80" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12240,27 +13671,27 @@
         <v>77</v>
       </c>
       <c r="C81" s="104">
-        <f t="shared" si="12"/>
-        <v>25898</v>
+        <f t="shared" si="11"/>
+        <v>29782.699999999997</v>
       </c>
       <c r="D81" s="104">
+        <f t="shared" si="6"/>
+        <v>26093.639999999996</v>
+      </c>
+      <c r="E81" s="104">
         <f t="shared" si="7"/>
-        <v>21744.699999999997</v>
-      </c>
-      <c r="E81" s="104">
+        <v>17966.7</v>
+      </c>
+      <c r="F81" s="104">
         <f t="shared" si="8"/>
-        <v>19963</v>
-      </c>
-      <c r="F81" s="104">
+        <v>17966.7</v>
+      </c>
+      <c r="G81" s="104">
         <f t="shared" si="9"/>
-        <v>19963</v>
-      </c>
-      <c r="G81" s="104">
+        <v>13594.800000000001</v>
+      </c>
+      <c r="H81" s="105">
         <f t="shared" si="10"/>
-        <v>16993.5</v>
-      </c>
-      <c r="H81" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12269,27 +13700,27 @@
         <v>78</v>
       </c>
       <c r="C82" s="104">
-        <f t="shared" si="12"/>
-        <v>26585</v>
+        <f t="shared" si="11"/>
+        <v>30572.749999999996</v>
       </c>
       <c r="D82" s="104">
+        <f t="shared" si="6"/>
+        <v>26787.839999999997</v>
+      </c>
+      <c r="E82" s="104">
         <f t="shared" si="7"/>
-        <v>22323.199999999997</v>
-      </c>
-      <c r="E82" s="104">
+        <v>18445.5</v>
+      </c>
+      <c r="F82" s="104">
         <f t="shared" si="8"/>
-        <v>20495</v>
-      </c>
-      <c r="F82" s="104">
+        <v>18445.5</v>
+      </c>
+      <c r="G82" s="104">
         <f t="shared" si="9"/>
-        <v>20495</v>
-      </c>
-      <c r="G82" s="104">
+        <v>13958.400000000001</v>
+      </c>
+      <c r="H82" s="105">
         <f t="shared" si="10"/>
-        <v>17448</v>
-      </c>
-      <c r="H82" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12298,27 +13729,27 @@
         <v>79</v>
       </c>
       <c r="C83" s="104">
-        <f t="shared" si="12"/>
-        <v>27281</v>
+        <f t="shared" si="11"/>
+        <v>31373.149999999998</v>
       </c>
       <c r="D83" s="104">
+        <f t="shared" si="6"/>
+        <v>27491.16</v>
+      </c>
+      <c r="E83" s="104">
         <f t="shared" si="7"/>
-        <v>22909.3</v>
-      </c>
-      <c r="E83" s="104">
+        <v>18930.600000000002</v>
+      </c>
+      <c r="F83" s="104">
         <f t="shared" si="8"/>
-        <v>21034</v>
-      </c>
-      <c r="F83" s="104">
+        <v>18930.600000000002</v>
+      </c>
+      <c r="G83" s="104">
         <f t="shared" si="9"/>
-        <v>21034</v>
-      </c>
-      <c r="G83" s="104">
+        <v>14326.800000000001</v>
+      </c>
+      <c r="H83" s="105">
         <f t="shared" si="10"/>
-        <v>17908.5</v>
-      </c>
-      <c r="H83" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12327,27 +13758,27 @@
         <v>80</v>
       </c>
       <c r="C84" s="104">
-        <f t="shared" si="12"/>
-        <v>27986</v>
+        <f t="shared" si="11"/>
+        <v>32183.899999999998</v>
       </c>
       <c r="D84" s="104">
+        <f t="shared" si="6"/>
+        <v>28203.599999999999</v>
+      </c>
+      <c r="E84" s="104">
         <f t="shared" si="7"/>
-        <v>23503</v>
-      </c>
-      <c r="E84" s="104">
+        <v>19422</v>
+      </c>
+      <c r="F84" s="104">
         <f t="shared" si="8"/>
-        <v>21580</v>
-      </c>
-      <c r="F84" s="104">
+        <v>19422</v>
+      </c>
+      <c r="G84" s="104">
         <f t="shared" si="9"/>
-        <v>21580</v>
-      </c>
-      <c r="G84" s="104">
+        <v>14700</v>
+      </c>
+      <c r="H84" s="105">
         <f t="shared" si="10"/>
-        <v>18375</v>
-      </c>
-      <c r="H84" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12356,27 +13787,27 @@
         <v>81</v>
       </c>
       <c r="C85" s="104">
-        <f t="shared" si="12"/>
-        <v>28700</v>
+        <f t="shared" si="11"/>
+        <v>33005</v>
       </c>
       <c r="D85" s="104">
+        <f t="shared" si="6"/>
+        <v>28925.16</v>
+      </c>
+      <c r="E85" s="104">
         <f t="shared" si="7"/>
-        <v>24104.3</v>
-      </c>
-      <c r="E85" s="104">
+        <v>19919.7</v>
+      </c>
+      <c r="F85" s="104">
         <f t="shared" si="8"/>
-        <v>22133</v>
-      </c>
-      <c r="F85" s="104">
+        <v>19919.7</v>
+      </c>
+      <c r="G85" s="104">
         <f t="shared" si="9"/>
-        <v>22133</v>
-      </c>
-      <c r="G85" s="104">
+        <v>15078</v>
+      </c>
+      <c r="H85" s="105">
         <f t="shared" si="10"/>
-        <v>18847.5</v>
-      </c>
-      <c r="H85" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12385,27 +13816,27 @@
         <v>82</v>
       </c>
       <c r="C86" s="104">
-        <f t="shared" si="12"/>
-        <v>29423</v>
+        <f t="shared" si="11"/>
+        <v>33836.449999999997</v>
       </c>
       <c r="D86" s="104">
+        <f t="shared" si="6"/>
+        <v>29655.839999999997</v>
+      </c>
+      <c r="E86" s="104">
         <f t="shared" si="7"/>
-        <v>24713.199999999997</v>
-      </c>
-      <c r="E86" s="104">
+        <v>20423.7</v>
+      </c>
+      <c r="F86" s="104">
         <f t="shared" si="8"/>
-        <v>22693</v>
-      </c>
-      <c r="F86" s="104">
+        <v>20423.7</v>
+      </c>
+      <c r="G86" s="104">
         <f t="shared" si="9"/>
-        <v>22693</v>
-      </c>
-      <c r="G86" s="104">
+        <v>15460.800000000001</v>
+      </c>
+      <c r="H86" s="105">
         <f t="shared" si="10"/>
-        <v>19326</v>
-      </c>
-      <c r="H86" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12414,27 +13845,27 @@
         <v>83</v>
       </c>
       <c r="C87" s="104">
-        <f t="shared" si="12"/>
-        <v>30155</v>
+        <f t="shared" si="11"/>
+        <v>34678.25</v>
       </c>
       <c r="D87" s="104">
+        <f t="shared" si="6"/>
+        <v>30395.639999999996</v>
+      </c>
+      <c r="E87" s="104">
         <f t="shared" si="7"/>
-        <v>25329.699999999997</v>
-      </c>
-      <c r="E87" s="104">
+        <v>20934</v>
+      </c>
+      <c r="F87" s="104">
         <f t="shared" si="8"/>
-        <v>23260</v>
-      </c>
-      <c r="F87" s="104">
+        <v>20934</v>
+      </c>
+      <c r="G87" s="104">
         <f t="shared" si="9"/>
-        <v>23260</v>
-      </c>
-      <c r="G87" s="104">
+        <v>15848.400000000001</v>
+      </c>
+      <c r="H87" s="105">
         <f t="shared" si="10"/>
-        <v>19810.5</v>
-      </c>
-      <c r="H87" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12443,27 +13874,27 @@
         <v>84</v>
       </c>
       <c r="C88" s="104">
-        <f t="shared" si="12"/>
-        <v>30896</v>
+        <f t="shared" si="11"/>
+        <v>35530.399999999994</v>
       </c>
       <c r="D88" s="104">
+        <f t="shared" si="6"/>
+        <v>31144.559999999998</v>
+      </c>
+      <c r="E88" s="104">
         <f t="shared" si="7"/>
-        <v>25953.8</v>
-      </c>
-      <c r="E88" s="104">
+        <v>21450.600000000002</v>
+      </c>
+      <c r="F88" s="104">
         <f t="shared" si="8"/>
-        <v>23834</v>
-      </c>
-      <c r="F88" s="104">
+        <v>21450.600000000002</v>
+      </c>
+      <c r="G88" s="104">
         <f t="shared" si="9"/>
-        <v>23834</v>
-      </c>
-      <c r="G88" s="104">
+        <v>16240.800000000001</v>
+      </c>
+      <c r="H88" s="105">
         <f t="shared" si="10"/>
-        <v>20301</v>
-      </c>
-      <c r="H88" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12472,27 +13903,27 @@
         <v>85</v>
       </c>
       <c r="C89" s="104">
-        <f t="shared" si="12"/>
-        <v>31646</v>
+        <f t="shared" si="11"/>
+        <v>36392.899999999994</v>
       </c>
       <c r="D89" s="104">
+        <f t="shared" si="6"/>
+        <v>31902.6</v>
+      </c>
+      <c r="E89" s="104">
         <f t="shared" si="7"/>
-        <v>26585.5</v>
-      </c>
-      <c r="E89" s="104">
+        <v>21973.5</v>
+      </c>
+      <c r="F89" s="104">
         <f t="shared" si="8"/>
-        <v>24415</v>
-      </c>
-      <c r="F89" s="104">
+        <v>21973.5</v>
+      </c>
+      <c r="G89" s="104">
         <f t="shared" si="9"/>
-        <v>24415</v>
-      </c>
-      <c r="G89" s="104">
+        <v>16638</v>
+      </c>
+      <c r="H89" s="105">
         <f t="shared" si="10"/>
-        <v>20797.5</v>
-      </c>
-      <c r="H89" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12501,27 +13932,27 @@
         <v>86</v>
       </c>
       <c r="C90" s="104">
-        <f t="shared" si="12"/>
-        <v>32405</v>
+        <f t="shared" si="11"/>
+        <v>37265.75</v>
       </c>
       <c r="D90" s="104">
+        <f t="shared" si="6"/>
+        <v>32669.759999999998</v>
+      </c>
+      <c r="E90" s="104">
         <f t="shared" si="7"/>
-        <v>27224.799999999999</v>
-      </c>
-      <c r="E90" s="104">
+        <v>22502.7</v>
+      </c>
+      <c r="F90" s="104">
         <f t="shared" si="8"/>
-        <v>25003</v>
-      </c>
-      <c r="F90" s="104">
+        <v>22502.7</v>
+      </c>
+      <c r="G90" s="104">
         <f t="shared" si="9"/>
-        <v>25003</v>
-      </c>
-      <c r="G90" s="104">
+        <v>17040</v>
+      </c>
+      <c r="H90" s="105">
         <f t="shared" si="10"/>
-        <v>21300</v>
-      </c>
-      <c r="H90" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12530,27 +13961,27 @@
         <v>87</v>
       </c>
       <c r="C91" s="104">
-        <f t="shared" si="12"/>
-        <v>33173</v>
+        <f t="shared" si="11"/>
+        <v>38148.949999999997</v>
       </c>
       <c r="D91" s="104">
+        <f t="shared" si="6"/>
+        <v>33446.039999999994</v>
+      </c>
+      <c r="E91" s="104">
         <f t="shared" si="7"/>
-        <v>27871.699999999997</v>
-      </c>
-      <c r="E91" s="104">
+        <v>23038.2</v>
+      </c>
+      <c r="F91" s="104">
         <f t="shared" si="8"/>
-        <v>25598</v>
-      </c>
-      <c r="F91" s="104">
+        <v>23038.2</v>
+      </c>
+      <c r="G91" s="104">
         <f t="shared" si="9"/>
-        <v>25598</v>
-      </c>
-      <c r="G91" s="104">
+        <v>17446.8</v>
+      </c>
+      <c r="H91" s="105">
         <f t="shared" si="10"/>
-        <v>21808.5</v>
-      </c>
-      <c r="H91" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12559,27 +13990,27 @@
         <v>88</v>
       </c>
       <c r="C92" s="104">
-        <f t="shared" si="12"/>
-        <v>33950</v>
+        <f t="shared" si="11"/>
+        <v>39042.5</v>
       </c>
       <c r="D92" s="104">
+        <f t="shared" si="6"/>
+        <v>34231.439999999995</v>
+      </c>
+      <c r="E92" s="104">
         <f t="shared" si="7"/>
-        <v>28526.199999999997</v>
-      </c>
-      <c r="E92" s="104">
+        <v>23580</v>
+      </c>
+      <c r="F92" s="104">
         <f t="shared" si="8"/>
-        <v>26200</v>
-      </c>
-      <c r="F92" s="104">
+        <v>23580</v>
+      </c>
+      <c r="G92" s="104">
         <f t="shared" si="9"/>
-        <v>26200</v>
-      </c>
-      <c r="G92" s="104">
+        <v>17858.400000000001</v>
+      </c>
+      <c r="H92" s="105">
         <f t="shared" si="10"/>
-        <v>22323</v>
-      </c>
-      <c r="H92" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12588,27 +14019,27 @@
         <v>89</v>
       </c>
       <c r="C93" s="104">
-        <f t="shared" si="12"/>
-        <v>34736</v>
+        <f t="shared" si="11"/>
+        <v>39946.399999999994</v>
       </c>
       <c r="D93" s="104">
+        <f t="shared" si="6"/>
+        <v>35025.96</v>
+      </c>
+      <c r="E93" s="104">
         <f t="shared" si="7"/>
-        <v>29188.3</v>
-      </c>
-      <c r="E93" s="104">
+        <v>24128.100000000002</v>
+      </c>
+      <c r="F93" s="104">
         <f t="shared" si="8"/>
-        <v>26809</v>
-      </c>
-      <c r="F93" s="104">
+        <v>24128.100000000002</v>
+      </c>
+      <c r="G93" s="104">
         <f t="shared" si="9"/>
-        <v>26809</v>
-      </c>
-      <c r="G93" s="104">
+        <v>18274.8</v>
+      </c>
+      <c r="H93" s="105">
         <f t="shared" si="10"/>
-        <v>22843.5</v>
-      </c>
-      <c r="H93" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12617,27 +14048,27 @@
         <v>90</v>
       </c>
       <c r="C94" s="104">
-        <f t="shared" si="12"/>
-        <v>35531</v>
+        <f t="shared" si="11"/>
+        <v>40860.649999999994</v>
       </c>
       <c r="D94" s="104">
+        <f t="shared" si="6"/>
+        <v>35829.599999999999</v>
+      </c>
+      <c r="E94" s="104">
         <f t="shared" si="7"/>
-        <v>29858</v>
-      </c>
-      <c r="E94" s="104">
+        <v>24682.5</v>
+      </c>
+      <c r="F94" s="104">
         <f t="shared" si="8"/>
-        <v>27425</v>
-      </c>
-      <c r="F94" s="104">
+        <v>24682.5</v>
+      </c>
+      <c r="G94" s="104">
         <f t="shared" si="9"/>
-        <v>27425</v>
-      </c>
-      <c r="G94" s="104">
+        <v>18696</v>
+      </c>
+      <c r="H94" s="105">
         <f t="shared" si="10"/>
-        <v>23370</v>
-      </c>
-      <c r="H94" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12646,27 +14077,27 @@
         <v>91</v>
       </c>
       <c r="C95" s="104">
-        <f t="shared" si="12"/>
-        <v>36335</v>
+        <f t="shared" si="11"/>
+        <v>41785.25</v>
       </c>
       <c r="D95" s="104">
+        <f t="shared" si="6"/>
+        <v>36642.36</v>
+      </c>
+      <c r="E95" s="104">
         <f t="shared" si="7"/>
-        <v>30535.3</v>
-      </c>
-      <c r="E95" s="104">
+        <v>25243.200000000001</v>
+      </c>
+      <c r="F95" s="104">
         <f t="shared" si="8"/>
-        <v>28048</v>
-      </c>
-      <c r="F95" s="104">
+        <v>25243.200000000001</v>
+      </c>
+      <c r="G95" s="104">
         <f t="shared" si="9"/>
-        <v>28048</v>
-      </c>
-      <c r="G95" s="104">
+        <v>19122</v>
+      </c>
+      <c r="H95" s="105">
         <f t="shared" si="10"/>
-        <v>23902.5</v>
-      </c>
-      <c r="H95" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12675,27 +14106,27 @@
         <v>92</v>
       </c>
       <c r="C96" s="104">
-        <f t="shared" si="12"/>
-        <v>37148</v>
+        <f t="shared" si="11"/>
+        <v>42720.2</v>
       </c>
       <c r="D96" s="104">
+        <f t="shared" si="6"/>
+        <v>37464.239999999998</v>
+      </c>
+      <c r="E96" s="104">
         <f t="shared" si="7"/>
-        <v>31220.199999999997</v>
-      </c>
-      <c r="E96" s="104">
+        <v>25810.2</v>
+      </c>
+      <c r="F96" s="104">
         <f t="shared" si="8"/>
-        <v>28678</v>
-      </c>
-      <c r="F96" s="104">
+        <v>25810.2</v>
+      </c>
+      <c r="G96" s="104">
         <f t="shared" si="9"/>
-        <v>28678</v>
-      </c>
-      <c r="G96" s="104">
+        <v>19552.8</v>
+      </c>
+      <c r="H96" s="105">
         <f t="shared" si="10"/>
-        <v>24441</v>
-      </c>
-      <c r="H96" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12704,27 +14135,27 @@
         <v>93</v>
       </c>
       <c r="C97" s="104">
-        <f t="shared" si="12"/>
-        <v>37970</v>
+        <f t="shared" si="11"/>
+        <v>43665.5</v>
       </c>
       <c r="D97" s="104">
+        <f t="shared" si="6"/>
+        <v>38295.24</v>
+      </c>
+      <c r="E97" s="104">
         <f t="shared" si="7"/>
-        <v>31912.699999999997</v>
-      </c>
-      <c r="E97" s="104">
+        <v>26383.5</v>
+      </c>
+      <c r="F97" s="104">
         <f t="shared" si="8"/>
-        <v>29315</v>
-      </c>
-      <c r="F97" s="104">
+        <v>26383.5</v>
+      </c>
+      <c r="G97" s="104">
         <f t="shared" si="9"/>
-        <v>29315</v>
-      </c>
-      <c r="G97" s="104">
+        <v>19988.400000000001</v>
+      </c>
+      <c r="H97" s="105">
         <f t="shared" si="10"/>
-        <v>24985.5</v>
-      </c>
-      <c r="H97" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12733,27 +14164,27 @@
         <v>94</v>
       </c>
       <c r="C98" s="104">
-        <f t="shared" si="12"/>
-        <v>38801</v>
+        <f t="shared" si="11"/>
+        <v>44621.149999999994</v>
       </c>
       <c r="D98" s="104">
+        <f t="shared" si="6"/>
+        <v>39135.359999999993</v>
+      </c>
+      <c r="E98" s="104">
         <f t="shared" si="7"/>
-        <v>32612.799999999996</v>
-      </c>
-      <c r="E98" s="104">
+        <v>26963.100000000002</v>
+      </c>
+      <c r="F98" s="104">
         <f t="shared" si="8"/>
-        <v>29959</v>
-      </c>
-      <c r="F98" s="104">
+        <v>26963.100000000002</v>
+      </c>
+      <c r="G98" s="104">
         <f t="shared" si="9"/>
-        <v>29959</v>
-      </c>
-      <c r="G98" s="104">
+        <v>20428.800000000003</v>
+      </c>
+      <c r="H98" s="105">
         <f t="shared" si="10"/>
-        <v>25536</v>
-      </c>
-      <c r="H98" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12762,27 +14193,27 @@
         <v>95</v>
       </c>
       <c r="C99" s="104">
-        <f t="shared" si="12"/>
-        <v>39641</v>
+        <f t="shared" si="11"/>
+        <v>45587.149999999994</v>
       </c>
       <c r="D99" s="104">
+        <f t="shared" si="6"/>
+        <v>39984.6</v>
+      </c>
+      <c r="E99" s="104">
         <f t="shared" si="7"/>
-        <v>33320.5</v>
-      </c>
-      <c r="E99" s="104">
+        <v>27549</v>
+      </c>
+      <c r="F99" s="104">
         <f t="shared" si="8"/>
-        <v>30610</v>
-      </c>
-      <c r="F99" s="104">
+        <v>27549</v>
+      </c>
+      <c r="G99" s="104">
         <f t="shared" si="9"/>
-        <v>30610</v>
-      </c>
-      <c r="G99" s="104">
+        <v>20874</v>
+      </c>
+      <c r="H99" s="105">
         <f t="shared" si="10"/>
-        <v>26092.5</v>
-      </c>
-      <c r="H99" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12791,27 +14222,27 @@
         <v>96</v>
       </c>
       <c r="C100" s="104">
-        <f t="shared" si="12"/>
-        <v>40490</v>
+        <f t="shared" si="11"/>
+        <v>46563.5</v>
       </c>
       <c r="D100" s="104">
+        <f t="shared" si="6"/>
+        <v>40842.959999999992</v>
+      </c>
+      <c r="E100" s="104">
         <f t="shared" si="7"/>
-        <v>34035.799999999996</v>
-      </c>
-      <c r="E100" s="104">
+        <v>28141.200000000001</v>
+      </c>
+      <c r="F100" s="104">
         <f t="shared" si="8"/>
-        <v>31268</v>
-      </c>
-      <c r="F100" s="104">
+        <v>28141.200000000001</v>
+      </c>
+      <c r="G100" s="104">
         <f t="shared" si="9"/>
-        <v>31268</v>
-      </c>
-      <c r="G100" s="104">
+        <v>21324</v>
+      </c>
+      <c r="H100" s="105">
         <f t="shared" si="10"/>
-        <v>26655</v>
-      </c>
-      <c r="H100" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12820,27 +14251,27 @@
         <v>97</v>
       </c>
       <c r="C101" s="104">
-        <f t="shared" si="12"/>
-        <v>41348</v>
+        <f t="shared" si="11"/>
+        <v>47550.2</v>
       </c>
       <c r="D101" s="104">
+        <f t="shared" si="6"/>
+        <v>41710.439999999995</v>
+      </c>
+      <c r="E101" s="104">
         <f t="shared" si="7"/>
-        <v>34758.699999999997</v>
-      </c>
-      <c r="E101" s="104">
+        <v>28739.7</v>
+      </c>
+      <c r="F101" s="104">
         <f t="shared" si="8"/>
-        <v>31933</v>
-      </c>
-      <c r="F101" s="104">
+        <v>28739.7</v>
+      </c>
+      <c r="G101" s="104">
         <f t="shared" si="9"/>
-        <v>31933</v>
-      </c>
-      <c r="G101" s="104">
+        <v>21778.800000000003</v>
+      </c>
+      <c r="H101" s="105">
         <f t="shared" si="10"/>
-        <v>27223.5</v>
-      </c>
-      <c r="H101" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12849,27 +14280,27 @@
         <v>98</v>
       </c>
       <c r="C102" s="104">
-        <f t="shared" si="12"/>
-        <v>42215</v>
+        <f t="shared" si="11"/>
+        <v>48547.249999999993</v>
       </c>
       <c r="D102" s="104">
+        <f t="shared" si="6"/>
+        <v>42587.039999999994</v>
+      </c>
+      <c r="E102" s="104">
         <f t="shared" si="7"/>
-        <v>35489.199999999997</v>
-      </c>
-      <c r="E102" s="104">
+        <v>29344.5</v>
+      </c>
+      <c r="F102" s="104">
         <f t="shared" si="8"/>
-        <v>32605</v>
-      </c>
-      <c r="F102" s="104">
+        <v>29344.5</v>
+      </c>
+      <c r="G102" s="104">
         <f t="shared" si="9"/>
-        <v>32605</v>
-      </c>
-      <c r="G102" s="104">
+        <v>22238.400000000001</v>
+      </c>
+      <c r="H102" s="105">
         <f t="shared" si="10"/>
-        <v>27798</v>
-      </c>
-      <c r="H102" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12878,27 +14309,27 @@
         <v>99</v>
       </c>
       <c r="C103" s="104">
-        <f t="shared" si="12"/>
-        <v>43091</v>
+        <f t="shared" si="11"/>
+        <v>49554.649999999994</v>
       </c>
       <c r="D103" s="104">
+        <f t="shared" si="6"/>
+        <v>43472.759999999995</v>
+      </c>
+      <c r="E103" s="104">
         <f t="shared" si="7"/>
-        <v>36227.299999999996</v>
-      </c>
-      <c r="E103" s="104">
+        <v>29955.600000000002</v>
+      </c>
+      <c r="F103" s="104">
         <f t="shared" si="8"/>
-        <v>33284</v>
-      </c>
-      <c r="F103" s="104">
+        <v>29955.600000000002</v>
+      </c>
+      <c r="G103" s="104">
         <f t="shared" si="9"/>
-        <v>33284</v>
-      </c>
-      <c r="G103" s="104">
+        <v>22702.800000000003</v>
+      </c>
+      <c r="H103" s="105">
         <f t="shared" si="10"/>
-        <v>28378.5</v>
-      </c>
-      <c r="H103" s="105">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12907,27 +14338,27 @@
         <v>100</v>
       </c>
       <c r="C104" s="106">
-        <f t="shared" si="12"/>
-        <v>43976</v>
-      </c>
-      <c r="D104" s="106">
+        <f t="shared" si="11"/>
+        <v>50572.399999999994</v>
+      </c>
+      <c r="D104" s="359">
+        <f t="shared" si="6"/>
+        <v>44367.6</v>
+      </c>
+      <c r="E104" s="106">
         <f t="shared" si="7"/>
-        <v>36973</v>
-      </c>
-      <c r="E104" s="106">
+        <v>30573</v>
+      </c>
+      <c r="F104" s="106">
         <f t="shared" si="8"/>
-        <v>33970</v>
-      </c>
-      <c r="F104" s="106">
+        <v>30573</v>
+      </c>
+      <c r="G104" s="106">
         <f t="shared" si="9"/>
-        <v>33970</v>
-      </c>
-      <c r="G104" s="106">
+        <v>23172</v>
+      </c>
+      <c r="H104" s="107">
         <f t="shared" si="10"/>
-        <v>28965</v>
-      </c>
-      <c r="H104" s="107">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13778,7 +15209,7 @@
         <f t="shared" si="2"/>
         <v>7404250</v>
       </c>
-      <c r="D54" s="322">
+      <c r="D54" s="257">
         <f t="shared" si="1"/>
         <v>7399250</v>
       </c>
@@ -13813,7 +15244,7 @@
       <c r="B2" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="323" t="s">
+      <c r="C2" s="258" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13821,7 +15252,7 @@
       <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="324">
+      <c r="C3" s="259">
         <f>1000*(4*B3^2-3*B3+9)</f>
         <v>10000</v>
       </c>
@@ -13830,7 +15261,7 @@
       <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="324">
+      <c r="C4" s="259">
         <f t="shared" ref="C4:C52" si="0">1000*(4*B4^2-3*B4+9)</f>
         <v>19000</v>
       </c>
@@ -13839,17 +15270,17 @@
       <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="324">
+      <c r="C5" s="259">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="F5" s="321"/>
+      <c r="F5" s="256"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>4</v>
       </c>
-      <c r="C6" s="324">
+      <c r="C6" s="259">
         <f t="shared" si="0"/>
         <v>61000</v>
       </c>
@@ -13858,7 +15289,7 @@
       <c r="B7" s="34">
         <v>5</v>
       </c>
-      <c r="C7" s="324">
+      <c r="C7" s="259">
         <f t="shared" si="0"/>
         <v>94000</v>
       </c>
@@ -13867,7 +15298,7 @@
       <c r="B8" s="34">
         <v>6</v>
       </c>
-      <c r="C8" s="324">
+      <c r="C8" s="259">
         <f t="shared" si="0"/>
         <v>135000</v>
       </c>
@@ -13876,7 +15307,7 @@
       <c r="B9" s="34">
         <v>7</v>
       </c>
-      <c r="C9" s="324">
+      <c r="C9" s="259">
         <f t="shared" si="0"/>
         <v>184000</v>
       </c>
@@ -13885,7 +15316,7 @@
       <c r="B10" s="34">
         <v>8</v>
       </c>
-      <c r="C10" s="324">
+      <c r="C10" s="259">
         <f t="shared" si="0"/>
         <v>241000</v>
       </c>
@@ -13894,7 +15325,7 @@
       <c r="B11" s="34">
         <v>9</v>
       </c>
-      <c r="C11" s="324">
+      <c r="C11" s="259">
         <f t="shared" si="0"/>
         <v>306000</v>
       </c>
@@ -13903,7 +15334,7 @@
       <c r="B12" s="34">
         <v>10</v>
       </c>
-      <c r="C12" s="324">
+      <c r="C12" s="259">
         <f t="shared" si="0"/>
         <v>379000</v>
       </c>
@@ -13912,7 +15343,7 @@
       <c r="B13" s="34">
         <v>11</v>
       </c>
-      <c r="C13" s="324">
+      <c r="C13" s="259">
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
@@ -13921,7 +15352,7 @@
       <c r="B14" s="34">
         <v>12</v>
       </c>
-      <c r="C14" s="324">
+      <c r="C14" s="259">
         <f t="shared" si="0"/>
         <v>549000</v>
       </c>
@@ -13930,7 +15361,7 @@
       <c r="B15" s="34">
         <v>13</v>
       </c>
-      <c r="C15" s="324">
+      <c r="C15" s="259">
         <f t="shared" si="0"/>
         <v>646000</v>
       </c>
@@ -13939,7 +15370,7 @@
       <c r="B16" s="34">
         <v>14</v>
       </c>
-      <c r="C16" s="324">
+      <c r="C16" s="259">
         <f t="shared" si="0"/>
         <v>751000</v>
       </c>
@@ -13948,7 +15379,7 @@
       <c r="B17" s="34">
         <v>15</v>
       </c>
-      <c r="C17" s="324">
+      <c r="C17" s="259">
         <f t="shared" si="0"/>
         <v>864000</v>
       </c>
@@ -13957,7 +15388,7 @@
       <c r="B18" s="34">
         <v>16</v>
       </c>
-      <c r="C18" s="324">
+      <c r="C18" s="259">
         <f t="shared" si="0"/>
         <v>985000</v>
       </c>
@@ -13966,7 +15397,7 @@
       <c r="B19" s="34">
         <v>17</v>
       </c>
-      <c r="C19" s="324">
+      <c r="C19" s="259">
         <f t="shared" si="0"/>
         <v>1114000</v>
       </c>
@@ -13975,7 +15406,7 @@
       <c r="B20" s="34">
         <v>18</v>
       </c>
-      <c r="C20" s="324">
+      <c r="C20" s="259">
         <f t="shared" si="0"/>
         <v>1251000</v>
       </c>
@@ -13984,7 +15415,7 @@
       <c r="B21" s="34">
         <v>19</v>
       </c>
-      <c r="C21" s="324">
+      <c r="C21" s="259">
         <f t="shared" si="0"/>
         <v>1396000</v>
       </c>
@@ -13993,7 +15424,7 @@
       <c r="B22" s="34">
         <v>20</v>
       </c>
-      <c r="C22" s="324">
+      <c r="C22" s="259">
         <f t="shared" si="0"/>
         <v>1549000</v>
       </c>
@@ -14002,7 +15433,7 @@
       <c r="B23" s="34">
         <v>21</v>
       </c>
-      <c r="C23" s="324">
+      <c r="C23" s="259">
         <f t="shared" si="0"/>
         <v>1710000</v>
       </c>
@@ -14011,7 +15442,7 @@
       <c r="B24" s="34">
         <v>22</v>
       </c>
-      <c r="C24" s="324">
+      <c r="C24" s="259">
         <f t="shared" si="0"/>
         <v>1879000</v>
       </c>
@@ -14020,7 +15451,7 @@
       <c r="B25" s="34">
         <v>23</v>
       </c>
-      <c r="C25" s="324">
+      <c r="C25" s="259">
         <f t="shared" si="0"/>
         <v>2056000</v>
       </c>
@@ -14029,7 +15460,7 @@
       <c r="B26" s="34">
         <v>24</v>
       </c>
-      <c r="C26" s="324">
+      <c r="C26" s="259">
         <f t="shared" si="0"/>
         <v>2241000</v>
       </c>
@@ -14038,7 +15469,7 @@
       <c r="B27" s="34">
         <v>25</v>
       </c>
-      <c r="C27" s="324">
+      <c r="C27" s="259">
         <f t="shared" si="0"/>
         <v>2434000</v>
       </c>
@@ -14047,7 +15478,7 @@
       <c r="B28" s="34">
         <v>26</v>
       </c>
-      <c r="C28" s="324">
+      <c r="C28" s="259">
         <f t="shared" si="0"/>
         <v>2635000</v>
       </c>
@@ -14056,7 +15487,7 @@
       <c r="B29" s="34">
         <v>27</v>
       </c>
-      <c r="C29" s="324">
+      <c r="C29" s="259">
         <f t="shared" si="0"/>
         <v>2844000</v>
       </c>
@@ -14065,7 +15496,7 @@
       <c r="B30" s="34">
         <v>28</v>
       </c>
-      <c r="C30" s="324">
+      <c r="C30" s="259">
         <f t="shared" si="0"/>
         <v>3061000</v>
       </c>
@@ -14074,7 +15505,7 @@
       <c r="B31" s="34">
         <v>29</v>
       </c>
-      <c r="C31" s="324">
+      <c r="C31" s="259">
         <f t="shared" si="0"/>
         <v>3286000</v>
       </c>
@@ -14083,7 +15514,7 @@
       <c r="B32" s="34">
         <v>30</v>
       </c>
-      <c r="C32" s="324">
+      <c r="C32" s="259">
         <f t="shared" si="0"/>
         <v>3519000</v>
       </c>
@@ -14092,7 +15523,7 @@
       <c r="B33" s="34">
         <v>31</v>
       </c>
-      <c r="C33" s="324">
+      <c r="C33" s="259">
         <f t="shared" si="0"/>
         <v>3760000</v>
       </c>
@@ -14101,7 +15532,7 @@
       <c r="B34" s="34">
         <v>32</v>
       </c>
-      <c r="C34" s="324">
+      <c r="C34" s="259">
         <f t="shared" si="0"/>
         <v>4009000</v>
       </c>
@@ -14110,7 +15541,7 @@
       <c r="B35" s="34">
         <v>33</v>
       </c>
-      <c r="C35" s="324">
+      <c r="C35" s="259">
         <f t="shared" si="0"/>
         <v>4266000</v>
       </c>
@@ -14119,7 +15550,7 @@
       <c r="B36" s="34">
         <v>34</v>
       </c>
-      <c r="C36" s="324">
+      <c r="C36" s="259">
         <f t="shared" si="0"/>
         <v>4531000</v>
       </c>
@@ -14128,7 +15559,7 @@
       <c r="B37" s="34">
         <v>35</v>
       </c>
-      <c r="C37" s="324">
+      <c r="C37" s="259">
         <f t="shared" si="0"/>
         <v>4804000</v>
       </c>
@@ -14137,7 +15568,7 @@
       <c r="B38" s="34">
         <v>36</v>
       </c>
-      <c r="C38" s="324">
+      <c r="C38" s="259">
         <f t="shared" si="0"/>
         <v>5085000</v>
       </c>
@@ -14146,7 +15577,7 @@
       <c r="B39" s="34">
         <v>37</v>
       </c>
-      <c r="C39" s="324">
+      <c r="C39" s="259">
         <f t="shared" si="0"/>
         <v>5374000</v>
       </c>
@@ -14155,7 +15586,7 @@
       <c r="B40" s="34">
         <v>38</v>
       </c>
-      <c r="C40" s="324">
+      <c r="C40" s="259">
         <f t="shared" si="0"/>
         <v>5671000</v>
       </c>
@@ -14164,7 +15595,7 @@
       <c r="B41" s="34">
         <v>39</v>
       </c>
-      <c r="C41" s="324">
+      <c r="C41" s="259">
         <f t="shared" si="0"/>
         <v>5976000</v>
       </c>
@@ -14173,7 +15604,7 @@
       <c r="B42" s="34">
         <v>40</v>
       </c>
-      <c r="C42" s="324">
+      <c r="C42" s="259">
         <f t="shared" si="0"/>
         <v>6289000</v>
       </c>
@@ -14182,7 +15613,7 @@
       <c r="B43" s="34">
         <v>41</v>
       </c>
-      <c r="C43" s="324">
+      <c r="C43" s="259">
         <f t="shared" si="0"/>
         <v>6610000</v>
       </c>
@@ -14191,7 +15622,7 @@
       <c r="B44" s="34">
         <v>42</v>
       </c>
-      <c r="C44" s="324">
+      <c r="C44" s="259">
         <f t="shared" si="0"/>
         <v>6939000</v>
       </c>
@@ -14200,7 +15631,7 @@
       <c r="B45" s="34">
         <v>43</v>
       </c>
-      <c r="C45" s="324">
+      <c r="C45" s="259">
         <f t="shared" si="0"/>
         <v>7276000</v>
       </c>
@@ -14209,7 +15640,7 @@
       <c r="B46" s="34">
         <v>44</v>
       </c>
-      <c r="C46" s="324">
+      <c r="C46" s="259">
         <f t="shared" si="0"/>
         <v>7621000</v>
       </c>
@@ -14218,7 +15649,7 @@
       <c r="B47" s="34">
         <v>45</v>
       </c>
-      <c r="C47" s="324">
+      <c r="C47" s="259">
         <f t="shared" si="0"/>
         <v>7974000</v>
       </c>
@@ -14227,7 +15658,7 @@
       <c r="B48" s="34">
         <v>46</v>
       </c>
-      <c r="C48" s="324">
+      <c r="C48" s="259">
         <f t="shared" si="0"/>
         <v>8335000</v>
       </c>
@@ -14236,7 +15667,7 @@
       <c r="B49" s="34">
         <v>47</v>
       </c>
-      <c r="C49" s="324">
+      <c r="C49" s="259">
         <f t="shared" si="0"/>
         <v>8704000</v>
       </c>
@@ -14245,7 +15676,7 @@
       <c r="B50" s="34">
         <v>48</v>
       </c>
-      <c r="C50" s="324">
+      <c r="C50" s="259">
         <f t="shared" si="0"/>
         <v>9081000</v>
       </c>
@@ -14254,7 +15685,7 @@
       <c r="B51" s="34">
         <v>49</v>
       </c>
-      <c r="C51" s="324">
+      <c r="C51" s="259">
         <f t="shared" si="0"/>
         <v>9466000</v>
       </c>
@@ -14263,7 +15694,7 @@
       <c r="B52" s="38">
         <v>50</v>
       </c>
-      <c r="C52" s="322">
+      <c r="C52" s="257">
         <f t="shared" si="0"/>
         <v>9859000</v>
       </c>
@@ -14285,28 +15716,28 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="306" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="274"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="270"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="270" t="s">
+      <c r="C3" s="308"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="271"/>
+      <c r="P3" s="305"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="273"/>
+      <c r="B4" s="307"/>
       <c r="C4" s="206" t="s">
         <v>117</v>
       </c>
@@ -16105,37 +17536,37 @@
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="297"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="291" t="s">
+      <c r="B3" s="331"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="325" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="281"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="326"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="326"/>
+      <c r="T3" s="326"/>
+      <c r="U3" s="326"/>
+      <c r="V3" s="326"/>
+      <c r="W3" s="326"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="288"/>
-      <c r="C4" s="282"/>
+      <c r="B4" s="322"/>
+      <c r="C4" s="316"/>
       <c r="D4" s="150">
         <v>0</v>
       </c>
@@ -16199,11 +17630,11 @@
       <c r="X4" s="154">
         <v>20</v>
       </c>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="283"/>
+      <c r="Y4" s="316"/>
+      <c r="Z4" s="317"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="294" t="s">
+      <c r="B5" s="328" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="162">
@@ -16296,12 +17727,12 @@
       <c r="Y5" s="163">
         <v>0</v>
       </c>
-      <c r="Z5" s="294" t="s">
+      <c r="Z5" s="328" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="295"/>
+      <c r="B6" s="329"/>
       <c r="C6" s="164">
         <v>1</v>
       </c>
@@ -16392,10 +17823,10 @@
       <c r="Y6" s="165">
         <v>1</v>
       </c>
-      <c r="Z6" s="295"/>
+      <c r="Z6" s="329"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="295"/>
+      <c r="B7" s="329"/>
       <c r="C7" s="164">
         <v>2</v>
       </c>
@@ -16486,10 +17917,10 @@
       <c r="Y7" s="165">
         <v>2</v>
       </c>
-      <c r="Z7" s="295"/>
+      <c r="Z7" s="329"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="295"/>
+      <c r="B8" s="329"/>
       <c r="C8" s="164">
         <v>3</v>
       </c>
@@ -16580,10 +18011,10 @@
       <c r="Y8" s="165">
         <v>3</v>
       </c>
-      <c r="Z8" s="295"/>
+      <c r="Z8" s="329"/>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="295"/>
+      <c r="B9" s="329"/>
       <c r="C9" s="164">
         <v>4</v>
       </c>
@@ -16674,10 +18105,10 @@
       <c r="Y9" s="165">
         <v>4</v>
       </c>
-      <c r="Z9" s="295"/>
+      <c r="Z9" s="329"/>
     </row>
     <row r="10" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="295"/>
+      <c r="B10" s="329"/>
       <c r="C10" s="164">
         <v>5</v>
       </c>
@@ -16768,10 +18199,10 @@
       <c r="Y10" s="165">
         <v>5</v>
       </c>
-      <c r="Z10" s="295"/>
+      <c r="Z10" s="329"/>
     </row>
     <row r="11" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="295"/>
+      <c r="B11" s="329"/>
       <c r="C11" s="166">
         <v>6</v>
       </c>
@@ -16862,10 +18293,10 @@
       <c r="Y11" s="167">
         <v>6</v>
       </c>
-      <c r="Z11" s="295"/>
+      <c r="Z11" s="329"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="295"/>
+      <c r="B12" s="329"/>
       <c r="C12" s="168">
         <v>7</v>
       </c>
@@ -16956,10 +18387,10 @@
       <c r="Y12" s="169">
         <v>7</v>
       </c>
-      <c r="Z12" s="295"/>
+      <c r="Z12" s="329"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="295"/>
+      <c r="B13" s="329"/>
       <c r="C13" s="164">
         <v>8</v>
       </c>
@@ -17050,10 +18481,10 @@
       <c r="Y13" s="165">
         <v>8</v>
       </c>
-      <c r="Z13" s="295"/>
+      <c r="Z13" s="329"/>
     </row>
     <row r="14" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="295"/>
+      <c r="B14" s="329"/>
       <c r="C14" s="164">
         <v>9</v>
       </c>
@@ -17144,10 +18575,10 @@
       <c r="Y14" s="165">
         <v>9</v>
       </c>
-      <c r="Z14" s="295"/>
+      <c r="Z14" s="329"/>
     </row>
     <row r="15" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="295"/>
+      <c r="B15" s="329"/>
       <c r="C15" s="164">
         <v>10</v>
       </c>
@@ -17238,10 +18669,10 @@
       <c r="Y15" s="165">
         <v>10</v>
       </c>
-      <c r="Z15" s="295"/>
+      <c r="Z15" s="329"/>
     </row>
     <row r="16" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="295"/>
+      <c r="B16" s="329"/>
       <c r="C16" s="164">
         <v>11</v>
       </c>
@@ -17332,10 +18763,10 @@
       <c r="Y16" s="165">
         <v>11</v>
       </c>
-      <c r="Z16" s="295"/>
+      <c r="Z16" s="329"/>
     </row>
     <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="295"/>
+      <c r="B17" s="329"/>
       <c r="C17" s="164">
         <v>12</v>
       </c>
@@ -17426,10 +18857,10 @@
       <c r="Y17" s="165">
         <v>12</v>
       </c>
-      <c r="Z17" s="295"/>
+      <c r="Z17" s="329"/>
     </row>
     <row r="18" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="295"/>
+      <c r="B18" s="329"/>
       <c r="C18" s="170">
         <v>13</v>
       </c>
@@ -17520,10 +18951,10 @@
       <c r="Y18" s="171">
         <v>13</v>
       </c>
-      <c r="Z18" s="295"/>
+      <c r="Z18" s="329"/>
     </row>
     <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="295"/>
+      <c r="B19" s="329"/>
       <c r="C19" s="172">
         <v>14</v>
       </c>
@@ -17614,10 +19045,10 @@
       <c r="Y19" s="173">
         <v>14</v>
       </c>
-      <c r="Z19" s="295"/>
+      <c r="Z19" s="329"/>
     </row>
     <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="295"/>
+      <c r="B20" s="329"/>
       <c r="C20" s="164">
         <v>15</v>
       </c>
@@ -17708,10 +19139,10 @@
       <c r="Y20" s="165">
         <v>15</v>
       </c>
-      <c r="Z20" s="295"/>
+      <c r="Z20" s="329"/>
     </row>
     <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="295"/>
+      <c r="B21" s="329"/>
       <c r="C21" s="164">
         <v>16</v>
       </c>
@@ -17802,10 +19233,10 @@
       <c r="Y21" s="165">
         <v>16</v>
       </c>
-      <c r="Z21" s="295"/>
+      <c r="Z21" s="329"/>
     </row>
     <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="295"/>
+      <c r="B22" s="329"/>
       <c r="C22" s="164">
         <v>17</v>
       </c>
@@ -17896,10 +19327,10 @@
       <c r="Y22" s="165">
         <v>17</v>
       </c>
-      <c r="Z22" s="295"/>
+      <c r="Z22" s="329"/>
     </row>
     <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="295"/>
+      <c r="B23" s="329"/>
       <c r="C23" s="164">
         <v>18</v>
       </c>
@@ -17990,10 +19421,10 @@
       <c r="Y23" s="165">
         <v>18</v>
       </c>
-      <c r="Z23" s="295"/>
+      <c r="Z23" s="329"/>
     </row>
     <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="295"/>
+      <c r="B24" s="329"/>
       <c r="C24" s="164">
         <v>19</v>
       </c>
@@ -18084,10 +19515,10 @@
       <c r="Y24" s="165">
         <v>19</v>
       </c>
-      <c r="Z24" s="295"/>
+      <c r="Z24" s="329"/>
     </row>
     <row r="25" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="296"/>
+      <c r="B25" s="330"/>
       <c r="C25" s="170">
         <v>20</v>
       </c>
@@ -18178,11 +19609,11 @@
       <c r="Y25" s="171">
         <v>20</v>
       </c>
-      <c r="Z25" s="296"/>
+      <c r="Z25" s="330"/>
     </row>
     <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="288"/>
-      <c r="C26" s="282"/>
+      <c r="B26" s="322"/>
+      <c r="C26" s="316"/>
       <c r="D26" s="156">
         <v>0</v>
       </c>
@@ -18246,37 +19677,37 @@
       <c r="X26" s="160">
         <v>20</v>
       </c>
-      <c r="Y26" s="284"/>
-      <c r="Z26" s="285"/>
+      <c r="Y26" s="318"/>
+      <c r="Z26" s="319"/>
     </row>
     <row r="27" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="289"/>
-      <c r="C27" s="290"/>
-      <c r="D27" s="291" t="s">
+      <c r="B27" s="323"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="325" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="292"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="292"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="292"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="292"/>
-      <c r="Q27" s="292"/>
-      <c r="R27" s="292"/>
-      <c r="S27" s="292"/>
-      <c r="T27" s="292"/>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="293"/>
-      <c r="Y27" s="286"/>
-      <c r="Z27" s="287"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="326"/>
+      <c r="N27" s="326"/>
+      <c r="O27" s="326"/>
+      <c r="P27" s="326"/>
+      <c r="Q27" s="326"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="327"/>
+      <c r="Y27" s="320"/>
+      <c r="Z27" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18307,7 +19738,7 @@
   <dimension ref="B2:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18337,11 +19768,11 @@
       <c r="G3" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="312">
+      <c r="H3" s="346">
         <v>1</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="347"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18381,13 +19812,13 @@
         <v>119</v>
       </c>
       <c r="H5" s="221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="195">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18428,13 +19859,13 @@
         <v>120</v>
       </c>
       <c r="H7" s="221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="221">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J7" s="195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -18474,12 +19905,12 @@
       <c r="G9" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="309">
+      <c r="H9" s="343">
         <f>IF(H5=H7,ABS(I5-I7),IF(_xlfn.XOR(H5=1,H7=1,),1000+I7,IF(OR(ABS(H5-H7)=1,ABS(H5-H7)=5),1000+I7,IF(ABS(H5-H7)=3,2000+I7,1500+I7))))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="310"/>
-      <c r="J9" s="311"/>
+        <v>31</v>
+      </c>
+      <c r="I9" s="344"/>
+      <c r="J9" s="345"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
@@ -18517,12 +19948,12 @@
       <c r="G11" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="314">
+      <c r="H11" s="348">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,((20250+112.5*(H9-70))*(2-$H$3/1)),IF(H9&gt;=7,((11100+300*(H9-7))*(2-$H$3/1)),IF(H9&gt;=3,((9450+420*(H9-3))*(2-$H$3/1)),IF(H9=2,9000*(2-$H$3/1),7200*(2-$H$3/1))))))/86400</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I11" s="314"/>
-      <c r="J11" s="315"/>
+        <v>0.18359375</v>
+      </c>
+      <c r="I11" s="348"/>
+      <c r="J11" s="349"/>
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -18544,12 +19975,12 @@
       <c r="G12" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="316">
+      <c r="H12" s="350">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,((19800+105.86*(H9-68))*(2-$H$3/1)),IF(H9&gt;=7,((12600+180*(H9-7))*(2-$H$3/1)),IF(H9&gt;=1,(10800+300*(H9-1))*(2-$H$3/1),10800*(2-$H$3/1))))/86400)</f>
-        <v>0.125</v>
-      </c>
-      <c r="I12" s="316"/>
-      <c r="J12" s="317"/>
+        <v>0.18383310185185187</v>
+      </c>
+      <c r="I12" s="350"/>
+      <c r="J12" s="351"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
@@ -18570,12 +20001,12 @@
       <c r="G13" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="316">
+      <c r="H13" s="350">
         <f>IF(H9&gt;=27,((16686+18*(H9-27))*(2-$H$3/1)),IF(H9&gt;=3,((14628+69.2*(H9-3))*(2-$H$3/1)),IF(H9=2,14400*(2-$H$3/1),10800*(2-$H$3/1))))/86400</f>
-        <v>0.125</v>
-      </c>
-      <c r="I13" s="316"/>
-      <c r="J13" s="317"/>
+        <v>0.19395833333333334</v>
+      </c>
+      <c r="I13" s="350"/>
+      <c r="J13" s="351"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34">
@@ -18596,12 +20027,12 @@
       <c r="G14" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="307">
+      <c r="H14" s="341">
         <f>16200*(2-$H$3/1)/86400</f>
         <v>0.1875</v>
       </c>
-      <c r="I14" s="307"/>
-      <c r="J14" s="308"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="342"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
@@ -18656,11 +20087,11 @@
       <c r="G17" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="298">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I17" s="299"/>
-      <c r="J17" s="300"/>
+      <c r="H17" s="332">
+        <v>0.16340277777777779</v>
+      </c>
+      <c r="I17" s="333"/>
+      <c r="J17" s="334"/>
       <c r="M17" s="254"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18679,7 +20110,7 @@
         <f t="shared" si="1"/>
         <v>0.17788425925925927</v>
       </c>
-      <c r="M18" s="320"/>
+      <c r="M18" s="255"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="34">
@@ -18700,13 +20131,13 @@
       <c r="G19" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="301">
+      <c r="H19" s="335">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,2-((H17*86400)/(20250+112.5*(H9-70))),IF(H9&gt;=7,2-((H17*86400)/(11100+300*(H9-7))),IF(H9&gt;=3,2-((H17*86400)/(9450+420*(H9-3))),IF(H9=2,2-((H17*86400)/(9000)),2-((H17*86400)/(7200)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="301"/>
-      <c r="J19" s="302"/>
-      <c r="M19" s="320"/>
+        <v>1.1099763593380616</v>
+      </c>
+      <c r="I19" s="335"/>
+      <c r="J19" s="336"/>
+      <c r="M19" s="255"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
@@ -18727,12 +20158,12 @@
       <c r="G20" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="303">
+      <c r="H20" s="337">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,2-((H17*86400)/(19800+105.86*(H9-68))),IF(H9&gt;=7,2-((H17*86400)/(12600+180*(H9-7))),IF(H9&gt;=1,2-((H17*86400)/(10800+300*(H9-1))),2-((H17*86400)/(10800))))))</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="I20" s="303"/>
-      <c r="J20" s="304"/>
+        <v>1.1111351757015913</v>
+      </c>
+      <c r="I20" s="337"/>
+      <c r="J20" s="338"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -18754,12 +20185,12 @@
       <c r="G21" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="303">
+      <c r="H21" s="337">
         <f>IF(H9&gt;=27,2-((H17*86400)/(16686+18*(H9-27))),IF(H9&gt;=3,2-((H17*86400)/(14628+69.2*(H9-3))),IF(H9=2,2-((H17*86400)/(14400)),2-((H17*86400)/(10800)))))</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="I21" s="303"/>
-      <c r="J21" s="304"/>
+        <v>1.1575366988900824</v>
+      </c>
+      <c r="I21" s="337"/>
+      <c r="J21" s="338"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34">
@@ -18780,12 +20211,12 @@
       <c r="G22" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="305">
+      <c r="H22" s="339">
         <f>2-((H17*86400)/(16200))</f>
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="I22" s="305"/>
-      <c r="J22" s="306"/>
+        <v>1.1285185185185185</v>
+      </c>
+      <c r="I22" s="339"/>
+      <c r="J22" s="340"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="34">

--- a/Formelsammlung/LW-Formelsammlung.xlsx
+++ b/Formelsammlung/LW-Formelsammlung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanitas\Desktop\Last War\Overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989DAB1-CE83-46C3-A7E9-D411DEB0E7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B23C05-0B67-4381-81F4-F4246E98DCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{082234C1-43FA-4CD1-86E8-1A99C001D5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Konstruktion" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
   <si>
     <t>Gebäudetyp</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>- Bonusberechnung bei der Kristall-Fördermenge bei den Rohstoffen korrigiert</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>- Kosten für die "Erweiterte Technologiespionage" wurde um 50% erhöht --&gt; Anpassung der Excel</t>
   </si>
 </sst>
 </file>
@@ -3006,6 +3012,9 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="98" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3135,6 +3144,39 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="46" fontId="0" fillId="6" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3162,39 +3204,6 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3215,9 +3224,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4146,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9535A934-649E-4A5D-A053-4DA8ED37D262}">
   <dimension ref="B2:X47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4201,14 +4207,14 @@
         <v>40</v>
       </c>
       <c r="O3" s="248"/>
-      <c r="P3" s="292" t="s">
+      <c r="P3" s="293" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="294"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="295"/>
       <c r="V3" s="66"/>
       <c r="W3" s="219" t="s">
         <v>38</v>
@@ -4232,12 +4238,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="249"/>
-      <c r="P4" s="295"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="296"/>
-      <c r="U4" s="297"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="297"/>
+      <c r="U4" s="298"/>
       <c r="V4" s="65"/>
       <c r="X4" s="1"/>
     </row>
@@ -4537,12 +4543,12 @@
       <c r="M9" s="6"/>
       <c r="N9" s="24"/>
       <c r="O9" s="250"/>
-      <c r="P9" s="298"/>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="299"/>
-      <c r="S9" s="299"/>
-      <c r="T9" s="299"/>
-      <c r="U9" s="300"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="300"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="301"/>
       <c r="V9" s="60"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -4956,12 +4962,12 @@
       <c r="M16" s="6"/>
       <c r="N16" s="24"/>
       <c r="O16" s="250"/>
-      <c r="P16" s="298"/>
-      <c r="Q16" s="299"/>
-      <c r="R16" s="299"/>
-      <c r="S16" s="299"/>
-      <c r="T16" s="299"/>
-      <c r="U16" s="300"/>
+      <c r="P16" s="299"/>
+      <c r="Q16" s="300"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="300"/>
+      <c r="T16" s="300"/>
+      <c r="U16" s="301"/>
       <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -5234,14 +5240,14 @@
       <c r="C21" s="3"/>
       <c r="D21" s="14">
         <f>(((N21)*350/20)^2)+350</f>
-        <v>656.25</v>
+        <v>60375</v>
       </c>
       <c r="E21" s="14">
         <v>0</v>
       </c>
       <c r="F21" s="14">
         <f>(((N21)*350/20)^2)+350</f>
-        <v>656.25</v>
+        <v>60375</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -5255,20 +5261,20 @@
       <c r="J21" s="3"/>
       <c r="K21" s="5">
         <f>((((100/9)*(0.5*N21*N21-0.5*N21+1))/(X3*72)*3600)/86400)*X8</f>
-        <v>6.4300411522633747E-3</v>
+        <v>0.59156378600823045</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="2"/>
-        <v>9.6450617283950629E-3</v>
+        <v>8.2818930041152257</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O21" s="250"/>
       <c r="P21" s="241">
         <f>IF(ISNA(VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(D21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="242">
         <f>IF(ISNA(VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(E21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
@@ -5276,7 +5282,7 @@
       </c>
       <c r="R21" s="242">
         <f>IF(ISNA(VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(F21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="242">
         <f>IF(ISNA(VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1),0,VLOOKUP(G21,Lagerkapazität!$C$4:$E$54,3,TRUE)+1)</f>
@@ -5373,12 +5379,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="24"/>
       <c r="O23" s="250"/>
-      <c r="P23" s="298"/>
-      <c r="Q23" s="299"/>
-      <c r="R23" s="299"/>
-      <c r="S23" s="299"/>
-      <c r="T23" s="299"/>
-      <c r="U23" s="300"/>
+      <c r="P23" s="299"/>
+      <c r="Q23" s="300"/>
+      <c r="R23" s="300"/>
+      <c r="S23" s="300"/>
+      <c r="T23" s="300"/>
+      <c r="U23" s="301"/>
       <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -5527,12 +5533,12 @@
       <c r="M26" s="6"/>
       <c r="N26" s="24"/>
       <c r="O26" s="250"/>
-      <c r="P26" s="298"/>
-      <c r="Q26" s="299"/>
-      <c r="R26" s="299"/>
-      <c r="S26" s="299"/>
-      <c r="T26" s="299"/>
-      <c r="U26" s="300"/>
+      <c r="P26" s="299"/>
+      <c r="Q26" s="300"/>
+      <c r="R26" s="300"/>
+      <c r="S26" s="300"/>
+      <c r="T26" s="300"/>
+      <c r="U26" s="301"/>
       <c r="V26" s="60"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
@@ -5948,12 +5954,12 @@
       <c r="M33" s="6"/>
       <c r="N33" s="24"/>
       <c r="O33" s="250"/>
-      <c r="P33" s="298"/>
-      <c r="Q33" s="299"/>
-      <c r="R33" s="299"/>
-      <c r="S33" s="299"/>
-      <c r="T33" s="299"/>
-      <c r="U33" s="300"/>
+      <c r="P33" s="299"/>
+      <c r="Q33" s="300"/>
+      <c r="R33" s="300"/>
+      <c r="S33" s="300"/>
+      <c r="T33" s="300"/>
+      <c r="U33" s="301"/>
       <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -6169,12 +6175,12 @@
       <c r="M37" s="6"/>
       <c r="N37" s="24"/>
       <c r="O37" s="250"/>
-      <c r="P37" s="289"/>
-      <c r="Q37" s="290"/>
-      <c r="R37" s="290"/>
-      <c r="S37" s="290"/>
-      <c r="T37" s="290"/>
-      <c r="U37" s="291"/>
+      <c r="P37" s="290"/>
+      <c r="Q37" s="291"/>
+      <c r="R37" s="291"/>
+      <c r="S37" s="291"/>
+      <c r="T37" s="291"/>
+      <c r="U37" s="292"/>
       <c r="V37" s="60"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -6519,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CD7F26-07CB-407D-8806-B328BBA96B09}">
   <dimension ref="B1:W33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,14 +6554,14 @@
       <c r="C2" s="267" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="353" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="353"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="354"/>
+      <c r="E2" s="354"/>
+      <c r="F2" s="354"/>
+      <c r="G2" s="354"/>
+      <c r="H2" s="354"/>
+      <c r="I2" s="355"/>
       <c r="J2" s="267" t="s">
         <v>171</v>
       </c>
@@ -6565,18 +6571,16 @@
       <c r="M2" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="261">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="355" t="s">
+      <c r="N2" s="261"/>
+      <c r="Q2" s="356" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="356"/>
+      <c r="R2" s="357"/>
       <c r="S2" s="280"/>
-      <c r="U2" s="355" t="s">
+      <c r="U2" s="356" t="s">
         <v>185</v>
       </c>
-      <c r="V2" s="356"/>
+      <c r="V2" s="357"/>
       <c r="W2" s="285"/>
     </row>
     <row r="3" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,9 +6621,7 @@
       <c r="M3" s="263" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="262">
-        <v>0</v>
-      </c>
+      <c r="N3" s="262"/>
       <c r="Q3" s="283" t="s">
         <v>9</v>
       </c>
@@ -6679,9 +6681,7 @@
       <c r="M4" s="264" t="s">
         <v>161</v>
       </c>
-      <c r="N4" s="265">
-        <v>0</v>
-      </c>
+      <c r="N4" s="265"/>
       <c r="Q4" s="283" t="s">
         <v>10</v>
       </c>
@@ -6799,9 +6799,7 @@
       <c r="M6" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="195">
-        <v>0</v>
-      </c>
+      <c r="N6" s="195"/>
       <c r="O6">
         <f>IF(N6=0,1,N6)</f>
         <v>1</v>
@@ -7010,23 +7008,23 @@
         <v>179</v>
       </c>
       <c r="D10" s="278">
-        <f>N8*5.8</f>
+        <f>N8*5.8*1.5</f>
         <v>0</v>
       </c>
       <c r="E10" s="278">
-        <f>N8*6.9</f>
+        <f>N8*6.9*1.5</f>
         <v>0</v>
       </c>
       <c r="F10" s="278">
-        <f>N8*8.8</f>
+        <f>N8*8.8*1.5</f>
         <v>0</v>
       </c>
       <c r="G10" s="278">
-        <f>N8*2.7</f>
+        <f>N8*2.7*1.5</f>
         <v>0</v>
       </c>
       <c r="H10" s="278">
-        <f>N8*1.8</f>
+        <f>N8*1.8*1.5</f>
         <v>0</v>
       </c>
       <c r="I10" s="278">
@@ -7588,10 +7586,10 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="357" t="s">
+      <c r="B3" s="358" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="358"/>
+      <c r="C3" s="359"/>
       <c r="D3" s="181" t="s">
         <v>115</v>
       </c>
@@ -7623,10 +7621,10 @@
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="358" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="358"/>
+      <c r="C8" s="359"/>
       <c r="D8" s="181" t="s">
         <v>115</v>
       </c>
@@ -7678,10 +7676,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520DBC8-E3F3-4475-A1AE-84ADA5E48381}">
   <sheetPr codeName="Tabelle10"/>
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7824,10 +7822,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="236"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="238"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="233" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="234">
+        <v>43827</v>
+      </c>
+      <c r="D14" s="235" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="238"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8844,14 +8853,14 @@
         <v>40</v>
       </c>
       <c r="N3" s="66"/>
-      <c r="O3" s="292" t="s">
+      <c r="O3" s="293" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="294"/>
+      <c r="P3" s="294"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="295"/>
       <c r="U3" s="66"/>
       <c r="V3" s="186" t="s">
         <v>77</v>
@@ -8874,12 +8883,12 @@
       <c r="L4" s="45"/>
       <c r="M4" s="47"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="295"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="296"/>
-      <c r="T4" s="297"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="298"/>
       <c r="U4" s="65"/>
       <c r="V4" s="67"/>
     </row>
@@ -9386,12 +9395,12 @@
       <c r="L13" s="68"/>
       <c r="M13" s="75"/>
       <c r="N13" s="240"/>
-      <c r="O13" s="301"/>
-      <c r="P13" s="302"/>
-      <c r="Q13" s="302"/>
-      <c r="R13" s="302"/>
-      <c r="S13" s="302"/>
-      <c r="T13" s="303"/>
+      <c r="O13" s="302"/>
+      <c r="P13" s="303"/>
+      <c r="Q13" s="303"/>
+      <c r="R13" s="303"/>
+      <c r="S13" s="303"/>
+      <c r="T13" s="304"/>
       <c r="U13" s="60"/>
       <c r="V13" s="41"/>
     </row>
@@ -10451,12 +10460,12 @@
       <c r="L31" s="68"/>
       <c r="M31" s="75"/>
       <c r="N31" s="240"/>
-      <c r="O31" s="301"/>
-      <c r="P31" s="302"/>
-      <c r="Q31" s="302"/>
-      <c r="R31" s="302"/>
-      <c r="S31" s="302"/>
-      <c r="T31" s="303"/>
+      <c r="O31" s="302"/>
+      <c r="P31" s="303"/>
+      <c r="Q31" s="303"/>
+      <c r="R31" s="303"/>
+      <c r="S31" s="303"/>
+      <c r="T31" s="304"/>
       <c r="U31" s="60"/>
     </row>
     <row r="32" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10723,12 +10732,12 @@
       <c r="L36" s="68"/>
       <c r="M36" s="75"/>
       <c r="N36" s="240"/>
-      <c r="O36" s="301"/>
-      <c r="P36" s="302"/>
-      <c r="Q36" s="302"/>
-      <c r="R36" s="302"/>
-      <c r="S36" s="302"/>
-      <c r="T36" s="303"/>
+      <c r="O36" s="302"/>
+      <c r="P36" s="303"/>
+      <c r="Q36" s="303"/>
+      <c r="R36" s="303"/>
+      <c r="S36" s="303"/>
+      <c r="T36" s="304"/>
       <c r="U36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14341,7 +14350,7 @@
         <f t="shared" si="11"/>
         <v>50572.399999999994</v>
       </c>
-      <c r="D104" s="359">
+      <c r="D104" s="289">
         <f t="shared" si="6"/>
         <v>44367.6</v>
       </c>
@@ -15716,28 +15725,28 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="307" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="304"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="304" t="s">
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="305"/>
+      <c r="P3" s="306"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="307"/>
+      <c r="B4" s="308"/>
       <c r="C4" s="206" t="s">
         <v>117</v>
       </c>
@@ -17536,37 +17545,37 @@
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="331"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="325" t="s">
+      <c r="B3" s="332"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="326" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
-      <c r="N3" s="326"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="326"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="326"/>
-      <c r="T3" s="326"/>
-      <c r="U3" s="326"/>
-      <c r="V3" s="326"/>
-      <c r="W3" s="326"/>
-      <c r="X3" s="327"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="327"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="327"/>
+      <c r="S3" s="327"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="327"/>
+      <c r="V3" s="327"/>
+      <c r="W3" s="327"/>
+      <c r="X3" s="328"/>
+      <c r="Y3" s="315"/>
+      <c r="Z3" s="316"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="322"/>
-      <c r="C4" s="316"/>
+      <c r="B4" s="323"/>
+      <c r="C4" s="317"/>
       <c r="D4" s="150">
         <v>0</v>
       </c>
@@ -17630,11 +17639,11 @@
       <c r="X4" s="154">
         <v>20</v>
       </c>
-      <c r="Y4" s="316"/>
-      <c r="Z4" s="317"/>
+      <c r="Y4" s="317"/>
+      <c r="Z4" s="318"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="329" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="162">
@@ -17727,12 +17736,12 @@
       <c r="Y5" s="163">
         <v>0</v>
       </c>
-      <c r="Z5" s="328" t="s">
+      <c r="Z5" s="329" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="329"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="164">
         <v>1</v>
       </c>
@@ -17823,10 +17832,10 @@
       <c r="Y6" s="165">
         <v>1</v>
       </c>
-      <c r="Z6" s="329"/>
+      <c r="Z6" s="330"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="329"/>
+      <c r="B7" s="330"/>
       <c r="C7" s="164">
         <v>2</v>
       </c>
@@ -17917,10 +17926,10 @@
       <c r="Y7" s="165">
         <v>2</v>
       </c>
-      <c r="Z7" s="329"/>
+      <c r="Z7" s="330"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="329"/>
+      <c r="B8" s="330"/>
       <c r="C8" s="164">
         <v>3</v>
       </c>
@@ -18011,10 +18020,10 @@
       <c r="Y8" s="165">
         <v>3</v>
       </c>
-      <c r="Z8" s="329"/>
+      <c r="Z8" s="330"/>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="329"/>
+      <c r="B9" s="330"/>
       <c r="C9" s="164">
         <v>4</v>
       </c>
@@ -18105,10 +18114,10 @@
       <c r="Y9" s="165">
         <v>4</v>
       </c>
-      <c r="Z9" s="329"/>
+      <c r="Z9" s="330"/>
     </row>
     <row r="10" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="329"/>
+      <c r="B10" s="330"/>
       <c r="C10" s="164">
         <v>5</v>
       </c>
@@ -18199,10 +18208,10 @@
       <c r="Y10" s="165">
         <v>5</v>
       </c>
-      <c r="Z10" s="329"/>
+      <c r="Z10" s="330"/>
     </row>
     <row r="11" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="329"/>
+      <c r="B11" s="330"/>
       <c r="C11" s="166">
         <v>6</v>
       </c>
@@ -18293,10 +18302,10 @@
       <c r="Y11" s="167">
         <v>6</v>
       </c>
-      <c r="Z11" s="329"/>
+      <c r="Z11" s="330"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="329"/>
+      <c r="B12" s="330"/>
       <c r="C12" s="168">
         <v>7</v>
       </c>
@@ -18387,10 +18396,10 @@
       <c r="Y12" s="169">
         <v>7</v>
       </c>
-      <c r="Z12" s="329"/>
+      <c r="Z12" s="330"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="329"/>
+      <c r="B13" s="330"/>
       <c r="C13" s="164">
         <v>8</v>
       </c>
@@ -18481,10 +18490,10 @@
       <c r="Y13" s="165">
         <v>8</v>
       </c>
-      <c r="Z13" s="329"/>
+      <c r="Z13" s="330"/>
     </row>
     <row r="14" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="329"/>
+      <c r="B14" s="330"/>
       <c r="C14" s="164">
         <v>9</v>
       </c>
@@ -18575,10 +18584,10 @@
       <c r="Y14" s="165">
         <v>9</v>
       </c>
-      <c r="Z14" s="329"/>
+      <c r="Z14" s="330"/>
     </row>
     <row r="15" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="329"/>
+      <c r="B15" s="330"/>
       <c r="C15" s="164">
         <v>10</v>
       </c>
@@ -18669,10 +18678,10 @@
       <c r="Y15" s="165">
         <v>10</v>
       </c>
-      <c r="Z15" s="329"/>
+      <c r="Z15" s="330"/>
     </row>
     <row r="16" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="329"/>
+      <c r="B16" s="330"/>
       <c r="C16" s="164">
         <v>11</v>
       </c>
@@ -18763,10 +18772,10 @@
       <c r="Y16" s="165">
         <v>11</v>
       </c>
-      <c r="Z16" s="329"/>
+      <c r="Z16" s="330"/>
     </row>
     <row r="17" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="329"/>
+      <c r="B17" s="330"/>
       <c r="C17" s="164">
         <v>12</v>
       </c>
@@ -18857,10 +18866,10 @@
       <c r="Y17" s="165">
         <v>12</v>
       </c>
-      <c r="Z17" s="329"/>
+      <c r="Z17" s="330"/>
     </row>
     <row r="18" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="329"/>
+      <c r="B18" s="330"/>
       <c r="C18" s="170">
         <v>13</v>
       </c>
@@ -18951,10 +18960,10 @@
       <c r="Y18" s="171">
         <v>13</v>
       </c>
-      <c r="Z18" s="329"/>
+      <c r="Z18" s="330"/>
     </row>
     <row r="19" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="329"/>
+      <c r="B19" s="330"/>
       <c r="C19" s="172">
         <v>14</v>
       </c>
@@ -19045,10 +19054,10 @@
       <c r="Y19" s="173">
         <v>14</v>
       </c>
-      <c r="Z19" s="329"/>
+      <c r="Z19" s="330"/>
     </row>
     <row r="20" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="329"/>
+      <c r="B20" s="330"/>
       <c r="C20" s="164">
         <v>15</v>
       </c>
@@ -19139,10 +19148,10 @@
       <c r="Y20" s="165">
         <v>15</v>
       </c>
-      <c r="Z20" s="329"/>
+      <c r="Z20" s="330"/>
     </row>
     <row r="21" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="329"/>
+      <c r="B21" s="330"/>
       <c r="C21" s="164">
         <v>16</v>
       </c>
@@ -19233,10 +19242,10 @@
       <c r="Y21" s="165">
         <v>16</v>
       </c>
-      <c r="Z21" s="329"/>
+      <c r="Z21" s="330"/>
     </row>
     <row r="22" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="329"/>
+      <c r="B22" s="330"/>
       <c r="C22" s="164">
         <v>17</v>
       </c>
@@ -19327,10 +19336,10 @@
       <c r="Y22" s="165">
         <v>17</v>
       </c>
-      <c r="Z22" s="329"/>
+      <c r="Z22" s="330"/>
     </row>
     <row r="23" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="329"/>
+      <c r="B23" s="330"/>
       <c r="C23" s="164">
         <v>18</v>
       </c>
@@ -19421,10 +19430,10 @@
       <c r="Y23" s="165">
         <v>18</v>
       </c>
-      <c r="Z23" s="329"/>
+      <c r="Z23" s="330"/>
     </row>
     <row r="24" spans="2:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="329"/>
+      <c r="B24" s="330"/>
       <c r="C24" s="164">
         <v>19</v>
       </c>
@@ -19515,10 +19524,10 @@
       <c r="Y24" s="165">
         <v>19</v>
       </c>
-      <c r="Z24" s="329"/>
+      <c r="Z24" s="330"/>
     </row>
     <row r="25" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="330"/>
+      <c r="B25" s="331"/>
       <c r="C25" s="170">
         <v>20</v>
       </c>
@@ -19609,11 +19618,11 @@
       <c r="Y25" s="171">
         <v>20</v>
       </c>
-      <c r="Z25" s="330"/>
+      <c r="Z25" s="331"/>
     </row>
     <row r="26" spans="2:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="322"/>
-      <c r="C26" s="316"/>
+      <c r="B26" s="323"/>
+      <c r="C26" s="317"/>
       <c r="D26" s="156">
         <v>0</v>
       </c>
@@ -19677,37 +19686,37 @@
       <c r="X26" s="160">
         <v>20</v>
       </c>
-      <c r="Y26" s="318"/>
-      <c r="Z26" s="319"/>
+      <c r="Y26" s="319"/>
+      <c r="Z26" s="320"/>
     </row>
     <row r="27" spans="2:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="323"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="325" t="s">
+      <c r="B27" s="324"/>
+      <c r="C27" s="325"/>
+      <c r="D27" s="326" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="326"/>
-      <c r="F27" s="326"/>
-      <c r="G27" s="326"/>
-      <c r="H27" s="326"/>
-      <c r="I27" s="326"/>
-      <c r="J27" s="326"/>
-      <c r="K27" s="326"/>
-      <c r="L27" s="326"/>
-      <c r="M27" s="326"/>
-      <c r="N27" s="326"/>
-      <c r="O27" s="326"/>
-      <c r="P27" s="326"/>
-      <c r="Q27" s="326"/>
-      <c r="R27" s="326"/>
-      <c r="S27" s="326"/>
-      <c r="T27" s="326"/>
-      <c r="U27" s="326"/>
-      <c r="V27" s="326"/>
-      <c r="W27" s="326"/>
-      <c r="X27" s="327"/>
-      <c r="Y27" s="320"/>
-      <c r="Z27" s="321"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="327"/>
+      <c r="J27" s="327"/>
+      <c r="K27" s="327"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="327"/>
+      <c r="N27" s="327"/>
+      <c r="O27" s="327"/>
+      <c r="P27" s="327"/>
+      <c r="Q27" s="327"/>
+      <c r="R27" s="327"/>
+      <c r="S27" s="327"/>
+      <c r="T27" s="327"/>
+      <c r="U27" s="327"/>
+      <c r="V27" s="327"/>
+      <c r="W27" s="327"/>
+      <c r="X27" s="328"/>
+      <c r="Y27" s="321"/>
+      <c r="Z27" s="322"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19738,7 +19747,7 @@
   <dimension ref="B2:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19768,11 +19777,11 @@
       <c r="G3" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="346">
-        <v>1</v>
-      </c>
-      <c r="I3" s="346"/>
-      <c r="J3" s="347"/>
+      <c r="H3" s="338">
+        <v>1.26</v>
+      </c>
+      <c r="I3" s="338"/>
+      <c r="J3" s="339"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19781,15 +19790,15 @@
       </c>
       <c r="C4" s="222">
         <f>((7200)*(2-$H$3/1))/86400</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.1666666666666668E-2</v>
       </c>
       <c r="D4" s="222">
         <f>((10800 + 300 * (B5-1))*(2-$H$3/1))/86400</f>
-        <v>0.125</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="E4" s="223">
         <f>((10800)*(2-$H$3/1))/86400</f>
-        <v>0.125</v>
+        <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19798,27 +19807,27 @@
       </c>
       <c r="C5" s="222">
         <f>((7200)*(2-$H$3/1))/86400</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.1666666666666668E-2</v>
       </c>
       <c r="D5" s="222">
         <f t="shared" ref="D5:D10" si="0">((10800 + 300 * (B5-1))*(2-$H$3/1))/86400</f>
-        <v>0.125</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="E5" s="223">
         <f>((10800)*(2-$H$3/1))/86400</f>
-        <v>0.125</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="G5" s="220" t="s">
         <v>119</v>
       </c>
       <c r="H5" s="221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="221">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J5" s="195">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19827,15 +19836,15 @@
       </c>
       <c r="C6" s="222">
         <f>((9000)*(2-$H$3/1))/86400</f>
-        <v>0.10416666666666667</v>
+        <v>7.7083333333333337E-2</v>
       </c>
       <c r="D6" s="222">
         <f t="shared" si="0"/>
-        <v>0.12847222222222221</v>
+        <v>9.5069444444444443E-2</v>
       </c>
       <c r="E6" s="223">
         <f>((14400)*(2-$H$3/1))/86400</f>
-        <v>0.16666666666666666</v>
+        <v>0.12333333333333334</v>
       </c>
       <c r="L6" s="254"/>
     </row>
@@ -19845,27 +19854,27 @@
       </c>
       <c r="C7" s="222">
         <f>((9450 + 420 * (B7-3))*(2-$H$3/1))/86400</f>
-        <v>0.109375</v>
+        <v>8.0937499999999996E-2</v>
       </c>
       <c r="D7" s="222">
         <f t="shared" si="0"/>
-        <v>0.13194444444444445</v>
+        <v>9.7638888888888886E-2</v>
       </c>
       <c r="E7" s="223">
         <f>((14608 + 69.2 * (B7-3))*(2-$H$3/1))/86400</f>
-        <v>0.16907407407407407</v>
+        <v>0.12511481481481482</v>
       </c>
       <c r="G7" s="220" t="s">
         <v>120</v>
       </c>
       <c r="H7" s="221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="221">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J7" s="195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -19875,15 +19884,15 @@
       </c>
       <c r="C8" s="222">
         <f>((9450 + 420 * (B8-3))*(2-$H$3/1))/86400</f>
-        <v>0.11423611111111111</v>
+        <v>8.4534722222222219E-2</v>
       </c>
       <c r="D8" s="222">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.10020833333333333</v>
       </c>
       <c r="E8" s="223">
         <f t="shared" ref="E8:E30" si="1">((14608 + 69.2 * (B8-3))*(2-$H$3/1))/86400</f>
-        <v>0.169875</v>
+        <v>0.1257075</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19892,25 +19901,25 @@
       </c>
       <c r="C9" s="222">
         <f>((9450 + 420 * (B9-3))*(2-$H$3/1))/86400</f>
-        <v>0.11909722222222222</v>
+        <v>8.8131944444444443E-2</v>
       </c>
       <c r="D9" s="222">
         <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="E9" s="223">
         <f t="shared" si="1"/>
-        <v>0.17067592592592593</v>
+        <v>0.12630018518518518</v>
       </c>
       <c r="G9" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="343">
+      <c r="H9" s="335">
         <f>IF(H5=H7,ABS(I5-I7),IF(_xlfn.XOR(H5=1,H7=1,),1000+I7,IF(OR(ABS(H5-H7)=1,ABS(H5-H7)=5),1000+I7,IF(ABS(H5-H7)=3,2000+I7,1500+I7))))</f>
-        <v>31</v>
-      </c>
-      <c r="I9" s="344"/>
-      <c r="J9" s="345"/>
+        <v>27</v>
+      </c>
+      <c r="I9" s="336"/>
+      <c r="J9" s="337"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
@@ -19918,15 +19927,15 @@
       </c>
       <c r="C10" s="222">
         <f>((9450 + 420 * (B10-3))*(2-$H$3/1))/86400</f>
-        <v>0.12395833333333334</v>
+        <v>9.1729166666666667E-2</v>
       </c>
       <c r="D10" s="222">
         <f t="shared" si="0"/>
-        <v>0.1423611111111111</v>
+        <v>0.10534722222222222</v>
       </c>
       <c r="E10" s="223">
         <f t="shared" si="1"/>
-        <v>0.17147685185185185</v>
+        <v>0.12689287037037036</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -19935,25 +19944,25 @@
       </c>
       <c r="C11" s="222">
         <f t="shared" ref="C11:C22" si="2">((11100 + 300 * (B11-7))*(2-$H$3/1))/86400</f>
-        <v>0.12847222222222221</v>
+        <v>9.5069444444444443E-2</v>
       </c>
       <c r="D11" s="222">
         <f>((12600 + 180 * (B11-7))*(2-$H$3/1))/86400</f>
-        <v>0.14583333333333334</v>
+        <v>0.10791666666666666</v>
       </c>
       <c r="E11" s="223">
         <f t="shared" si="1"/>
-        <v>0.17227777777777778</v>
+        <v>0.12748555555555555</v>
       </c>
       <c r="G11" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="348">
+      <c r="H11" s="340">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,((20250+112.5*(H9-70))*(2-$H$3/1)),IF(H9&gt;=7,((11100+300*(H9-7))*(2-$H$3/1)),IF(H9&gt;=3,((9450+420*(H9-3))*(2-$H$3/1)),IF(H9=2,9000*(2-$H$3/1),7200*(2-$H$3/1))))))/86400</f>
-        <v>0.18359375</v>
-      </c>
-      <c r="I11" s="348"/>
-      <c r="J11" s="349"/>
+        <v>0.13200520833333335</v>
+      </c>
+      <c r="I11" s="340"/>
+      <c r="J11" s="341"/>
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -19962,25 +19971,25 @@
       </c>
       <c r="C12" s="222">
         <f t="shared" si="2"/>
-        <v>0.13194444444444445</v>
+        <v>9.7638888888888886E-2</v>
       </c>
       <c r="D12" s="222">
         <f t="shared" ref="D12:D21" si="3">((12600 + 180 * (B12-7))*(2-$H$3/1))/86400</f>
-        <v>0.14791666666666667</v>
+        <v>0.10945833333333334</v>
       </c>
       <c r="E12" s="223">
         <f t="shared" si="1"/>
-        <v>0.17307870370370371</v>
+        <v>0.12807824074074073</v>
       </c>
       <c r="G12" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="350">
+      <c r="H12" s="342">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,((19800+105.86*(H9-68))*(2-$H$3/1)),IF(H9&gt;=7,((12600+180*(H9-7))*(2-$H$3/1)),IF(H9&gt;=1,(10800+300*(H9-1))*(2-$H$3/1),10800*(2-$H$3/1))))/86400)</f>
-        <v>0.18383310185185187</v>
-      </c>
-      <c r="I12" s="350"/>
-      <c r="J12" s="351"/>
+        <v>0.13240981018518519</v>
+      </c>
+      <c r="I12" s="342"/>
+      <c r="J12" s="343"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
@@ -19988,25 +19997,25 @@
       </c>
       <c r="C13" s="222">
         <f t="shared" si="2"/>
-        <v>0.13541666666666666</v>
+        <v>0.10020833333333333</v>
       </c>
       <c r="D13" s="222">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.111</v>
       </c>
       <c r="E13" s="223">
         <f t="shared" si="1"/>
-        <v>0.17387962962962963</v>
+        <v>0.12867092592592591</v>
       </c>
       <c r="G13" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="350">
+      <c r="H13" s="342">
         <f>IF(H9&gt;=27,((16686+18*(H9-27))*(2-$H$3/1)),IF(H9&gt;=3,((14628+69.2*(H9-3))*(2-$H$3/1)),IF(H9=2,14400*(2-$H$3/1),10800*(2-$H$3/1))))/86400</f>
-        <v>0.19395833333333334</v>
-      </c>
-      <c r="I13" s="350"/>
-      <c r="J13" s="351"/>
+        <v>0.1429125</v>
+      </c>
+      <c r="I13" s="342"/>
+      <c r="J13" s="343"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34">
@@ -20014,25 +20023,25 @@
       </c>
       <c r="C14" s="222">
         <f t="shared" si="2"/>
-        <v>0.1388888888888889</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="D14" s="222">
         <f t="shared" si="3"/>
-        <v>0.15208333333333332</v>
+        <v>0.11254166666666666</v>
       </c>
       <c r="E14" s="223">
         <f t="shared" si="1"/>
-        <v>0.17468055555555556</v>
+        <v>0.12926361111111112</v>
       </c>
       <c r="G14" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="341">
+      <c r="H14" s="333">
         <f>16200*(2-$H$3/1)/86400</f>
-        <v>0.1875</v>
-      </c>
-      <c r="I14" s="341"/>
-      <c r="J14" s="342"/>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="I14" s="333"/>
+      <c r="J14" s="334"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="34">
@@ -20040,15 +20049,15 @@
       </c>
       <c r="C15" s="222">
         <f t="shared" si="2"/>
-        <v>0.1423611111111111</v>
+        <v>0.10534722222222222</v>
       </c>
       <c r="D15" s="222">
         <f t="shared" si="3"/>
-        <v>0.15416666666666667</v>
+        <v>0.11408333333333333</v>
       </c>
       <c r="E15" s="223">
         <f t="shared" si="1"/>
-        <v>0.17548148148148149</v>
+        <v>0.1298562962962963</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20057,15 +20066,15 @@
       </c>
       <c r="C16" s="222">
         <f t="shared" si="2"/>
-        <v>0.14583333333333334</v>
+        <v>0.10791666666666666</v>
       </c>
       <c r="D16" s="222">
         <f t="shared" si="3"/>
-        <v>0.15625</v>
+        <v>0.11562500000000001</v>
       </c>
       <c r="E16" s="223">
         <f t="shared" si="1"/>
-        <v>0.17628240740740739</v>
+        <v>0.13044898148148149</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20074,24 +20083,24 @@
       </c>
       <c r="C17" s="222">
         <f t="shared" si="2"/>
-        <v>0.14930555555555555</v>
+        <v>0.1104861111111111</v>
       </c>
       <c r="D17" s="222">
         <f t="shared" si="3"/>
-        <v>0.15833333333333333</v>
+        <v>0.11716666666666667</v>
       </c>
       <c r="E17" s="223">
         <f t="shared" si="1"/>
-        <v>0.17708333333333334</v>
+        <v>0.13104166666666667</v>
       </c>
       <c r="G17" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="332">
-        <v>0.16340277777777779</v>
-      </c>
-      <c r="I17" s="333"/>
-      <c r="J17" s="334"/>
+      <c r="H17" s="344">
+        <v>9.8437499999999997E-2</v>
+      </c>
+      <c r="I17" s="345"/>
+      <c r="J17" s="346"/>
       <c r="M17" s="254"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20100,15 +20109,15 @@
       </c>
       <c r="C18" s="222">
         <f t="shared" si="2"/>
-        <v>0.15277777777777779</v>
+        <v>0.11305555555555556</v>
       </c>
       <c r="D18" s="222">
         <f t="shared" si="3"/>
-        <v>0.16041666666666668</v>
+        <v>0.11870833333333333</v>
       </c>
       <c r="E18" s="223">
         <f t="shared" si="1"/>
-        <v>0.17788425925925927</v>
+        <v>0.13163435185185185</v>
       </c>
       <c r="M18" s="255"/>
     </row>
@@ -20118,25 +20127,25 @@
       </c>
       <c r="C19" s="222">
         <f t="shared" si="2"/>
-        <v>0.15625</v>
+        <v>0.11562500000000001</v>
       </c>
       <c r="D19" s="222">
         <f t="shared" si="3"/>
-        <v>0.16250000000000001</v>
+        <v>0.12025000000000001</v>
       </c>
       <c r="E19" s="223">
         <f t="shared" si="1"/>
-        <v>0.17868518518518517</v>
+        <v>0.13222703703703703</v>
       </c>
       <c r="G19" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="335">
+      <c r="H19" s="347">
         <f>IF(H9&gt;100,0,IF(H9&gt;=19,2-((H17*86400)/(20250+112.5*(H9-70))),IF(H9&gt;=7,2-((H17*86400)/(11100+300*(H9-7))),IF(H9&gt;=3,2-((H17*86400)/(9450+420*(H9-3))),IF(H9=2,2-((H17*86400)/(9000)),2-((H17*86400)/(7200)))))))</f>
-        <v>1.1099763593380616</v>
-      </c>
-      <c r="I19" s="335"/>
-      <c r="J19" s="336"/>
+        <v>1.4481751824817519</v>
+      </c>
+      <c r="I19" s="347"/>
+      <c r="J19" s="348"/>
       <c r="M19" s="255"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -20145,25 +20154,25 @@
       </c>
       <c r="C20" s="222">
         <f t="shared" si="2"/>
-        <v>0.15972222222222221</v>
+        <v>0.11819444444444445</v>
       </c>
       <c r="D20" s="222">
         <f t="shared" si="3"/>
-        <v>0.16458333333333333</v>
+        <v>0.12179166666666666</v>
       </c>
       <c r="E20" s="223">
         <f t="shared" si="1"/>
-        <v>0.17948611111111112</v>
+        <v>0.13281972222222221</v>
       </c>
       <c r="G20" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="337">
+      <c r="H20" s="349">
         <f>IF(H9&gt;100,0,IF(H9&gt;=18,2-((H17*86400)/(19800+105.86*(H9-68))),IF(H9&gt;=7,2-((H17*86400)/(12600+180*(H9-7))),IF(H9&gt;=1,2-((H17*86400)/(10800+300*(H9-1))),2-((H17*86400)/(10800))))))</f>
-        <v>1.1111351757015913</v>
-      </c>
-      <c r="I20" s="337"/>
-      <c r="J20" s="338"/>
+        <v>1.4498613818861119</v>
+      </c>
+      <c r="I20" s="349"/>
+      <c r="J20" s="350"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -20172,25 +20181,25 @@
       </c>
       <c r="C21" s="222">
         <f t="shared" si="2"/>
-        <v>0.16319444444444445</v>
+        <v>0.12076388888888889</v>
       </c>
       <c r="D21" s="222">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.12333333333333334</v>
       </c>
       <c r="E21" s="223">
         <f t="shared" si="1"/>
-        <v>0.18028703703703702</v>
+        <v>0.1334124074074074</v>
       </c>
       <c r="G21" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="337">
+      <c r="H21" s="349">
         <f>IF(H9&gt;=27,2-((H17*86400)/(16686+18*(H9-27))),IF(H9&gt;=3,2-((H17*86400)/(14628+69.2*(H9-3))),IF(H9=2,2-((H17*86400)/(14400)),2-((H17*86400)/(10800)))))</f>
-        <v>1.1575366988900824</v>
-      </c>
-      <c r="I21" s="337"/>
-      <c r="J21" s="338"/>
+        <v>1.4902912621359223</v>
+      </c>
+      <c r="I21" s="349"/>
+      <c r="J21" s="350"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34">
@@ -20198,25 +20207,25 @@
       </c>
       <c r="C22" s="222">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.12333333333333334</v>
       </c>
       <c r="D22" s="222">
         <f>((19800 + 105.86 * (B22-68))*(2-$H$3/1))/86400</f>
-        <v>0.16790509259259259</v>
+        <v>0.12424976851851852</v>
       </c>
       <c r="E22" s="223">
         <f t="shared" si="1"/>
-        <v>0.18108796296296295</v>
+        <v>0.13400509259259258</v>
       </c>
       <c r="G22" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="339">
+      <c r="H22" s="351">
         <f>2-((H17*86400)/(16200))</f>
-        <v>1.1285185185185185</v>
-      </c>
-      <c r="I22" s="339"/>
-      <c r="J22" s="340"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="I22" s="351"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
@@ -20224,15 +20233,15 @@
       </c>
       <c r="C23" s="222">
         <f>((20250 + 112.5 * (B23-70))*(2-$H$3/1))/86400</f>
-        <v>0.16796875</v>
+        <v>0.124296875</v>
       </c>
       <c r="D23" s="222">
         <f t="shared" ref="D23:D86" si="4">((19800 + 105.86 * (B23-68))*(2-$H$3/1))/86400</f>
-        <v>0.16913032407407408</v>
+        <v>0.12515643981481481</v>
       </c>
       <c r="E23" s="223">
         <f t="shared" si="1"/>
-        <v>0.18188888888888891</v>
+        <v>0.13459777777777776</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -20241,15 +20250,15 @@
       </c>
       <c r="C24" s="222">
         <f t="shared" ref="C24:C87" si="5">((20250 + 112.5 * (B24-70))*(2-$H$3/1))/86400</f>
-        <v>0.16927083333333334</v>
+        <v>0.12526041666666668</v>
       </c>
       <c r="D24" s="222">
         <f t="shared" si="4"/>
-        <v>0.17035555555555557</v>
+        <v>0.12606311111111113</v>
       </c>
       <c r="E24" s="223">
         <f t="shared" si="1"/>
-        <v>0.1826898148148148</v>
+        <v>0.13519046296296297</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -20258,15 +20267,15 @@
       </c>
       <c r="C25" s="222">
         <f t="shared" si="5"/>
-        <v>0.17057291666666666</v>
+        <v>0.12622395833333333</v>
       </c>
       <c r="D25" s="222">
         <f t="shared" si="4"/>
-        <v>0.17158078703703702</v>
+        <v>0.12696978240740742</v>
       </c>
       <c r="E25" s="223">
         <f t="shared" si="1"/>
-        <v>0.18349074074074073</v>
+        <v>0.13578314814814815</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -20275,15 +20284,15 @@
       </c>
       <c r="C26" s="222">
         <f t="shared" si="5"/>
-        <v>0.171875</v>
+        <v>0.12718750000000001</v>
       </c>
       <c r="D26" s="222">
         <f t="shared" si="4"/>
-        <v>0.17280601851851851</v>
+        <v>0.12787645370370368</v>
       </c>
       <c r="E26" s="223">
         <f t="shared" si="1"/>
-        <v>0.18429166666666666</v>
+        <v>0.13637583333333334</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -20292,15 +20301,15 @@
       </c>
       <c r="C27" s="222">
         <f t="shared" si="5"/>
-        <v>0.17317708333333334</v>
+        <v>0.12815104166666666</v>
       </c>
       <c r="D27" s="222">
         <f t="shared" si="4"/>
-        <v>0.17403125</v>
+        <v>0.128783125</v>
       </c>
       <c r="E27" s="223">
         <f t="shared" si="1"/>
-        <v>0.18509259259259259</v>
+        <v>0.13696851851851852</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -20309,15 +20318,15 @@
       </c>
       <c r="C28" s="222">
         <f t="shared" si="5"/>
-        <v>0.17447916666666666</v>
+        <v>0.12911458333333334</v>
       </c>
       <c r="D28" s="222">
         <f t="shared" si="4"/>
-        <v>0.17525648148148149</v>
+        <v>0.12968979629629629</v>
       </c>
       <c r="E28" s="223">
         <f t="shared" si="1"/>
-        <v>0.18589351851851851</v>
+        <v>0.1375612037037037</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -20326,15 +20335,15 @@
       </c>
       <c r="C29" s="222">
         <f t="shared" si="5"/>
-        <v>0.17578125</v>
+        <v>0.13007812499999999</v>
       </c>
       <c r="D29" s="222">
         <f t="shared" si="4"/>
-        <v>0.17648171296296297</v>
+        <v>0.13059646759259258</v>
       </c>
       <c r="E29" s="223">
         <f t="shared" si="1"/>
-        <v>0.18669444444444444</v>
+        <v>0.13815388888888888</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -20343,15 +20352,15 @@
       </c>
       <c r="C30" s="222">
         <f t="shared" si="5"/>
-        <v>0.17708333333333334</v>
+        <v>0.13104166666666667</v>
       </c>
       <c r="D30" s="222">
         <f t="shared" si="4"/>
-        <v>0.17770694444444446</v>
+        <v>0.1315031388888889</v>
       </c>
       <c r="E30" s="223">
         <f t="shared" si="1"/>
-        <v>0.18749537037037037</v>
+        <v>0.13874657407407406</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -20360,15 +20369,15 @@
       </c>
       <c r="C31" s="222">
         <f t="shared" si="5"/>
-        <v>0.17838541666666666</v>
+        <v>0.13200520833333335</v>
       </c>
       <c r="D31" s="222">
         <f t="shared" si="4"/>
-        <v>0.17893217592592592</v>
+        <v>0.13240981018518519</v>
       </c>
       <c r="E31" s="223">
         <f>((16686 + 18 * (B31-27))*(2-$H$3/1))/86400</f>
-        <v>0.19312499999999999</v>
+        <v>0.1429125</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -20377,15 +20386,15 @@
       </c>
       <c r="C32" s="222">
         <f t="shared" si="5"/>
-        <v>0.1796875</v>
+        <v>0.13296875</v>
       </c>
       <c r="D32" s="222">
         <f t="shared" si="4"/>
-        <v>0.1801574074074074</v>
+        <v>0.13331648148148148</v>
       </c>
       <c r="E32" s="223">
         <f t="shared" ref="E32:E95" si="6">((16686 + 18 * (B32-27))*(2-$H$3/1))/86400</f>
-        <v>0.19333333333333333</v>
+        <v>0.14306666666666665</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -20394,15 +20403,15 @@
       </c>
       <c r="C33" s="222">
         <f t="shared" si="5"/>
-        <v>0.18098958333333334</v>
+        <v>0.13393229166666668</v>
       </c>
       <c r="D33" s="222">
         <f t="shared" si="4"/>
-        <v>0.18138263888888889</v>
+        <v>0.13422315277777777</v>
       </c>
       <c r="E33" s="223">
         <f t="shared" si="6"/>
-        <v>0.19354166666666667</v>
+        <v>0.14322083333333335</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -20411,15 +20420,15 @@
       </c>
       <c r="C34" s="222">
         <f t="shared" si="5"/>
-        <v>0.18229166666666666</v>
+        <v>0.13489583333333333</v>
       </c>
       <c r="D34" s="222">
         <f t="shared" si="4"/>
-        <v>0.18260787037037038</v>
+        <v>0.13512982407407406</v>
       </c>
       <c r="E34" s="223">
         <f t="shared" si="6"/>
-        <v>0.19375000000000001</v>
+        <v>0.143375</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -20428,15 +20437,15 @@
       </c>
       <c r="C35" s="222">
         <f t="shared" si="5"/>
-        <v>0.18359375</v>
+        <v>0.135859375</v>
       </c>
       <c r="D35" s="222">
         <f t="shared" si="4"/>
-        <v>0.18383310185185187</v>
+        <v>0.13603649537037038</v>
       </c>
       <c r="E35" s="223">
         <f t="shared" si="6"/>
-        <v>0.19395833333333334</v>
+        <v>0.14352916666666668</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -20445,15 +20454,15 @@
       </c>
       <c r="C36" s="222">
         <f t="shared" si="5"/>
-        <v>0.18489583333333334</v>
+        <v>0.13682291666666666</v>
       </c>
       <c r="D36" s="222">
         <f t="shared" si="4"/>
-        <v>0.18505833333333335</v>
+        <v>0.13694316666666667</v>
       </c>
       <c r="E36" s="223">
         <f t="shared" si="6"/>
-        <v>0.19416666666666665</v>
+        <v>0.14368333333333333</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -20462,15 +20471,15 @@
       </c>
       <c r="C37" s="222">
         <f t="shared" si="5"/>
-        <v>0.18619791666666666</v>
+        <v>0.13778645833333333</v>
       </c>
       <c r="D37" s="222">
         <f t="shared" si="4"/>
-        <v>0.18628356481481481</v>
+        <v>0.13784983796296296</v>
       </c>
       <c r="E37" s="223">
         <f t="shared" si="6"/>
-        <v>0.19437499999999999</v>
+        <v>0.14383750000000001</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -20479,15 +20488,15 @@
       </c>
       <c r="C38" s="222">
         <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <v>0.13875000000000001</v>
       </c>
       <c r="D38" s="222">
         <f t="shared" si="4"/>
-        <v>0.1875087962962963</v>
+        <v>0.13875650925925928</v>
       </c>
       <c r="E38" s="223">
         <f t="shared" si="6"/>
-        <v>0.19458333333333333</v>
+        <v>0.14399166666666666</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -20496,15 +20505,15 @@
       </c>
       <c r="C39" s="222">
         <f t="shared" si="5"/>
-        <v>0.18880208333333334</v>
+        <v>0.13971354166666666</v>
       </c>
       <c r="D39" s="222">
         <f t="shared" si="4"/>
-        <v>0.18873402777777776</v>
+        <v>0.13966318055555554</v>
       </c>
       <c r="E39" s="223">
         <f t="shared" si="6"/>
-        <v>0.19479166666666667</v>
+        <v>0.14414583333333333</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -20513,15 +20522,15 @@
       </c>
       <c r="C40" s="222">
         <f t="shared" si="5"/>
-        <v>0.19010416666666666</v>
+        <v>0.14067708333333334</v>
       </c>
       <c r="D40" s="222">
         <f t="shared" si="4"/>
-        <v>0.18995925925925924</v>
+        <v>0.14056985185185183</v>
       </c>
       <c r="E40" s="223">
         <f t="shared" si="6"/>
-        <v>0.19500000000000001</v>
+        <v>0.14430000000000001</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -20530,15 +20539,15 @@
       </c>
       <c r="C41" s="222">
         <f t="shared" si="5"/>
-        <v>0.19140625</v>
+        <v>0.14164062499999999</v>
       </c>
       <c r="D41" s="222">
         <f t="shared" si="4"/>
-        <v>0.19118449074074073</v>
+        <v>0.14147652314814815</v>
       </c>
       <c r="E41" s="223">
         <f t="shared" si="6"/>
-        <v>0.19520833333333334</v>
+        <v>0.14445416666666666</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -20547,15 +20556,15 @@
       </c>
       <c r="C42" s="222">
         <f t="shared" si="5"/>
-        <v>0.19270833333333334</v>
+        <v>0.14260416666666667</v>
       </c>
       <c r="D42" s="222">
         <f t="shared" si="4"/>
-        <v>0.19240972222222222</v>
+        <v>0.14238319444444447</v>
       </c>
       <c r="E42" s="223">
         <f t="shared" si="6"/>
-        <v>0.19541666666666666</v>
+        <v>0.14460833333333334</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -20564,15 +20573,15 @@
       </c>
       <c r="C43" s="222">
         <f t="shared" si="5"/>
-        <v>0.19401041666666666</v>
+        <v>0.14356770833333332</v>
       </c>
       <c r="D43" s="222">
         <f t="shared" si="4"/>
-        <v>0.19363495370370373</v>
+        <v>0.14328986574074076</v>
       </c>
       <c r="E43" s="223">
         <f t="shared" si="6"/>
-        <v>0.19562499999999999</v>
+        <v>0.14476249999999999</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -20581,15 +20590,15 @@
       </c>
       <c r="C44" s="222">
         <f t="shared" si="5"/>
-        <v>0.1953125</v>
+        <v>0.14453125</v>
       </c>
       <c r="D44" s="222">
         <f t="shared" si="4"/>
-        <v>0.19486018518518516</v>
+        <v>0.14419653703703703</v>
       </c>
       <c r="E44" s="223">
         <f t="shared" si="6"/>
-        <v>0.19583333333333333</v>
+        <v>0.14491666666666667</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -20598,15 +20607,15 @@
       </c>
       <c r="C45" s="222">
         <f t="shared" si="5"/>
-        <v>0.19661458333333334</v>
+        <v>0.14549479166666668</v>
       </c>
       <c r="D45" s="222">
         <f t="shared" si="4"/>
-        <v>0.19608541666666665</v>
+        <v>0.14510320833333334</v>
       </c>
       <c r="E45" s="223">
         <f t="shared" si="6"/>
-        <v>0.19604166666666667</v>
+        <v>0.14507083333333332</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -20615,15 +20624,15 @@
       </c>
       <c r="C46" s="222">
         <f t="shared" si="5"/>
-        <v>0.19791666666666666</v>
+        <v>0.14645833333333333</v>
       </c>
       <c r="D46" s="222">
         <f t="shared" si="4"/>
-        <v>0.19731064814814814</v>
+        <v>0.14600987962962964</v>
       </c>
       <c r="E46" s="223">
         <f t="shared" si="6"/>
-        <v>0.19625000000000001</v>
+        <v>0.14522499999999999</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -20632,15 +20641,15 @@
       </c>
       <c r="C47" s="222">
         <f t="shared" si="5"/>
-        <v>0.19921875</v>
+        <v>0.14742187500000001</v>
       </c>
       <c r="D47" s="222">
         <f t="shared" si="4"/>
-        <v>0.19853587962962962</v>
+        <v>0.14691655092592593</v>
       </c>
       <c r="E47" s="223">
         <f t="shared" si="6"/>
-        <v>0.19645833333333335</v>
+        <v>0.14537916666666667</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -20649,15 +20658,15 @@
       </c>
       <c r="C48" s="222">
         <f t="shared" si="5"/>
-        <v>0.20052083333333334</v>
+        <v>0.14838541666666666</v>
       </c>
       <c r="D48" s="222">
         <f t="shared" si="4"/>
-        <v>0.19976111111111111</v>
+        <v>0.14782322222222222</v>
       </c>
       <c r="E48" s="223">
         <f t="shared" si="6"/>
-        <v>0.19666666666666666</v>
+        <v>0.14553333333333332</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -20666,15 +20675,15 @@
       </c>
       <c r="C49" s="222">
         <f t="shared" si="5"/>
-        <v>0.20182291666666666</v>
+        <v>0.14934895833333334</v>
       </c>
       <c r="D49" s="222">
         <f t="shared" si="4"/>
-        <v>0.2009863425925926</v>
+        <v>0.14872989351851854</v>
       </c>
       <c r="E49" s="223">
         <f t="shared" si="6"/>
-        <v>0.19687499999999999</v>
+        <v>0.1456875</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -20683,15 +20692,15 @@
       </c>
       <c r="C50" s="222">
         <f t="shared" si="5"/>
-        <v>0.203125</v>
+        <v>0.15031249999999999</v>
       </c>
       <c r="D50" s="222">
         <f t="shared" si="4"/>
-        <v>0.20221157407407409</v>
+        <v>0.14963656481481483</v>
       </c>
       <c r="E50" s="223">
         <f t="shared" si="6"/>
-        <v>0.19708333333333333</v>
+        <v>0.14584166666666665</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -20700,15 +20709,15 @@
       </c>
       <c r="C51" s="222">
         <f t="shared" si="5"/>
-        <v>0.20442708333333334</v>
+        <v>0.15127604166666667</v>
       </c>
       <c r="D51" s="222">
         <f t="shared" si="4"/>
-        <v>0.20343680555555554</v>
+        <v>0.15054323611111109</v>
       </c>
       <c r="E51" s="223">
         <f t="shared" si="6"/>
-        <v>0.19729166666666667</v>
+        <v>0.14599583333333332</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -20717,15 +20726,15 @@
       </c>
       <c r="C52" s="222">
         <f t="shared" si="5"/>
-        <v>0.20572916666666666</v>
+        <v>0.15223958333333334</v>
       </c>
       <c r="D52" s="222">
         <f t="shared" si="4"/>
-        <v>0.20466203703703703</v>
+        <v>0.15144990740740741</v>
       </c>
       <c r="E52" s="223">
         <f t="shared" si="6"/>
-        <v>0.19750000000000001</v>
+        <v>0.14615</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -20734,15 +20743,15 @@
       </c>
       <c r="C53" s="222">
         <f t="shared" si="5"/>
-        <v>0.20703125</v>
+        <v>0.153203125</v>
       </c>
       <c r="D53" s="222">
         <f t="shared" si="4"/>
-        <v>0.20588726851851852</v>
+        <v>0.1523565787037037</v>
       </c>
       <c r="E53" s="223">
         <f t="shared" si="6"/>
-        <v>0.19770833333333335</v>
+        <v>0.14630416666666668</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -20751,15 +20760,15 @@
       </c>
       <c r="C54" s="222">
         <f t="shared" si="5"/>
-        <v>0.20833333333333334</v>
+        <v>0.15416666666666667</v>
       </c>
       <c r="D54" s="222">
         <f t="shared" si="4"/>
-        <v>0.2071125</v>
+        <v>0.15326324999999999</v>
       </c>
       <c r="E54" s="223">
         <f t="shared" si="6"/>
-        <v>0.19791666666666666</v>
+        <v>0.14645833333333333</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -20768,15 +20777,15 @@
       </c>
       <c r="C55" s="222">
         <f t="shared" si="5"/>
-        <v>0.20963541666666666</v>
+        <v>0.15513020833333332</v>
       </c>
       <c r="D55" s="222">
         <f t="shared" si="4"/>
-        <v>0.20833773148148149</v>
+        <v>0.15416992129629631</v>
       </c>
       <c r="E55" s="223">
         <f t="shared" si="6"/>
-        <v>0.198125</v>
+        <v>0.14661250000000001</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -20785,15 +20794,15 @@
       </c>
       <c r="C56" s="222">
         <f t="shared" si="5"/>
-        <v>0.2109375</v>
+        <v>0.15609375</v>
       </c>
       <c r="D56" s="222">
         <f t="shared" si="4"/>
-        <v>0.20956296296296298</v>
+        <v>0.1550765925925926</v>
       </c>
       <c r="E56" s="223">
         <f t="shared" si="6"/>
-        <v>0.19833333333333333</v>
+        <v>0.14676666666666666</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -20802,15 +20811,15 @@
       </c>
       <c r="C57" s="222">
         <f t="shared" si="5"/>
-        <v>0.21223958333333334</v>
+        <v>0.15705729166666665</v>
       </c>
       <c r="D57" s="222">
         <f t="shared" si="4"/>
-        <v>0.21078819444444444</v>
+        <v>0.15598326388888886</v>
       </c>
       <c r="E57" s="223">
         <f t="shared" si="6"/>
-        <v>0.19854166666666667</v>
+        <v>0.14692083333333333</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -20819,15 +20828,15 @@
       </c>
       <c r="C58" s="222">
         <f t="shared" si="5"/>
-        <v>0.21354166666666666</v>
+        <v>0.15802083333333333</v>
       </c>
       <c r="D58" s="222">
         <f t="shared" si="4"/>
-        <v>0.21201342592592592</v>
+        <v>0.15688993518518518</v>
       </c>
       <c r="E58" s="223">
         <f t="shared" si="6"/>
-        <v>0.19875000000000001</v>
+        <v>0.14707500000000001</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -20836,15 +20845,15 @@
       </c>
       <c r="C59" s="222">
         <f t="shared" si="5"/>
-        <v>0.21484375</v>
+        <v>0.15898437500000001</v>
       </c>
       <c r="D59" s="222">
         <f t="shared" si="4"/>
-        <v>0.21323865740740741</v>
+        <v>0.15779660648148147</v>
       </c>
       <c r="E59" s="223">
         <f t="shared" si="6"/>
-        <v>0.19895833333333332</v>
+        <v>0.14722916666666666</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -20853,15 +20862,15 @@
       </c>
       <c r="C60" s="222">
         <f t="shared" si="5"/>
-        <v>0.21614583333333334</v>
+        <v>0.15994791666666666</v>
       </c>
       <c r="D60" s="222">
         <f t="shared" si="4"/>
-        <v>0.2144638888888889</v>
+        <v>0.15870327777777779</v>
       </c>
       <c r="E60" s="223">
         <f t="shared" si="6"/>
-        <v>0.19916666666666666</v>
+        <v>0.14738333333333334</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -20870,15 +20879,15 @@
       </c>
       <c r="C61" s="222">
         <f t="shared" si="5"/>
-        <v>0.21744791666666666</v>
+        <v>0.16091145833333334</v>
       </c>
       <c r="D61" s="222">
         <f t="shared" si="4"/>
-        <v>0.21568912037037039</v>
+        <v>0.15960994907407408</v>
       </c>
       <c r="E61" s="223">
         <f t="shared" si="6"/>
-        <v>0.199375</v>
+        <v>0.14753749999999999</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -20887,15 +20896,15 @@
       </c>
       <c r="C62" s="222">
         <f t="shared" si="5"/>
-        <v>0.21875</v>
+        <v>0.16187499999999999</v>
       </c>
       <c r="D62" s="222">
         <f t="shared" si="4"/>
-        <v>0.21691435185185187</v>
+        <v>0.16051662037037037</v>
       </c>
       <c r="E62" s="223">
         <f t="shared" si="6"/>
-        <v>0.19958333333333333</v>
+        <v>0.14769166666666667</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -20904,15 +20913,15 @@
       </c>
       <c r="C63" s="222">
         <f t="shared" si="5"/>
-        <v>0.22005208333333334</v>
+        <v>0.16283854166666667</v>
       </c>
       <c r="D63" s="222">
         <f t="shared" si="4"/>
-        <v>0.2181395833333333</v>
+        <v>0.16142329166666666</v>
       </c>
       <c r="E63" s="223">
         <f t="shared" si="6"/>
-        <v>0.19979166666666667</v>
+        <v>0.14784583333333332</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -20921,15 +20930,15 @@
       </c>
       <c r="C64" s="222">
         <f t="shared" si="5"/>
-        <v>0.22135416666666666</v>
+        <v>0.16380208333333332</v>
       </c>
       <c r="D64" s="222">
         <f t="shared" si="4"/>
-        <v>0.21936481481481479</v>
+        <v>0.16232996296296295</v>
       </c>
       <c r="E64" s="223">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.14800000000000002</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -20938,15 +20947,15 @@
       </c>
       <c r="C65" s="222">
         <f t="shared" si="5"/>
-        <v>0.22265625</v>
+        <v>0.164765625</v>
       </c>
       <c r="D65" s="222">
         <f t="shared" si="4"/>
-        <v>0.2205900462962963</v>
+        <v>0.16323663425925924</v>
       </c>
       <c r="E65" s="223">
         <f t="shared" si="6"/>
-        <v>0.20020833333333332</v>
+        <v>0.14815416666666667</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -20955,15 +20964,15 @@
       </c>
       <c r="C66" s="222">
         <f t="shared" si="5"/>
-        <v>0.22395833333333334</v>
+        <v>0.16572916666666668</v>
       </c>
       <c r="D66" s="222">
         <f t="shared" si="4"/>
-        <v>0.22181527777777779</v>
+        <v>0.16414330555555554</v>
       </c>
       <c r="E66" s="223">
         <f t="shared" si="6"/>
-        <v>0.20041666666666666</v>
+        <v>0.14830833333333335</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -20972,15 +20981,15 @@
       </c>
       <c r="C67" s="222">
         <f t="shared" si="5"/>
-        <v>0.22526041666666666</v>
+        <v>0.16669270833333333</v>
       </c>
       <c r="D67" s="222">
         <f t="shared" si="4"/>
-        <v>0.22304050925925928</v>
+        <v>0.16504997685185185</v>
       </c>
       <c r="E67" s="223">
         <f t="shared" si="6"/>
-        <v>0.200625</v>
+        <v>0.1484625</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -20989,15 +20998,15 @@
       </c>
       <c r="C68" s="222">
         <f t="shared" si="5"/>
-        <v>0.2265625</v>
+        <v>0.16765625000000001</v>
       </c>
       <c r="D68" s="222">
         <f t="shared" si="4"/>
-        <v>0.22426574074074077</v>
+        <v>0.16595664814814817</v>
       </c>
       <c r="E68" s="223">
         <f t="shared" si="6"/>
-        <v>0.20083333333333334</v>
+        <v>0.14861666666666667</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
@@ -21006,15 +21015,15 @@
       </c>
       <c r="C69" s="222">
         <f t="shared" si="5"/>
-        <v>0.22786458333333334</v>
+        <v>0.16861979166666666</v>
       </c>
       <c r="D69" s="222">
         <f t="shared" si="4"/>
-        <v>0.2254909722222222</v>
+        <v>0.16686331944444441</v>
       </c>
       <c r="E69" s="223">
         <f t="shared" si="6"/>
-        <v>0.20104166666666667</v>
+        <v>0.14877083333333332</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
@@ -21023,15 +21032,15 @@
       </c>
       <c r="C70" s="222">
         <f t="shared" si="5"/>
-        <v>0.22916666666666666</v>
+        <v>0.16958333333333334</v>
       </c>
       <c r="D70" s="222">
         <f t="shared" si="4"/>
-        <v>0.22671620370370368</v>
+        <v>0.16776999074074073</v>
       </c>
       <c r="E70" s="223">
         <f t="shared" si="6"/>
-        <v>0.20125000000000001</v>
+        <v>0.148925</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
@@ -21040,15 +21049,15 @@
       </c>
       <c r="C71" s="222">
         <f t="shared" si="5"/>
-        <v>0.23046875</v>
+        <v>0.17054687499999999</v>
       </c>
       <c r="D71" s="222">
         <f t="shared" si="4"/>
-        <v>0.22794143518518517</v>
+        <v>0.16867666203703705</v>
       </c>
       <c r="E71" s="223">
         <f t="shared" si="6"/>
-        <v>0.20145833333333332</v>
+        <v>0.14907916666666668</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
@@ -21057,15 +21066,15 @@
       </c>
       <c r="C72" s="222">
         <f t="shared" si="5"/>
-        <v>0.23177083333333334</v>
+        <v>0.17151041666666667</v>
       </c>
       <c r="D72" s="222">
         <f t="shared" si="4"/>
-        <v>0.22916666666666666</v>
+        <v>0.16958333333333334</v>
       </c>
       <c r="E72" s="223">
         <f t="shared" si="6"/>
-        <v>0.20166666666666666</v>
+        <v>0.14923333333333333</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
@@ -21074,15 +21083,15 @@
       </c>
       <c r="C73" s="222">
         <f t="shared" si="5"/>
-        <v>0.23307291666666666</v>
+        <v>0.17247395833333334</v>
       </c>
       <c r="D73" s="222">
         <f t="shared" si="4"/>
-        <v>0.23039189814814814</v>
+        <v>0.17049000462962963</v>
       </c>
       <c r="E73" s="223">
         <f t="shared" si="6"/>
-        <v>0.201875</v>
+        <v>0.14938750000000001</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -21091,15 +21100,15 @@
       </c>
       <c r="C74" s="222">
         <f t="shared" si="5"/>
-        <v>0.234375</v>
+        <v>0.17343749999999999</v>
       </c>
       <c r="D74" s="222">
         <f t="shared" si="4"/>
-        <v>0.23161712962962963</v>
+        <v>0.17139667592592592</v>
       </c>
       <c r="E74" s="223">
         <f t="shared" si="6"/>
-        <v>0.20208333333333334</v>
+        <v>0.14954166666666666</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -21108,15 +21117,15 @@
       </c>
       <c r="C75" s="222">
         <f t="shared" si="5"/>
-        <v>0.23567708333333334</v>
+        <v>0.17440104166666667</v>
       </c>
       <c r="D75" s="222">
         <f t="shared" si="4"/>
-        <v>0.23284236111111112</v>
+        <v>0.17230334722222224</v>
       </c>
       <c r="E75" s="223">
         <f t="shared" si="6"/>
-        <v>0.20229166666666668</v>
+        <v>0.14969583333333333</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
@@ -21125,15 +21134,15 @@
       </c>
       <c r="C76" s="222">
         <f t="shared" si="5"/>
-        <v>0.23697916666666666</v>
+        <v>0.17536458333333332</v>
       </c>
       <c r="D76" s="222">
         <f t="shared" si="4"/>
-        <v>0.23406759259259258</v>
+        <v>0.1732100185185185</v>
       </c>
       <c r="E76" s="223">
         <f t="shared" si="6"/>
-        <v>0.20250000000000001</v>
+        <v>0.14984999999999998</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
@@ -21142,15 +21151,15 @@
       </c>
       <c r="C77" s="222">
         <f t="shared" si="5"/>
-        <v>0.23828125</v>
+        <v>0.176328125</v>
       </c>
       <c r="D77" s="222">
         <f t="shared" si="4"/>
-        <v>0.23529282407407406</v>
+        <v>0.17411668981481479</v>
       </c>
       <c r="E77" s="223">
         <f t="shared" si="6"/>
-        <v>0.20270833333333332</v>
+        <v>0.15000416666666666</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
@@ -21159,15 +21168,15 @@
       </c>
       <c r="C78" s="222">
         <f t="shared" si="5"/>
-        <v>0.23958333333333334</v>
+        <v>0.17729166666666665</v>
       </c>
       <c r="D78" s="222">
         <f t="shared" si="4"/>
-        <v>0.23651805555555555</v>
+        <v>0.17502336111111111</v>
       </c>
       <c r="E78" s="223">
         <f t="shared" si="6"/>
-        <v>0.20291666666666666</v>
+        <v>0.15015833333333334</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
@@ -21176,15 +21185,15 @@
       </c>
       <c r="C79" s="222">
         <f t="shared" si="5"/>
-        <v>0.24088541666666666</v>
+        <v>0.17825520833333333</v>
       </c>
       <c r="D79" s="222">
         <f t="shared" si="4"/>
-        <v>0.23774328703703704</v>
+        <v>0.17593003240740743</v>
       </c>
       <c r="E79" s="223">
         <f t="shared" si="6"/>
-        <v>0.203125</v>
+        <v>0.15031249999999999</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
@@ -21193,15 +21202,15 @@
       </c>
       <c r="C80" s="222">
         <f t="shared" si="5"/>
-        <v>0.2421875</v>
+        <v>0.17921875000000001</v>
       </c>
       <c r="D80" s="222">
         <f t="shared" si="4"/>
-        <v>0.23896851851851852</v>
+        <v>0.17683670370370372</v>
       </c>
       <c r="E80" s="223">
         <f t="shared" si="6"/>
-        <v>0.20333333333333334</v>
+        <v>0.15046666666666667</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -21210,15 +21219,15 @@
       </c>
       <c r="C81" s="222">
         <f t="shared" si="5"/>
-        <v>0.24348958333333334</v>
+        <v>0.18018229166666666</v>
       </c>
       <c r="D81" s="222">
         <f t="shared" si="4"/>
-        <v>0.24019375000000001</v>
+        <v>0.17774337500000001</v>
       </c>
       <c r="E81" s="223">
         <f t="shared" si="6"/>
-        <v>0.20354166666666668</v>
+        <v>0.15062083333333331</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -21227,15 +21236,15 @@
       </c>
       <c r="C82" s="222">
         <f t="shared" si="5"/>
-        <v>0.24479166666666666</v>
+        <v>0.18114583333333334</v>
       </c>
       <c r="D82" s="222">
         <f t="shared" si="4"/>
-        <v>0.24141898148148147</v>
+        <v>0.1786500462962963</v>
       </c>
       <c r="E82" s="223">
         <f t="shared" si="6"/>
-        <v>0.20374999999999999</v>
+        <v>0.15077499999999999</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
@@ -21244,15 +21253,15 @@
       </c>
       <c r="C83" s="222">
         <f t="shared" si="5"/>
-        <v>0.24609375</v>
+        <v>0.18210937499999999</v>
       </c>
       <c r="D83" s="222">
         <f t="shared" si="4"/>
-        <v>0.24264421296296296</v>
+        <v>0.17955671759259259</v>
       </c>
       <c r="E83" s="223">
         <f t="shared" si="6"/>
-        <v>0.20395833333333332</v>
+        <v>0.15092916666666667</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
@@ -21261,15 +21270,15 @@
       </c>
       <c r="C84" s="222">
         <f t="shared" si="5"/>
-        <v>0.24739583333333334</v>
+        <v>0.18307291666666667</v>
       </c>
       <c r="D84" s="222">
         <f t="shared" si="4"/>
-        <v>0.24386944444444444</v>
+        <v>0.18046338888888888</v>
       </c>
       <c r="E84" s="223">
         <f t="shared" si="6"/>
-        <v>0.20416666666666666</v>
+        <v>0.15108333333333335</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -21278,15 +21287,15 @@
       </c>
       <c r="C85" s="222">
         <f t="shared" si="5"/>
-        <v>0.24869791666666666</v>
+        <v>0.18403645833333335</v>
       </c>
       <c r="D85" s="222">
         <f t="shared" si="4"/>
-        <v>0.24509467592592593</v>
+        <v>0.18137006018518517</v>
       </c>
       <c r="E85" s="223">
         <f t="shared" si="6"/>
-        <v>0.204375</v>
+        <v>0.1512375</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -21295,15 +21304,15 @@
       </c>
       <c r="C86" s="222">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.185</v>
       </c>
       <c r="D86" s="222">
         <f t="shared" si="4"/>
-        <v>0.24631990740740742</v>
+        <v>0.18227673148148149</v>
       </c>
       <c r="E86" s="223">
         <f t="shared" si="6"/>
-        <v>0.20458333333333334</v>
+        <v>0.15139166666666667</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
@@ -21312,15 +21321,15 @@
       </c>
       <c r="C87" s="222">
         <f t="shared" si="5"/>
-        <v>0.25130208333333331</v>
+        <v>0.18596354166666668</v>
       </c>
       <c r="D87" s="222">
         <f t="shared" ref="D87:D104" si="7">((19800 + 105.86 * (B87-68))*(2-$H$3/1))/86400</f>
-        <v>0.2475451388888889</v>
+        <v>0.18318340277777778</v>
       </c>
       <c r="E87" s="223">
         <f t="shared" si="6"/>
-        <v>0.20479166666666668</v>
+        <v>0.15154583333333332</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -21329,15 +21338,15 @@
       </c>
       <c r="C88" s="222">
         <f t="shared" ref="C88:C104" si="8">((20250 + 112.5 * (B88-70))*(2-$H$3/1))/86400</f>
-        <v>0.25260416666666669</v>
+        <v>0.18692708333333333</v>
       </c>
       <c r="D88" s="222">
         <f t="shared" si="7"/>
-        <v>0.24877037037037036</v>
+        <v>0.18409007407407404</v>
       </c>
       <c r="E88" s="223">
         <f t="shared" si="6"/>
-        <v>0.20499999999999999</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -21346,15 +21355,15 @@
       </c>
       <c r="C89" s="222">
         <f t="shared" si="8"/>
-        <v>0.25390625</v>
+        <v>0.18789062500000001</v>
       </c>
       <c r="D89" s="222">
         <f t="shared" si="7"/>
-        <v>0.24999560185185185</v>
+        <v>0.18499674537037036</v>
       </c>
       <c r="E89" s="223">
         <f t="shared" si="6"/>
-        <v>0.20520833333333333</v>
+        <v>0.15185416666666668</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -21363,15 +21372,15 @@
       </c>
       <c r="C90" s="222">
         <f t="shared" si="8"/>
-        <v>0.25520833333333331</v>
+        <v>0.18885416666666666</v>
       </c>
       <c r="D90" s="222">
         <f t="shared" si="7"/>
-        <v>0.25122083333333334</v>
+        <v>0.18590341666666665</v>
       </c>
       <c r="E90" s="223">
         <f t="shared" si="6"/>
-        <v>0.20541666666666666</v>
+        <v>0.15200833333333333</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -21380,15 +21389,15 @@
       </c>
       <c r="C91" s="222">
         <f t="shared" si="8"/>
-        <v>0.25651041666666669</v>
+        <v>0.18981770833333333</v>
       </c>
       <c r="D91" s="222">
         <f t="shared" si="7"/>
-        <v>0.2524460648148148</v>
+        <v>0.18681008796296295</v>
       </c>
       <c r="E91" s="223">
         <f t="shared" si="6"/>
-        <v>0.205625</v>
+        <v>0.15216250000000001</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
@@ -21397,15 +21406,15 @@
       </c>
       <c r="C92" s="222">
         <f t="shared" si="8"/>
-        <v>0.2578125</v>
+        <v>0.19078125000000001</v>
       </c>
       <c r="D92" s="222">
         <f t="shared" si="7"/>
-        <v>0.25367129629629631</v>
+        <v>0.18771675925925926</v>
       </c>
       <c r="E92" s="223">
         <f t="shared" si="6"/>
-        <v>0.20583333333333334</v>
+        <v>0.15231666666666666</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -21414,15 +21423,15 @@
       </c>
       <c r="C93" s="222">
         <f t="shared" si="8"/>
-        <v>0.25911458333333331</v>
+        <v>0.19174479166666666</v>
       </c>
       <c r="D93" s="222">
         <f t="shared" si="7"/>
-        <v>0.25489652777777777</v>
+        <v>0.18862343055555555</v>
       </c>
       <c r="E93" s="223">
         <f t="shared" si="6"/>
-        <v>0.20604166666666668</v>
+        <v>0.15247083333333333</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -21431,15 +21440,15 @@
       </c>
       <c r="C94" s="222">
         <f t="shared" si="8"/>
-        <v>0.26041666666666669</v>
+        <v>0.19270833333333334</v>
       </c>
       <c r="D94" s="222">
         <f t="shared" si="7"/>
-        <v>0.25612175925925923</v>
+        <v>0.18953010185185182</v>
       </c>
       <c r="E94" s="223">
         <f t="shared" si="6"/>
-        <v>0.20624999999999999</v>
+        <v>0.15262499999999998</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -21448,15 +21457,15 @@
       </c>
       <c r="C95" s="222">
         <f t="shared" si="8"/>
-        <v>0.26171875</v>
+        <v>0.19367187499999999</v>
       </c>
       <c r="D95" s="222">
         <f t="shared" si="7"/>
-        <v>0.25734699074074074</v>
+        <v>0.19043677314814814</v>
       </c>
       <c r="E95" s="223">
         <f t="shared" si="6"/>
-        <v>0.20645833333333333</v>
+        <v>0.15277916666666666</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -21465,15 +21474,15 @@
       </c>
       <c r="C96" s="222">
         <f t="shared" si="8"/>
-        <v>0.26302083333333331</v>
+        <v>0.19463541666666667</v>
       </c>
       <c r="D96" s="222">
         <f t="shared" si="7"/>
-        <v>0.2585722222222222</v>
+        <v>0.19134344444444445</v>
       </c>
       <c r="E96" s="223">
         <f t="shared" ref="E96:E104" si="9">((16686 + 18 * (B96-27))*(2-$H$3/1))/86400</f>
-        <v>0.20666666666666667</v>
+        <v>0.15293333333333334</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -21482,15 +21491,15 @@
       </c>
       <c r="C97" s="222">
         <f t="shared" si="8"/>
-        <v>0.26432291666666669</v>
+        <v>0.19559895833333332</v>
       </c>
       <c r="D97" s="222">
         <f t="shared" si="7"/>
-        <v>0.25979745370370372</v>
+        <v>0.19225011574074075</v>
       </c>
       <c r="E97" s="223">
         <f t="shared" si="9"/>
-        <v>0.206875</v>
+        <v>0.15308750000000002</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -21499,15 +21508,15 @@
       </c>
       <c r="C98" s="222">
         <f t="shared" si="8"/>
-        <v>0.265625</v>
+        <v>0.1965625</v>
       </c>
       <c r="D98" s="222">
         <f t="shared" si="7"/>
-        <v>0.26102268518518518</v>
+        <v>0.19315678703703704</v>
       </c>
       <c r="E98" s="223">
         <f t="shared" si="9"/>
-        <v>0.20708333333333334</v>
+        <v>0.15324166666666666</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
@@ -21516,15 +21525,15 @@
       </c>
       <c r="C99" s="222">
         <f t="shared" si="8"/>
-        <v>0.26692708333333331</v>
+        <v>0.19752604166666668</v>
       </c>
       <c r="D99" s="222">
         <f t="shared" si="7"/>
-        <v>0.26224791666666669</v>
+        <v>0.19406345833333333</v>
       </c>
       <c r="E99" s="223">
         <f t="shared" si="9"/>
-        <v>0.20729166666666668</v>
+        <v>0.15339583333333334</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -21533,15 +21542,15 @@
       </c>
       <c r="C100" s="222">
         <f t="shared" si="8"/>
-        <v>0.26822916666666669</v>
+        <v>0.19848958333333333</v>
       </c>
       <c r="D100" s="222">
         <f t="shared" si="7"/>
-        <v>0.26347314814814815</v>
+        <v>0.19497012962962965</v>
       </c>
       <c r="E100" s="223">
         <f t="shared" si="9"/>
-        <v>0.20749999999999999</v>
+        <v>0.15354999999999999</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
@@ -21550,15 +21559,15 @@
       </c>
       <c r="C101" s="222">
         <f t="shared" si="8"/>
-        <v>0.26953125</v>
+        <v>0.19945312500000001</v>
       </c>
       <c r="D101" s="222">
         <f t="shared" si="7"/>
-        <v>0.26469837962962961</v>
+        <v>0.19587680092592594</v>
       </c>
       <c r="E101" s="223">
         <f t="shared" si="9"/>
-        <v>0.20770833333333333</v>
+        <v>0.15370416666666667</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -21567,15 +21576,15 @@
       </c>
       <c r="C102" s="222">
         <f t="shared" si="8"/>
-        <v>0.27083333333333331</v>
+        <v>0.20041666666666666</v>
       </c>
       <c r="D102" s="222">
         <f t="shared" si="7"/>
-        <v>0.26592361111111112</v>
+        <v>0.19678347222222223</v>
       </c>
       <c r="E102" s="223">
         <f t="shared" si="9"/>
-        <v>0.20791666666666667</v>
+        <v>0.15385833333333335</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -21584,15 +21593,15 @@
       </c>
       <c r="C103" s="222">
         <f t="shared" si="8"/>
-        <v>0.27213541666666669</v>
+        <v>0.20138020833333334</v>
       </c>
       <c r="D103" s="222">
         <f t="shared" si="7"/>
-        <v>0.26714884259259258</v>
+        <v>0.19769014351851852</v>
       </c>
       <c r="E103" s="223">
         <f t="shared" si="9"/>
-        <v>0.208125</v>
+        <v>0.1540125</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21601,30 +21610,30 @@
       </c>
       <c r="C104" s="224">
         <f t="shared" si="8"/>
-        <v>0.2734375</v>
+        <v>0.20234374999999999</v>
       </c>
       <c r="D104" s="224">
         <f t="shared" si="7"/>
-        <v>0.2683740740740741</v>
+        <v>0.19859681481481484</v>
       </c>
       <c r="E104" s="225">
         <f t="shared" si="9"/>
-        <v>0.20833333333333334</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <conditionalFormatting sqref="H19:J21">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
